--- a/data/turnup/turnup_input4.xlsx
+++ b/data/turnup/turnup_input4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="477">
   <si>
     <t>Enzyme</t>
   </si>
@@ -36,6 +36,42 @@
     <t>Products</t>
   </si>
   <si>
+    <t>MTIGIDKINFYVPKYYVDMAKLAEARQVDPNKFLIGIGQTEMAVSPVNQDIVSMGANAAKDIITDEDKKKIGMVIVATESAVDAAKAAAVQIHNLLGIQPFARCFEMKEACYAATPAIQLAKDYLATRPNEKVLVIATDTARYGLNSGGEPTQGAGAVAMVIAHNPSILALNEDAVAYTEDVYDFWRPTGHKYPLVDGALSKDAYIRSFQQSWNEYAKRQGKSLADFASLCFHVPFTKMGKKALESIIDNADETTQERLRSGYEDAVDYNRYVGNIYTGSLYLSLISLLENRDLQAGETIGLFSYGSGSVGEFYSATLVEGYKDHLDQAAHKALLNNRTEVSVDAYETFFKRFDDVDFDEEQDAVHEDRHIFYLSNIENNVREYHRPE</t>
+  </si>
+  <si>
+    <t>InChI=1S/C27H44N7O20P3S/c1-26(2,21(40)24(41)30-5-4-15(35)29-6-7-58-17(38)9-27(3,42)8-16(36)37)11-51-57(48,49)54-56(46,47)50-10-14-20(53-55(43,44)45)19(39)25(52-14)34-13-33-18-22(28)31-12-32-23(18)34/h12-14,19-21,25,39-40,42H,4-11H2,1-3H3,(H,29,35)(H,30,41)(H,36,37)(H,46,47)(H,48,49)(H2,28,31,32)(H2,43,44,45)/p-5/t14-,19-,20-,21+,25-,27+/m1/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C25H40N7O18P3S/c1-13(33)8-16(35)54-7-6-27-15(34)4-5-28-23(38)20(37)25(2,3)10-47-53(44,45)50-52(42,43)46-9-14-19(49-51(39,40)41)18(36)24(48-14)32-12-31-17-21(26)29-11-30-22(17)32/h11-12,14,18-20,24,36-37H,4-10H2,1-3H3,(H,27,34)(H,28,38)(H,42,43)(H,44,45)(H2,26,29,30)(H2,39,40,41)/p-4/t14-,18-,19-,20+,24-/m1/s1;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
+  </si>
+  <si>
+    <t>MKTVSQLIDMKQKQTKISMVTAYDFPSAKQVEAAGIDMILVGDSLGMTVLGYESTVQVTLADMIHHGRAVRRGAPNTFVVVDMPIGAVGISMTQDLNHALKLYQETNANAIKAEGAHITPFIEKATAIGIPVVAHLGLTPQSVGVMGYKLQGATKEAAEQLILDAKNVEQAGAVALVLEAIPNDLAEEISKHLTIPVIGIGAGKGTDGQVLVYHDMLNYGVEHKAKFVKQFADFSVGVDGLKQYDQEVKSGAFPSEEYTYKKKIMNEVNNND</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C5H8O3/c1-3(2)4(6)5(7)8/h3H,1-2H3,(H,7,8)/p-1;InChI=1S/C20H23N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,12-13H,5-9H2,(H,23,30)(H,28,29)(H,32,33)(H4,21,22,24,25,31)/p-2/t12-,13+/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H10O4/c1-6(2,3-7)4(8)5(9)10/h7H,3H2,1-2H3,(H,9,10)/p-1;InChI=1S/C19H23N7O6/c20-19-25-15-14(17(30)26-19)23-11(8-22-15)7-21-10-3-1-9(2-4-10)16(29)24-12(18(31)32)5-6-13(27)28/h1-4,11-12,21,23H,5-8H2,(H,24,29)(H,27,28)(H,31,32)(H4,20,22,25,26,30)/p-2/t11-,12-/m0/s1;</t>
+  </si>
+  <si>
+    <t>MNIPNQITVFRVVLIPVFILFALVDFGFGNVSFLGGYEIRIELLISGFIFILASLSDFVDGYLARKWNLVTNMGKFLDPLADKLLVASALIVLVQLGLTNSVVAIIIIAREFAVTGLRLLQIEQGFVSAAGQLGKIKTAVTMVAITWLLLGDPLATLIGLSLGQILLYIGVIFTILSGIEYFYKGRDVFKQK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C16H28O/c1-2-3-4-5-6-7-8-9-10-11-12-13-14-15-16-17/h4-5,14-16H,2-3,6-13H2,1H3/b5-4-,15-14+;InChI=1S/C3H9O6P/c4-1-3(5)2-9-10(6,7)8/h3-5H,1-2H2,(H2,6,7,8)/p-2/t3-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/p+1;InChI=1S/C9H14N3O8P/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H2,10,11,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1;InChI=1S/C24H47O9P/c1-2-3-4-5-6-7-8-9-10-11-12-13-14-15-16-17-24(28)31-19-23(27)21-33-34(29,30)32-20-22(26)18-25/h9-10,22-23,25-27H,2-8,11-21H2,1H3,(H,29,30)/p-1/b10-9-/t22-,23+/m1/s1;</t>
+  </si>
+  <si>
+    <t>MKLQTTYPSNNYPIYVEHGAIKYIGTYLNQFDQSFLLIDEYVNQYFANKFDDILSYKNVHKVIIPAGEKTKTFEQYQETLEYILSHHVTRNTAIIAVGGGATGDFAGFVAATLLRGVHFIQVPTTILAHDSSVGGKVGINSKQGKNLIGAFYRPTAVIYDLDFLKTLPFEQILSGYAEVYKHALLNGESATQDIEQHFKDREILQSLNGMDKYIAKGIETKLDIVVADEKEQGVRKFLNLGHTFGHAVEYYYKIPHGHAVMVGIIYQFIVANTLFDSKHDINHYIQYLIQLGYPLDMITDLDFETLYQYMLSDKKNDKQGVQMVLIRQFGDIVVQHVDQLTLQHACEQLKTYFK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C7H13O10P/c8-3(1-4(9)7(12)13)6(11)5(10)2-17-18(14,15)16/h3,5-6,8,10-11H,1-2H2,(H,12,13)(H2,14,15,16)/p-3/t3-,5-,6+/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C7H10O6/c8-3-1-7(13,6(11)12)2-4(9)5(3)10/h3,5,8,10,13H,1-2H2,(H,11,12)/p-1/t3-,5+,7-/m1/s1;</t>
+  </si>
+  <si>
     <t>MTKTLPEDFIFGGATAAYQAEGATNTDGKGRVAWDTYLEENYWYTAEPASDFYNRYPVDLELSEKFGVNGIRISIAWSRIFPNGYGEVNPKGVEYYHKLFAECHKRHVEPFVTLHHFDTPEVLHKDGDFLNRKTIDYFVDYAEYCFKEFPEVKYWTTFNEIGPIGDGQYLVGKFPPGIKYDFEKVFQSHHNMMVAHARAVKLFKDGGYQGEIGVVHALPTKYPFDPSNPEDVRAAELEDIIHNKFILDATYLGKYSRETMEGVQHILSVNGGKLNITDEDYAILDAAKDLNDFLGINYYMSDWMRGYDGESEITHNATGDKGGSKYQLKGVGQREFDVDVPRTDWDWMIYPQGLYDQIMRVVKDYPNYHKIYITENGLGYKDEFIESEKTVHDDARIDYVRQHLNVIADAIKDGANVKGYFIWSLMDVFSWSNGYEKRYGLFYVDFETQERYPKKSAYWYKELAETKEIK</t>
   </si>
   <si>
@@ -288,6 +324,33 @@
     <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C7H5N5O/c8-1-3-2-10-5-4(3)6(13)12-7(9)11-5/h2H,(H4,9,10,11,12,13);InChI=1S/p+1;</t>
   </si>
   <si>
+    <t>MMTIKVGIIGCGGIANGKHMPSLQKVENVEMTAFCDVDISKAASAAEAYGTDNAKVYDDYKALLKDDTIDVIHVCTPNDSHCEITVAGLHAGKHVMCEKPMAKTTAEAQKMIDTAKSTGKKLTIGYQNRFRPDSQFLYKSAQRGDLGDIYFGKAHAIRRRAVPTWGVFLDEEAQGGGPLIDIGTHALDLTLWMMDNYEPESVMGSTFHKLNKQHDAANAWGSWNPDEFTVEDSAFGFIKMKNGATIILESAWAINSLEVDEAKCSLSGTKAGADMKDGLRIHGEDMGTLYTKHVELENKGVDFYEGNEVDEAEEEAKAWIDAVVNDTEPVVKPEQAMVVTKILEAIYQSAKSGKAIYFE</t>
+  </si>
+  <si>
+    <t>InChI=1S/C4H10O2/c1-3(5)4(2)6/h3-6H,1-2H3/t3-,4+;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C4H8O2/c1-3(5)4(2)6/h3,5H,1-2H3/t3-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKALVKTREGHGNLELLDKEVATPLDDKVKIKVHYAGICGTDIHTYEGHYKVNFPVTLGHEFSGEIVEVGADVKDFKVGDRVTSETTFYVCNECEYCESKDYNLCNHRKGIGTQVDGAFTNYVIAREESLHHIPDEVSYQSAAMTEPLACAHHGVSKIQVNSGDVAVVMGPGPIGLLVAQVLKSKGATVVVTGLDNDKVRLDKAEALHMDYVVNLQQTDLKTYINGITDGYGADVVVECSGAVPAARQGLDILRKKGFYSQIGIFKDAEIPFDMEKVIQKEITVVGSRSQKPADWEPSLQLMADGLVNAEALVTKIYDISKWDEAYQHLKSGEGIKALLKPLDLDENEGEN</t>
+  </si>
+  <si>
+    <t>MKQFVNLGKSDVEVFPIALGTNAVGGHNLYPNLDEEQGKDVVRQAINHGINFLDTAYIYGPERSEELVGEVVKEYPREQIKIATKGSHEFDENQEVHQNNQPEYLKQQVENSLKRLQTDYIDLYYIHFPDDNTPKDQAVAALQELKEQGKIKAIGVSNFTLDQLKEANKDGYVDVVQLEYNLLHRENEAVLQYCVDHQITFIPYFPLASGILAGKYDENTKFSDHRTTRRDFKPGVFEENVRRVNALEKIAAAHQTSIANIVLAFYLTRPAIDVIIPGAKRAEQVIENIKAADIVLSKDEIQYIDELFPIED</t>
+  </si>
+  <si>
+    <t>MLNEIQILNNGYPMPSVGLGVYKISDEDMTKVVNAAIDAGYRAFDTAYFYDNEASLGRALKDNGVDREDLFITTKLWNDYQGYEKTFEYFNKSIENLQTDYLDLFLIHWPCEADGLFLETYKAMEELYEQGKVKAIGVCNFNVHHLEKLMAQSSIKPMVNQIEVHPYFNQQELQEFCDRHDIKVTAWMPLMRNRGLLDDPVIVKIAEKYHKTPAQVVLRWHLAHNRIIIPKSQTPKRIQENIDILDFNLELTEVAEIDALNRNARQGKNPDDVKIGDLK</t>
+  </si>
+  <si>
+    <t>MEVKTFYNGNTMPQIGLGTFRVENDENCMESVKYAIEQGYRSIDTAKVYGNEEQVGAGIRAGLESTGIAREDLFITSKLYFEDFGRENVAAAYEASLSRLGLKYLDLYLVHWPGTNEAIMVDTWKGMEDLYKNNKVKNIGVSNFEPEHLEALLAQVSIKPVINQVEYHPYLTQHKLKLYLAAQHIVMESWSPLMNAQILNDETIKDIAQELGKSPAQVVLRWNVQHGVVTIPKSVTPNRISENFRIFDFELSDEQMTRIDDLNQDKRIGPDPKTFEG</t>
+  </si>
+  <si>
+    <t>MNHIEISKDVKIPVLGFGVFQIPQEQTAEAVKEAIKAGYRHIDTAQSYLNETEVGQGIEVSGIDRSELFITTKVWIENVNYEDTIKSIERSLQRLNLDYLDLVLIHQPYNDVYGSWRALEELKENGKIKAIGVSNFGVDRIVDLGIHNQIQPQVNQIEINPFHQQEEQVAALQQENVVVEAWAPFAEGKNQLFQNQLLQAIADKYNKSIAQVILRWLVERDIVVLAKSVNPERMAQNLDIFDFELTEEDKQQIATLEESNSQFFSHADPEMIKALTSRKVDV</t>
+  </si>
+  <si>
+    <t>MEKVYVAGAIPEVGLKLLQEHFEVEMYEGKGLVDKDTLIKGVKDATALISLLSTNVDKDVIDAGKDLKIIANYGAGFNNIDIEYAREKSIDVTNTPKASTNATADLTIGLVLAVARRIVEGDQLSRTTGFDGWAPLFFRGREVSGKTIGIIGLGEIGSAVARRARAFDMDVLYTGPNRKEEKEREIGAKYVDLDTLLKNADFITINAAYNPKMHHLIDTEQFKMMKSTAYLINASRGPIVHEQALVQALKNNEIEGAALDVYEFEPDITDDLKSLNNVVLTPHIGNATFEARDMMSKIVANAAISAVQGEKPQFVVN</t>
+  </si>
+  <si>
     <t>InChI=1S/C24H40N7O17P3S/c1-4-15(33)52-8-7-26-14(32)5-6-27-22(36)19(35)24(2,3)10-45-51(42,43)48-50(40,41)44-9-13-18(47-49(37,38)39)17(34)23(46-13)31-12-30-16-20(25)28-11-29-21(16)31/h11-13,17-19,23,34-35H,4-10H2,1-3H3,(H,26,32)(H,27,36)(H,40,41)(H,42,43)(H2,25,28,29)(H2,37,38,39)/p-4/t13-,17-,18-,19+,23-/m1/s1;InChI=1S/O2/c1-2;</t>
   </si>
   <si>
@@ -616,9 +679,6 @@
   </si>
   <si>
     <t>InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C6H5NO3/c8-6-3-1-5(2-4-6)7(9)10/h1-4,8H/p-1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MKALVKTREGHGNLELLDKEVATPLDDKVKIKVHYAGICGTDIHTYEGHYKVNFPVTLGHEFSGEIVEVGADVKDFKVGDRVTSETTFYVCNECEYCESKDYNLCNHRKGIGTQVDGAFTNYVIAREESLHHIPDEVSYQSAAMTEPLACAHHGVSKIQVNSGDVAVVMGPGPIGLLVAQVLKSKGATVVVTGLDNDKVRLDKAEALHMDYVVNLQQTDLKTYINGITDGYGADVVVECSGAVPAARQGLDILRKKGFYSQIGIFKDAEIPFDMEKVIQKEITVVGSRSQKPADWEPSLQLMADGLVNAEALVTKIYDISKWDEAYQHLKSGEGIKALLKPLDLDENEGEN</t>
   </si>
   <si>
     <t>InChI=1S/C6H14O6/c7-1-3(9)5(11)6(12)4(10)2-8/h3-12H,1-2H2/t3-,4-,5+,6+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
@@ -1747,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,13 +1837,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1791,21 +1851,21 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1813,10 +1873,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1824,21 +1884,21 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1846,21 +1906,21 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1868,95 +1928,95 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1964,13 +2024,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1978,21 +2038,21 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2000,21 +2060,21 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2022,21 +2082,21 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2044,21 +2104,21 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2066,120 +2126,120 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2187,29 +2247,29 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
         <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -2217,54 +2277,54 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
         <v>55</v>
       </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
         <v>58</v>
-      </c>
-      <c r="B47" t="s">
-        <v>60</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
@@ -2272,13 +2332,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2286,21 +2346,21 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
         <v>63</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2308,21 +2368,21 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
         <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2330,21 +2390,21 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
         <v>69</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
         <v>68</v>
-      </c>
-      <c r="C54" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2352,84 +2412,84 @@
         <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
         <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
         <v>77</v>
-      </c>
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
         <v>80</v>
@@ -2437,167 +2497,167 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
         <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
         <v>81</v>
       </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
         <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
         <v>87</v>
-      </c>
-      <c r="C68" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
         <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
         <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
         <v>97</v>
-      </c>
-      <c r="C76" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2605,21 +2665,21 @@
         <v>99</v>
       </c>
       <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" t="s">
         <v>100</v>
-      </c>
-      <c r="C78" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" t="s">
         <v>101</v>
-      </c>
-      <c r="C79" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2627,1451 +2687,1451 @@
         <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" t="s">
         <v>113</v>
-      </c>
-      <c r="B96" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C110" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C114" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" t="s">
         <v>139</v>
-      </c>
-      <c r="C115" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" t="s">
         <v>142</v>
-      </c>
-      <c r="B117" t="s">
-        <v>144</v>
-      </c>
-      <c r="C117" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
         <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B123" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B131" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C131" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B132" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B133" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C134" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B137" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C137" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B138" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C138" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C139" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C140" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C142" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C144" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C145" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B146" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C146" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C147" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B148" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C148" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="B149" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C149" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="B150" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C150" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B151" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B152" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B153" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C153" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B155" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C155" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B156" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C156" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B157" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C157" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B158" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C158" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B159" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C159" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B160" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C160" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C161" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B162" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C162" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C163" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C164" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B165" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C165" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C166" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C167" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B168" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C168" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C169" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C170" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C171" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C172" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C173" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B174" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C175" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C176" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="B177" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C177" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C178" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B179" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C179" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B180" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C180" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B181" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C181" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B182" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C182" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="B183" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C183" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="B184" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C184" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B185" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B186" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C186" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B187" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C187" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C188" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B189" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C189" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B190" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C190" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B191" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C191" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B192" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C192" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B193" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C193" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B194" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C194" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B195" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C195" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B196" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C196" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B197" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C197" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B198" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C198" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="B199" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C199" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="B200" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C200" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B201" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C201" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B202" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C202" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B203" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C203" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="B204" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C204" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="B205" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C205" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B206" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C206" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B207" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C207" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B208" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C208" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B209" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C209" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B210" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C210" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B211" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C211" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4079,21 +4139,21 @@
         <v>254</v>
       </c>
       <c r="B212" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C212" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B213" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C213" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4101,32 +4161,32 @@
         <v>257</v>
       </c>
       <c r="B214" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C214" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B215" t="s">
+        <v>261</v>
+      </c>
+      <c r="C215" t="s">
         <v>262</v>
-      </c>
-      <c r="C215" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B216" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C216" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4134,557 +4194,557 @@
         <v>263</v>
       </c>
       <c r="B217" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C217" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B218" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C218" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
+        <v>264</v>
+      </c>
+      <c r="B219" t="s">
+        <v>265</v>
+      </c>
+      <c r="C219" t="s">
         <v>266</v>
-      </c>
-      <c r="B219" t="s">
-        <v>268</v>
-      </c>
-      <c r="C219" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B220" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C220" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B221" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C221" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B222" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C222" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B223" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C223" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B224" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C224" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B225" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C225" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B226" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C226" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="B227" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C227" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="B228" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C228" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B229" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C229" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B230" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C230" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B231" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C231" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B232" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C232" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B233" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C233" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B234" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C234" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B235" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C235" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B236" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C236" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B237" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C237" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B238" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C238" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B239" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C239" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B240" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C240" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C241" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C242" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B243" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C243" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B244" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C244" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B245" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C245" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="B246" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C246" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="B247" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C247" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B248" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C248" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B249" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C249" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B250" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C250" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B251" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C251" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B252" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C252" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B253" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C253" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="B254" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C254" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="B255" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C255" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="B256" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C256" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="B257" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="C257" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="B258" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="C258" t="s">
-        <v>172</v>
+        <v>305</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="B259" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="C259" t="s">
-        <v>171</v>
+        <v>309</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="B260" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C260" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="B261" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C261" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B262" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C262" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B263" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C263" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="B264" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C264" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="B265" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C265" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="B266" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C266" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="B267" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C267" t="s">
         <v>321</v>
@@ -4692,76 +4752,76 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="B268" t="s">
         <v>321</v>
       </c>
       <c r="C268" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B269" t="s">
         <v>322</v>
       </c>
       <c r="C269" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>215</v>
+      </c>
+      <c r="B270" t="s">
         <v>323</v>
       </c>
-      <c r="B270" t="s">
-        <v>324</v>
-      </c>
       <c r="C270" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B271" t="s">
         <v>325</v>
       </c>
       <c r="C271" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>324</v>
+      </c>
+      <c r="B272" t="s">
         <v>326</v>
       </c>
-      <c r="B272" t="s">
-        <v>327</v>
-      </c>
       <c r="C272" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B273" t="s">
         <v>328</v>
       </c>
       <c r="C273" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>34</v>
+        <v>327</v>
       </c>
       <c r="B274" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C274" t="s">
         <v>328</v>
@@ -4769,1179 +4829,1454 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="B275" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C275" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B276" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C276" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>329</v>
+        <v>166</v>
       </c>
       <c r="B277" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C277" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="B278" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="C278" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>330</v>
+        <v>143</v>
       </c>
       <c r="B279" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C279" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>332</v>
+        <v>143</v>
       </c>
       <c r="B280" t="s">
-        <v>333</v>
+        <v>145</v>
       </c>
       <c r="C280" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="B281" t="s">
-        <v>334</v>
+        <v>192</v>
       </c>
       <c r="C281" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="B282" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="C282" t="s">
-        <v>336</v>
+        <v>192</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B283" t="s">
         <v>336</v>
       </c>
       <c r="C283" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>37</v>
+      </c>
+      <c r="B284" t="s">
         <v>337</v>
       </c>
-      <c r="B284" t="s">
-        <v>338</v>
-      </c>
       <c r="C284" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B285" t="s">
         <v>339</v>
       </c>
       <c r="C285" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>338</v>
+      </c>
+      <c r="B286" t="s">
         <v>340</v>
       </c>
-      <c r="B286" t="s">
-        <v>341</v>
-      </c>
       <c r="C286" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="B287" t="s">
+        <v>341</v>
+      </c>
+      <c r="C287" t="s">
         <v>342</v>
-      </c>
-      <c r="C287" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B288" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C288" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="B289" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C289" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="B290" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C290" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="B291" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C291" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="B292" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C292" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B293" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C293" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B294" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C294" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B295" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C295" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B296" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C296" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>355</v>
+        <v>46</v>
       </c>
       <c r="B297" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C297" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="B298" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C298" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>145</v>
+        <v>349</v>
       </c>
       <c r="B299" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C299" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B300" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C300" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B301" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C301" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B302" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C302" t="s">
-        <v>365</v>
+        <v>221</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B303" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C303" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B304" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C304" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>366</v>
+        <v>73</v>
       </c>
       <c r="B305" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C305" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="B306" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C306" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B307" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C307" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>110</v>
+        <v>357</v>
       </c>
       <c r="B308" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C308" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="B309" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C309" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B310" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C310" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B311" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C311" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B312" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C312" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B313" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C313" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B314" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C314" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B315" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C315" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B316" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C316" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B317" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C317" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B318" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C318" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B319" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C319" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>16</v>
+        <v>375</v>
       </c>
       <c r="B320" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C320" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="B321" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C321" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="B322" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C322" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="B323" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C323" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B324" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C324" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B325" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C325" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B326" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C326" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B327" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C327" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B328" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C328" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B329" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C329" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B330" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C330" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>399</v>
+        <v>131</v>
       </c>
       <c r="B331" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C331" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="B332" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C332" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
       <c r="B333" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C333" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B334" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C334" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B335" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C335" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>64</v>
+        <v>395</v>
       </c>
       <c r="B336" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C336" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>64</v>
+        <v>398</v>
       </c>
       <c r="B337" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C337" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
       <c r="B338" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C338" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>142</v>
+        <v>401</v>
       </c>
       <c r="B339" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C339" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>145</v>
+        <v>401</v>
       </c>
       <c r="B340" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C340" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>145</v>
+        <v>404</v>
       </c>
       <c r="B341" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C341" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B342" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C342" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>413</v>
+        <v>28</v>
       </c>
       <c r="B343" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C343" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="B344" t="s">
-        <v>171</v>
+        <v>407</v>
       </c>
       <c r="C344" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="B345" t="s">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>416</v>
+        <v>307</v>
       </c>
       <c r="B346" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C346" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B347" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C347" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B348" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C348" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B349" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C349" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B350" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C350" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B351" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C351" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B352" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C352" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B353" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C353" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B354" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C354" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="B355" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C355" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="B356" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C356" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="B357" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C357" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="B358" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C358" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B359" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C359" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="B360" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C360" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>432</v>
+        <v>163</v>
       </c>
       <c r="B361" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C361" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="B362" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C362" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="B363" t="s">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="C363" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>437</v>
+        <v>324</v>
       </c>
       <c r="B364" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="C364" t="s">
-        <v>439</v>
+        <v>77</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="B365" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C365" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B366" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C366" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>142</v>
+        <v>433</v>
       </c>
       <c r="B367" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C367" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B368" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C368" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
       <c r="B369" t="s">
-        <v>444</v>
+        <v>192</v>
       </c>
       <c r="C369" t="s">
-        <v>443</v>
+        <v>193</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>445</v>
+        <v>191</v>
       </c>
       <c r="B370" t="s">
-        <v>446</v>
+        <v>193</v>
       </c>
       <c r="C370" t="s">
-        <v>447</v>
+        <v>192</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B371" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C371" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>157</v>
+        <v>436</v>
       </c>
       <c r="B372" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C372" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>157</v>
+        <v>439</v>
       </c>
       <c r="B373" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C373" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>170</v>
+        <v>439</v>
       </c>
       <c r="B374" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C374" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="B375" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C375" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B376" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C376" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="B377" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C377" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="B378" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C378" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B379" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C379" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>145</v>
+        <v>447</v>
       </c>
       <c r="B380" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C380" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="B381" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="C381" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>53</v>
+      </c>
+      <c r="B382" t="s">
+        <v>451</v>
+      </c>
+      <c r="C382" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>56</v>
+      </c>
+      <c r="B383" t="s">
+        <v>450</v>
+      </c>
+      <c r="C383" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>56</v>
+      </c>
+      <c r="B384" t="s">
+        <v>451</v>
+      </c>
+      <c r="C384" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>452</v>
+      </c>
+      <c r="B385" t="s">
+        <v>453</v>
+      </c>
+      <c r="C385" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>452</v>
+      </c>
+      <c r="B386" t="s">
+        <v>454</v>
+      </c>
+      <c r="C386" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>73</v>
+      </c>
+      <c r="B387" t="s">
+        <v>455</v>
+      </c>
+      <c r="C387" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>73</v>
+      </c>
+      <c r="B388" t="s">
+        <v>456</v>
+      </c>
+      <c r="C388" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>457</v>
+      </c>
+      <c r="B389" t="s">
+        <v>458</v>
+      </c>
+      <c r="C389" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>457</v>
+      </c>
+      <c r="B390" t="s">
+        <v>459</v>
+      </c>
+      <c r="C390" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>163</v>
+      </c>
+      <c r="B391" t="s">
+        <v>460</v>
+      </c>
+      <c r="C391" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>163</v>
+      </c>
+      <c r="B392" t="s">
+        <v>461</v>
+      </c>
+      <c r="C392" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>462</v>
+      </c>
+      <c r="B393" t="s">
+        <v>463</v>
+      </c>
+      <c r="C393" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>462</v>
+      </c>
+      <c r="B394" t="s">
+        <v>464</v>
+      </c>
+      <c r="C394" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>465</v>
+      </c>
+      <c r="B395" t="s">
+        <v>466</v>
+      </c>
+      <c r="C395" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>465</v>
+      </c>
+      <c r="B396" t="s">
+        <v>467</v>
+      </c>
+      <c r="C396" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>178</v>
+      </c>
+      <c r="B397" t="s">
+        <v>468</v>
+      </c>
+      <c r="C397" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>178</v>
+      </c>
+      <c r="B398" t="s">
+        <v>469</v>
+      </c>
+      <c r="C398" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>191</v>
+      </c>
+      <c r="B399" t="s">
+        <v>470</v>
+      </c>
+      <c r="C399" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>191</v>
+      </c>
+      <c r="B400" t="s">
+        <v>471</v>
+      </c>
+      <c r="C400" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>472</v>
+      </c>
+      <c r="B401" t="s">
+        <v>473</v>
+      </c>
+      <c r="C401" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>472</v>
+      </c>
+      <c r="B402" t="s">
+        <v>474</v>
+      </c>
+      <c r="C402" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>475</v>
+      </c>
+      <c r="B403" t="s">
+        <v>473</v>
+      </c>
+      <c r="C403" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>475</v>
+      </c>
+      <c r="B404" t="s">
+        <v>474</v>
+      </c>
+      <c r="C404" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>166</v>
+      </c>
+      <c r="B405" t="s">
+        <v>476</v>
+      </c>
+      <c r="C405" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>166</v>
+      </c>
+      <c r="B406" t="s">
+        <v>430</v>
+      </c>
+      <c r="C406" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/data/turnup/turnup_input4.xlsx
+++ b/data/turnup/turnup_input4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
   <si>
     <t>Enzyme</t>
   </si>
@@ -36,15 +36,432 @@
     <t>Products</t>
   </si>
   <si>
+    <t>MKLNTSNSPFTEKQVTEINNLLQTLTESQQQWLSGFLLANSNDTTSDSNQQQLETEVWQQSQISEEQATSTTYMLQNKEPHIEANQRHVTVLYGSESGNAMRLAEIFSERLSDIGHQVVLMSMDEYDTTNIAQLEDLFIITSTHGEGEPPDNAWDFFEFLEDDNAPNLNHVRYSVLALGDQTYEFFCQAGKDVDALLENLGAERICKRVDCDIDYEEDAEKWMADIINIIDTTSEGIQSESVISESIKSAKEKKYSKSNPYQAEVLANINLNGTDSNKETRHIEFLLDDFSESYEPGDCIVALPQNDPELVEKLISMLGWDPQSPVPINDHGDTVPIVEALTSHFEFTKLTLPLLKNADIYFDNEELSERIQDESWAREYVINRDFIDLITDFPTIELQPENMYQILRKLPPREYSISSSFMATPDEVHITVGTVRYQAHGRERKGVCSVHFAERIKPGDIVPIYLKKNPNFKFPMKQDIPVIMIGPGTGIAPFRAYLQEREELGMTGKTWLFFGDQHRSSDFLYEEEIEEWLENGNLTRVDLAFSRDQEHKEYVQHRIMEESERFNEWIEQGAAIYICGDEKCMAKDVHQAIKDVLVKERHISQEEAETILRQMKQQQRYQRDVY</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O3S/c1-4(2)3/h(H2,1,2,3)/p-2;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O/h1H2;InChI=1S/H2S/h1H2/p-1;</t>
+  </si>
+  <si>
+    <t>MLNLENKTYVIMGIANKRSIAFGVAKVLDQLGAKLVFTYRKERSRKELEKLLEQLNQPEAYLYQIDVQSDEEVINGFEQIGKDVGNIDGVYHSIAFANMEDLRGRFSETSREGFLLAQDISSYSLTIVAHEAKKLMPEGGSIVATTYLGGEFAVQNYNVMGVAKASLEANVKYLALDLGPDNIRVNAISAGPIRTLSAKGVGGFNTILKEIEERAPLKRNVDQVEVGKTAAYLLSDLSSGVTGENIHVDSGFHAIK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C27H46N7O17P3S/c1-4-5-6-7-18(36)55-11-10-29-17(35)8-9-30-25(39)22(38)27(2,3)13-48-54(45,46)51-53(43,44)47-12-16-21(50-52(40,41)42)20(37)26(49-16)34-15-33-19-23(28)31-14-32-24(19)34/h14-16,20-22,26,37-38H,4-13H2,1-3H3,(H,29,35)(H,30,39)(H,43,44)(H,45,46)(H2,28,31,32)(H2,40,41,42)/p-4/t16-,20-,21-,22+,26-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C27H44N7O17P3S/c1-4-5-6-7-18(36)55-11-10-29-17(35)8-9-30-25(39)22(38)27(2,3)13-48-54(45,46)51-53(43,44)47-12-16-21(50-52(40,41)42)20(37)26(49-16)34-15-33-19-23(28)31-14-32-24(19)34/h6-7,14-16,20-22,26,37-38H,4-5,8-13H2,1-3H3,(H,29,35)(H,30,39)(H,43,44)(H,45,46)(H2,28,31,32)(H2,40,41,42)/p-4/b7-6+/t16-,20-,21-,22+,26-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MFLNLNSEQLHALDAAKQAFGPMLEGLVKYSIPITLVTFVLGLIIALFTALMRISTSKVLRSIARVYVSIIRGTPMIVQLFIIFYGIPELGRLLTNDADNQWTLAPVVAAIIGLSLNVGAYASEIIRGGIISIPKGQTEAAYSIGMTYRQTIQRIILPQAIRVSIPALGNTFLSLIKDTSLLGFILVAEMFRKAQEVASTTYEYLTIYVLVALMYWVVCFIISIIQGIYESYIERGYRS</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C5H9NO4/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H,7,8)(H,9,10)/p-1/t3-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C5H9NO4/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H,7,8)(H,9,10)/p-1/t3-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKRLLFVVIAFVFILAACGNNSSKDKEASKDSKTINVGTEGTYAPFSFHDKDGKLTGYDIDVIKAVAKAEGLKLKFNETSWDSMFAGLDAGRFDVIANQVGINPDREKKYKFSKPYTFSSAVLVIRENEKDIKDFDDVKGKKLAQTFTSNYGKLAKDKGADITKVDGFNQSMDLLLSKRVDGTFNDSLSYLDYKKQKPNAKIKAIKGNAEQSKSAFAFSKKVDDETVQKFNDGLKKIEENGELAKIGKKWFGQDVSKSK</t>
+  </si>
+  <si>
+    <t>MKCLIRFILVLGLLISSAMVYINPTAHAEQDQTWEKIKERGELRVGLSADYAPMEFEHTVNGKTEYAGVDIDLAKKIAKDNNLKLKIVNMSFDSLLGALKTGKIDIIISGMTSTPERKKQVDFSDSYMMTKNIMLVKKDKVNEYKDIKDFNNKKVGAQKGTEQEKIAQTEIENASITSLSRLPDVILALKSGKVEGAVVEKPVAEAYLKQNPKLGISNVKFNEEEKDTVIAVPKDSPKLLSQINKTIKEVKDKGLIDKYMTNAANAMNDDSGFISKYGSFFLKGIKITILISLIGVALGSILGAFVALMKLSKIKIISWIASIYIEILRGTPMLVQVFIVFFGITAALGLDISALVCGTIALVINSSAYIAEIIRAGINAVDKGQMEAARSLGLNYRQTMKSVIMPQAIKNILPALGNEFVTLIKESSIVSTIGVGEIMFNAQVVQGISFDPFTPLLVAAALYFVLTFVLTRIMNMIEGRLNASD</t>
+  </si>
+  <si>
+    <t>MIHGIGVDLIEIDRIKVLYSKQPKLVERILTKNEQHKFNNFTHEQRKIEFLAGRFATKEAFSKALGTGLGKHVAFNDIDCYNDELGKPKIDYEGFIVHVSISHTEHYAMSQVVLEKSAF</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-6(16)7(25-27(20,21)22)4(24-10)1-23-26(17,18)19/h2-4,6-7,10,16H,1H2,(H2,11,12,13)(H2,17,18,19)(H2,20,21,22)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MAVNVRDYIAENYGLFINGEFVKGSSDETIEVTNPATGETLSHITRAKDKDVDHAVEVAQEAFESWSLTSKSERAQMLRDIGDKLMAQKDKIAMIETLNNGKPIRETTAIDIPFAARHFHYFASVIETEEGTVNDIDKDTMSIVRHEPIGVVGAVVAWNFPMLLAAWKIAPAIAAGNTIVIQPSSSTPLSLLEVAKIFQEVLPKGVVNILTGKGSESGNAIFNHDGVDKLSFTGSTDVGYQVAEAAAKHLVPATLELGGKSANIILDDANLDLAVEGIQLGILFNQGEVCSAGSRLLVHEKIYDQLVPRLQEAFSNIKVGNPQDEATQMGSQTGKDQLDKIQSYIDAAKESDAQILAGGHRLTENGLDKGFFFEPTLIAVPDNHHKLAQEEIFGPVLTVIKVKDDQEAIDIANDSEYGLAGGVFSQNITRALNIAKAVRTGRIWINTYNQVPEGAPFGGYKKSGIGRETYKGALSNYQQVKNIYIDTSNALKGLY</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C15H24O/c1-13(2)7-5-8-14(3)9-6-10-15(4)11-12-16/h7,9,11-12H,5-6,8,10H2,1-4H3/b14-9+,15-11+;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C15H24O2/c1-12(2)7-5-8-13(3)9-6-10-14(4)11-15(16)17/h7,9,11H,5-6,8,10H2,1-4H3,(H,16,17)/p-1/b13-9+,14-11+;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MRDYTKQYINGEWVESNSNETIEVINPATEEVIGKVAKGNKADVDKAVEAADNVYLEFRHTSVKERQALLDKIVKEYENRKDDIVQAITDELGAPLSLSERVHYQMGLNHFVAARDALDNYEFEERRGDDLVVKEAIGVSGLITPWNFPTNQTSLKLAAAFAAGSPVVLKPSEETPFAAVILAEIFDKVGVPKGVFNLVNGDGAGVGNPLSEHPKVRMMSFTGSGPTGSKIMEKAAKDFKKVSLELGGKSPYIVLDDVDIKEVAKATTGKVVNNTGQVCTAGTRVLVPNKIKDAFLAELKEQFSQVRVGNPREDGTQVGPIISKKQFDQVQNYINKGIEEGAELFYGGPGKPEGLEKGYFARPTIFINVDNQMTIAQEEIFGPVMSVITYNDLDEAIQIANDTKYGLAGYVIGKDKETLHKVARSIEAGTVEINEAGRKPDLPFGGYKQSGLGREWGDYGIEEFLEVKSIAGYFK</t>
+  </si>
+  <si>
+    <t>MVVEFKNEPGYDFSVQENVNMFKKALKDVEKELGQDIPLVINGEKIFKDDKIKSINPADTSQVIANASKATKQDVEDAFKAANEAYKSWKTWSANDRAELMLRVSAIIRRRKAEIAAIMVYEAGKPWDEAVGDAAEGIDFIEYYARSMMDLAQGKPVLDREGEHNKYFYKSIGTGVTIPPWNFPFAIMAGTTLAPVVAGNTVLLKPAEDTPYIAYKLMEILEEAGLPKGVVNFVPGDPKEIGDYLVDHKDTHFVTFTGSRATGTRIYERSAVVQEGQNFLKRVIAEMGGKDAIVVDENIDTDMAAEAIVTSAFGFSGQKCSACSRAIVHKDVYDEVLEKSIKLTKELTLGNTVDNTYMGPVINKKQFDKIKNYIEIGKEEGKLEQGGGTDDSKGYFVEPTIISGLKSKDRIMQEEIFGPVVGFVKVNDFDEAIEVANDTDYGLTGAVITNNREHWIKAVNEFDVGNLYLNRGCTSAVVGYHPFGGFKMSGTDAKTGSPDYLLHFLEQKVVSEMF</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O/h1H2;InChI=1S/C5H7NO3/c7-3-1-4(5(8)9)6-2-3/h2-4,7H,1H2,(H,8,9)/p-1/t3-,4+/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C5H9NO5/c6-2(4(8)9)1-3(7)5(10)11/h2-3,7H,1,6H2,(H,8,9)(H,10,11)/p-1/t2-,3+/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MPLVSMKEMLIDAKENGYAVGQYNINNLEFTQAILEASQEENAPVILGVSEGAARYMSGFYTIVKMVEGLMHDLNITIPVAIHLDHGSSFEKCKEAIDAGFTSVMIDASHSPFEENVATTKKVVEYAHEKGVSVEAELGTVGGQEDDVVADGIIYADPKECQELVEKTGIDALAPALGSVHGPYKGEPKLGFKEMEEIGLSTGLPLVLHGGTGIPTKDIQKAIPFGTAKINVNTENQIASAKAVRDVLNNDKEVYDPRKYLGPAREAIKETVKGKIKEFGTSNRAK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H13O9P/c7-1-3-4(8)5(9)6(10,15-3)2-14-16(11,12)13/h3-5,7-10H,1-2H2,(H2,11,12,13)/p-2/t3-,4-,5+,6-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H6O3/c4-1-3(6)2-5/h1,3,5-6H,2H2/t3-/m0/s1;InChI=1S/C3H7O6P/c4-1-3(5)2-9-10(6,7)8/h4H,1-2H2,(H2,6,7,8)/p-2;</t>
+  </si>
+  <si>
+    <t>MNKEQLEKMKNGKGFIAALDQSGGSTPKALKEYGVNEDQYSNEDEMFQLVHDMRTRVVTSPSFSPDKILGAILFEQTMDREVEGKYTADYLADKGVVPFLKVDKGLAEEQNGVQLMKPIDNLDSLLDRANERHIFGTKMRSNILELNEQGIKDVVEQQFEVAKQIIAKGLVPIIEPEVNINAKDKAEIEKVLKAELKKGLDSLNADQLVMLKLTIPTEANLYKDLAEHPNVVRIVVLSGGYSREKANELLKDNAELIASFSRALASDLRAGQSKEEFDKALGDAVESIYDASVNKN</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C7H16NO/c1-8(2,3)6-4-5-7-9/h7H,4-6H2,1-3H3/q+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C7H15NO2/c1-8(2,3)6-4-5-7(9)10/h4-6H2,1-3H3;</t>
+  </si>
+  <si>
+    <t>MSMQSSYKRLVKVLLTILVIVFSILLVGGWYIFKNEAPRPTKIVDQQGHTLVTKGELISGQAIYEKYGLTDYGSYLGNGSYLGPDYTAEALHHYLIGMRKYYAQDIYHKQLHKLNHVEIAVVKDKVMKEIRINRYSEKEDQLVLTPGQVYGLKYLQDYYKKEFVNNPKQVGLNENMIKQFQNDDYMVAGNKIEHLSQFFFWGAWLSSTDRPGKTFSYTNNWPYDVDAGNTLPSAGILWTAISVTLLIAGLAFIIYIQKRYEFDMKPTYESERELPKIEVDSKITDSQRKVGKYLVVVMLLFLVQILLGELLAHYYVENKFFGIEIQRLFPFNIVKTWHVQLVIFWVATTWLAAGIYIVPKVLGNEPKKQGVLVDILFWALIIVVMGSMIGEWSHILGWIDSHWWLFGHFGWEYIELGKFWQILFIVGMVLWVIILCRGFLPAIRNKVQVNHDKRHLLTLLFVGAIAIPLFYLASLFIMPNSHVTFADYWRWWIVHLWVEGIFEAFAVVLIGFLMVNMKLTTIETTIRALYFQLILLLGTGIVGMGHHYYWQGDHSIWLALGSCFSALEVVPLCLLIWEAYTHYRLYKKSDIAFPYKGTFIFLASTGLWNAIGAGALGFLINTPAVNYFEHGTQWTAAHAHGSMAGVYGMFSIAIALYVFKNITKKEFWTPKVEKWIKISCWALNVGLAGMVFVTLIPVGYIQLKDGLEDGYWHSRLTSFYEQPLVKAIMWGRMPWDIIFTVGVIILVVIFIRGYRHLKPKYRV</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/N2O/c1-2-3;InChI=1S/Fe/q+3;</t>
+  </si>
+  <si>
+    <t>InChI=1S/Fe/q+2;InChI=1S/NO/c1-2;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MNIHEYQGKEIFRSMGVAVPEGRVAFTAEEAVEKAKELNSDVYVVKAQIHAGGRGKAGGVKIAKSLSEVETYAKELLGKTLVTHQTGPEGKEIKRLYIEEGCAIQKEYYVGFVIDRATDQVTLMASEEGGTEIEEVAAKTPEKIFKETIDPVIGLSPFQARRIAFNINIPKESVNKAAKFLLALYNVFIEKDCSIVEINPLVTTADGDVLALDAKINFDDNALFRHKDVVELRDLEEEDPKEIEASKHDLSYIALDGDIGCMVNGAGLAMATMDTINHFGGNPANFLDAGGSATREKVTEAFKIILGDENVKGIFVNIFGGIMKCDVIAEGIVEAVKEVDLTLPLVVRLEGTNVELGKKILKDSGLAIEPAATMAEGAQKIVKLVKEA</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C4H6O4/c5-3(6)1-2-4(7)8/h1-2H2,(H,5,6)(H,7,8)/p-2;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C25H40N7O19P3S/c1-25(2,20(38)23(39)28-6-5-14(33)27-7-8-55-16(36)4-3-15(34)35)10-48-54(45,46)51-53(43,44)47-9-13-19(50-52(40,41)42)18(37)24(49-13)32-12-31-17-21(26)29-11-30-22(17)32/h11-13,18-20,24,37-38H,3-10H2,1-2H3,(H,27,33)(H,28,39)(H,34,35)(H,43,44)(H,45,46)(H2,26,29,30)(H2,40,41,42)/p-5/t13-,18-,19-,20+,24-/m1/s1;</t>
+  </si>
+  <si>
+    <t>MSVFIDKNTKVMVQGITGSTALFHTKQMLDYGTKIVAGVTPGKGGQVVESVPVFNTVEEAKNETGATVSVIYVPAPFAADSILEAADADLDMVICITEHIPVLDMVKVKRYLQGRKTRLVGPNCPGVITADECKIGIMPGYIHKKGHVGVVSRSGTLTYEAVHQLTEEGIGQTTAVGIGGDPVNGTNFIDVLKAFNEDDETKAVVMIGEIGGTAEEEAAEWIKANMTKPVVGFIGGQTAPPGKRMGHAGAIISGGKGTAEEKIKTLNSCGVKTAATPSEIGSTLIEAAKEAGIYESLLTVNK</t>
+  </si>
+  <si>
+    <t>MLTIPEKENRGSKEQEVAIMIDALADKGKKALEALSKKSQEEIDHIVHQMSLAAVDQHMVLAKLAHEETGRGIYEDKAIKNLYASEYIWNSIKDNKTVGIIGEDKEKGLTYVAEPIGVICGVTPTTNPTSTTIFKAMIAIKTGNPIIFAFHPSAQESSKRAAEVVLEAAMKAGAPKDIIQWIEVPSIEATKQLMNHKGIALVLATGGSGMVKSAYSTGKPALGVGPGNVPSYIEKTAHIKRAVNDIIGSKTFDNGMICASEQVVVIDKEIYKDVTNEFKAHQAYFVKKDELQRLENAIMNEQKTGIKPDIVGKSAVEIAELAGIPVPENTKLIIAEISGVGSDYPLSREKLSPVLALVKAQSTKQAFQICEDTLHFGGLGHTAVIHTEDETLQKDFGLRMKACRVLVNTPSAVGGIGDMYNELIPSLTLGCGSYGRNSISHNVSATDLLNIKTIAKRRNNTQIFKVPAQIYFEENAIMSLTTMDKIEKVMIVCDPGMVEFGYTKTVENVLRQRTEQPQIKIFSEVEPNPSTNTVYKGLEMMVDFQPDTIIALGGGSAMDAAKAMWMFFEHPETSFFGAKQKFLDIGKRTYKIGMPENATFICIPTTSGTGSEVTPFAVITDSETNVKYPLADFALTPDVAIIDPQFVMSVPKSVTADTGMDVLTHAMESYVSVMASDYTRGLSLQAIKLTFEYLKSSVEKGDKVSREKMHNASTLAGMAFANAFLGIAHSIAHKIGGEYGIPHGRANAILLPHIIRYNAKDPQKHALFPKYEFFRADTDYADIAKFLGLKGNTTEALVESLAKAVYELGQSVGIEMNLKSQGVSEEELNESIDRMAELAFEDQCTTANPKEALISEIKDIIQTSYDYKQ</t>
+  </si>
+  <si>
+    <t>InChI=1S/C20H30O/c1-16(8-6-9-17(2)13-15-21)11-12-19-18(3)10-7-14-20(19,4)5/h6,8-9,11-13,21H,7,10,14-15H2,1-5H3/b9-6+,12-11+,16-8+,17-13+;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C20H28O/c1-16(8-6-9-17(2)13-15-21)11-12-19-18(3)10-7-14-20(19,4)5/h6,8-9,11-13,15H,7,10,14H2,1-5H3/b9-6+,12-11+,16-8+,17-13+;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MRAAVVTKDHKVSIEDKKLRALKPGEALVQTEYCGVCHTDLHVKNADFGDVTGVTLGHEGIGKVIEVAEDVESLKIGDRVSIAWMFESCGRCEYCTTGRETLCRSVKNAGYTVDGAMAEQVIVTADYAVKVPEKLDPAAASSITCAGVTTYKAVKVSNVKPGQWLGVFGIGGLGNLALQYAKNVMGAKIVAFDINDDKLAFAKELGADVIINSKDVDPVAEVMKLTDNKGLDATVVTSVAKTPFNQAVDVVKAGARVVAVGLPVDKMNLDIPRLVLDGIEVVGSLVGTRQDLREAFEFAAENKVTPKVQLRKLEEINDIFEEMENGTITGRMVIKF</t>
+  </si>
+  <si>
+    <t>MVVGDFPIETDTIVIGAGPGGYVAAIRAAQLGQKVTIVEKGNLGGVCLNVGCIPSKALLHASHRFVEAQHSENLGVIAESVSLNFQKVQEFKSSVVNKLTGGVEGLLKGNKVNIVKGEAYFVDNNSLRVMDEKSAQTYNFKNAIIATGSRPIEIPNFKFGKRVIDSTGALNLQEVPGKLVVVGGGYIGSELGTAFANFGSEVTILEGAKDILGGFEKQMTQPVKKGMKEKGVEIVTEAMAKSAEETDNGVKVTYEAKGEEKTIEADYVLVTVGRRPNTDELGLEELGVKFADRGLLEVDKQSRTSISNIYAIGDIVPGLPLAHKASYEAKVAAEAIDGQAAEVDYIGMPAVCFTEPELATVGYSEAQAKEEGLAIKASKFPYAANGRALSLDDTNGFVKLITLKEDDTLIGAQVVGTGASDIISELGLAIEAGMNAEDIALTIHAHPTLGEMTMEAAEKAIGYPIHTM</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C28H36N4O6/c33-22-14-12-21(13-15-22)30-19-29-17-5-4-9-23(26(34)32-18-6-10-25(32)28(37)38)31-24(27(35)36)16-11-20-7-2-1-3-8-20/h1-3,7-8,12-15,19,23-25,31,33H,4-6,9-11,16-18H2,(H,29,30)(H,35,36)(H,37,38)/t23-,24-,25-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C28H36N4O6/c33-22-14-12-21(13-15-22)30-19-29-17-5-4-9-23(26(34)32-18-6-10-25(32)28(37)38)31-24(27(35)36)16-11-20-7-2-1-3-8-20/h1-3,7-8,12-15,19,23-25,31,33H,4-6,9-11,16-18H2,(H,29,30)(H,35,36)(H,37,38)/t23-,24-,25-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MSEKQYDLVVLGGGTAGYVAAIRASQLGKKVAIVERQLLGGTCLHKGCIPTKSLLKSAEVLQTVKQAAMFGVDVKDVNVNFENMLARKEDIINQMYQGVKHLMQHNHIDIYNGTGRILGTSIFSPQSGTISVEYEDGESDLLPNQFVLIATGSSPAELPFLSFDHDKILSSDDILSLKTLPSSIGIIGGGVIGMEFASLMIDLGVDVTVIEAGERILPTESKQASQLLKKSLSARGVKFYEGIKLSENDINVNEDGVTFEISSDIIKVDKVLLSIGRKPNTSDIGLNNTKIKLSTSGHILTNEFQQTEDKHIYAAGDCIGKLQLAHVGSKEGVVAVDHMFEGNPIPVNYNMMPKCIYSQPEIASIGLNIEQAKAEGMKVKSFKVPFKAIGKAVIDSHDANEGYSEMVIDQSTEEIVGINMIGPHVTELINEASLLQFMNGSALELGLTTHAHPSISEVLMELGLKAESRAIHV</t>
+  </si>
+  <si>
+    <t>MISFENDYLEGAHEKVLKRLVDTNLVQASGYGFDQFTAQAIEKIKDTIDCPNATIRFLVGGTQTNQVVINSMLESYEGVISADTGHVAVHEGGAIEYSGHKVITIPSKEGKVSASDVETYMETFKSDFKKDHMVFPGMVYISHPTEYGTLYSKSELEELCKVCKQYQLPLFMDGARLGYGLMSDQSDMTIKDIAKYCDVFYIGGTKIGALCGEAIVFTKNNEPKQFTTRIKHHGALLAKGRLTGIQFLELFTDNLYFNISRHAIEMANKMKDGFINKGYRLYFDSPTNQQFFILSNEKIAELEQKVKFAVWEKYDDQHRVVRFATSWATTEENLNKLLELI</t>
+  </si>
+  <si>
+    <t>InChI=1S/C4H9NO3/c1-2(6)3(5)4(7)8/h2-3,6H,5H2,1H3,(H,7,8)/t2-,3+/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C2H4O/c1-2-3/h2H,1H3;InChI=1S/C2H5NO2/c3-1-2(4)5/h1,3H2,(H,4,5);</t>
+  </si>
+  <si>
+    <t>MQLYYLGPKGTFSYLACRQYFSENEATFQPKSNLFEVIKAVADDDASIGVVPIENSIEGTINIVADALAQQDVFAHGEIRLDINFALYGNGSNTISDIKKVYSIAPAISQTTNYIHQHQFDYDYVDSTIQSLTKIENGVAAIAPLGSGEAYGFTPIDTHIEDYPHNVTRFLVIKNQQQFDQNATSLMFLITPMYDKPGLLASVLNTFALFNINLSWIESRPLKTQLGMYRFFVQADSAITTDIKKVIAILETLDFKVEMIGAFN</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H10O6/c11-6-1-3-10(4-2-6,9(15)16)5-7(12)8(13)14/h1-4,6,11H,5H2,(H,13,14)(H,15,16)/p-2/t6-,10+;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C9H8O3/c10-8(9(11)12)6-7-4-2-1-3-5-7/h1-5H,6H2,(H,11,12)/p-1;InChI=1S/CO2/c2-1-3;</t>
+  </si>
+  <si>
+    <t>MSNKLESYRSEIVSLNHQILDLLSKRGELAQKIGEEKLKQGTRIYDPQREKEMLNDLIDSNKGPFNDNTIKQLFKEIFKASTDLQKSENEKHLYVSRKLKPEDTIVTFDNGGIIGDGNKSFVFGPCSVESFEQVEAVAKNLHAKGEKFIRGGAFKPRTSPYDFQGLGVEGLKILKQIKDKYDLNVVSEIVNPNDFEVADEYLDVFQIGARNMQNFELLKEAGRTKKPILLKRGLSATIEEFVYAAEYIASQGNQNIILCERGIRTYEKATRNTLDISAVPILKQGTHLPVMVDVTHSTGRKDIMLPTAKAALAVGADGVMAEVHPDPSVALSDAGQQMDLDEFQAFYDELKPLSDLYNAKKLK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C3H5O6P/c1-2(3(4)5)9-10(6,7)8/h1H2,(H,4,5)(H2,6,7,8)/p-3;InChI=1S/C4H9O7P/c5-1-3(6)4(7)2-11-12(8,9)10/h1,3-4,6-7H,2H2,(H2,8,9,10)/p-2/t3-,4+/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C7H13O10P/c8-3(1-4(9)7(12)13)6(11)5(10)2-17-18(14,15)16/h3,5-6,8,10-11H,1-2H2,(H,12,13)(H2,14,15,16)/p-3/t3-,5-,6+/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
+  </si>
+  <si>
+    <t>MISNKLANIPDSYFGKTMGRKIEHGPLPLINMAVGIPDGPTPQGIIDHFQKALTIPENQKYGAFHGKEVFKQAIVDFYQRQYNVTLDKEDEVCILYGTKNGLVAVPTCVINPGDYVLLPDPGYTDYLAGVLLADGKPVPLNLEPPHYLPDWSTVDSQIIDKTKLIYLMYPNNPTGSTATKEVFDEAIAKFKDTDTKIVHDFAYGAFGFDAKNPSILASENGKDVAIEIYSLSKGYNMSGFRVGFAVGNKDMIQALKKYQTHTNAGMFGALQDAAIYALNHYDDFLEEQSNVFKARRDRFEAMLAKADLPFVHAKGGIYVWLETPPGYDSEQFEQFLVKEKSILVAPGKPFGENGNRYVRISLALDDQQLDEAAIRLTELAYLYK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H8O3S/c1-9-3-2-4(6)5(7)8/h2-3H2,1H3,(H,7,8)/p-1;InChI=1S/C5H10N2O3/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H2,7,8)(H,9,10)/t3-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H7NO4/c6-4(8)2-1-3(7)5(9)10/h1-2H2,(H2,6,8)(H,9,10)/p-1;InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;</t>
+  </si>
+  <si>
+    <t>MSSDLKQTPLYQNYVDRGAKIVEFGGWAMPVQFSSIKEEHNAVRYEIGLFDVSHMGEIEVTGKDASQFVQYLLSNDTDNLTTSKALYTALCNEEGGIIDDLVIYKLADDNYLLVVNAANTEKDFNWILKHKEKFDVEVQNVSNQYGQLAIQGPKARDLINQLVDEDVTEMKMFEFKQGVKLFGANVILSQSGYTGEDGFEIYCNIDDTEKIWDGLLEYNVMPCGLGARDTLRLEAGLPLHGQDLTESITPYEGGIAFASKPLIDADFIGKSVLKDQKENGAPRRTVGLELLEKGIARTGYEVMDLDGNIIGEVTSGTQSPSSGKSIALAMIKRDEFEMGRELLVQVRKRQLKAKIVKKNQIDK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C28H36N4O6/c33-22-14-12-21(13-15-22)30-19-29-17-5-4-9-23(26(34)32-18-6-10-25(32)28(37)38)31-24(27(35)36)16-11-20-7-2-1-3-8-20/h1-3,7-8,12-15,19,23-25,31,33H,4-6,9-11,16-18H2,(H,29,30)(H,35,36)(H,37,38)/t23-,24-,25-/m0/s1;InChI=1S/C19H23N7O6/c20-19-25-15-14(17(30)26-19)23-11(8-22-15)7-21-10-3-1-9(2-4-10)16(29)24-12(18(31)32)5-6-13(27)28/h1-4,11-12,21,23H,5-8H2,(H,24,29)(H,27,28)(H,31,32)(H4,20,22,25,26,30)/p-2/t11-,12-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/p+1;InChI=1S/C20H23N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,12-13H,5-9H2,(H,23,30)(H,28,29)(H,32,33)(H4,21,22,24,25,31)/p-2/t12-,13+/m1/s1;InChI=1S/C28H36N4O6/c33-22-14-12-21(13-15-22)30-19-29-17-5-4-9-23(26(34)32-18-6-10-25(32)28(37)38)31-24(27(35)36)16-11-20-7-2-1-3-8-20/h1-3,7-8,12-15,19,23-25,31,33H,4-6,9-11,16-18H2,(H,29,30)(H,35,36)(H,37,38)/t23-,24-,25-/m0/s1;</t>
+  </si>
+  <si>
+    <t>MNFDWIKTRSDFDDDKPAVIDHAKQTSWTYQQLNARADNMAHYLTSQGVKKGDVIGIFAPNDIAILDLLFACFKTGAVFLPLNWRLNPKEIAAIVEDAQLKLLFYAEKHLSSLTDIDQNLLHMDIDVAQYDEIVNPDYHQPFQATPVEPQDLAALIYTSGTTGSPKGVMFSYESFVHNGANLELTYKFNSNYITIVSTPMFHVLGFNDTVLPVLMSGGTLILQRYFNGEELNDMIAQYHPTFIIMIPTMYYSTLRASNFNPENFKAMDYIIQGGSQPLPSIQAAFKQYGINIINGYGLTEAPLVLVNTPENSKRKPMSIGKAVMFVDARILDDNGEEVPTGEIGELAIKAKNVTPGYWNKPAETAKAFHGRYLLTGDLAKMDDDGDIFIIDRKKELIITGGENVLPSEVENALAEHPLVDRCVVVGYDHPKYGESIAAAIILREDEPHYDKILDQHMRSRLAGYKVPRMYVPVTHMPLNSTQKPDKLAIRQMMNDKVSQTL</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/C31H52N7O17P3S/c1-4-5-6-7-8-9-10-11-22(40)59-15-14-33-21(39)12-13-34-29(43)26(42)31(2,3)17-52-58(49,50)55-57(47,48)51-16-20-25(54-56(44,45)46)24(41)30(53-20)38-19-37-23-27(32)35-18-36-28(23)38/h10-11,18-20,24-26,30,41-42H,4-9,12-17H2,1-3H3,(H,33,39)(H,34,43)(H,47,48)(H,49,50)(H2,32,35,36)(H2,44,45,46)/p-4/b11-10+/t20-,24-,25-,26+,30-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C33H52N7O18P3S/c1-4-5-6-7-8-9-10-11-21(41)16-24(43)62-15-14-35-23(42)12-13-36-31(46)28(45)33(2,3)18-55-61(52,53)58-60(50,51)54-17-22-27(57-59(47,48)49)26(44)32(56-22)40-20-39-25-29(34)37-19-38-30(25)40/h5-6,8-9,19-20,22,26-28,32,44-45H,4,7,10-18H2,1-3H3,(H,35,42)(H,36,46)(H,50,51)(H,52,53)(H2,34,37,38)(H2,47,48,49)/p-4/b6-5-,9-8-/t22-,26-,27-,28+,32-/m1/s1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+  </si>
+  <si>
+    <t>MNKIKPFIVVIVGPTASGKTELSIELAKRINGEIISGDSMQVYKHMNIGTAKVTPEEMDGIPHHLIDILNPDDTFSAYEFKRLAEDLITDITNRGKVPIIAGGTGLYIQSLIYNYELEDETVTPAQLSVVKQKLSALEHLDNQQLHDYLAQFDAVSAENIHPNNRQRVLRAIEYYLKTKKLLSNRKKVQQFTENYDTLLLGIEMSRKTLYSRINKRVDIMLDHGLFREVQQLVEQGYESCQSMQAIGYKELIPVINGQMIYEDAVNDLKQHSRQYAKRQMTWFKNKMSVHWLDKENMSLQMMLDEITTQIK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C5H12O7P2/c1-5(2)3-4-11-14(9,10)12-13(6,7)8/h3H,4H2,1-2H3,(H,9,10)(H2,6,7,8)/p-3;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O/h1H2;InChI=1S/C4H9NO/c5-3-1-2-4-6/h4H,1-3,5H2/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C4H9NO2/c5-3-1-2-4(6)7/h1-3,5H2,(H,6,7);InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKVQIYQLPIIFGDSSKNETQITQWFEKNMNAEVDVVVLPEMWNNGYDLEHLNEKADNNLGQSFSFIKHLAEKYKVDIVAGSVSNIRNNQIFNTAFSVNKGGQLINEYDKVHLVPMLREHEFLTAGENVAEPFQLSDGTYVTQLICYDLRFPELLRYPARSGAKIAFYVAQWPMSRLQHWHSLLKARAIENNMFVIGTNSTGFDGNTEYAGHSIVINPNGDLVGELNESADVLTVDLNLNEVEQQRENIPVFKSIKLDLYK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C4H8N2O3/c5-2(4(8)9)1-3(6)7/h2H,1,5H2,(H2,6,7)(H,8,9)/t2-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C4H7NO4/c5-2(4(8)9)1-3(6)7/h2H,1,5H2,(H,6,7)(H,8,9)/p-1/t2-/m0/s1;InChI=1S/H3N/h1H3/p+1;</t>
+  </si>
+  <si>
+    <t>MIVEVEHQRQGVDLIKIDNDETKIIFTNYGARVVSWKYHDNNIVLGNVVEADEFYHSNPFKFGASIGRYSGRIDNAKFKLKGKEYQLEKNNGEHHLHGGCHGLDNKLFDYEIRNEIAQIKVIFKTVLKSADDHFPGDIDLTITHIYDADHQWSIEYEAVASEDTLFSPTNHVYFNLNRDNNVVDNHRISSNQLDMYVLDERNIVTGDILDLHEVFEDNKIKLSDIFTSQHAQLSQQMTRFGGLDHPFTVGEHKMYVENHEFMLEVDTDMPHVVFFTFNQPDEWDSPFNIYKPHSGFTLETQFLPNDINLYGEKAPSILKAGEVFNSKTSFRIEEKVENE</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H12O6/c7-1-2-3(8)4(9)5(10)6(11)12-2/h2-11H,1H2/t2-,3+,4+,5-,6+/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H12O6/c7-1-2-3(8)4(9)5(10)6(11)12-2/h2-11H,1H2/t2-,3+,4+,5-,6-/m1/s1;</t>
+  </si>
+  <si>
+    <t>MQEAYIVAYGRSAAAKAKQGALFHERPDDVAAKVLQGVLKRIDGKFNKNMIEDVIVGTAFPEGLQGQNIARTIALRTGLSDTVPGQTVNRYCSSGLQTIAIAANQIMAGQGDILVAGGVELMSAVPMGGNEPTNNPTLQYDDIGASYPMGLTAENVASQFDVSREDQDAYAVRSHQRAYDAQLDGRFKDEIIPIQVNSVEYTNAGPKVHTNIFDQDEFIRPDTTIEALAKLRTVFKADGTVTAGTSAPLSDGAGFVVLMSGDKVKELGVTPIARFVGYKAVGVDPKIMGIGPAYAIPEVLSLSNLSVEDIDLIELNEAFASQTIASIKEVGLDISRTNVNGGAIALGHPLGATGAMLTARLLNEMGRRPDSRYGMVTMCIGVGMGAAAIFEYVR</t>
+  </si>
+  <si>
+    <t>InChI=1S/C45H68N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23-33(53)28-36(55)74-27-26-47-35(54)24-25-48-43(58)40(57)45(2,3)30-67-73(64,65)70-72(62,63)66-29-34-39(69-71(59,60)61)38(56)44(68-34)52-32-51-37-41(46)49-31-50-42(37)52/h5-6,8-9,11-12,14-15,17-18,20-21,31-32,34,38-40,44,56-57H,4,7,10,13,16,19,22-30H2,1-3H3,(H,47,54)(H,48,58)(H,62,63)(H,64,65)(H2,46,49,50)(H2,59,60,61)/p-4/b6-5-,9-8-,12-11-,15-14-,18-17-,21-20-/t34-,38-,39-,40+,44-/m1/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C43H66N7O17P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23-34(52)71-27-26-45-33(51)24-25-46-41(55)38(54)43(2,3)29-64-70(61,62)67-69(59,60)63-28-32-37(66-68(56,57)58)36(53)42(65-32)50-31-49-35-39(44)47-30-48-40(35)50/h5-6,8-9,11-12,14-15,17-18,20-21,30-32,36-38,42,53-54H,4,7,10,13,16,19,22-29H2,1-3H3,(H,45,51)(H,46,55)(H,59,60)(H,61,62)(H2,44,47,48)(H2,56,57,58)/p-4/b6-5-,9-8-,12-11-,15-14-,18-17-,21-20-/t32-,36-,37-,38+,42-/m1/s1;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
+  </si>
+  <si>
+    <t>MRMIDIIEKKRDGHTLTTEEINFFIDGYVKGDIPDYQASSLAMAIYFQDMNDDERAALTMAMVNSGDMIDLSDIKGVKVDKHSTGGVGDTTTLVLAPLVAAVDVPVAKMSGRGLGHTGGTIDKLEAIDGFHVEIDEATFVKLVNENKVAVVGQSGNLTPADKKLYALRDVTGTVNSIPLIASSIMSKKIAAGADAIVLDVKTGSGAFMKTLEDAEALAHAMVRIGNNVGRNTMAIISDMNQPLGRAIGNALELQEAIDTLKGHGPKDLTELVLTLGSQMVVLANKAETLEEARALLIEAIDSGAALEKFKTFIKNQGGDETVIDHPERLPQAQYQIEYKAKKSGYVTELVSNDIGVASMMLGAGRLTKEDDIDLAVGIVLNKKIGDKVEEGESLLTIHSNRQDVDDVVKKLDSSITIADHVVSPTLIHKIITE</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C9H12N2O5/c12-4-6-5(13)3-8(16-6)11-2-1-7(14)10-9(11)15/h1-2,5-6,8,12-13H,3-4H2,(H,10,14,15)/t5-,6+,8+/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H11O7P/c6-2-4-3(7)1-5(11-4)12-13(8,9)10/h3-7H,1-2H2,(H2,8,9,10)/p-2/t3-,4+,5+/m0/s1;InChI=1S/C4H4N2O2/c7-3-1-2-5-4(8)6-3/h1-2H,(H2,5,6,7,8);</t>
+  </si>
+  <si>
+    <t>MKALKLYGVEDLRYEDNEKPVIESTNDVIVKVRATGICGSDTSRYKKMGPYIQGMPFGHEFSGVVDAIGSDVTHVNVGDKVTGCPAIPCYQCEYCLKGEYARCEKLFVIGSYEPGSFAEYVKLPAQNVLKVPDNVDYIEAAMVEPSAVVAHGFYKSNIQPGMTVAVMGCGSIGLLAIQWARIFGAAHIIAIDIDAHKLDIATSLGAHQTINSKEENLEKFIENHYANQIDLAIESSGAKVTIGQILTLPKKGGEVVLLGIPYDDIEIDRVHFEKILRNELTVCGSWNCLSSNFPGKEWTATLHYMKTKDINVKPIISHFLPLEKGPETFDKLVNKKERFDKVMFTIY</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C7H10O5/c8-4-1-3(7(11)12)2-5(9)6(4)10/h1,4-6,8-10H,2H2,(H,11,12)/p-1/t4-,5-,6-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C7H8O5/c8-4-1-3(7(11)12)2-5(9)6(4)10/h1,5-6,9-10H,2H2,(H,11,12)/p-1/t5-,6-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKFAVIGNPISHSLSPVMHRANFNSLGLDDSYEALNIPIEDFHLIKEIISKKELDGFNITIPHKERIIPYLDHVDEQAINAGAVNTVLIKDGKWIGYNTDGIGYVKGLHSVYPDLENAYILILGAGGASKGIAYELAKFVKPKLTVANRTLARFESWNLNINQISLADAEKYLAEFDIVINTTPAGMAGNNESIINLKHLSPNTLMSDIVYIPYKTPILEEAERKGNHIYNGLDMFVYQGAESFKIWTNKDADINSMKTAVLQQLKGE</t>
+  </si>
+  <si>
+    <t>MSQTEEKKGIGRRVQAFGSFLSSMIMPNIGAFIAWGFIAAIFIDNGWFPNKDLATLAGPMITYLIPLLIAFSGGRLIYDLRGGIIAATATMGVIVALPDTPMLLGAMIMGPLVGWLMKKTDQLIQPRTPQGFEMLFNNFSAGILGFIMTIAGFKILAPLMKFIMHILSVAVEALVHAHLLPLVSILVEPAKIVFLNNAINHGVFTPLGADQAAKAGQSILYTIESNPGPGLGILLAYMIFGKGTAKATSYGAGIIHFFGGIHEIYFPYVLMRPLLFIAVILGGMTGVATYQATGFGFKSPASPGSFIVYCLNAPRGEFLHMLLGVFLAALVSFVVAALIMKFTKEPKQDLEAATAQMETTKGKKSSVASKLVSSDKNVNKEENASGNVSETSSLDDDPEALLDNYNTEDVDAHNYNNINHVIFACDAGMGSSAMGASMLRNKFKKAGINDITVTNTAINQLPKDAQLVITQKKLTDRAIKQTPNAIHISVDNFLNSPRYEELLNNLKKDDQA</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H14O6/c7-1-3(9)5(11)6(12)4(10)2-8/h3-12H,1-2H2/t3-,4-,5-,6-/m1/s1;InChI=1S/C3H5O6P/c1-2(3(4)5)9-10(6,7)8/h1H2,(H,4,5)(H2,6,7,8)/p-3;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H15O9P/c7-1-3(8)5(10)6(11)4(9)2-15-16(12,13)14/h3-11H,1-2H2,(H2,12,13,14)/p-2/t3-,4-,5-,6-/m1/s1;InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;</t>
+  </si>
+  <si>
+    <t>MSELFSNDNIFLNVNVNSQNEAIEKAGKALVDSGAVTDAYIQAMKDREQVVSTFMGNGLAIPHGTDEAKTNVIHSGLTLLQIPEGVDWDGEVVKVVVGIAGKDGEHLDLLSKIAITFSEEENVDRIVQAKSAEEIKQVFEEADA</t>
+  </si>
+  <si>
+    <t>MALFLQPVFKDRIWGGHALKAFNYDIPNETTGECWAISAHPNGPNTIINGPYKDMTLDQLWSQHRELFDNDSRDSFPLLTKVLDANDKLSVQVHPDDYYALKHEGELGKTECWYILDAAPGAEIIYGVHAHNKQTLIDMIDNHEFDSLFKRIPVKPGDFYYVPAGTVHAIGSGILILETQQSSDTTYRIYDYDRRDQNGQLRDLHLEQSKDVIELGNHEPNTTPITTHIDTHTVTQFVDNQYFAVYKWDIHGDLKFNKPHAYCLVTIIDGTGTLAVNDKHYDIQKGSSFILTTEDEDIHFVGNISAIVSHPG</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5+,6?/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H13O9P/c7-2-6(10)5(9)4(8)3(15-6)1-14-16(11,12)13/h3-5,7-10H,1-2H2,(H2,11,12,13)/p-2/t3-,4-,5+,6-/m1/s1;</t>
+  </si>
+  <si>
+    <t>MAVLFDEQAMSNTLTHENVTIDVQLGLGNAAATAYGCDLSYDYVRINASYRT</t>
+  </si>
+  <si>
+    <t>InChI=1S/C7H14N2O3/c1-5(10)9-6(7(11)12)3-2-4-8/h6H,2-4,8H2,1H3,(H,9,10)(H,11,12)/t6-/m0/s1;InChI=1S/C5H9NO4/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H,7,8)(H,9,10)/p-1/t3-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C7H11NO5/c1-4(9)8-5(7(12)13)2-3-6(10)11/h5H,2-3H2,1H3,(H,8,9)(H,10,11)(H,12,13)/p-2/t5-/m0/s1;InChI=1S/C5H12N2O2/c6-3-1-2-4(7)5(8)9/h4H,1-3,6-7H2,(H,8,9)/p+1/t4-/m0/s1;</t>
+  </si>
+  <si>
+    <t>MKHQETTSQQYNFSIIKHGDISTPQGFTAGGMHIGLRANKKDFGWIYSSSLASSAAVYTLNQFKAAPLIVTEDTLQKSKGKLQALVVNSANANSCTGQQGIDDAQQTQTWVAQQLQIPSEHVAVASTGVIGEYLPMDKIKTGTEHINDANFTTPGAFNEAILTTDTCTKHIAVSLNIDGKTITIGGSAKGSGMIHPNMATMLAFITTDASIESNTLHQLLKSSTDHTFNMITVDGDTSTNDMVLVMANQQVEHQILSQDHPQWETFVDAFNFVCTFLAKAIARDGEGATKLISVNVSGAKSISDARKIGKTIVSSNLVKSAIFGEDANFGRIITAIGYSGCEIDPNCTMFN</t>
+  </si>
+  <si>
+    <t>MNSDNMWLTVMGLIIIISIVGLLIAKKINPVVGMTIIPCLGAMILGYSVTDLVGFFAKGLDQVINVVIMFIFAIIFFGIMNDSGLFKPLVKRLILMTRGNVVIVCAMTALIGTIAQLDGAGAVTFLLSIPALLPLYKALNMNKYLLILLLALSAAIMNMVPWGGPMARVAAVLKAKSVNELWYGLIPIQIIGFILVMLFAVYLGFKEQKRIKKAIASNELPQTQDIDVHKLVEVYERDQDVRFPVKGRARTLPWIKWVNTALTLAVILAMLINIAPPEFAFMIGVSLALVINFKSVDEQMERLRAHAPNALMMAAVIIAAGMFLGVLNETGMLKAIATNLIKVIPAEVGPYLHIIVGLLGVPLDLLTSTDAYYFAVLPIVEQTAGQFGVPSVSTAYSMVIGNIIGTFVSPFSPALWLAIGLAEANMGTYIKYAFFWIWGFAIVMLVIAMLMGIVTI</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MAKLSYLEAIRQAQDLALQQNKDVFILGEDVGKKGGVFGTTQGLQQKYGEDRVIDTPLAESNIVGTAIGAAMVGKRPIAEIQFADFILPATNQIISEAAKMRYRSNNDWQCPLTIRAPFGGGVHGGLYHSQSIESIFASSPGLTIVIPSTPYDAKGLLLSSIESNDPVLYFEHKKAYRFLKEEVPEEYYTVPLGKADVKREGEDLTVFCYGLMVNYCLQAADILAADGINVEVVDLRTVYPLDKETIIDRAKHTGKVLLVTEDNLEGSIMSEVSAIIAEHCLFDLDAPIMRLAAPDVPSMPFSPVLENEIMMNPEKILNKMRELAEF</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H8O3/c1-3(2)4(6)5(7)8/h3H,1-2H3,(H,7,8)/p-1;InChI=1S/C28H36N4O6/c33-22-14-12-21(13-15-22)30-19-29-17-5-4-9-23(26(34)32-18-6-10-25(32)28(37)38)31-24(27(35)36)16-11-20-7-2-1-3-8-20/h1-3,7-8,12-15,19,23-25,31,33H,4-6,9-11,16-18H2,(H,29,30)(H,35,36)(H,37,38)/t23-,24-,25-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C28H36N4O6/c33-22-14-12-21(13-15-22)30-19-29-17-5-4-9-23(26(34)32-18-6-10-25(32)28(37)38)31-24(27(35)36)16-11-20-7-2-1-3-8-20/h1-3,7-8,12-15,19,23-25,31,33H,4-6,9-11,16-18H2,(H,29,30)(H,35,36)(H,37,38)/t23-,24-,25-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+  </si>
+  <si>
+    <t>MIDYKSLGLSEEDLKVIYKWMDLGRKIDERLWLLNRAGKIPFVVSGQGQEATQIGMAYALEEGDITAPYYRDLAFVTYMGISAYDTFLSAFGKKDDVNSGGKQMPSHFSSRSKNILSQSSPVATQIPHAVGAALALKMDGKKKIATATVGEGSSNQGDFHEGLNFAGVHKLPFVCVIINNKYAISVPDSLQYAAEKLSDRALGYGIHGEQVDGNDPLAMYKAMKEARERAISGQGSTLIEAVTSRMTAHSSDDDDQYRTKEEREALKKADCNEKFKKELLSAGIIDDAWLAEIEAEHKDIINKATKAAEDAPYPSVEEAYAFVYEEGSLN</t>
+  </si>
+  <si>
+    <t>MKVIEVTHPIQSKQYITEDVAMAFGFFDGMHKGHDKVFDILNEIAEARSLKKAVMTFDPHPSVVLNPKRKRTTYLTPLSDKIEKISQHDIDYCIVVNFSSRFANVSVEDFVENYIIKNNVKEVIAGFDFTFGKFGKGNMTVLQEYDAFNTTIVSKQEIENEKISTTSIRQDLINGELQKANDALGYIYSIKGTVVQGEKRGRTIGFPTANIQPSDDYLLPRKGVYAVSIEIGTENKLYRGVANIGVKPTFHDPNKAEVVIEVNIFDFEDNIYGERVTVNWHHFLRPEIKFDGIDPLVKQMNDDKSRAKYLLAVDFGDEVAYNI</t>
+  </si>
+  <si>
+    <t>InChI=1S/C17H20N4O6/c1-7-3-9-10(4-8(7)2)21(5-11(23)14(25)12(24)6-22)15-13(18-9)16(26)20-17(27)19-15/h3-4,11-12,14,22-25H,5-6H2,1-2H3,(H,20,26,27)/p-1/t11-,12+,14-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MTLSKETEVIFDWRRGVEYHSANPPLYDSSTFHQTSLGGDVKYDYARSGNPNRELLEEKLARLEQGKFAFAFASGIAAISAVLLTFKSGDHVILPDDVYGGTFRLTEQILNRFNIEFTTVDTTKLEQIEGAIQSNTKLIYIETPSNPCFKITDIKAVSKIAEKHKLLVAVDNTFMTPLGQSPLLLGADIVIHSATKFLSGHSDLIAGAVITNNEAISEALYLIQNGTGNMLSAQDSWTLAKHLKTFPIRFKQSVENAQKIVSFLIKQDEISEVYYPGLTAAHLEQAKNGGAVIGLRLADESKAQQFVDALTLPLVSVSLGGVETILSHPATMSHATLPEEVRQERGITFGLFRLSVGLEDPDELIADIKYALKEAFNESIPHTIER</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C7H14N2O4S/c8-4(6(10)11)1-2-14-3-5(9)7(12)13/h4-5H,1-3,8-9H2,(H,10,11)(H,12,13)/t4-,5-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/H3N/h1H3/p+1;InChI=1S/C4H9NO2S/c5-3(1-2-8)4(6)7/h3,8H,1-2,5H2,(H,6,7)/t3-/m0/s1;</t>
+  </si>
+  <si>
+    <t>MNQIEEALTGLISKDPAIVNENANKDSDTFSTMRDLTAGIVSKSYALNHLLPKHVADAHQRGDIHFHDLDYHPFQPLTNCCLIDAKNMLHNGFEIGNANVTSPKSIQTASAQLVQIIANVSSSQYGGCTVDRVDELLSTYARHNEEQHRNIAKQFVKESEIDRYVDQQVTKDINDAIESLEYEINTLYTSNGQTPFVTLGFGLGTDHLSRKIQQAILNTRIKGLGKDRTTAIFPKLVFSIKKGTNFSPQDPNYDIKQLALKCSTKRMYPDILNYDKLVEILGDFKAPMGCRSFLPSWKDAEGHFENNGRCNLGVVTLNLPRMALESAGNMTKFWEIFYERIDVLHDALLYRINRLKDAVPNNAPILYKSGAFNYKLKETDDVAELFKNKRATISMGYIGLYETATVFYGPDWETSQEAKAFTLEILKEMKRYQTKWTELYDIWFSIYSTPSESLTDRFCRLDQERFGDIKDITDKGYYQNSFHYDVRKDVTPFEKLDFEKDYPYYASGGFIHYCEYPKLQHNLKALEAVWDYSYDKVGYLGTNIPIDHCYECDYDGDFEATEKGFKCPNCSNDNPKTVDVVKRTCGYLGNPVQRPVIKGRHKEICARVKHMKAPKE</t>
+  </si>
+  <si>
+    <t>InChI=1S/CH2O2/c2-1-3/h1H,(H,2,3)/p-1;InChI=1S/C9H16N3O14P3/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(24-8)3-23-28(19,20)26-29(21,22)25-27(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,19,20)(H,21,22)(H2,10,11,15)(H2,16,17,18)/p-4/t4-,6-,7-,8-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C9H16N3O13P3/c10-7-1-2-12(9(14)11-7)8-3-5(13)6(23-8)4-22-27(18,19)25-28(20,21)24-26(15,16)17/h1-2,5-6,8,13H,3-4H2,(H,18,19)(H,20,21)(H2,10,11,14)(H2,15,16,17)/p-4/t5-,6+,8+/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+  </si>
+  <si>
+    <t>MILVIDNNDSFTYNLIDYIKTQTKLTVQVVGIDNLLIEDVINMKPKAIVISPGPGNPDDYPILNEVLEQFYQRVPILGVCLGFQCIVSYFGGNIIHGYHPVHGHTTQLRHTNEGIFQGLPQNFNVMRYHSLIADGATFPNCLKITAKNDEAIIMAVEHITFPVFGVQYHPESILSEYGYRQVELFLSKVGDYCENRI</t>
+  </si>
+  <si>
+    <t>InChI=1S/C12H16NO9P/c14-9(11(16)10(15)6-22-23(19,20)21)5-13-8-4-2-1-3-7(8)12(17)18/h1-4,10-11,13,15-16H,5-6H2,(H,17,18)(H2,19,20,21)/p-3/t10-,11+/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C11H14NO6P/c13-10(6-18-19(15,16)17)11(14)8-5-12-9-4-2-1-3-7(8)9/h1-5,10-14H,6H2,(H2,15,16,17)/p-2/t10-,11+/m1/s1;InChI=1S/H2O/h1H2;InChI=1S/CO2/c2-1-3;</t>
+  </si>
+  <si>
+    <t>MTILEEIVEYKQSLLQNGYYQDKLSTLKSVNIQNKKSFINTIEQEPKLVIIAEIKSKSPTVNDLPERDLSQQISDYEQYGANAVSILTDEKYFGGSFERLQELTTKTTLPVLCKDFIIDPLQIDVAKQAGASMILLIVNILSDKQLRELYEYATSQSLEVLVEVHDREELDRAYKINPKLIGVNNRDLKRFVTKVEHTNIILENKQPNHYYISESGIHDTSDVRKILHSGIDGLLIGEALMRCDNLSEFLPQLKMQKVKS</t>
+  </si>
+  <si>
+    <t>MAKKPTALIILDGFANRESEHGNAVKLANKPNFDRYYNKYPTTQIEASGLDVGLPEGQMGNSEVGHMNIGAGRIVYQSLTRINKSIEDGDFFENDVLNNAIAHVNSHDSALHIFGLLSDGGVHSHYKHLFALLELAKKQGVEKVYVHAFLDGRDVDQKSALKYIEETEAKFNELGIGQFASVSGRYYAMDRDKRWEREEKAYNAIRNFDAPTYATAKEGVEASYNEGLTDEFVVPFIVENQNDGVNDGDAVIFYNFRPDRAAQLSEIFANRAFEGFKVEQVKDLFYATFTKYNDNIDAAIVFEKVDLNNTIGEIAQNNNLTQLRIAETEKYPHVTYFMSGGRNEEFKGERRRLIDSPKVATYDLKPEMSAYEVKDALLEELNKGDLDLIILNFANPDMVGHSGMLEPTIKAIEAVDECLGEVVDKILDMDGYAIITADHGNSDQVLTDDDQPMTTHTTNPVPVIVTKEGVTLRETGRLGDLAPTLLDLLNVEQPEDMTGESLIKH</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7O7P/c4-1-2(3(5)6)10-11(7,8)9/h2,4H,1H2,(H,5,6)(H2,7,8,9)/p-3/t2-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7O7P/c4-2(3(5)6)1-10-11(7,8)9/h2,4H,1H2,(H,5,6)(H2,7,8,9)/p-3/t2-/m1/s1;</t>
+  </si>
+  <si>
+    <t>MPKLILCRHGQSEWNAKNLFTGWEDVNLSEQGINEATRAGEKVRENNIAIDVAFTSLLTRALDTTHYILTESKQQWIPVYKSWRLNERHYGGLQGLNKDDARKEFGEEQVHIWRRSYDVKPPAETEEQREAYLADRRYNHLDKRMMPYSESLKDTLVRVIPFWTDHISQYLLDGQTVLVSAHGNSIRALIKYLEDVSDEDIINYEIKTGAPLVYELTDDLEVIDKYYL</t>
+  </si>
+  <si>
+    <t>MSNIAFYVVSDVHGYIFPTDFTSRNQYQPMGLLLANHVIEQDRRQYDQSFKIDNGDFLQGSPFCNYLIAHSGSGQPLVDFYNRMAFDFGTLGNHEFNYGLPYLKDTLRRLNYPVLCANIYENDSTLTDNGVQYFQVGDQTVGVIGLTTQFIPHWEQPEHIQSLTFHSAFETLQQHLPEMKRHADIIVVCYHGGFEKDLESGTPTEVLTGENEGYAMLEAFSKDIDIFITGHQHRQIAERFKDTAVIQPGTRGTTVGKVVLSTDEYENVSVESCELLPVIDDPTFTIDEDDQHIRKQLEDWLDYEITTLPYDMTINHAFEARVAPHPFTNFMNYALLEKSGADVACTALFDSASGFKQVVTMRDVINNYPFPNTFKVLAVSGAKLKEAIERSAEYFDVKNDEVSVSADFLEPKPQHFNYDIYGGVSYTIHVGRPKGQRVSNMMIQGHAVDLKQTYTICVNNYRAVGGGQYDMYIDAPVVKDIQVEGAQLLIDFLSNNNLMRIPQVVDFKVEK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C9H13N2O9P/c12-3-4-7(20-21(16,17)18)6(14)8(19-4)11-2-1-5(13)10-9(11)15/h1-2,4,6-8,12,14H,3H2,(H,10,13,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C9H12N2O6/c12-3-4-6(14)7(15)8(17-4)11-2-1-5(13)10-9(11)16/h1-2,4,6-8,12,14-15H,3H2,(H,10,13,16)/t4-,6-,7-,8-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
+  </si>
+  <si>
+    <t>MGIGRVTQVMGPVIDVRFEHNEVPKINNALVIDVPKEEGTLQLTLEVALQLGDDVVRTIAMDSTDGVQRGMDVKDTGKEISVPVGDETLGRVFNVLGETIDLKEEISDSVRRDPIHRQAPAFDELSTEVQILETGIKVVDLLAPYIKGGKIGLFGGAGVGKTVLIQELINNIAQEHGGISVFAGVGERTREGNDLYFEMSDSGVIKKTAMVFGQMNEPPGARMRVALSGLTMAEYFRDEQGQDVLLFIDNIFRFTQAGSEVSALLGRMPSAVGYQPTLATEMGQLQERITSTTKGSVTSIQAVFVPADDYTDPAPATAFAHLDATTNLERKLTEMGIYPAVDPLASTSRALEPSIVGQEHYEVARDVQSTLQKYRELQDIIAILGMDELSDEDKQTVERARRIQFFLSQNFHVAEQFTGQKGSYVPVKTTVANFKDILDGKYDHIPEDAFRLVGSMDDVIAKAKDMGVEV</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/Zn/q+2;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MAIKAEEISALLRSQIENYESEMSVTDVGTVLQIGDGIALIHGLNDVMAGELVEFHNGVLGLAQNLEESNVGVVILGPYTGITEGDEVKRTGRIMEVPVGEELIGRVVNPLGQPIDGQGPINTTKTRPVEKKATGVMDRKSVDEPLQTGIKAIDALVPIGRGQRELIIGDRQTGKTTIAIDTILNQKDQGTICIYVAIGQKDSTVRANVEKLRQAGALDYTIVVAASASEPSPLLYIAPYSGVTMGEEFMFNGKHVLIVYDDLTKQAAAYRELSLLLRRPPGREAYPGDVFYLHSRLLERAAKLNDDLGGGSITALPIIETQAGDISAYVPTNVISITDGQIFLQSDLFFSGVRPAINAGQSVSRVGGSAQIKAMKKVAGTLRLDLASYRELESFAQFGSDLDEFTASKLERGKRTVEVLKQDQNKPLPVEHQVLIIYALTKGYLDDIPVVDITRFEDELNHWAESNATELLNEIRETGGLPDAEKFDTAINEFKKSFSKSE</t>
+  </si>
+  <si>
+    <t>METIFDYNQIKQIIPHRQPFLLIDKVVEYEEGQRCVAIKQVSGNEPFFQGHFPEYAVMPGVLITEALAQTGAVAILNSEENKGKIALFAGIDKCRFKRQVVPGDTLTLEVEITKIKGPIGKGNAKATVDGQLACSCELTFAIQDVK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/i1-1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/H3N/h1H3/i1-1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C4H9NO3/c1-2(6)3(5)4(7)8/h2-3,6H,5H2,1H3,(H,7,8)/t2-,3-/m0/s1;</t>
+  </si>
+  <si>
+    <t>MTEKVNKKDNYHLIFALIFLAIVSVVSMMVGSSFIPLQRVLMYFINPNDSIDQFTLEVLRLPRITLAILAGAALGMSGLMLQNVLKNPIASPDIIGITGGASLSAVVFIAFFSHLTIHLLPLFAVLGGAIAMVILLVFQTKGHIRPTTLIIIGISMQTLFIALVQGLLITTKQLSAAKAYTWLVGSLYGATFKDTFILGMVIVAVIPLLFLVIPKMKISILDDPVAIGLGLHVQRMKLIQLITSTILVSMAISLVGNIGFVGLIAPHIAKTIVRGSYAKKLLMSAMIGAISIVIADLIGRTLFLPKEVPAGVFIAAFGAPFFIYLLLTVKKL</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/Fe/q+3;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/Fe/q+3;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MLLKPKYQIVIAGLCLAIVAILSLMIGNTLVSPGTVIQALFNFDSENDLHDVVTGARASRTIIALLTGAALAVSGLLMQALTRNPIASPGLFGVNAGAVFFVIFSITFIQIQSFKMIVVIAFLGAIVVTVLVVALGMFRQTLFSPHRVILAGAAIAMLFTAFTQGILIMNETDLQGLLFWLSGSVSLRNIWDIPWIIPLVLILILIAFSMAAHINILMTSDDIATGLGQNIKLIKWMIIMLISMLAGISVAVAGSIAFVGLIVPNISKRLLPPNYKYLIPFTALAGAILMIISDIVARIIIKPLELPIGVVTAVIGAIVLIYLMKKGRQRL</t>
+  </si>
+  <si>
+    <t>MNVIIDERKENAMTFNKVLLSWIVILIITTSIYLFWQLGDINDVFNQSILINVRLPRLLEALLTGMILTVAGLIFQTVLNNALADSFTLGLASGATFGSGLALFLGLTTLWIPVFSITFSLITLITVLVITSVLSQGYPVRILILSGLMIGALFNSLLYFLILLKPRKLNTIANYLFGGFGDAEYSNVSIIAITFIIALFGIFIILNQLKLLQLGELKSQSLGLNVQLITYIALCIASMITAINVAYVGIIGFIGMVIPQLIRKWQWKQSLGRQLALNIVIGGQIMVMADFIGSHILSPVQIPASIIIALIGIPVLFYMLISQSKRLH</t>
+  </si>
+  <si>
+    <t>MTNRENPTPLKFLSYIIGLSMILLITLFISTLIGDAKIQASTIIEAIFNYNPSNQQQNIINEIRIPRNIAAVIVGMALAVSGAIIQGVTRNGLADPALIGLNSGASFALALTYAVLPNTSFLILMFAGFLGAILGGAIVLMIGRSRRDGFNPMRIILAGAAVSAMLTALSQGIALAFRLNQTVTFWTAGGVSGTTWSHLKWAIPLIGIALFIILTISKQLTILNLGESLAKGLGQNVTMIRGICLIIAMILAGIAVAIAGQVAFVGLMVPHIARFLIGTDYAKILPLTALLGGLLVLVADMIARYLGEAPVGAIISFIGVPYFLYLVKKGGRSI</t>
+  </si>
+  <si>
+    <t>MISSNNKRRQWIALAVFSILLFLGCTWSITSGEYNIPVERFFKTLIGQGDAIDELILLDFRLPRMMITILAGAALSISGAIVQSVTKNPIAEPGILGINAGGGFAIALFIAIGKINADNFVYVLPLISILGGITAALIIFIFSFNKNEGVTPASMVLIGVGLQTALYGGSITIMSKFDDKQSDFIAAWFAGNIWGDEWPFVIAFLPWVLIIIPYLLFKSNTLNIIHTGDNIARGLGVRLSRERLILFFIAVMLSSAAVAVAGSISFIGLMGPHIAKRIVGPRHQLFLPIAILVGACLLVIADTIGKIILQPGGVPAGIVVAIIGAPYFLYLMYKTKNV</t>
+  </si>
+  <si>
+    <t>MMIKNKKKLLFLCLLVILIATAYISFVTGTIKLSFNDLFTKFTTGSNEAVDSIIDLRLPRILIALMVGAMLAVSGALLQAALQNPLAEANIIGVSSGALIMRALCMLFIPQLYFYLPLLSFIGGLIPFLIIILLHSKFRFNAVSMILVGVALFVLLNGVLEILTQNPLMKIPQGLTMKIWSDVYILAVSALLGLILTLLLSPKLNLLNLDDVQARSIGFNIDRYRWLTGLLAVFLASATVAIVGQLAFLGIIVPHVVRKLVGGNYRVLIPFSTVIGAWLLLVADLLGRVIQPPLEIPANAILMIVGGPMLIYLICQSQRNRI</t>
+  </si>
+  <si>
+    <t>MMTTKIIRRYSLITILLIVSIFISLCVGSVMIHPIDAIKGIFTQDDFILNEYRIPRTLLGIIIGSSLAISGAIIQAVIRNPLASPDVIGISKGASLAAVIIIMIFPTAPLFVLPIGSFLGAFAVSLFLSFLISKYDVKGSKLALIGLAIGAICTAIVQFLLIRNPLEANKALVWLTGSLYGHDMSNIYTILPWFLITIPIIILLSYQLDVLNLGDAVATALGLKVKTIKMLLLILAVILAGSAISVVGGISFLGLIAPHIARQLIGNKTLHVIIMSGLIGAILLTFGDGLARGIHPPLDIPVGVIIAIIGAPYFLILLRRMK</t>
+  </si>
+  <si>
+    <t>MAIKELSSQSAIDHKRKRRTTLTYMVSVCFLFICVYLNMAIGSSKINFSDIVHYVTGHTDTKATFLLHNVRMPRMLAGLFIGGALAVSGLLMQAMTRNPLASPKIFGVSSGASFVIVLVTIIIPSLEYYALYLGVIGAFIGGLTVYTLSGATKGMTPIKLALAGMAIHLFFSSMTEGIIILNENSNEQVMFWLVGSLSSMKWDEILTILPWLIGALIATVFIGRQLTIMELGDDIAKGLGQNINKVRIIIGLLVIILTGMSVSIAGPIGFVGLIVPHIVKRYVSKNYLVMIPLTFIIGADLLLLSDVLSRLITYPYESPVGIVTSFVGALYFLFITIKGVKRI</t>
+  </si>
+  <si>
+    <t>MTKLITTVKEMQHIVKAAKRSGTTIGFIPTMGALHDGHLTMVRESVSTNDITIVSVFVNPLQFGPNEDFDAYPRQIDKDLELVSEVGADIVFHPAVEDMYPGELGIDVKVGPLADVLEGAKRPGHFDGVVTVVNKLFNIVMPDYAYFGKKDAQQLAIVKQMVKDFNHAVEIIGIDIVREADGLAKSSRNVYLTEQERQEAVHLSKSLLLAQALYQDGERQSKVIIDRVTQYLESHISGCIEEVAVYSYPQLVEQHEITGRIFISLAVKFSKARLIDNIIIGAE</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7NO2/c4-2-1-3(5)6/h1-2,4H2,(H,5,6);InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H12O4/c1-6(2,3-7)4(8)5(9)10/h4,7-8H,3H2,1-2H3,(H,9,10)/p-1/t4-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C9H17NO5/c1-9(2,5-11)7(14)8(15)10-4-3-6(12)13/h7,11,14H,3-5H2,1-2H3,(H,10,15)(H,12,13)/p-1/t7-/m0/s1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+  </si>
+  <si>
     <t>MTIGIDKINFYVPKYYVDMAKLAEARQVDPNKFLIGIGQTEMAVSPVNQDIVSMGANAAKDIITDEDKKKIGMVIVATESAVDAAKAAAVQIHNLLGIQPFARCFEMKEACYAATPAIQLAKDYLATRPNEKVLVIATDTARYGLNSGGEPTQGAGAVAMVIAHNPSILALNEDAVAYTEDVYDFWRPTGHKYPLVDGALSKDAYIRSFQQSWNEYAKRQGKSLADFASLCFHVPFTKMGKKALESIIDNADETTQERLRSGYEDAVDYNRYVGNIYTGSLYLSLISLLENRDLQAGETIGLFSYGSGSVGEFYSATLVEGYKDHLDQAAHKALLNNRTEVSVDAYETFFKRFDDVDFDEEQDAVHEDRHIFYLSNIENNVREYHRPE</t>
   </si>
   <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C25H40N7O18P3S/c1-13(33)8-16(35)54-7-6-27-15(34)4-5-28-23(38)20(37)25(2,3)10-47-53(44,45)50-52(42,43)46-9-14-19(49-51(39,40)41)18(36)24(48-14)32-12-31-17-21(26)29-11-30-22(17)32/h11-12,14,18-20,24,36-37H,4-10H2,1-3H3,(H,27,34)(H,28,38)(H,42,43)(H,44,45)(H2,26,29,30)(H2,39,40,41)/p-4/t14-,18-,19-,20+,24-/m1/s1;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
+  </si>
+  <si>
     <t>InChI=1S/C27H44N7O20P3S/c1-26(2,21(40)24(41)30-5-4-15(35)29-6-7-58-17(38)9-27(3,42)8-16(36)37)11-51-57(48,49)54-56(46,47)50-10-14-20(53-55(43,44)45)19(39)25(52-14)34-13-33-18-22(28)31-12-32-23(18)34/h12-14,19-21,25,39-40,42H,4-11H2,1-3H3,(H,29,35)(H,30,41)(H,36,37)(H,46,47)(H,48,49)(H2,28,31,32)(H2,43,44,45)/p-5/t14-,19-,20-,21+,25-,27+/m1/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C25H40N7O18P3S/c1-13(33)8-16(35)54-7-6-27-15(34)4-5-28-23(38)20(37)25(2,3)10-47-53(44,45)50-52(42,43)46-9-14-19(49-51(39,40)41)18(36)24(48-14)32-12-31-17-21(26)29-11-30-22(17)32/h11-12,14,18-20,24,36-37H,4-10H2,1-3H3,(H,27,34)(H,28,38)(H,42,43)(H,44,45)(H2,26,29,30)(H2,39,40,41)/p-4/t14-,18-,19-,20+,24-/m1/s1;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
-  </si>
-  <si>
     <t>MKTVSQLIDMKQKQTKISMVTAYDFPSAKQVEAAGIDMILVGDSLGMTVLGYESTVQVTLADMIHHGRAVRRGAPNTFVVVDMPIGAVGISMTQDLNHALKLYQETNANAIKAEGAHITPFIEKATAIGIPVVAHLGLTPQSVGVMGYKLQGATKEAAEQLILDAKNVEQAGAVALVLEAIPNDLAEEISKHLTIPVIGIGAGKGTDGQVLVYHDMLNYGVEHKAKFVKQFADFSVGVDGLKQYDQEVKSGAFPSEEYTYKKKIMNEVNNND</t>
   </si>
   <si>
@@ -81,9 +498,6 @@
     <t>InChI=1S/C15H26O4/c1-10-4-5-11(7-16)12(8-17)13-6-14(2,3)9-15(10,13)19-18/h6,10-12,16-18H,4-5,7-9H2,1-3H3/t10-,11+,12-,15+/m0/s1;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3+,4+,5-,6?/m1/s1;</t>
   </si>
   <si>
-    <t>MKVIEVTHPIQSKQYITEDVAMAFGFFDGMHKGHDKVFDILNEIAEARSLKKAVMTFDPHPSVVLNPKRKRTTYLTPLSDKIEKISQHDIDYCIVVNFSSRFANVSVEDFVENYIIKNNVKEVIAGFDFTFGKFGKGNMTVLQEYDAFNTTIVSKQEIENEKISTTSIRQDLINGELQKANDALGYIYSIKGTVVQGEKRGRTIGFPTANIQPSDDYLLPRKGVYAVSIEIGTENKLYRGVANIGVKPTFHDPNKAEVVIEVNIFDFEDNIYGERVTVNWHHFLRPEIKFDGIDPLVKQMNDDKSRAKYLLAVDFGDEVAYNI</t>
-  </si>
-  <si>
     <t>InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
@@ -99,18 +513,12 @@
     <t>InChI=1S/C12H23O14P/c13-1-3-5(14)7(16)9(18)11(24-3)26-12-10(19)8(17)6(15)4(25-12)2-23-27(20,21)22/h3-19H,1-2H2,(H2,20,21,22)/p-2/t3-,4-,5-,6-,7+,8+,9-,10-,11-,12-/m1/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
   </si>
   <si>
-    <t>MLTIPEKENRGSKEQEVAIMIDALADKGKKALEALSKKSQEEIDHIVHQMSLAAVDQHMVLAKLAHEETGRGIYEDKAIKNLYASEYIWNSIKDNKTVGIIGEDKEKGLTYVAEPIGVICGVTPTTNPTSTTIFKAMIAIKTGNPIIFAFHPSAQESSKRAAEVVLEAAMKAGAPKDIIQWIEVPSIEATKQLMNHKGIALVLATGGSGMVKSAYSTGKPALGVGPGNVPSYIEKTAHIKRAVNDIIGSKTFDNGMICASEQVVVIDKEIYKDVTNEFKAHQAYFVKKDELQRLENAIMNEQKTGIKPDIVGKSAVEIAELAGIPVPENTKLIIAEISGVGSDYPLSREKLSPVLALVKAQSTKQAFQICEDTLHFGGLGHTAVIHTEDETLQKDFGLRMKACRVLVNTPSAVGGIGDMYNELIPSLTLGCGSYGRNSISHNVSATDLLNIKTIAKRRNNTQIFKVPAQIYFEENAIMSLTTMDKIEKVMIVCDPGMVEFGYTKTVENVLRQRTEQPQIKIFSEVEPNPSTNTVYKGLEMMVDFQPDTIIALGGGSAMDAAKAMWMFFEHPETSFFGAKQKFLDIGKRTYKIGMPENATFICIPTTSGTGSEVTPFAVITDSETNVKYPLADFALTPDVAIIDPQFVMSVPKSVTADTGMDVLTHAMESYVSVMASDYTRGLSLQAIKLTFEYLKSSVEKGDKVSREKMHNASTLAGMAFANAFLGIAHSIAHKIGGEYGIPHGRANAILLPHIIRYNAKDPQKHALFPKYEFFRADTDYADIAKFLGLKGNTTEALVESLAKAVYELGQSVGIEMNLKSQGVSEEELNESIDRMAELAFEDQCTTANPKEALISEIKDIIQTSYDYKQ</t>
-  </si>
-  <si>
     <t>InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C9H11ClO/c10-7-6-9(11)8-4-2-1-3-5-8/h1-5,9,11H,6-7H2/t9-/m0/s1;</t>
   </si>
   <si>
     <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C15H12N2O2/c16-15(19)17-12-7-3-1-5-10(12)9-14(18)11-6-2-4-8-13(11)17/h1-8H,9H2,(H2,16,19);InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MRAAVVTKDHKVSIEDKKLRALKPGEALVQTEYCGVCHTDLHVKNADFGDVTGVTLGHEGIGKVIEVAEDVESLKIGDRVSIAWMFESCGRCEYCTTGRETLCRSVKNAGYTVDGAMAEQVIVTADYAVKVPEKLDPAAASSITCAGVTTYKAVKVSNVKPGQWLGVFGIGGLGNLALQYAKNVMGAKIVAFDINDDKLAFAKELGADVIINSKDVDPVAEVMKLTDNKGLDATVVTSVAKTPFNQAVDVVKAGARVVAVGLPVDKMNLDIPRLVLDGIEVVGSLVGTRQDLREAFEFAAENKVTPKVQLRKLEEINDIFEEMENGTITGRMVIKF</t>
-  </si>
-  <si>
     <t>MSQFLTQLKDNVLVADGAIGTILYSEGLDTCPEAYNLSHPDKVERIHRSYIEAGADVIQTNTYGANFEKLKRFGLEDKVKAIHQAAVRIAKKAANKDTYILGTVGGFRGIKQEDISLQTILYHTEIQIDTLIEEGVDALLFETYYDLEELTNVISRTRKKYDIPIIAQLTASNTNYLVNGQAINEGLKQLVQCGANIVGLNCHHGPHHMQESFTHIELPEHAYLSCYPNASLLDIENSEFKYSDNAQYFGQVAQNLIREGVRLIGGCCGTTPEHIKFIKESIQTLKPVNDKKVIPIPTKALFNPSQNKVRQSLTSKVQERPTVIIELDTPKHLDTNRFFENIAKLDKANVDAVTLADNSLATVRISNIAAASLIKQYYNIEPLVHITCRDRNLIGLQSHLLGLSLIGVNEILAITGDPSKVGHLPGATNVYDVNSKGLTELALRFNQGINTDGDALKKRTHFNIAGAFNPNVRKLDGAVKRLEKKIESGMSYFITQPVYSKEKIIEIYHATKHLNKPFFIGIMPIASYKNALFLHNEVPGIKMSDEILQQFEAVKDDKAKTRELSLKLSKDLIDTVHEYFNGLYIITPFQNVEDSLELAAYSKSITAHKEAIL</t>
   </si>
   <si>
@@ -147,9 +555,6 @@
     <t>InChI=1S/C5H9NO4/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H,7,8)(H,9,10)/p-1/t3-/m0/s1;InChI=1S/C6H10O3/c1-4(2)3-5(7)6(8)9/h4H,3H2,1-2H3,(H,8,9)/p-1;</t>
   </si>
   <si>
-    <t>MIVEVEHQRQGVDLIKIDNDETKIIFTNYGARVVSWKYHDNNIVLGNVVEADEFYHSNPFKFGASIGRYSGRIDNAKFKLKGKEYQLEKNNGEHHLHGGCHGLDNKLFDYEIRNEIAQIKVIFKTVLKSADDHFPGDIDLTITHIYDADHQWSIEYEAVASEDTLFSPTNHVYFNLNRDNNVVDNHRISSNQLDMYVLDERNIVTGDILDLHEVFEDNKIKLSDIFTSQHAQLSQQMTRFGGLDHPFTVGEHKMYVENHEFMLEVDTDMPHVVFFTFNQPDEWDSPFNIYKPHSGFTLETQFLPNDINLYGEKAPSILKAGEVFNSKTSFRIEEKVENE</t>
-  </si>
-  <si>
     <t>InChI=1S/C6H12O6/c7-1-2-3(8)4(9)5(10)6(11)12-2/h2-11H,1H2/t2-,3-,4+,5-,6+/m1/s1;</t>
   </si>
   <si>
@@ -165,9 +570,6 @@
     <t>InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H14N5O8P/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(23-9)1-22-24(19,20)21/h2-3,5-6,9,16-17H,1H2,(H2,19,20,21)(H3,11,13,14,18)/p-2/t3-,5-,6-,9-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MSNIAFYVVSDVHGYIFPTDFTSRNQYQPMGLLLANHVIEQDRRQYDQSFKIDNGDFLQGSPFCNYLIAHSGSGQPLVDFYNRMAFDFGTLGNHEFNYGLPYLKDTLRRLNYPVLCANIYENDSTLTDNGVQYFQVGDQTVGVIGLTTQFIPHWEQPEHIQSLTFHSAFETLQQHLPEMKRHADIIVVCYHGGFEKDLESGTPTEVLTGENEGYAMLEAFSKDIDIFITGHQHRQIAERFKDTAVIQPGTRGTTVGKVVLSTDEYENVSVESCELLPVIDDPTFTIDEDDQHIRKQLEDWLDYEITTLPYDMTINHAFEARVAPHPFTNFMNYALLEKSGADVACTALFDSASGFKQVVTMRDVINNYPFPNTFKVLAVSGAKLKEAIERSAEYFDVKNDEVSVSADFLEPKPQHFNYDIYGGVSYTIHVGRPKGQRVSNMMIQGHAVDLKQTYTICVNNYRAVGGGQYDMYIDAPVVKDIQVEGAQLLIDFLSNNNLMRIPQVVDFKVEK</t>
-  </si>
-  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/C9H14N3O8P/c10-5-1-2-12(9(15)11-5)8-6(14)7(4(3-13)19-8)20-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H2,10,11,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1;</t>
   </si>
   <si>
@@ -408,9 +810,6 @@
     <t>MINQVYQLVAPRQFEVTYNNVDIYSDYVIVRPLYMSICAADQRYYTGSRDENVLSQKLPMSLIHEGVGEVVFDSKGVFNKGTKVVMVPNTPTEKDDVIAENYLKSSYFRSSGHDGFMQDFVLLNHDRAVPLPDDIDLSIISYTELVTVSLHAIRRFEKKSISNKNTFGIWGDGNLGYITAILLRKLYPESKIYVFGKTDYKLSHFSFVDDVFFINKIPEGLTFDHAFECVGGRGSQSAINQMIDYISPEGSIALLGVSEFPVEVNTRLVLEKGLTLIGSSRSGSKDFQDVVDLYIQYPDIVDKLALLKGQEFEIATINDLTEAFEADLSTSWGKTVLKWIM</t>
   </si>
   <si>
-    <t>MSQTEEKKGIGRRVQAFGSFLSSMIMPNIGAFIAWGFIAAIFIDNGWFPNKDLATLAGPMITYLIPLLIAFSGGRLIYDLRGGIIAATATMGVIVALPDTPMLLGAMIMGPLVGWLMKKTDQLIQPRTPQGFEMLFNNFSAGILGFIMTIAGFKILAPLMKFIMHILSVAVEALVHAHLLPLVSILVEPAKIVFLNNAINHGVFTPLGADQAAKAGQSILYTIESNPGPGLGILLAYMIFGKGTAKATSYGAGIIHFFGGIHEIYFPYVLMRPLLFIAVILGGMTGVATYQATGFGFKSPASPGSFIVYCLNAPRGEFLHMLLGVFLAALVSFVVAALIMKFTKEPKQDLEAATAQMETTKGKKSSVASKLVSSDKNVNKEENASGNVSETSSLDDDPEALLDNYNTEDVDAHNYNNINHVIFACDAGMGSSAMGASMLRNKFKKAGINDITVTNTAINQLPKDAQLVITQKKLTDRAIKQTPNAIHISVDNFLNSPRYEELLNNLKKDDQA</t>
-  </si>
-  <si>
     <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C6H14O6/c7-1-3(9)5(11)6(12)4(10)2-8/h3-12H,1-2H2/t3-,4-,5-,6-/m1/s1;</t>
   </si>
   <si>
@@ -456,9 +855,6 @@
     <t>InChI=1S/C3H6O3/c1-2(4)3(5)6/h2,4H,1H3,(H,5,6)/p-1/t2-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
   </si>
   <si>
-    <t>MLNLENKTYVIMGIANKRSIAFGVAKVLDQLGAKLVFTYRKERSRKELEKLLEQLNQPEAYLYQIDVQSDEEVINGFEQIGKDVGNIDGVYHSIAFANMEDLRGRFSETSREGFLLAQDISSYSLTIVAHEAKKLMPEGGSIVATTYLGGEFAVQNYNVMGVAKASLEANVKYLALDLGPDNIRVNAISAGPIRTLSAKGVGGFNTILKEIEERAPLKRNVDQVEVGKTAAYLLSDLSSGVTGENIHVDSGFHAIK</t>
-  </si>
-  <si>
     <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
   </si>
   <si>
@@ -570,18 +966,9 @@
     <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C49H58N4O6.Fe/c1-9-34-31(6)39-25-45-49(46(55)18-12-17-30(5)16-11-15-29(4)14-10-13-28(2)3)33(8)40(52-45)24-44-37(27-54)36(20-22-48(58)59)43(53-44)26-42-35(19-21-47(56)57)32(7)38(51-42)23-41(34)50-39;/h9,13,15,17,23-27,46,55H,1,10-12,14,16,18-22H2,2-8H3,(H4,50,51,52,53,54,56,57,58,59);/q;+2/p-4/b29-15+,30-17+,38-23-,39-25-,40-24-,41-23-,42-26-,43-26-,44-24-,45-25-;/t46-;/m0./s1;</t>
   </si>
   <si>
-    <t>MGIGRVTQVMGPVIDVRFEHNEVPKINNALVIDVPKEEGTLQLTLEVALQLGDDVVRTIAMDSTDGVQRGMDVKDTGKEISVPVGDETLGRVFNVLGETIDLKEEISDSVRRDPIHRQAPAFDELSTEVQILETGIKVVDLLAPYIKGGKIGLFGGAGVGKTVLIQELINNIAQEHGGISVFAGVGERTREGNDLYFEMSDSGVIKKTAMVFGQMNEPPGARMRVALSGLTMAEYFRDEQGQDVLLFIDNIFRFTQAGSEVSALLGRMPSAVGYQPTLATEMGQLQERITSTTKGSVTSIQAVFVPADDYTDPAPATAFAHLDATTNLERKLTEMGIYPAVDPLASTSRALEPSIVGQEHYEVARDVQSTLQKYRELQDIIAILGMDELSDEDKQTVERARRIQFFLSQNFHVAEQFTGQKGSYVPVKTTVANFKDILDGKYDHIPEDAFRLVGSMDDVIAKAKDMGVEV</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
     <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C6H9NO6/c7-3(6(12)13)1-2(4(8)9)5(10)11/h2-3H,1,7H2,(H,8,9)(H,10,11)(H,12,13)/t3-/m0/s1;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MAIKAEEISALLRSQIENYESEMSVTDVGTVLQIGDGIALIHGLNDVMAGELVEFHNGVLGLAQNLEESNVGVVILGPYTGITEGDEVKRTGRIMEVPVGEELIGRVVNPLGQPIDGQGPINTTKTRPVEKKATGVMDRKSVDEPLQTGIKAIDALVPIGRGQRELIIGDRQTGKTTIAIDTILNQKDQGTICIYVAIGQKDSTVRANVEKLRQAGALDYTIVVAASASEPSPLLYIAPYSGVTMGEEFMFNGKHVLIVYDDLTKQAAAYRELSLLLRRPPGREAYPGDVFYLHSRLLERAAKLNDDLGGGSITALPIIETQAGDISAYVPTNVISITDGQIFLQSDLFFSGVRPAINAGQSVSRVGGSAQIKAMKKVAGTLRLDLASYRELESFAQFGSDLDEFTASKLERGKRTVEVLKQDQNKPLPVEHQVLIIYALTKGYLDDIPVVDITRFEDELNHWAESNATELLNEIRETGGLPDAEKFDTAINEFKKSFSKSE</t>
-  </si>
-  <si>
     <t>MMIIVMLLLSYLIGAFPSGFVIGKLFFKKDIRQFGSGNTGATNSFRVLGRPAGFLVTFLDIFKGFITVFFPLWLPVHADGPISTFFTNGLIVGLFAILGHVYPVYLKFQGGKAVATSAGVVLGVNPILLLILAIIFFIVLKIFKYVSLASIVAAICCVIGSLIIQDYILLVVSFLVSIILIIRHRSNIARIFRGEEPKIKWM</t>
   </si>
   <si>
@@ -627,21 +1014,12 @@
     <t>InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/C2H5O5P/c1-2(3)7-8(4,5)6/h1H3,(H2,4,5,6)/p-2;</t>
   </si>
   <si>
-    <t>MNIHEYQGKEIFRSMGVAVPEGRVAFTAEEAVEKAKELNSDVYVVKAQIHAGGRGKAGGVKIAKSLSEVETYAKELLGKTLVTHQTGPEGKEIKRLYIEEGCAIQKEYYVGFVIDRATDQVTLMASEEGGTEIEEVAAKTPEKIFKETIDPVIGLSPFQARRIAFNINIPKESVNKAAKFLLALYNVFIEKDCSIVEINPLVTTADGDVLALDAKINFDDNALFRHKDVVELRDLEEEDPKEIEASKHDLSYIALDGDIGCMVNGAGLAMATMDTINHFGGNPANFLDAGGSATREKVTEAFKIILGDENVKGIFVNIFGGIMKCDVIAEGIVEAVKEVDLTLPLVVRLEGTNVELGKKILKDSGLAIEPAATMAEGAQKIVKLVKEA</t>
-  </si>
-  <si>
     <t>InChI=1S/C5H6O4/c1-3(5(8)9)2-4(6)7/h1-2H2,(H,6,7)(H,8,9)/p-2;InChI=1S/C25H40N7O19P3S/c1-25(2,20(38)23(39)28-6-5-14(33)27-7-8-55-16(36)4-3-15(34)35)10-48-54(45,46)51-53(43,44)47-9-13-19(50-52(40,41)42)18(37)24(49-13)32-12-31-17-21(26)29-11-30-22(17)32/h11-13,18-20,24,37-38H,3-10H2,1-2H3,(H,27,33)(H,28,39)(H,34,35)(H,43,44)(H,45,46)(H2,26,29,30)(H2,40,41,42)/p-5/t13-,18-,19-,20+,24-/m1/s1;</t>
   </si>
   <si>
     <t>InChI=1S/C26H40N7O19P3S/c1-13(25(39)40)8-16(35)56-7-6-28-15(34)4-5-29-23(38)20(37)26(2,3)10-49-55(46,47)52-54(44,45)48-9-14-19(51-53(41,42)43)18(36)24(50-14)33-12-32-17-21(27)30-11-31-22(17)33/h11-12,14,18-20,24,36-37H,1,4-10H2,2-3H3,(H,28,34)(H,29,38)(H,39,40)(H,44,45)(H,46,47)(H2,27,30,31)(H2,41,42,43)/p-5/t14-,18-,19-,20+,24-/m1/s1;InChI=1S/C4H6O4/c5-3(6)1-2-4(7)8/h1-2H2,(H,5,6)(H,7,8)/p-2;</t>
   </si>
   <si>
-    <t>MSVFIDKNTKVMVQGITGSTALFHTKQMLDYGTKIVAGVTPGKGGQVVESVPVFNTVEEAKNETGATVSVIYVPAPFAADSILEAADADLDMVICITEHIPVLDMVKVKRYLQGRKTRLVGPNCPGVITADECKIGIMPGYIHKKGHVGVVSRSGTLTYEAVHQLTEEGIGQTTAVGIGGDPVNGTNFIDVLKAFNEDDETKAVVMIGEIGGTAEEEAAEWIKANMTKPVVGFIGGQTAPPGKRMGHAGAIISGGKGTAEEKIKTLNSCGVKTAATPSEIGSTLIEAAKEAGIYESLLTVNK</t>
-  </si>
-  <si>
-    <t>MTLSKETEVIFDWRRGVEYHSANPPLYDSSTFHQTSLGGDVKYDYARSGNPNRELLEEKLARLEQGKFAFAFASGIAAISAVLLTFKSGDHVILPDDVYGGTFRLTEQILNRFNIEFTTVDTTKLEQIEGAIQSNTKLIYIETPSNPCFKITDIKAVSKIAEKHKLLVAVDNTFMTPLGQSPLLLGADIVIHSATKFLSGHSDLIAGAVITNNEAISEALYLIQNGTGNMLSAQDSWTLAKHLKTFPIRFKQSVENAQKIVSFLIKQDEISEVYYPGLTAAHLEQAKNGGAVIGLRLADESKAQQFVDALTLPLVSVSLGGVETILSHPATMSHATLPEEVRQERGITFGLFRLSVGLEDPDELIADIKYALKEAFNESIPHTIER</t>
-  </si>
-  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/C6H12N2O4S2/c7-3(5(9)10)1-13-14-2-4(8)6(11)12/h3-4H,1-2,7-8H2,(H,9,10)(H,11,12)/t3-,4-/m0/s1;</t>
   </si>
   <si>
@@ -672,6 +1050,18 @@
     <t>InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/C21H26N6O15P2/c22-17-12-18(24-7-23-17)27(8-25-12)20-16(31)14(29)11(41-20)6-39-44(36,37)42-43(34,35)38-5-10-13(28)15(30)19(40-10)26-3-1-2-9(4-26)21(32)33/h1-4,7-8,10-11,13-16,19-20,28-31H,5-6H2,(H4-,22,23,24,32,33,34,35,36,37)/p-2/t10-,11-,13-,14-,15-,16-,19-,20-/m1/s1;</t>
   </si>
   <si>
+    <t>MKRLIGLVIVALVLLAACGGNNDKKVTIGVASNDTKAWEKVKELAKKDDIDVEIKHFSDYNLPNKALNDGDIDMNAFQHFAFLDQYKKAHKGTNISALSTTVLAPLGIYSDKIKDVKKVKDGAKVVIPNDVSNQARALKLLEAAGLIKLKKDFGLAGTVKDITSNPKHLKITAVDAQQTARALSDVDIAVINNGVATKAGKDPKNDPIFLEKSDSDAVKPYINIVAVNDKDLDNKTYAKIVELYHSKEAQKALQEDVKDGEKPVNLSKDEIKAIETSLAK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKKLFGLILVLTFAVVLAACGNGSKSGSDDKKITVGASPAPHAEILEKAKPLLEKKGYELDIKTINDYTTPNKLLDKGEIDANYFQHTPYLNTEKKDKGYKIVSAGNVHLEPMAVYSKKYKSLKELPKGATVYVSNNPAEQGRFLKFFVDAGLIKIKKGVKIEDAKFSDITENKKDIKFNNKQSAEFLPKIYQNEDADAVIINSNFAIEQKLNPKKDSIAVESAKDNPYANLIAVKEGHQDDKKIKALIEVLQSKDIQDFINEKYNGAVIPAK</t>
+  </si>
+  <si>
     <t>MLSVKKATKFAVANLIIVSTVFSSVTPAIAQSDKSSKDESFAVGNTKNPKNVIFLVGDGMGPSFNTAYRYYKNDPHAKEMTPTAFDSYLKGTNRTYSNDPKQNITDSAAGGTAFSSGHKTYNGAIGVDSNKQKVKTVLERAKEKGKSTGLVSTAELTDATPAAYAAHVTSRDDKNEIAKQFYKDKINGKHKVDVLLGGGAKYFGKSNGNLDKKFKKDGYDLATNSKELSKSDKDKVLGLFADKNMPLAIDASKDEPSLADMQQSAISKLERNKKGFFLMVEGASIDKSAHSNDITGVMSEMEGFEKAFDDAIQYAKKHKDTLVIATADHSTGGLTIGKDKGYEWNPQPIKSMKHSGSYMTEKMAKGEDPEKVINEGYGFKFSQDDMKKVKKENKKLKRLLKKEKDEKSADVEKQTKALQHAIQKPVNDKSYTGWTSDGHTGEDVNTYAYGPRSESFSGNIENTESAKIIFDIFK</t>
   </si>
   <si>
@@ -717,9 +1107,6 @@
     <t>MAAIKPITTYKGKIVPLFNDNIDTDQIIPKVHLKRISKSGFGPFAFDEWRYLPDGSDNPDFNPNKPKYKGASILITGDNFGCGSSREHAAWALKDYGFHIIIAGSFSDIFYMNCTKNAMLPIVLEKNAREHLAKYVEIEVDLPNQTVSSPDKSFHFEIDETWKNKLVNGLDDIAITLQYESLIEKYEKSL</t>
   </si>
   <si>
-    <t>MSMQSSYKRLVKVLLTILVIVFSILLVGGWYIFKNEAPRPTKIVDQQGHTLVTKGELISGQAIYEKYGLTDYGSYLGNGSYLGPDYTAEALHHYLIGMRKYYAQDIYHKQLHKLNHVEIAVVKDKVMKEIRINRYSEKEDQLVLTPGQVYGLKYLQDYYKKEFVNNPKQVGLNENMIKQFQNDDYMVAGNKIEHLSQFFFWGAWLSSTDRPGKTFSYTNNWPYDVDAGNTLPSAGILWTAISVTLLIAGLAFIIYIQKRYEFDMKPTYESERELPKIEVDSKITDSQRKVGKYLVVVMLLFLVQILLGELLAHYYVENKFFGIEIQRLFPFNIVKTWHVQLVIFWVATTWLAAGIYIVPKVLGNEPKKQGVLVDILFWALIIVVMGSMIGEWSHILGWIDSHWWLFGHFGWEYIELGKFWQILFIVGMVLWVIILCRGFLPAIRNKVQVNHDKRHLLTLLFVGAIAIPLFYLASLFIMPNSHVTFADYWRWWIVHLWVEGIFEAFAVVLIGFLMVNMKLTTIETTIRALYFQLILLLGTGIVGMGHHYYWQGDHSIWLALGSCFSALEVVPLCLLIWEAYTHYRLYKKSDIAFPYKGTFIFLASTGLWNAIGAGALGFLINTPAVNYFEHGTQWTAAHAHGSMAGVYGMFSIAIALYVFKNITKKEFWTPKVEKWIKISCWALNVGLAGMVFVTLIPVGYIQLKDGLEDGYWHSRLTSFYEQPLVKAIMWGRMPWDIIFTVGVIILVVIFIRGYRHLKPKYRV</t>
-  </si>
-  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/N2O/c1-2-3;</t>
   </si>
   <si>
@@ -810,9 +1197,6 @@
     <t>MTTNTVTLQTAHIVSLGDIEEAKASIKPFIRRTPLIKSMYLSQSITKGNVFLKLENMQFTGSFKFRGASNKINHLTDEQKEKGIIAASAGNHAQGVALTAKLLGIDATIVMPETAPQAKQQATKGYGAKVILKGKNFNETRLYMEELAKEKGMTIVHPYDDKFVMAGQGTIGLEILDDIWNVNTVIVPVGGGGLIAGIATALKSFNPSIHIIGVQSENVHGMAESFYKRDLTEHRVDSTIADGCDVKVPGEQTYEVVKHLVDEFILVTEEEIEHAMKDLMQRAKIITEGAGALPTAAILSGKINNKWLEDKNVVALVSGGNVDLTRVSGVIEHGLNIADTSKGVVG</t>
   </si>
   <si>
-    <t>InChI=1S/C4H9NO3/c1-2(6)3(5)4(7)8/h2-3,6H,5H2,1H3,(H,7,8)/t2-,3+/m1/s1;</t>
-  </si>
-  <si>
     <t>InChI=1S/H3N/h1H3/p+1;InChI=1S/C4H6O3/c1-2-3(5)4(6)7/h2H2,1H3,(H,6,7)/p-1;</t>
   </si>
   <si>
@@ -849,18 +1233,12 @@
     <t>InChI=1S/C27H35N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,32,37-41H,5-7H2,1-2H3,(H,44,45)(H,46,47)(H2,28,29,30)(H2,33,34,42,43)/p-2/t14-,15+,16+,19-,20+,21+,26+/m0/s1;InChI=1S/C31H52N7O17P3S/c1-4-5-6-7-8-9-10-11-22(40)59-15-14-33-21(39)12-13-34-29(43)26(42)31(2,3)17-52-58(49,50)55-57(47,48)51-16-20-25(54-56(44,45)46)24(41)30(53-20)38-19-37-23-27(32)35-18-36-28(23)38/h10-11,18-20,24-26,30,41-42H,4-9,12-17H2,1-3H3,(H,33,39)(H,34,43)(H,47,48)(H,49,50)(H2,32,35,36)(H2,44,45,46)/p-4/b11-10+/t20-,24-,25-,26+,30-/m1/s1;</t>
   </si>
   <si>
-    <t>MAVNVRDYIAENYGLFINGEFVKGSSDETIEVTNPATGETLSHITRAKDKDVDHAVEVAQEAFESWSLTSKSERAQMLRDIGDKLMAQKDKIAMIETLNNGKPIRETTAIDIPFAARHFHYFASVIETEEGTVNDIDKDTMSIVRHEPIGVVGAVVAWNFPMLLAAWKIAPAIAAGNTIVIQPSSSTPLSLLEVAKIFQEVLPKGVVNILTGKGSESGNAIFNHDGVDKLSFTGSTDVGYQVAEAAAKHLVPATLELGGKSANIILDDANLDLAVEGIQLGILFNQGEVCSAGSRLLVHEKIYDQLVPRLQEAFSNIKVGNPQDEATQMGSQTGKDQLDKIQSYIDAAKESDAQILAGGHRLTENGLDKGFFFEPTLIAVPDNHHKLAQEEIFGPVLTVIKVKDDQEAIDIANDSEYGLAGGVFSQNITRALNIAKAVRTGRIWINTYNQVPEGAPFGGYKKSGIGRETYKGALSNYQQVKNIYIDTSNALKGLY</t>
-  </si>
-  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/C4H9NO/c5-3-1-2-4-6/h4H,1-3,5H2/p+1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
   </si>
   <si>
     <t>InChI=1S/C4H9NO2/c5-3-1-2-4(6)7/h1-3,5H2,(H,6,7);InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MRDYTKQYINGEWVESNSNETIEVINPATEEVIGKVAKGNKADVDKAVEAADNVYLEFRHTSVKERQALLDKIVKEYENRKDDIVQAITDELGAPLSLSERVHYQMGLNHFVAARDALDNYEFEERRGDDLVVKEAIGVSGLITPWNFPTNQTSLKLAAAFAAGSPVVLKPSEETPFAAVILAEIFDKVGVPKGVFNLVNGDGAGVGNPLSEHPKVRMMSFTGSGPTGSKIMEKAAKDFKKVSLELGGKSPYIVLDDVDIKEVAKATTGKVVNNTGQVCTAGTRVLVPNKIKDAFLAELKEQFSQVRVGNPREDGTQVGPIISKKQFDQVQNYINKGIEEGAELFYGGPGKPEGLEKGYFARPTIFINVDNQMTIAQEEIFGPVMSVITYNDLDEAIQIANDTKYGLAGYVIGKDKETLHKVARSIEAGTVEINEAGRKPDLPFGGYKQSGLGREWGDYGIEEFLEVKSIAGYFK</t>
-  </si>
-  <si>
     <t>MKIAIIGAGIGGLTAAALLQEQGHTIKVFEKNESVKEIGAGIGIGDNVLKKLGNHDLAKGIKNAGQILSTMTVLDDKDRPLTTVKLKSNTLNVTLPRQTLIDIIKSYVKDDAIFTNHEVTHIDNETDKVTIHFAEQESEAFDLCIGADGIHSKVRQSVNADSKVLYQGYTCFRGLIDDIDLKHPDCAKEYWGRKGRVGIVPLLNNQAYWFITINSKENNHKYSSFGKPHLQAYFNHYPNEVREILDKQSETGILLHNIYDLKPLKSFVYGRTILLGDAAHATTPNMGQGAGQAMEDAIVLVNCFNAYDFEKALQRYDKIRVKHTAKVIKRSRKIGKIAQYRSRLVVAVRNRIMKMMPNALAAGQTKFLYKSKEK</t>
   </si>
   <si>
@@ -1257,6 +1635,27 @@
     <t>InChI=1S/C20H21N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,9,12-13H,5-8H2,(H6-,21,22,23,24,25,28,29,30,31,32,33)/p-1/t12-,13+/m1/s1;InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
   </si>
   <si>
+    <t>MAQTLAQTKQISQSHTFDVSQSHHKTPDDTNSHSVIYSTQNLDLWYGENHALQNINLDIYENQITAIIGPSGCGKSTYIKTLNRMVELVPTVKTAGKILYRDQDIFDQKYSKEQLRTNVGMVFQQPNPFPKSIYDNITYGPKIHGIKNKKVLDEIVEKSLRGAAIWDELKDRLHTNAYSLSGGQQQRVCIARCLAIEPEVILMDEPTSALDPISTLRVEELVQELKENYTIIMVTHNMQQAARVSDKTAFFLNGYVNEYDDTDKIFSNPSNKKTEDYISGRFG</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>METTDNNRQSLVDQQLVQKHLSSRTVKNKVFKLIFLACTLLGLVVLIALLTQTLIKGVSHLNLQFFTNFSSSTPSMAGVKGALIGSLWLMLSIIPLSIILGIGTAIYLEEYAKNNKFTQFVKISISNLAGVPSVVFGLLGYTLFVGGAGIEALKMGNSILAAALTMTLLILPIIIVSSQEAIRAVPTSVREASYGLGANKWQTIRRVVLPAALPGILTGFILSLSRALGETAPLVLIGIPTILLATPRSILDQFSALPIQIFTWAKMPQEEFQNVASAGIIVLLVILILMNGVAIILRNKFSKKF</t>
+  </si>
+  <si>
+    <t>MTSSTNVKALIEKNNNKKGKHNDKIIPVILAAISAISILTTLGILITLLLETITFFTRIPITEFLFSTTWNPTGSDPKFGIWALIIGTLKITVIATIFAVPVGLGAAIYLSEYASDRARRIIKPILEILAGIPTIVFGFFALTFVTPVLRSFIPGLGEFNAISPGLVVGIMIVPLITSLSEDAMASVPNKIREGAYGLGATKLEVATKVVLPAATSGIVASIVLAISRAIGETMIVSLAAGSSPTASLSLTSSIQTMTGYIVEIATGDATFGSNIYYSIYAVGFTLFIFTLIMNLLSQWISKRFREEY</t>
+  </si>
+  <si>
+    <t>MPVIKINNLNKVFGDNEVLKDINLEINQGEVVAIIGPSGSGKSTLLRCMNLLEVPTKGQVIFEGNDLTEKRTQVDKLRQKMGMVFQNFNLFPHKKVVDNIILAPKLLKKDNNDELHKEALSLLDKVGLKEKADVYPNQLSGGQKQRVAIARALAMHPDVILFDEPTSALDPEVVGDVLKVMKDLAKEGMTMVVVTHEMGFAKDVSDKVIFMADGVVVESGTPVEIFEQPQHERTQNFLARVL</t>
+  </si>
+  <si>
+    <t>MIQLNNIHKSFNDVEVIKGIDLSVGKGEVVTLIGRSGSGKTTLLRMINALEIPTEGTVFVNGKTYTSKDKKSQIEVRKQSGMVFQSYNLFPHKTALENVMEGLITVKKLKKAEAREKSLELLEKVGLTHVKDQRPHALSGGQQQRVAIARALAMNPKVMLFDEPTSALDPELVNDVLKVIKDLANEGMTMVIVTHEMRFAREVSNNIVFIHEGEIGEQGAPEEIFNNPKTEELKRFLNVINEE</t>
+  </si>
+  <si>
     <t>MKEIVIASNNQGKINDFKVIFPDYHVIGISELIPDFDVEETGSTFEENAILKSEAAAKALNKTVIADDSGLEVFALNGEPGIYSARYAGENKSDEANIEKLLNKLGNTTDRRAQFVCVISMSGPDMETKVFKGTVSGEIADGKYGENGFGYDPIFYVPKLDRTMAQLSKEQKGQISHRRNAINLLEAYLAGDQNV</t>
   </si>
   <si>
@@ -1312,150 +1711,6 @@
   </si>
   <si>
     <t>InChI=1S/C8H16NO9P/c1-4(11)9-5(2-10)7(13)8(14)6(12)3-18-19(15,16)17/h2,5-8,12-14H,3H2,1H3,(H,9,11)(H2,15,16,17)/p-2/t5-,6-,7-,8-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C37H64N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-24,26,30-32,36,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C27H46N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-16,20-22,26,35,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t15-,16+,20+,21+,22-,26+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C27H44N7O18P3S/c1-4-5-15(35)10-18(37)56-9-8-29-17(36)6-7-30-25(40)22(39)27(2,3)12-49-55(46,47)52-54(44,45)48-11-16-21(51-53(41,42)43)20(38)26(50-16)34-14-33-19-23(28)31-13-32-24(19)34/h13-14,16,20-22,26,38-39H,4-12H2,1-3H3,(H,29,36)(H,30,40)(H,44,45)(H,46,47)(H2,28,31,32)(H2,41,42,43)/p-4/t16-,20-,21-,22+,26-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MAELQRGLEGVIAAETKISSIIESQLTYAGYDIDDLAENAQFEEVIFLLWNYRLPNEEELAHLKGKLNQYMTLNPRVYTHFEEYVTDHVHPMTALRTSLSYIAHFDPDAENESDENRYERAMRIQAKVASLVTAFARVRQDKEPLKPNPDLSYAANFLYMLRGELPTDIEVEAFNKALILHADHELNASAFTARCAVSSLSDMYSGIVAAVGSLKGPLHGGANEQVMTMLSEIGSIENVDAYLDEKFANKDKVMGFGHRVYKDGDPRAKYLREMSRQITKDAGREELFEMSVKMEKRMAEEKGLIPNVDFYSASVYHCMEIPHDLFTPIFAVSRSAGWIAHILEQYKDNRIMRPRAKYIGETNRKYIPLEERK</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MKQIKKLLVANRGEIAIRIFRAAAELDISTVAIYSNEDKSSLHRYKADESYLVGSDLGPAESYLNIERIIDVAKQANVDAIHPGYGFLSENEQFARRCAEEGIKFIGPHLEHLDMFGDKVKARTTAIKADLPVIPGTDGPIKSYELAKEFAEEAGFPLMIKATSGGGGKGMRIVREESELEDAFHRAKSEAEKSFGNSEVYIERYIDNPKHIEVQVIGDEHGNIVHLFERDCSVQRRHQKVVEVAPSVGLSSDLRQRICDAAIQLMENIKYVNAGTVEFLVSGDEFFFIEVNPRVQVEHTITEMVTGIDIVKTQILVAAGADLFGEEINMPQQKDITTLGYAIQCRITTEDPLNDFMPDTGTIIAYRSSGGFGVRLDAGDGFQGAEISPYYDSLLVKLSTHAISFKQAEEKMVRSLREMRIRGVKTNIPFLINVMKNKKFTSGDYTTKFIEETPELFDIQPSLDRGTKTLEYIGNVTINGFPNVEKRPKPDYELASIPTVSSSKIASFSGTKQLLDEVGPKGVAEWVKKQDDVLLTDTTFRDAHQSLLATRVRTKDMINIASKTADVFKDGFSLEMWGGATFDVAYNFLKENPWERLERLRTAIPNVLFQMLLRASNAVGYKNYPDNVIHKFVQESAKAGIDVFRIFDSLNWVDQMKVANEAVQEAGKISEGTICYTGDILNPERSNIYTLEYYVKLAKELEREGFHILAIKDMAGLLKPKAAYELIGELKAAVDLPIHLHTHDTSGNGLLTYKQAIDAGVDIIDTAVASMSGLTSQPSANSLYYALNGFPRHLRTDIEGMESLSHYWSTVRTYYSDFESDIKSPNTEIYQHEMPGGQYSNLSQQAKSLGLGERFDEVKDMYRRVNFLFGDIVKVTPSSKVVGDMALYMVQNDLDEQSVITDGYKLDFPESVVSFFKGEIGQPVNGFNKDLQAVILKGQEALTARPGEYLEPVDFEKVRELLEEEQQGPVTEQDIISYVLYPKVYEQYIQTRNQYGNLSLLDTPTFFFGMRNGETVEIEIDKGKRLIIKLETISEPDENGNRTIYYAMNGQARRIYIKDENVHTNANVKPKADKSNPSHIGAQMPGSVTEVKVSVGETVKANQPLLITEAMKMETTIQSPFDGMIKQVTVNNGDTIATGDLLIEIEKASD</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/CH2O3/c2-1(3)4/h(H2,2,3,4)/p-1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MVKLAIDMMGGDNAPDIVLEAVQKAVEDFKDLEIILFGDEKKYNLNHERIEFRHCSEKIEMEDEPVRAIKRKKDSSMVKMAEAVKSGEADGCVSAGNTGALMSAGLFIVGRIKGVARPALVVTLPTIDGKGFVFLDVGANADAKPEHLLQYAQLGDIYAQKIRGIDNPKISLLNIGTEPAKGNSLTKKSYELLNQDHSLNFVGNIEAKTLMDGDTDVVVTDGYTGNMVLKNLEGTAKSIGKMLKDTIMSSTKNKLAGAILKKDLAEFAKKMDYSEYGGSVLLGLEGTVVKAHGSSNAKAFYSAIRQAKIAGEQNIVQTMKETVGESNE</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C19H22N3O12P/c1-8(18(28)29)34-35(31,32)33-7-14(25)15(26)13(24)6-22-12-5-10(23)3-2-9(12)4-11-16(22)20-19(30)21-17(11)27/h2-5,8,13-15,24-26H,6-7H2,1H3,(H4,20,21,23,27,28,29,30,31,32)/p-3/t8-,13-,14+,15-/m0/s1;InChI=1S/H3N/h1H3/i1-1;</t>
-  </si>
-  <si>
-    <t>MMQKLIAQIEKGKPFFEKLSRNIYLRAIRDGFISAMPVILFSSIFLLIAYVPNIFGFKWDKGMEAILMKPYNYTMGLVAFLVAGTTAKSLTDSFNRKLESTNQINFISTMLAAMCGFLFLASDPAKDGGFLSAFMGTKGLLTAFLSAFVTVIVYNFCVKRNITIKMPKEVPPNISQVFKDLIPFSAVIIILYALDLVIRNSFKSNVAEGILKLFEPLFTAADGWIGVTIIFGAFALFWFVGIHGPSIVEPAIAAITYANIEANFKLLQAGEHADKIITSGTQMFIVTFGGTGATLVVPFMFMWMTKSKRNKAIGRASVVPTFFGVNEPILFGAPLVLNPVFFIPFVLAPIVNVWIFKLFVEVLGMNSFSVNLPWTTPGPLGIIMGTGFGLWSFVLAITLIVVDIIIYYPFLKVYDSEILDEEEGRKESNSDLKEKVAANFDTKKADSILAASGVSDDAAKASNITEQTNVLVLCAGGGTSGLLANALNKAAEEYHVPVKAAAGGYGAHMDIMKEYQLIILAPQVASNYEDIKQDTDRLGIKLAKTQGAEYIKLTRDGQAALDFVQQQFEN</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C12H22O11/c13-1-3-5(15)6(16)9(19)12(22-3)23-10-4(2-14)21-11(20)8(18)7(10)17/h3-20H,1-2H2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C12H23O14P/c13-1-3-10(7(16)8(17)11(19)24-3)26-12-9(18)6(15)5(14)4(25-12)2-23-27(20,21)22/h3-19H,1-2H2,(H2,20,21,22)/p-2/t3-,4-,5+,6+,7-,8-,9-,10-,11?,12+/m1/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H15N4O13P3/c15-5-1-7(14-4-13-8-9(14)11-3-12-10(8)16)25-6(5)2-24-29(20,21)27-30(22,23)26-28(17,18)19/h3-7,15H,1-2H2,(H,20,21)(H,22,23)(H,11,12,16)(H2,17,18,19)/p-4/t5-,6+,7+/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H13N4O7P/c15-5-1-7(21-6(5)2-20-22(17,18)19)14-4-13-8-9(14)11-3-12-10(8)16/h3-7,15H,1-2H2,(H,11,12,16)(H2,17,18,19)/p-2/t5-,6+,7+/m0/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MQNHTAVNTAQTIILRDLVDALLFEDIAGIVSNSEITKENGQTILIYKRETQQIKIPVYFSALNMFRYESSQPITIEGRASKQPLTAAEFWQKIVKMNRDLSREWEVARVEEGLTTAATQLTKQLSELDLASHPFVMSEQFASLKDRPFHPLAKEKRGLREADYQVYQAELNQSFPLMVAAVKKTHMIHGDTANIDELENLTAPIKEQATDMLNDQGLSIDDYVLFPVHPWQYQHILPNVFAKEISEKLVVLLPLKFGDYLSSSSMRSLIDIGAPYNHVKVPFAMQSLGALRLTPTRYMKNGEQAEQLLRQLIEKDEALAKYVMVCDETAWWSYMGQDNDIFKDQLGHLTVQLRKYPEVLAKNDTQQLVSMAALAANDRTLYQMICGKDNISKNDVMTLFEDIAQVFLKVTLSFMQYGALPELHGQNILLSFEDGRVQKCVLRDHDTVRIYKPWLTAHQLSLPKYVVREDTPNTLINEDLETFFAYFQTLAVSVNLYAIIDAIQDLFGVSEHELMSLLKQILKNEVATISWVTTDQLAVRHILFDKQTWPFKQILLPLLYQRDSGGGSMPSGLTTVPNPMVTYD</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H6O5/c6-3(5(9)10)1-2-4(7)8/h1-2H2,(H,7,8)(H,9,10)/p-2;InChI=1S/C11H20N4O7/c12-1-2-14-7(16)3-11(22,10(20)21)4-8(17)15-5-6(13)9(18)19/h6,22H,1-5,12-13H2,(H,14,16)(H,15,17)(H,18,19)(H,20,21)/t6-,11-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C16H24N4O11/c17-8(13(25)26)7-20-12(24)6-16(31,15(29)30)5-11(23)19-4-3-18-10(22)2-1-9(21)14(27)28/h8,31H,1-7,17H2,(H,18,22)(H,19,23)(H,20,24)(H,25,26)(H,27,28)(H,29,30)/p-2/t8-,16-/m0/s1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C17H21N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,22-24H,5-6H2,1-2H3,(H3,20,25,26,27,28,29)/p-3/t11-,12+,14-/m0/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C17H23N4O9P/c1-7-3-9-10(4-8(7)2)21(15-13(18-9)16(25)20-17(26)19-15)5-11(22)14(24)12(23)6-30-31(27,28)29/h3-4,11-12,14,18,22-24H,5-6H2,1-2H3,(H2,27,28,29)(H2,19,20,25,26)/p-2/t11-,12+,14-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
-  </si>
-  <si>
-    <t>MTTIKTSNLGFPRLGRKREWKKAIESYWAKKISKEELDQTLTDLHKENLLLQKYYHLDSIPVGDFSLYDHILDTSLLFNIIPERFQGRTIDDDLLFDIARGNKDHVASALIKWFNTNYHYIVPEWDNVEPKVSRNVLLDRFKYAQSLNVNAHPVIVGPITFVKLSKGGHQTFEEKVKTLLPLYKEVFESLIDAGAEYIQVDEPILVTDDSESYENITREAYDYFEKAGVAKKLVIQTYFERAHLKFLSSLPVGGLGLDFVHDNGYNLKQIEAGDFDKSKTLYAGIIDGRNVWASDIEAKKALIDKLLAHTNELVIQPSSSLLHVPVSLDDETLDSSVGEGLSFATEKLDELDALRRLFNQNDSVKYDKLKARYERFQNQSFKNLDYDFESVRTSRQSPFAQRIEQQQKRLNLPDLPTTTIGSFPQSREVRKYRADWKNKRITDEAYETFLKNEIARWIKIQEDIGLDVLVHGEFERNDMVEFFGEKLQGFLVTKFGWVQSYGSRAVKPPIIYGDVKWTAPLTVDETVYAQSLTDKPVKGMLTGPVTILNWSFERVDLPRKVVQDQIALAINEEVLALEAAGIKVIQVDEPALREGLPLRSEYHEQYLKDAVLSFKLATSSVRDETQIHTHMCYSQFGQIIHAIHDLDADVISIETSRSHGDLIKDFEDINYDLGIGLGVYDIHSPRIPTKEEITTAINRSLQQIDRSLFWVNPDCGLKTRKEEEVKDALTVLVNAVKAKRQE</t>
-  </si>
-  <si>
-    <t>InChI=1S/C30H39N9O12/c1-39-16(13-33-24-23(39)26(45)38-30(31)37-24)12-32-15-4-2-14(3-5-15)25(44)36-19(29(50)51)7-10-21(41)34-17(27(46)47)6-9-20(40)35-18(28(48)49)8-11-22(42)43/h2-5,16-19,32H,6-13H2,1H3,(H,34,41)(H,35,40)(H,36,44)(H,42,43)(H,46,47)(H,48,49)(H,50,51)(H4,31,33,37,38,45)/p-4/t16-,17-,18-,19-/m0/s1;InChI=1S/C4H9NO2S/c5-3(1-2-8)4(6)7/h3,8H,1-2,5H2,(H,6,7)/t3-/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C29H37N9O12/c30-29-37-23-22(25(44)38-29)33-15(12-32-23)11-31-14-3-1-13(2-4-14)24(43)36-18(28(49)50)6-9-20(40)34-16(26(45)46)5-8-19(39)35-17(27(47)48)7-10-21(41)42/h1-4,15-18,31,33H,5-12H2,(H,34,40)(H,35,39)(H,36,43)(H,41,42)(H,45,46)(H,47,48)(H,49,50)(H4,30,32,37,38,44)/p-4/t15-,16-,17-,18-/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MTKLPQSFMWGGALAANQFEGGYDKGGKGLSVIDVMTSGAHGKARQITESIDPNHYYPNHEGIDFYHRYKEDIALFKEMGLKCLRTSIAWTRIFPNGDEDVPNEEGLAFYDRIFDELIAQGIEPVVTLSHFEMPLHLAKHYGGFRNREVVDYFVHFARVVFERYKDKVTYWMTFNEINNQMDTSNPIFLWTNSGVALTENDNPEEVLYQVAHHELLASALAVRLGKEINPKFKIGTMISHVPIYPYSCHPKDMMEAQIANRLRFFFPDVQVRGYYPSYAKKMLARKGYDVGWQEGDDSILQQGTVDYIGFSYYMSTAVKHDVNTTVENNIVNGGLNHSVENPHIATSDWGWAIDPDGLRYTLNVLYDRYQLPLFIVENGFGAVDEVVDGHIHDDYRIEYLKAHITAAIEAVDQDGVDLIGYTPWGIIDIVSFTTGEMKKRYGLIYVDRDNDGHGTMERLKKDSFYWYQQVIASNGDKL</t>
-  </si>
-  <si>
-    <t>InChI=1S/C13H19O10P/c14-5-7-3-1-2-4-8(7)22-13-12(17)11(16)10(15)9(23-13)6-21-24(18,19)20/h1-4,9-17H,5-6H2,(H2,18,19,20)/p-2/t9-,10-,11+,12-,13-/m1/s1;InChI=1S/H2O/h1H2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C7H8O2/c8-5-6-3-1-2-4-7(6)9/h1-4,8-9H,5H2;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H68N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-26,28,32-34,38,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t28-,32-,33-,34+,38-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C39H70N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-27(47)22-30(49)68-21-20-41-29(48)18-19-42-37(52)34(51)39(2,3)24-61-67(58,59)64-66(56,57)60-23-28-33(63-65(53,54)55)32(50)38(62-28)46-26-45-31-35(40)43-25-44-36(31)46/h25-28,32-34,38,47,50-51H,4-24H2,1-3H3,(H,41,48)(H,42,52)(H,56,57)(H,58,59)(H2,40,43,44)(H2,53,54,55)/p-4/t27-,28-,32-,33-,34+,38-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MIKPKIALTIAGTDPTGGAGVMADLKSFHSCGVYGMGVVTSIVAQNTLGVQNIHNLNHQWVDEQLDSVFNDTLPHAIKTGMIATADTMETIRHYLMQHESIPYVIDPVMLAKSGDSLMDNDTKQNLQHTLLPLADVVTPNLPEAEEITGLTIDSEEKIMQAGRIFINEIGSKGVIVKGGHSNDTDIAKDYLFTKEGVQTFENERFKTKHTHGTGCTFSAVITAELAKGRPLFDAVQKAKKFISMSIQYTPEIGRGRGPVNHFAYLKKEGLDDELSK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H9N3O/c1-4-8-2-5(3-10)6(7)9-4/h2,10H,3H2,1H3,(H2,7,8,9);</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H10N3O4P/c1-4-8-2-5(6(7)9-4)3-13-14(10,11)12/h2H,3H2,1H3,(H2,7,8,9)(H2,10,11,12)/p-2;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MSNKAWGGRFEVQLEEWVDDFNASITFDQTLIDQDIEGSIAHATMLADQGIISQQDSEQIIQGLKSIQHDYHQDQIQFSASLEDIHLNIEHELIKRIGDAGGKLHTGRSRNDQVATDMHLYTKKQVQDIIALIKSLQSVIVDIASNNVDTIMPGYTHLQRAQPISFAHHIMTYFWMLQRDQQRFEDSLKRIDINPLGAAALSGTTYPIDRHETTALLNFGSLYENSLDAVSDRDYIIETLHNISLTMVHLSRFAEEIIFWSTDEAKFITLSDAFSTGSSIMPQKKNPDMAELIRGKVGRTTGHLMSMLMTLKGLPLAYNKDMQEDKEGLFDAVHTIKGSLRIFEGMIQTMTINKERLNQTVKEDFSNATELADYLVTKNIPFRTAHEIVGKIVLECIQQGHYLLDVPLSTYQQHHSSIDADIYDYLQPENCLKRRQSYGSTGQSSVKQQLDVAKQLLSQ</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H18N4O6/c11-5(8(17)18)2-1-3-13-10(12)14-6(9(19)20)4-7(15)16/h5-6H,1-4,11H2,(H,15,16)(H,17,18)(H,19,20)(H3,12,13,14)/p-1/t5-,6?/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H14N4O2/c7-4(5(11)12)2-1-3-10-6(8)9/h4H,1-3,7H2,(H,11,12)(H4,8,9,10)/p+1/t4-/m0/s1;InChI=1S/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C36H44N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h37-40H,5-16H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4;InChI=1S/O2/c1-2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O2/c1-2/h1-2H;InChI=1S/C36H38N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h13-16,37,40H,5-12H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4/b25-13-,26-13-,27-14-,28-15-,29-14-,30-15-,31-16-,32-16-;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;InChI=1S/H3N/h1H3/i1-1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;</t>
-  </si>
-  <si>
-    <t>MYLIEPIRNGEYITDGAIALAMQVYVNQHIFLDEDILFPYYCDPKVEIGRFQNTAIEVNQDYIDKHSIQVVRRDTGGGAVYVDKGAVNMCCILEQDTSIYGDFQRFYQPAIKALHTLGATDVIQSGRNDLTLNGKKVSGAAMTLLNNRIYGGYSLLLDVNYEAMDEVLKPNRKKIASKGIKSVRARVGHLREALDEKYRDITIEEFKDLMVTQILGIDDIKEAKRYELSDADWEAIQELARKKYKNWDWNYGKSPKYEYNRSERLSSGTVDITISVEQNRIADCRIFGDFFGQGDIKDVEQALQGTKMTREDLTHQLKQLDIVYYFGNVTVESLVEMILS</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C8H14O2S2/c9-8(10)4-2-1-3-7-5-6-11-12-7/h7H,1-6H2,(H,9,10)/p-1/t7-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C18H26N5O8PS2/c19-16-13-17(21-8-20-16)23(9-22-13)18-15(26)14(25)11(30-18)7-29-32(27,28)31-12(24)4-2-1-3-10-5-6-33-34-10/h8-11,14-15,18,25-26H,1-7H2,(H,27,28)(H2,19,20,21)/p-1/t10-,11-,14-,15-,18-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
-  </si>
-  <si>
-    <t>MKFISNNNITDPTLNLAMEEYVLKNLPAEESYFLFYINRPSIIVGKNQNTIEEVNQTYIDAHNIDVVRRISGGGAVYHDTGNLNFSFITDDDGNSFHNFQKFTEPIVQALQSLGVNAELTGRNDIQVGQAKISGNAMVKVKNRMFSHGTLMLNSDLDEVQNALKVNPAKIKSKGIKSVRKRVANIQEFLNAPLEIEEFKKIILKTIFGETEVEEYKLTDEDWENIEKLSNDKYRTWEWNYGRNPKYNFEREEKFEKGFVQIKFDVKRGKIEHAKIFGDFFGVGDVTDLENALVGCLHDFEHIEEALSEYDLYHYFGDIDRHELIRLMS</t>
-  </si>
-  <si>
-    <t>InChI=1S/C37H66N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-25(45)20-28(47)66-19-18-39-27(46)16-17-40-35(50)32(49)37(2,3)22-59-65(56,57)62-64(54,55)58-21-26-31(61-63(51,52)53)30(48)36(60-26)44-24-43-29-33(38)41-23-42-34(29)44/h23-26,30-32,36,45,48-49H,4-22H2,1-3H3,(H,39,46)(H,40,50)(H,54,55)(H,56,57)(H2,38,41,42)(H2,51,52,53)/p-4/t25-,26+,30+,31+,32-,36+/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +2062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C406"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1881,7 +2136,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1892,7 +2147,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1903,117 +2158,117 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -2024,7 +2279,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2035,777 +2290,777 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
         <v>108</v>
@@ -2816,7 +3071,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
         <v>109</v>
@@ -2827,197 +3082,197 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
         <v>111</v>
-      </c>
-      <c r="C94" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" t="s">
         <v>112</v>
-      </c>
-      <c r="B95" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
         <v>112</v>
       </c>
-      <c r="B96" t="s">
-        <v>114</v>
-      </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" t="s">
         <v>115</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>116</v>
-      </c>
-      <c r="C97" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s">
         <v>115</v>
-      </c>
-      <c r="B98" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" t="s">
         <v>120</v>
-      </c>
-      <c r="B101" t="s">
-        <v>121</v>
-      </c>
-      <c r="C101" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="s">
         <v>120</v>
       </c>
-      <c r="B102" t="s">
-        <v>122</v>
-      </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" t="s">
         <v>123</v>
-      </c>
-      <c r="B103" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s">
         <v>123</v>
       </c>
-      <c r="B104" t="s">
-        <v>125</v>
-      </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" t="s">
         <v>127</v>
-      </c>
-      <c r="B107" t="s">
-        <v>128</v>
-      </c>
-      <c r="C107" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" t="s">
         <v>127</v>
       </c>
-      <c r="B108" t="s">
-        <v>129</v>
-      </c>
       <c r="C108" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
         <v>128</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s">
         <v>128</v>
@@ -3025,3258 +3280,4303 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" t="s">
         <v>131</v>
-      </c>
-      <c r="B111" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" t="s">
         <v>131</v>
       </c>
-      <c r="B112" t="s">
-        <v>133</v>
-      </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C119" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C143" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C144" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C146" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="B147" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B149" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C150" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C151" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B152" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C153" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C156" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C157" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C158" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B160" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C160" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="B161" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="B162" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C162" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C163" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C164" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C165" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C166" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B167" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C167" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B168" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C168" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B169" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C169" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B170" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C170" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C171" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C172" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B173" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C173" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C174" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B175" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C175" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B176" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C176" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B177" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C177" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B178" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C178" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C179" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B180" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C181" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B182" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C182" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="B183" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C183" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="B184" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C184" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B185" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C185" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B186" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C186" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B187" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C187" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B188" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C188" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B189" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C189" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B190" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C190" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B191" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C191" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B192" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C192" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B193" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C193" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B194" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C194" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B195" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C195" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B196" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C196" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B197" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B198" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="B199" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="B200" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C200" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C201" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B202" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C202" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B203" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C203" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B204" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C204" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B205" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C205" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B206" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C206" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C207" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B208" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C208" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B209" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C209" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B210" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C210" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B211" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C211" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C212" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C213" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C214" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B215" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C215" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B216" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C216" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B217" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C217" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B218" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C218" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="B219" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C219" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="B220" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="C220" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="B221" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C221" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="B222" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C222" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B223" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C223" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B224" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C224" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B225" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C225" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B226" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C226" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="B227" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C227" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="B228" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C228" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B229" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C229" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C230" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B231" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C231" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C232" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B233" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C233" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B234" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C234" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="B235" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C235" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="B236" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C236" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B237" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C237" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B238" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C238" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B239" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C239" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B240" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C240" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B241" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C241" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B242" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C242" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B243" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C243" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B244" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C244" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B245" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C245" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B246" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C246" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B247" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C247" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B248" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C248" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C249" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C250" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B251" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C251" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B252" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C252" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B253" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C253" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B254" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C254" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C255" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B256" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C256" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="B257" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C257" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="B258" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C258" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B259" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C259" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B260" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C260" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B261" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C261" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B262" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C262" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B263" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C263" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B264" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C264" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B265" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="C265" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B266" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C266" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B267" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C267" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B268" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C268" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="B269" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="C269" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="B270" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="C270" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B271" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C271" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B272" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C272" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B273" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C273" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B274" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C274" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B275" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C275" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B276" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C276" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="B277" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C277" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="B278" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C278" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="B279" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C279" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="B280" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="C280" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="B281" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="C281" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="B282" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="C282" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="B283" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="C283" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="B284" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C284" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B285" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C285" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B286" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C286" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="B287" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C287" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="B288" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C288" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="B289" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C289" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="B290" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C290" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="B291" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C291" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="B292" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C292" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B293" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C293" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B294" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C294" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>346</v>
+        <v>33</v>
       </c>
       <c r="B295" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C295" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>346</v>
+        <v>33</v>
       </c>
       <c r="B296" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C296" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B297" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C297" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B298" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C298" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="B299" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C299" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="B300" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C300" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B301" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C301" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B302" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C302" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B303" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B304" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C304" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="B305" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C305" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="B306" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C306" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B307" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C307" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B308" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C308" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B309" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C309" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B310" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C310" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B311" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C311" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B312" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C312" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B313" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C313" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B314" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C314" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>369</v>
+        <v>236</v>
       </c>
       <c r="B315" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C315" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>369</v>
+        <v>236</v>
       </c>
       <c r="B316" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C316" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B317" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C317" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B318" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="C318" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B319" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C319" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B320" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C320" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="B321" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="C321" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="B322" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="C322" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="B323" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C323" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="B324" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C324" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>383</v>
+        <v>30</v>
       </c>
       <c r="B325" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C325" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>383</v>
+        <v>30</v>
       </c>
       <c r="B326" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C326" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B327" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="C327" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B328" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C328" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B329" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C329" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B330" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C330" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="B331" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="C331" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="B332" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="C332" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B333" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C333" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B334" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C334" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B335" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="C335" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B336" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="C336" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B337" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C337" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B338" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="C338" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="B339" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C339" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="B340" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C340" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B341" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="C341" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B342" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C342" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>28</v>
+        <v>383</v>
       </c>
       <c r="B343" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="C343" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>28</v>
+        <v>383</v>
       </c>
       <c r="B344" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C344" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="B345" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="C345" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="B346" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="C346" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B347" t="s">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="C347" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B348" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="C348" t="s">
-        <v>411</v>
+        <v>46</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B349" t="s">
-        <v>414</v>
+        <v>46</v>
       </c>
       <c r="C349" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B350" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C350" t="s">
-        <v>414</v>
+        <v>46</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B351" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C351" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B352" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C352" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="B353" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="C353" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="B354" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C354" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="B355" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C355" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="B356" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C356" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B357" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="C357" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B358" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="C358" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="B359" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="C359" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="B360" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="C360" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="B361" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="C361" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="B362" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="C362" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="B363" t="s">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="C363" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="B364" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="C364" t="s">
-        <v>77</v>
+        <v>402</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>166</v>
+        <v>404</v>
       </c>
       <c r="B365" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="C365" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>166</v>
+        <v>404</v>
       </c>
       <c r="B366" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="C366" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>433</v>
+        <v>17</v>
       </c>
       <c r="B367" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="C367" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>433</v>
+        <v>17</v>
       </c>
       <c r="B368" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="C368" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="B369" t="s">
-        <v>192</v>
+        <v>407</v>
       </c>
       <c r="C369" t="s">
-        <v>193</v>
+        <v>408</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="B370" t="s">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="C370" t="s">
-        <v>192</v>
+        <v>407</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B371" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="C371" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B372" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C372" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B373" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C373" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B374" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C374" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="B375" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="C375" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="B376" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="C376" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B377" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="C377" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B378" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C378" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="B379" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="C379" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="B380" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C380" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>53</v>
+        <v>422</v>
       </c>
       <c r="B381" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="C381" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>53</v>
+        <v>422</v>
       </c>
       <c r="B382" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="C382" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>56</v>
+        <v>423</v>
       </c>
       <c r="B383" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="C383" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>56</v>
+        <v>423</v>
       </c>
       <c r="B384" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="C384" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="B385" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="C385" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="B386" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C386" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="B387" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="C387" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="B388" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="C388" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="B389" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="C389" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="B390" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="C390" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>163</v>
+        <v>433</v>
       </c>
       <c r="B391" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="C391" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>163</v>
+        <v>433</v>
       </c>
       <c r="B392" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="C392" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="B393" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="C393" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="B394" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="C394" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="B395" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="C395" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="B396" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="C396" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="B397" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C397" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="B398" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="C398" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>191</v>
+        <v>445</v>
       </c>
       <c r="B399" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="C399" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>191</v>
+        <v>445</v>
       </c>
       <c r="B400" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="C400" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>472</v>
+        <v>345</v>
       </c>
       <c r="B401" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="C401" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>472</v>
+        <v>345</v>
       </c>
       <c r="B402" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="C402" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B403" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C403" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B404" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="C404" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>166</v>
+        <v>453</v>
       </c>
       <c r="B405" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="C405" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>166</v>
+        <v>453</v>
       </c>
       <c r="B406" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C406" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>456</v>
+      </c>
+      <c r="B407" t="s">
+        <v>457</v>
+      </c>
+      <c r="C407" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>456</v>
+      </c>
+      <c r="B408" t="s">
+        <v>458</v>
+      </c>
+      <c r="C408" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>298</v>
+      </c>
+      <c r="B409" t="s">
+        <v>459</v>
+      </c>
+      <c r="C409" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>298</v>
+      </c>
+      <c r="B410" t="s">
+        <v>460</v>
+      </c>
+      <c r="C410" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" t="s">
+        <v>461</v>
+      </c>
+      <c r="C411" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" t="s">
+        <v>277</v>
+      </c>
+      <c r="C412" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>320</v>
+      </c>
+      <c r="B413" t="s">
+        <v>321</v>
+      </c>
+      <c r="C413" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>320</v>
+      </c>
+      <c r="B414" t="s">
+        <v>322</v>
+      </c>
+      <c r="C414" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>173</v>
+      </c>
+      <c r="B415" t="s">
+        <v>462</v>
+      </c>
+      <c r="C415" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>173</v>
+      </c>
+      <c r="B416" t="s">
+        <v>463</v>
+      </c>
+      <c r="C416" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>464</v>
+      </c>
+      <c r="B417" t="s">
+        <v>465</v>
+      </c>
+      <c r="C417" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>464</v>
+      </c>
+      <c r="B418" t="s">
+        <v>466</v>
+      </c>
+      <c r="C418" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>392</v>
+      </c>
+      <c r="B419" t="s">
+        <v>467</v>
+      </c>
+      <c r="C419" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>392</v>
+      </c>
+      <c r="B420" t="s">
+        <v>468</v>
+      </c>
+      <c r="C420" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>395</v>
+      </c>
+      <c r="B421" t="s">
+        <v>467</v>
+      </c>
+      <c r="C421" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>395</v>
+      </c>
+      <c r="B422" t="s">
+        <v>468</v>
+      </c>
+      <c r="C422" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>396</v>
+      </c>
+      <c r="B423" t="s">
+        <v>467</v>
+      </c>
+      <c r="C423" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>396</v>
+      </c>
+      <c r="B424" t="s">
+        <v>468</v>
+      </c>
+      <c r="C424" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>469</v>
+      </c>
+      <c r="B425" t="s">
+        <v>470</v>
+      </c>
+      <c r="C425" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>469</v>
+      </c>
+      <c r="B426" t="s">
+        <v>471</v>
+      </c>
+      <c r="C426" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>472</v>
+      </c>
+      <c r="B427" t="s">
+        <v>473</v>
+      </c>
+      <c r="C427" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>472</v>
+      </c>
+      <c r="B428" t="s">
+        <v>474</v>
+      </c>
+      <c r="C428" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>118</v>
+      </c>
+      <c r="B429" t="s">
+        <v>473</v>
+      </c>
+      <c r="C429" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>118</v>
+      </c>
+      <c r="B430" t="s">
+        <v>474</v>
+      </c>
+      <c r="C430" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>475</v>
+      </c>
+      <c r="B431" t="s">
+        <v>473</v>
+      </c>
+      <c r="C431" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>475</v>
+      </c>
+      <c r="B432" t="s">
+        <v>474</v>
+      </c>
+      <c r="C432" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
         <v>476</v>
+      </c>
+      <c r="B433" t="s">
+        <v>351</v>
+      </c>
+      <c r="C433" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>476</v>
+      </c>
+      <c r="B434" t="s">
+        <v>477</v>
+      </c>
+      <c r="C434" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>478</v>
+      </c>
+      <c r="B435" t="s">
+        <v>479</v>
+      </c>
+      <c r="C435" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>478</v>
+      </c>
+      <c r="B436" t="s">
+        <v>480</v>
+      </c>
+      <c r="C436" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>207</v>
+      </c>
+      <c r="B437" t="s">
+        <v>481</v>
+      </c>
+      <c r="C437" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>207</v>
+      </c>
+      <c r="B438" t="s">
+        <v>482</v>
+      </c>
+      <c r="C438" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>483</v>
+      </c>
+      <c r="B439" t="s">
+        <v>484</v>
+      </c>
+      <c r="C439" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>483</v>
+      </c>
+      <c r="B440" t="s">
+        <v>485</v>
+      </c>
+      <c r="C440" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>486</v>
+      </c>
+      <c r="B441" t="s">
+        <v>487</v>
+      </c>
+      <c r="C441" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>486</v>
+      </c>
+      <c r="B442" t="s">
+        <v>488</v>
+      </c>
+      <c r="C442" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>489</v>
+      </c>
+      <c r="B443" t="s">
+        <v>490</v>
+      </c>
+      <c r="C443" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>489</v>
+      </c>
+      <c r="B444" t="s">
+        <v>491</v>
+      </c>
+      <c r="C444" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>492</v>
+      </c>
+      <c r="B445" t="s">
+        <v>493</v>
+      </c>
+      <c r="C445" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>492</v>
+      </c>
+      <c r="B446" t="s">
+        <v>494</v>
+      </c>
+      <c r="C446" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>495</v>
+      </c>
+      <c r="B447" t="s">
+        <v>496</v>
+      </c>
+      <c r="C447" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>495</v>
+      </c>
+      <c r="B448" t="s">
+        <v>497</v>
+      </c>
+      <c r="C448" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>498</v>
+      </c>
+      <c r="B449" t="s">
+        <v>499</v>
+      </c>
+      <c r="C449" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>498</v>
+      </c>
+      <c r="B450" t="s">
+        <v>500</v>
+      </c>
+      <c r="C450" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>501</v>
+      </c>
+      <c r="B451" t="s">
+        <v>502</v>
+      </c>
+      <c r="C451" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>501</v>
+      </c>
+      <c r="B452" t="s">
+        <v>503</v>
+      </c>
+      <c r="C452" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>298</v>
+      </c>
+      <c r="B453" t="s">
+        <v>504</v>
+      </c>
+      <c r="C453" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>298</v>
+      </c>
+      <c r="B454" t="s">
+        <v>505</v>
+      </c>
+      <c r="C454" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>506</v>
+      </c>
+      <c r="B455" t="s">
+        <v>507</v>
+      </c>
+      <c r="C455" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>506</v>
+      </c>
+      <c r="B456" t="s">
+        <v>508</v>
+      </c>
+      <c r="C456" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>509</v>
+      </c>
+      <c r="B457" t="s">
+        <v>510</v>
+      </c>
+      <c r="C457" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>509</v>
+      </c>
+      <c r="B458" t="s">
+        <v>511</v>
+      </c>
+      <c r="C458" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>512</v>
+      </c>
+      <c r="B459" t="s">
+        <v>513</v>
+      </c>
+      <c r="C459" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>512</v>
+      </c>
+      <c r="B460" t="s">
+        <v>514</v>
+      </c>
+      <c r="C460" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>515</v>
+      </c>
+      <c r="B461" t="s">
+        <v>513</v>
+      </c>
+      <c r="C461" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>515</v>
+      </c>
+      <c r="B462" t="s">
+        <v>514</v>
+      </c>
+      <c r="C462" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>264</v>
+      </c>
+      <c r="B463" t="s">
+        <v>516</v>
+      </c>
+      <c r="C463" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>264</v>
+      </c>
+      <c r="B464" t="s">
+        <v>517</v>
+      </c>
+      <c r="C464" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>518</v>
+      </c>
+      <c r="B465" t="s">
+        <v>519</v>
+      </c>
+      <c r="C465" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>518</v>
+      </c>
+      <c r="B466" t="s">
+        <v>520</v>
+      </c>
+      <c r="C466" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>521</v>
+      </c>
+      <c r="B467" t="s">
+        <v>522</v>
+      </c>
+      <c r="C467" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>521</v>
+      </c>
+      <c r="B468" t="s">
+        <v>523</v>
+      </c>
+      <c r="C468" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>524</v>
+      </c>
+      <c r="B469" t="s">
+        <v>525</v>
+      </c>
+      <c r="C469" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>524</v>
+      </c>
+      <c r="B470" t="s">
+        <v>526</v>
+      </c>
+      <c r="C470" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>527</v>
+      </c>
+      <c r="B471" t="s">
+        <v>528</v>
+      </c>
+      <c r="C471" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>527</v>
+      </c>
+      <c r="B472" t="s">
+        <v>529</v>
+      </c>
+      <c r="C472" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>530</v>
+      </c>
+      <c r="B473" t="s">
+        <v>531</v>
+      </c>
+      <c r="C473" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>530</v>
+      </c>
+      <c r="B474" t="s">
+        <v>531</v>
+      </c>
+      <c r="C474" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>164</v>
+      </c>
+      <c r="B475" t="s">
+        <v>532</v>
+      </c>
+      <c r="C475" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>164</v>
+      </c>
+      <c r="B476" t="s">
+        <v>533</v>
+      </c>
+      <c r="C476" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>433</v>
+      </c>
+      <c r="B477" t="s">
+        <v>534</v>
+      </c>
+      <c r="C477" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>433</v>
+      </c>
+      <c r="B478" t="s">
+        <v>535</v>
+      </c>
+      <c r="C478" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>536</v>
+      </c>
+      <c r="B479" t="s">
+        <v>537</v>
+      </c>
+      <c r="C479" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>536</v>
+      </c>
+      <c r="B480" t="s">
+        <v>538</v>
+      </c>
+      <c r="C480" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>539</v>
+      </c>
+      <c r="B481" t="s">
+        <v>537</v>
+      </c>
+      <c r="C481" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>539</v>
+      </c>
+      <c r="B482" t="s">
+        <v>538</v>
+      </c>
+      <c r="C482" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>540</v>
+      </c>
+      <c r="B483" t="s">
+        <v>537</v>
+      </c>
+      <c r="C483" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>540</v>
+      </c>
+      <c r="B484" t="s">
+        <v>538</v>
+      </c>
+      <c r="C484" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>541</v>
+      </c>
+      <c r="B485" t="s">
+        <v>537</v>
+      </c>
+      <c r="C485" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>541</v>
+      </c>
+      <c r="B486" t="s">
+        <v>538</v>
+      </c>
+      <c r="C486" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>542</v>
+      </c>
+      <c r="B487" t="s">
+        <v>537</v>
+      </c>
+      <c r="C487" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>542</v>
+      </c>
+      <c r="B488" t="s">
+        <v>538</v>
+      </c>
+      <c r="C488" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>543</v>
+      </c>
+      <c r="B489" t="s">
+        <v>544</v>
+      </c>
+      <c r="C489" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>543</v>
+      </c>
+      <c r="B490" t="s">
+        <v>545</v>
+      </c>
+      <c r="C490" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>546</v>
+      </c>
+      <c r="B491" t="s">
+        <v>547</v>
+      </c>
+      <c r="C491" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>546</v>
+      </c>
+      <c r="B492" t="s">
+        <v>548</v>
+      </c>
+      <c r="C492" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>549</v>
+      </c>
+      <c r="B493" t="s">
+        <v>550</v>
+      </c>
+      <c r="C493" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>549</v>
+      </c>
+      <c r="B494" t="s">
+        <v>551</v>
+      </c>
+      <c r="C494" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>552</v>
+      </c>
+      <c r="B495" t="s">
+        <v>553</v>
+      </c>
+      <c r="C495" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>552</v>
+      </c>
+      <c r="B496" t="s">
+        <v>554</v>
+      </c>
+      <c r="C496" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>433</v>
+      </c>
+      <c r="B497" t="s">
+        <v>555</v>
+      </c>
+      <c r="C497" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>433</v>
+      </c>
+      <c r="B498" t="s">
+        <v>556</v>
+      </c>
+      <c r="C498" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>557</v>
+      </c>
+      <c r="B499" t="s">
+        <v>558</v>
+      </c>
+      <c r="C499" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>557</v>
+      </c>
+      <c r="B500" t="s">
+        <v>559</v>
+      </c>
+      <c r="C500" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>210</v>
+      </c>
+      <c r="B501" t="s">
+        <v>560</v>
+      </c>
+      <c r="C501" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/data/turnup/turnup_input4.xlsx
+++ b/data/turnup/turnup_input4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
   <si>
     <t>Enzyme</t>
   </si>
@@ -36,15 +36,81 @@
     <t>Products</t>
   </si>
   <si>
+    <t>MNDNFKKQPHHLIYEELLQQGITLGITTRGDGLSDYPKNAFNMARYIDDRPYNITQHQLQLAEEIAFDRKNWVFPIQTHENKVACITKDDIGTNIDNLTDELHGIDAMYTFDSNVLLTMCYADCVPVYFYSTKHHFIALAHAGWRGTYTEIVKEVLKHVNFDLKDLHVVIGPSTSSSYEINDDIKSKFETLPIDSGNYIETRGRDRHGIDLKKANAALLNYYGVPKENIYTTAYATSEHLELFFSYRLEKGQTGRMLAFIGQQ</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H11O7P/c6-2-4-3(7)1-5(11-4)12-13(8,9)10/h3-7H,1-2H2,(H2,8,9,10)/p-2/t3-,4+,5+/m0/s1;InChI=1S/C5H5N5/c6-4-3-5(9-1-7-3)10-2-8-4/h1-2H,(H3,6,7,8,9,10);</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C10H13N5O3/c11-9-8-10(13-3-12-9)15(4-14-8)7-1-5(17)6(2-16)18-7/h3-7,16-17H,1-2H2,(H2,11,12,13)/t5-,6+,7+/m0/s1;</t>
+  </si>
+  <si>
+    <t>MTKGTPHIQPNGVKIAKTVLMPGDPLRAKYIADNFLENVEQFNDVRNMFGYTGTYKGKEVSVMGSGMGIPSIGIYSYELYNFFDVDTIIRIGSCGALQENVNLYDVIIAQAASTNSNYVDQYNIPGHFAPIADFELVTKAKNVADQIGATTHVGNVLSSDTFYNADPTFNDAWKKMGILGIEMESAGLYLNAIHAGKKALGIFTVSDHILRDEATTPEERQNSFTQMMEIALEIAE</t>
+  </si>
+  <si>
+    <t>MSQFLTQLKDNVLVADGAIGTILYSEGLDTCPEAYNLSHPDKVERIHRSYIEAGADVIQTNTYGANFEKLKRFGLEDKVKAIHQAAVRIAKKAANKDTYILGTVGGFRGIKQEDISLQTILYHTEIQIDTLIEEGVDALLFETYYDLEELTNVISRTRKKYDIPIIAQLTASNTNYLVNGQAINEGLKQLVQCGANIVGLNCHHGPHHMQESFTHIELPEHAYLSCYPNASLLDIENSEFKYSDNAQYFGQVAQNLIREGVRLIGGCCGTTPEHIKFIKESIQTLKPVNDKKVIPIPTKALFNPSQNKVRQSLTSKVQERPTVIIELDTPKHLDTNRFFENIAKLDKANVDAVTLADNSLATVRISNIAAASLIKQYYNIEPLVHITCRDRNLIGLQSHLLGLSLIGVNEILAITGDPSKVGHLPGATNVYDVNSKGLTELALRFNQGINTDGDALKKRTHFNIAGAFNPNVRKLDGAVKRLEKKIESGMSYFITQPVYSKEKIIEIYHATKHLNKPFFIGIMPIASYKNALFLHNEVPGIKMSDEILQQFEAVKDDKAKTRELSLKLSKDLIDTVHEYFNGLYIITPFQNVEDSLELAAYSKSITAHKEAIL</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C20H25N7O6/c1-27-12(9-23-16-15(27)18(31)26-20(21)25-16)8-22-11-4-2-10(3-5-11)17(30)24-13(19(32)33)6-7-14(28)29/h2-5,12-13,22H,6-9H2,1H3,(H,24,30)(H,28,29)(H,32,33)(H4,21,23,25,26,31)/p-2/t12-,13-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C20H23N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,12-13H,5-9H2,(H,23,30)(H,28,29)(H,32,33)(H4,21,22,24,25,31)/p-2/t12-,13+/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MSNIAFYVVSDVHGYIFPTDFTSRNQYQPMGLLLANHVIEQDRRQYDQSFKIDNGDFLQGSPFCNYLIAHSGSGQPLVDFYNRMAFDFGTLGNHEFNYGLPYLKDTLRRLNYPVLCANIYENDSTLTDNGVQYFQVGDQTVGVIGLTTQFIPHWEQPEHIQSLTFHSAFETLQQHLPEMKRHADIIVVCYHGGFEKDLESGTPTEVLTGENEGYAMLEAFSKDIDIFITGHQHRQIAERFKDTAVIQPGTRGTTVGKVVLSTDEYENVSVESCELLPVIDDPTFTIDEDDQHIRKQLEDWLDYEITTLPYDMTINHAFEARVAPHPFTNFMNYALLEKSGADVACTALFDSASGFKQVVTMRDVINNYPFPNTFKVLAVSGAKLKEAIERSAEYFDVKNDEVSVSADFLEPKPQHFNYDIYGGVSYTIHVGRPKGQRVSNMMIQGHAVDLKQTYTICVNNYRAVGGGQYDMYIDAPVVKDIQVEGAQLLIDFLSNNNLMRIPQVVDFKVEK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H12N5O6P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7-6(4(1-16)19-10)20-22(17,18)21-7/h2-4,6-7,10,16H,1H2,(H,17,18)(H2,11,12,13)/p-1/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-6(17)7(4(1-16)21-10)22-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MRIMFIGDIVGKIGRDAIETYIPQLKQKYKPTVTIVNAENAAHGKGLTEKIYKQLLRNGVDFMTMGNHTYGQREIYDFIDEAKRLVRPANFPDEAPGIGMRFIQINDIKLAVINLQGRAFMPDIDDPFKKADQLVKEAQEQTPFIFVDFHAETTSEKYAMGWHLDGRASAVVGTHTHIQTADERILPKGTGYITDVGMTGFYDGILGINKTEVIERFITSLPQRHVVPNEGRSVLSGVVIDLDKEGKTKHIERILINDDHPFSTF</t>
+  </si>
+  <si>
+    <t>MRQWTAIHLAKLARKASRAVGKRGTDLPGQIARKVDTDILRKLAEQVDDIVFISGTNGKTTTSNLIGHTLKANNIQIIHNNEGANMAAGITSAFIMQSTPKTKIAVIEIDEGSIPRVLKEVTPSMMVFTNFFRDQMDRFGEIDIMVNNIAETISNKGIKLLLNADDPFVSRLKIASDTIVYYGMKAHAHEFEQSTMNESRYCPNCGRLLQYDYIHYNQIGHYHCQCGFKREQAKYEISSFDVAPFLHLNINDEKYDMKIAGDFNAYNALAAYTVLRELGLNEQAIKNGFETYTSDNGRMQYFKKERKEAMINLAKNPAGMNASLSVGEQLEGEKVYVISLNDNAADGRDTSWIYDADFEKLSKQQIEAIIVTGTRAEELQLRLKLAEVEVPIIVERDIYKATAKTMDYKGFTVAIPNYTSLAPMLEQLNRSFEGGQS</t>
+  </si>
+  <si>
+    <t>InChI=1S/C28H43N5O23P2/c1-10(23(42)31-13(26(44)45)4-5-17(37)38)29-24(43)11(2)52-22-18(30-12(3)35)27(54-14(8-34)20(22)40)55-58(49,50)56-57(47,48)51-9-15-19(39)21(41)25(53-15)33-7-6-16(36)32-28(33)46/h6-7,10-11,13-15,18-22,25,27,34,39-41H,4-5,8-9H2,1-3H3,(H,29,43)(H,30,35)(H,31,42)(H,37,38)(H,44,45)(H,47,48)(H,49,50)(H,32,36,46)/p-4/t10-,11+,13+,14+,15+,18+,19+,20+,21+,22+,25+,27+/m0/s1;InChI=1S/C7H14N2O4/c8-4(6(10)11)2-1-3-5(9)7(12)13/h4-5H,1-3,8-9H2,(H,10,11)(H,12,13)/t4-,5+;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;InChI=1S/C35H55N7O26P2/c1-13(28(50)40-18(33(56)57)7-8-21(45)39-17(32(54)55)6-4-5-16(36)31(52)53)37-29(51)14(2)64-27-23(38-15(3)44)34(66-19(11-43)25(27)48)67-70(61,62)68-69(59,60)63-12-20-24(47)26(49)30(65-20)42-10-9-22(46)41-35(42)58/h9-10,13-14,16-20,23-27,30,34,43,47-49H,4-8,11-12,36H2,1-3H3,(H,37,51)(H,38,44)(H,39,45)(H,40,50)(H,52,53)(H,54,55)(H,56,57)(H,59,60)(H,61,62)(H,41,46,58)/p-4/t13-,14+,16+,17-,18+,19+,20+,23+,24+,25+,26+,27+,30+,34+/m0/s1;</t>
+  </si>
+  <si>
+    <t>MDASTLFKKVKVKRVLGSLEQQIDDITTDSRTAREGSIFVASVGYTVDSHKFCQSVADQGCKLVVVNKEQPLPANVTQVVVPDTLRVASILAHTLFDYPSHQLVTFGVTGTNGKTSIATMIHLIQRKLQKNSAYLGTNGFQINETKTKGANTTPETVSLTKKIKEAVDAGAESMTLEVSSHGLVLGRLRGVEFDVAIFSNLTQDHLDFHGTMEAYGHAKSLLFSQLGEDLSKEKYIVLNNDDSFSEYLRTVTPYEVFSYGIDEEAQFMAKNIQESLQGVSFDFVTPFGTYPVKSPYVGKFNISNIMAAMIAVWSKGTSLETIIKAVENLEPVEGRLEVLDPSLPIDLIIDYAHTADGMNKLIDAVQPFVKQKLIFLVGMAGERDLTKTPEMGRVACRADYVIFTPDNPANDDPKMLTAELAKGATHQNYIEFDDRAEGIKHAIDIAEPGDTVVLASKGREPYQIMPGHIKVPHRDDLIGLEAAYKKFGGGPVGQ</t>
+  </si>
+  <si>
+    <t>MSNKLESYRSEIVSLNHQILDLLSKRGELAQKIGEEKLKQGTRIYDPQREKEMLNDLIDSNKGPFNDNTIKQLFKEIFKASTDLQKSENEKHLYVSRKLKPEDTIVTFDNGGIIGDGNKSFVFGPCSVESFEQVEAVAKNLHAKGEKFIRGGAFKPRTSPYDFQGLGVEGLKILKQIKDKYDLNVVSEIVNPNDFEVADEYLDVFQIGARNMQNFELLKEAGRTKKPILLKRGLSATIEEFVYAAEYIASQGNQNIILCERGIRTYEKATRNTLDISAVPILKQGTHLPVMVDVTHSTGRKDIMLPTAKAALAVGADGVMAEVHPDPSVALSDAGQQMDLDEFQAFYDELKPLSDLYNAKKLK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H10O6/c1-5(9(12)13)16-8-4-6(10(14)15)2-3-7(8)11/h2-4,7-8,11H,1H2,(H,12,13)(H,14,15)/p-2/t7-,8-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H10O6/c11-6-1-3-10(4-2-6,9(15)16)5-7(12)8(13)14/h1-4,6,11H,5H2,(H,13,14)(H,15,16)/p-2/t6-,10+;</t>
+  </si>
+  <si>
+    <t>MIKLIATDMDGTLLNAAHEISQPNIDAIKYAQEQGITVVIATGRAFYEAQAPVADTDLTVPYICLNGAEVRDETFNVMSTSHLNKSLVHKITNVLKDAGIYYQVYTSRAIYTEDPQRDLDIYIDIAERAGQHANVERIKNGIQRRIDNGTLKVVDNYDAIKNIPGELIMKILAFDGNLEKIDKASKILAESPNLAISSSSRGNIEITHSDAQKGIALETIAERLGIEMKDVMAIGDNLNDVSMLEKVGYPVAMENGAEEVKKIAKYVTDTNENSGVGKAIMKLLREQQV</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C9H17N4O9P/c10-5-7(12-9(18)13-8(5)17)11-1-3(14)6(16)4(15)2-22-23(19,20)21/h3-4,6,14-16H,1-2,10H2,(H2,19,20,21)(H3,11,12,13,17,18)/p-2/t3-,4+,6-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C9H16N4O6/c10-5-7(12-9(19)13-8(5)18)11-1-3(15)6(17)4(16)2-14/h3-4,6,14-17H,1-2,10H2,(H3,11,12,13,18,19)/t3-,4+,6-/m0/s1;</t>
+  </si>
+  <si>
+    <t>MQPHLICLDLDGTLLNDNKEISSYTKQVLNELQQRGHQIMIATGRPYRASQMYYHELNLTTPIVNFNGAYVHHPKDKNFKTCHEILDLGIAQNIIQGLQQYQVSNIIAEVKDYVFINNHDPRLFEGFSMGNPRIQTGNLLVHLKESPTSILIEAEESKIPEIKNMLTHFYADHIEHRRWGAPFPVIEIVKLGINKARGIEQVRQFLNIDRNNIIAFGDEDNDIEMIEYARHGVAMENGLQELKDVANNITFNNNEDGIGRYLNDFFNLNIRYYC</t>
+  </si>
+  <si>
     <t>MKLNTSNSPFTEKQVTEINNLLQTLTESQQQWLSGFLLANSNDTTSDSNQQQLETEVWQQSQISEEQATSTTYMLQNKEPHIEANQRHVTVLYGSESGNAMRLAEIFSERLSDIGHQVVLMSMDEYDTTNIAQLEDLFIITSTHGEGEPPDNAWDFFEFLEDDNAPNLNHVRYSVLALGDQTYEFFCQAGKDVDALLENLGAERICKRVDCDIDYEEDAEKWMADIINIIDTTSEGIQSESVISESIKSAKEKKYSKSNPYQAEVLANINLNGTDSNKETRHIEFLLDDFSESYEPGDCIVALPQNDPELVEKLISMLGWDPQSPVPINDHGDTVPIVEALTSHFEFTKLTLPLLKNADIYFDNEELSERIQDESWAREYVINRDFIDLITDFPTIELQPENMYQILRKLPPREYSISSSFMATPDEVHITVGTVRYQAHGRERKGVCSVHFAERIKPGDIVPIYLKKNPNFKFPMKQDIPVIMIGPGTGIAPFRAYLQEREELGMTGKTWLFFGDQHRSSDFLYEEEIEEWLENGNLTRVDLAFSRDQEHKEYVQHRIMEESERFNEWIEQGAAIYICGDEKCMAKDVHQAIKDVLVKERHISQEEAETILRQMKQQQRYQRDVY</t>
   </si>
   <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O/h1H2;InChI=1S/H2S/h1H2/p-1;</t>
+  </si>
+  <si>
     <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O3S/c1-4(2)3/h(H2,1,2,3)/p-2;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O/h1H2;InChI=1S/H2S/h1H2/p-1;</t>
-  </si>
-  <si>
     <t>MLNLENKTYVIMGIANKRSIAFGVAKVLDQLGAKLVFTYRKERSRKELEKLLEQLNQPEAYLYQIDVQSDEEVINGFEQIGKDVGNIDGVYHSIAFANMEDLRGRFSETSREGFLLAQDISSYSLTIVAHEAKKLMPEGGSIVATTYLGGEFAVQNYNVMGVAKASLEANVKYLALDLGPDNIRVNAISAGPIRTLSAKGVGGFNTILKEIEERAPLKRNVDQVEVGKTAAYLLSDLSSGVTGENIHVDSGFHAIK</t>
   </si>
   <si>
@@ -171,6 +237,15 @@
     <t>InChI=1S/C2H4O/c1-2-3/h2H,1H3;InChI=1S/C2H5NO2/c3-1-2(4)5/h1,3H2,(H,4,5);</t>
   </si>
   <si>
+    <t>MAQSKNEFYLRRIHSLLGIIPIGAFLVVHLLVNHQATQGAEAFNKASNFMESLPFLIIVEFLFIYIPLLYHGLFGIHIAFTAKENVGHYSIFRNWMFFFQRVSGILTFIFIGIHLWQTRLQKAFYGKEVNYDLMHETLQHPGWAIFYIICIIAVVFHFANGLWSFLVTWGGLQSPKSQRVFTWVSLIVFLVISYIGVTAIIAFM</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C4H6O4/c5-3(6)1-2-4(7)8/h1-2H2,(H,5,6)(H,7,8)/p-2;</t>
+  </si>
+  <si>
+    <t>InChI=1S/p+1;InChI=1S/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
     <t>MQLYYLGPKGTFSYLACRQYFSENEATFQPKSNLFEVIKAVADDDASIGVVPIENSIEGTINIVADALAQQDVFAHGEIRLDINFALYGNGSNTISDIKKVYSIAPAISQTTNYIHQHQFDYDYVDSTIQSLTKIENGVAAIAPLGSGEAYGFTPIDTHIEDYPHNVTRFLVIKNQQQFDQNATSLMFLITPMYDKPGLLASVLNTFALFNINLSWIESRPLKTQLGMYRFFVQADSAITTDIKKVIAILETLDFKVEMIGAFN</t>
   </si>
   <si>
@@ -180,9 +255,6 @@
     <t>InChI=1S/H2O/h1H2;InChI=1S/C9H8O3/c10-8(9(11)12)6-7-4-2-1-3-5-7/h1-5H,6H2,(H,11,12)/p-1;InChI=1S/CO2/c2-1-3;</t>
   </si>
   <si>
-    <t>MSNKLESYRSEIVSLNHQILDLLSKRGELAQKIGEEKLKQGTRIYDPQREKEMLNDLIDSNKGPFNDNTIKQLFKEIFKASTDLQKSENEKHLYVSRKLKPEDTIVTFDNGGIIGDGNKSFVFGPCSVESFEQVEAVAKNLHAKGEKFIRGGAFKPRTSPYDFQGLGVEGLKILKQIKDKYDLNVVSEIVNPNDFEVADEYLDVFQIGARNMQNFELLKEAGRTKKPILLKRGLSATIEEFVYAAEYIASQGNQNIILCERGIRTYEKATRNTLDISAVPILKQGTHLPVMVDVTHSTGRKDIMLPTAKAALAVGADGVMAEVHPDPSVALSDAGQQMDLDEFQAFYDELKPLSDLYNAKKLK</t>
-  </si>
-  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/C3H5O6P/c1-2(3(4)5)9-10(6,7)8/h1H2,(H,4,5)(H2,6,7,8)/p-3;InChI=1S/C4H9O7P/c5-1-3(6)4(7)2-11-12(8,9)10/h1,3-4,6-7H,2H2,(H2,8,9,10)/p-2/t3-,4+/m0/s1;</t>
   </si>
   <si>
@@ -381,9 +453,6 @@
     <t>MPKLILCRHGQSEWNAKNLFTGWEDVNLSEQGINEATRAGEKVRENNIAIDVAFTSLLTRALDTTHYILTESKQQWIPVYKSWRLNERHYGGLQGLNKDDARKEFGEEQVHIWRRSYDVKPPAETEEQREAYLADRRYNHLDKRMMPYSESLKDTLVRVIPFWTDHISQYLLDGQTVLVSAHGNSIRALIKYLEDVSDEDIINYEIKTGAPLVYELTDDLEVIDKYYL</t>
   </si>
   <si>
-    <t>MSNIAFYVVSDVHGYIFPTDFTSRNQYQPMGLLLANHVIEQDRRQYDQSFKIDNGDFLQGSPFCNYLIAHSGSGQPLVDFYNRMAFDFGTLGNHEFNYGLPYLKDTLRRLNYPVLCANIYENDSTLTDNGVQYFQVGDQTVGVIGLTTQFIPHWEQPEHIQSLTFHSAFETLQQHLPEMKRHADIIVVCYHGGFEKDLESGTPTEVLTGENEGYAMLEAFSKDIDIFITGHQHRQIAERFKDTAVIQPGTRGTTVGKVVLSTDEYENVSVESCELLPVIDDPTFTIDEDDQHIRKQLEDWLDYEITTLPYDMTINHAFEARVAPHPFTNFMNYALLEKSGADVACTALFDSASGFKQVVTMRDVINNYPFPNTFKVLAVSGAKLKEAIERSAEYFDVKNDEVSVSADFLEPKPQHFNYDIYGGVSYTIHVGRPKGQRVSNMMIQGHAVDLKQTYTICVNNYRAVGGGQYDMYIDAPVVKDIQVEGAQLLIDFLSNNNLMRIPQVVDFKVEK</t>
-  </si>
-  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/C9H13N2O9P/c12-3-4-7(20-21(16,17)18)6(14)8(19-4)11-2-1-5(13)10-9(11)15/h1-2,4,6-8,12,14H,3H2,(H,10,13,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1;</t>
   </si>
   <si>
@@ -519,9 +588,6 @@
     <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C15H12N2O2/c16-15(19)17-12-7-3-1-5-10(12)9-14(18)11-6-2-4-8-13(11)17/h1-8H,9H2,(H2,16,19);InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MSQFLTQLKDNVLVADGAIGTILYSEGLDTCPEAYNLSHPDKVERIHRSYIEAGADVIQTNTYGANFEKLKRFGLEDKVKAIHQAAVRIAKKAANKDTYILGTVGGFRGIKQEDISLQTILYHTEIQIDTLIEEGVDALLFETYYDLEELTNVISRTRKKYDIPIIAQLTASNTNYLVNGQAINEGLKQLVQCGANIVGLNCHHGPHHMQESFTHIELPEHAYLSCYPNASLLDIENSEFKYSDNAQYFGQVAQNLIREGVRLIGGCCGTTPEHIKFIKESIQTLKPVNDKKVIPIPTKALFNPSQNKVRQSLTSKVQERPTVIIELDTPKHLDTNRFFENIAKLDKANVDAVTLADNSLATVRISNIAAASLIKQYYNIEPLVHITCRDRNLIGLQSHLLGLSLIGVNEILAITGDPSKVGHLPGATNVYDVNSKGLTELALRFNQGINTDGDALKKRTHFNIAGAFNPNVRKLDGAVKRLEKKIESGMSYFITQPVYSKEKIIEIYHATKHLNKPFFIGIMPIASYKNALFLHNEVPGIKMSDEILQQFEAVKDDKAKTRELSLKLSKDLIDTVHEYFNGLYIITPFQNVEDSLELAAYSKSITAHKEAIL</t>
-  </si>
-  <si>
     <t>InChI=1S/C4H9NO2S/c5-3(1-2-8)4(6)7/h3,8H,1-2,5H2,(H,6,7)/t3-/m0/s1;InChI=1S/C15H22N6O5S/c1-27(3-2-7(16)15(24)25)4-8-10(22)11(23)14(26-8)21-6-20-9-12(17)18-5-19-13(9)21/h5-8,10-11,14,22-23H,2-4,16H2,1H3,(H2-,17,18,19,24,25)/p+1/t7-,8+,10+,11+,14+,27?/m0/s1;</t>
   </si>
   <si>
@@ -840,9 +906,6 @@
     <t>MRLNDNRTSYFGYKAIQLFKNNSKNKQSIFKDWEKLKHNITFIHPQSEKHHLRVVGGFQFSSHKSDDEWREFGLNHFVLPEVLISTDNNGTFLTYTVKRESFTVEALNDLMDLFNNTSDIYVDEQIGEITRNEDIYKGDWRQLVVEAIESINNEEKIVLARRRLIKFDKDISIPYILKQAYSKEKNSYIFLLESQDSIFFSQTPEQLIKVNNKILSTKAVAGTIKRSQNEDEDTKNVEAFLKDNKNLIEHRFVVDSILHDIKPYITELHYDKTPKILKNDHLYHLYTEIKAPLKDDSYISLIDHLHPTPALGGYPKEFAMDFIEQKEFGTRGLYGAPVGYIDIYDDCEFIVAIRSMLIKKAQATLFAGCGIVKDSDPDSELAETNLKFTPMMNALGVDMNGKS</t>
   </si>
   <si>
-    <t>InChI=1S/C10H10O6/c1-5(9(12)13)16-8-4-6(10(14)15)2-3-7(8)11/h2-4,7-8,11H,1H2,(H,12,13)(H,14,15)/p-2/t7-,8-/m1/s1;</t>
-  </si>
-  <si>
     <t>InChI=1S/C10H10O6/c1-5(9(12)13)16-7-4-2-3-6(8(7)11)10(14)15/h2-4,7-8,11H,1H2,(H,12,13)(H,14,15)/p-2/t7-,8-/m0/s1;</t>
   </si>
   <si>
@@ -1212,12 +1275,6 @@
     <t>InChI=1S/C5H11O7P/c6-2-4-3(7)1-5(11-4)12-13(8,9)10/h3-7H,1-2H2,(H2,8,9,10)/p-2/t3-,4+,5+/m0/s1;InChI=1S/C5H4N4O/c10-5-3-4(7-1-6-3)8-2-9-5/h1-2H,(H2,6,7,8,9,10);</t>
   </si>
   <si>
-    <t>MNDNFKKQPHHLIYEELLQQGITLGITTRGDGLSDYPKNAFNMARYIDDRPYNITQHQLQLAEEIAFDRKNWVFPIQTHENKVACITKDDIGTNIDNLTDELHGIDAMYTFDSNVLLTMCYADCVPVYFYSTKHHFIALAHAGWRGTYTEIVKEVLKHVNFDLKDLHVVIGPSTSSSYEINDDIKSKFETLPIDSGNYIETRGRDRHGIDLKKANAALLNYYGVPKENIYTTAYATSEHLELFFSYRLEKGQTGRMLAFIGQQ</t>
-  </si>
-  <si>
-    <t>MTKGTPHIQPNGVKIAKTVLMPGDPLRAKYIADNFLENVEQFNDVRNMFGYTGTYKGKEVSVMGSGMGIPSIGIYSYELYNFFDVDTIIRIGSCGALQENVNLYDVIIAQAASTNSNYVDQYNIPGHFAPIADFELVTKAKNVADQIGATTHVGNVLSSDTFYNADPTFNDAWKKMGILGIEMESAGLYLNAIHAGKKALGIFTVSDHILRDEATTPEERQNSFTQMMEIALEIAE</t>
-  </si>
-  <si>
     <t>MATKNEEILRKPDWLKIKLNTNENYTGLKKMMREKNLNTVCEEAKCPNIHECWGARRTATFMILGAVCTRACRFCAVKTGLPNELDLNEPERVAESVELMNLKHVVITAVARDDLRDAGSNVYAETVRKVRERNPFTTIEILPSDMGGDYDALETLMASRPDILNHNIETVRRLTPRVRARATYDRTLEFLRRSKELQPDIPTKSSIMVGLGETIEEIYETMDDLRANDVDILTIGQYLQPSRKHLKVQKYYTPLEFGKLRKVAMDKGFKHCQAGPLVRSSYHADEQVNEAAKEKQRQGEAQLNS</t>
   </si>
   <si>
@@ -1581,6 +1638,12 @@
     <t>InChI=1S/C9H13N2O9P/c12-5-1-2-11(9(15)10-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,10,12,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1;InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
+    <t>InChI=1S/C4H6O5/c5-2(4(8)9)1-3(6)7/h2,5H,1H2,(H,6,7)(H,8,9)/p-2/t2-/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/CO2/c2-1-3;</t>
+  </si>
+  <si>
     <t>MLNAQQFLNQFSLEAPLDESLYPIIRDICQEVKVHGDKALKMYNLTFDHTKTDHLEISHEQIKAAFDTLDEKTKQALQQSYERIKVYQESIKQTNQQLEESVECYEIYHPLESVGIYVPGGKASYPSTVLMTATLAQVAGVENIVVVTPPQPNGVSQEVLAACYITQVNQVFQVGGAQSIAALTYGTETIPKVDKIVGPGNQFVAYAKKYLFGQVGIDQIAGPTEIALIIDDTADLDAIVYDVFAQAEHDELARTYVISEDAQVLKDLESRIAKALPNVDRYDIVSKSIANQHYLIHASNFDEACHVMNTIAPEHASIQTVNPQPYIEKVKYVGALFIGHYSPEVIGDYVAGPSHVLPTNRTARFTNGLSVNDFLTRNTVIHLSKDTFDQIADSAQHIAHVEALYNHQQSILIRQS</t>
   </si>
   <si>
@@ -1627,90 +1690,6 @@
   </si>
   <si>
     <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C20H23N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,12-13H,5-9H2,(H,23,30)(H,28,29)(H,32,33)(H4,21,22,24,25,31)/p-2/t12-,13+/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C20H21N7O6/c21-20-24-16-15(18(31)25-20)27-9-26(8-12(27)7-22-16)11-3-1-10(2-4-11)17(30)23-13(19(32)33)5-6-14(28)29/h1-4,9,12-13H,5-8H2,(H6-,21,22,23,24,25,28,29,30,31,32,33)/p-1/t12-,13+/m1/s1;InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MAQTLAQTKQISQSHTFDVSQSHHKTPDDTNSHSVIYSTQNLDLWYGENHALQNINLDIYENQITAIIGPSGCGKSTYIKTLNRMVELVPTVKTAGKILYRDQDIFDQKYSKEQLRTNVGMVFQQPNPFPKSIYDNITYGPKIHGIKNKKVLDEIVEKSLRGAAIWDELKDRLHTNAYSLSGGQQQRVCIARCLAIEPEVILMDEPTSALDPISTLRVEELVQELKENYTIIMVTHNMQQAARVSDKTAFFLNGYVNEYDDTDKIFSNPSNKKTEDYISGRFG</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>METTDNNRQSLVDQQLVQKHLSSRTVKNKVFKLIFLACTLLGLVVLIALLTQTLIKGVSHLNLQFFTNFSSSTPSMAGVKGALIGSLWLMLSIIPLSIILGIGTAIYLEEYAKNNKFTQFVKISISNLAGVPSVVFGLLGYTLFVGGAGIEALKMGNSILAAALTMTLLILPIIIVSSQEAIRAVPTSVREASYGLGANKWQTIRRVVLPAALPGILTGFILSLSRALGETAPLVLIGIPTILLATPRSILDQFSALPIQIFTWAKMPQEEFQNVASAGIIVLLVILILMNGVAIILRNKFSKKF</t>
-  </si>
-  <si>
-    <t>MTSSTNVKALIEKNNNKKGKHNDKIIPVILAAISAISILTTLGILITLLLETITFFTRIPITEFLFSTTWNPTGSDPKFGIWALIIGTLKITVIATIFAVPVGLGAAIYLSEYASDRARRIIKPILEILAGIPTIVFGFFALTFVTPVLRSFIPGLGEFNAISPGLVVGIMIVPLITSLSEDAMASVPNKIREGAYGLGATKLEVATKVVLPAATSGIVASIVLAISRAIGETMIVSLAAGSSPTASLSLTSSIQTMTGYIVEIATGDATFGSNIYYSIYAVGFTLFIFTLIMNLLSQWISKRFREEY</t>
-  </si>
-  <si>
-    <t>MPVIKINNLNKVFGDNEVLKDINLEINQGEVVAIIGPSGSGKSTLLRCMNLLEVPTKGQVIFEGNDLTEKRTQVDKLRQKMGMVFQNFNLFPHKKVVDNIILAPKLLKKDNNDELHKEALSLLDKVGLKEKADVYPNQLSGGQKQRVAIARALAMHPDVILFDEPTSALDPEVVGDVLKVMKDLAKEGMTMVVVTHEMGFAKDVSDKVIFMADGVVVESGTPVEIFEQPQHERTQNFLARVL</t>
-  </si>
-  <si>
-    <t>MIQLNNIHKSFNDVEVIKGIDLSVGKGEVVTLIGRSGSGKTTLLRMINALEIPTEGTVFVNGKTYTSKDKKSQIEVRKQSGMVFQSYNLFPHKTALENVMEGLITVKKLKKAEAREKSLELLEKVGLTHVKDQRPHALSGGQQQRVAIARALAMNPKVMLFDEPTSALDPELVNDVLKVIKDLANEGMTMVIVTHEMRFAREVSNNIVFIHEGEIGEQGAPEEIFNNPKTEELKRFLNVINEE</t>
-  </si>
-  <si>
-    <t>MKEIVIASNNQGKINDFKVIFPDYHVIGISELIPDFDVEETGSTFEENAILKSEAAAKALNKTVIADDSGLEVFALNGEPGIYSARYAGENKSDEANIEKLLNKLGNTTDRRAQFVCVISMSGPDMETKVFKGTVSGEIADGKYGENGFGYDPIFYVPKLDRTMAQLSKEQKGQISHRRNAINLLEAYLAGDQNV</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H15N4O14P3/c15-6-4(1-25-30(21,22)28-31(23,24)27-29(18,19)20)26-10(7(6)16)14-3-13-5-8(14)11-2-12-9(5)17/h2-4,6-7,10,15-16H,1H2,(H,21,22)(H,23,24)(H,11,12,17)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H13N4O8P/c15-6-4(1-21-23(18,19)20)22-10(7(6)16)14-3-13-5-8(14)11-2-12-9(5)17/h2-4,6-7,10,15-16H,1H2,(H,11,12,17)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MTKIILAADVGGTTCKLGIFTPELEQLHKWSIHTDTSDSTGYTLLKGIYDSFVEKVNENNYNFSNVLGVGIGVPGPVDFEKGTVNGAVNLYWPEKVNVREIFEQFVDCPVYVDNDANIAALGEKHKGAGEGADDVVAITLGTGLGGGIISNGEIVHGHNGSGAEIGHFRADFDQRFKCNCGRSGCIETVASATGVVNLVNFYYPKLTFRSSILELIKENKVTAKAVFDAAKAGDQFCIFITEKVANYIGYLCSIISVTSNPKYIVLGGGMSTAGPILIENIKTEYHNLTFTPAQFETEIVQAKLGNDAGITGAAGLIKTYVLDKEGVK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H12O6/c7-1-2-3(8)4(9)5(10)6(11)12-2/h2-11H,1H2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MSTKNKHIPCLITIFGATGDLSHRKLFPSIFHLYQQDNLDEHIAIIGIGRRDITNDDFRNQVKSSIQKHVKDTNKIDAFMEHVFYHRHDVSNEESYQELLDFSNELDSQFELKGNRLFYLAMAPQFFGVISDYLKSSGLTDTKGFKRLVIEKPFGSDLKSAEALNNQIRKSFKEEEIYRIDHYLGKDMVQNIEVLRFANAMFEPLWNNKYISNIQVTSSEILGVEDRGGYYESSGALKDMVQNHMLQMVALLAMEAPISLNSEDIRAEKVKVLKSLRHFQSEDVKKNFVRGQYGEGYIDGKQVKAYRDEDRVADDSNTPTFVSGKLTIDNFRWAGVPFYIRTGKRMKSKTIQVVVEFKEVPMNLYYETDKLLDSNLLVINIQPNEGVSLHLNAKKNTQGIETEPVQLSYSMSAQDKMNTVDAYENLLFDCLKGDATNFTHWEELKSTWKFVDAIQDEWNMVDPEFPNYESGTNGPLESDLLLARDGNHWWDDIQ</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-,6-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H11O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-5,7-9H,1H2,(H2,11,12,13)/p-2/t2-,3-,4+,5-/m1/s1;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MRKIQAKKGLSIECKGWEQEAVLRMLYNNLDPEVAERPEDLVVYGGIGKAARNWEAFEAIEKTLRELESDETMLVQSGKPVAVFKTHEEAPRVLISNSVLVPEWANWDHFNELDKKGLIMYGQMTAGSWIYIGSQGIVQGTYETFAELGNQHFNGDLAGTVTLTAGLGGMGGAQSLAITMNHGVAICVDIDETRVDKRIDTKYCDVKTADLDEALKLAEEAKERGEGLSIGLVGNAVDIHQAILEKGFKIDIITDQTSAHDPLNGYVPQGYSVEEAKVLREKDPKKYVELSQASMAKHVELMLEFQKRGAVAFDYGNNIRQVAFNNGVKNAFDFPGFVPAYIRPLFCEGKGPFRFAALSGDPKDIERADEEMRKLFPENEKLLRWLDLAEEKISYQGLPSRIAWLGYGERAKMGLALNRLVRDGEISAPIVIGRDHLDAGSVASPNRETESMKDGSDAVGDWAVLNALINTAAGGSWISFHHGGGVGMGYSLHAGMVVVADGSERAERRLERVLTTDSGMGVARHVDAGYDIAIQTAKEKGIHIPMIDKAGDK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H7N2O3/c9-5(10)2-1-4-6(11)8-3-7-4/h3H,1-2H2,(H,9,10)(H,7,8,11)/q-1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C6H6N2O2/c9-6(10)2-1-5-3-7-4-8-5/h1-4H,(H,7,8)(H,9,10)/p-1/b2-1+;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C20H23N7O7/c21-20-25-16-15(18(32)26-20)23-11(7-22-16)8-27(9-28)12-3-1-10(2-4-12)17(31)24-13(19(33)34)5-6-14(29)30/h1-4,9,11,13,23H,5-8H2,(H,24,31)(H,29,30)(H,33,34)(H4,21,22,25,26,32)/p-2/t11-,13+/m1/s1;InChI=1S/C9H15N4O8P/c10-7-4(8(11)16)12-2-13(7)9-6(15)5(14)3(21-9)1-20-22(17,18)19/h2-3,5-6,9,14-15H,1,10H2,(H2,11,16)(H2,17,18,19)/p-2/t3-,5-,6-,9-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N4O9P/c11-8(18)5-9(13-3-15)14(2-12-5)10-7(17)6(16)4(23-10)1-22-24(19,20)21/h2-4,6-7,10,16-17H,1H2,(H2,11,18)(H,13,15)(H2,19,20,21)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/C19H23N7O6/c20-19-25-15-14(17(30)26-19)23-11(8-22-15)7-21-10-3-1-9(2-4-10)16(29)24-12(18(31)32)5-6-13(27)28/h1-4,11-12,21,23H,5-8H2,(H,24,29)(H,27,28)(H,31,32)(H4,20,22,25,26,30)/p-2/t11-,12-/m0/s1;</t>
-  </si>
-  <si>
-    <t>MDNEKGLLIVLSGPSGVGKGTVRKRIFEDPSTSYKYSISMTTRQMREGEVDGVDYFFKTRDAFEALIKDDQFIEYAEYVGNYYGTPVQYVKDTMDEGHDVFLEIEVEGAKQVRKKFPDALFIFLAPPSLDHLRERLVGRGTESDEKIQSRINEARKEVEMMNLYDYVVVNDEVELAKNRIQCIVEAEHLKRERVEAKYRKMILEAKK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H14N5O8P/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(23-9)1-22-24(19,20)21/h2-3,5-6,9,16-17H,1H2,(H2,19,20,21)(H3,11,13,14,18)/p-2/t3-,5-,6-,9-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C8H16NO9P/c1-3(10)9-5-7(12)6(11)4(18-8(5)13)2-17-19(14,15)16/h4-8,11-13H,2H2,1H3,(H,9,10)(H2,14,15,16)/p-2/t4-,5-,6-,7-,8?/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C8H16NO9P/c1-4(11)9-5(2-10)7(13)8(14)6(12)3-18-19(15,16)17/h2,5-8,12-14H,3H2,1H3,(H,9,11)(H2,15,16,17)/p-2/t5-,6-,7-,8-/m1/s1;</t>
   </si>
 </sst>
 </file>
@@ -2095,10 +2074,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2106,54 +2085,54 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2161,10 +2140,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2172,10 +2151,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2205,10 +2184,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2216,32 +2195,32 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2271,10 +2250,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2282,120 +2261,120 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
         <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
         <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2403,10 +2382,10 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2414,455 +2393,455 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
         <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
         <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
         <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
         <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
         <v>57</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
         <v>57</v>
       </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
         <v>85</v>
@@ -2873,7 +2852,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>86</v>
@@ -2884,134 +2863,134 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="s">
         <v>88</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>89</v>
-      </c>
-      <c r="C75" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
         <v>88</v>
-      </c>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
         <v>91</v>
-      </c>
-      <c r="B77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
         <v>91</v>
       </c>
-      <c r="B78" t="s">
-        <v>93</v>
-      </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
         <v>97</v>
-      </c>
-      <c r="B83" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" t="s">
         <v>97</v>
       </c>
-      <c r="B84" t="s">
-        <v>99</v>
-      </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
         <v>100</v>
-      </c>
-      <c r="B85" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
         <v>100</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>99</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3063,10 +3042,10 @@
         <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3074,98 +3053,98 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
         <v>110</v>
-      </c>
-      <c r="B93" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" t="s">
         <v>110</v>
       </c>
-      <c r="B94" t="s">
-        <v>112</v>
-      </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" t="s">
         <v>114</v>
-      </c>
-      <c r="B97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" t="s">
         <v>114</v>
       </c>
-      <c r="B98" t="s">
-        <v>116</v>
-      </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" t="s">
         <v>117</v>
-      </c>
-      <c r="B99" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" t="s">
         <v>117</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>116</v>
-      </c>
-      <c r="C100" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3173,10 +3152,10 @@
         <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3184,37 +3163,37 @@
         <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
         <v>122</v>
@@ -3225,7 +3204,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
         <v>123</v>
@@ -3236,398 +3215,398 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
         <v>129</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>130</v>
-      </c>
-      <c r="C111" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" t="s">
         <v>129</v>
-      </c>
-      <c r="B112" t="s">
-        <v>131</v>
-      </c>
-      <c r="C112" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" t="s">
         <v>132</v>
       </c>
-      <c r="B113" t="s">
-        <v>130</v>
-      </c>
       <c r="C113" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" t="s">
         <v>132</v>
-      </c>
-      <c r="B114" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C131" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C137" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B138" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" t="s">
         <v>153</v>
-      </c>
-      <c r="C138" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139" t="s">
         <v>154</v>
-      </c>
-      <c r="B139" t="s">
-        <v>155</v>
-      </c>
-      <c r="C139" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" t="s">
         <v>154</v>
       </c>
-      <c r="B140" t="s">
-        <v>156</v>
-      </c>
       <c r="C140" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C142" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3635,10 +3614,10 @@
         <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3646,362 +3625,362 @@
         <v>159</v>
       </c>
       <c r="B144" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C144" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149" t="s">
+        <v>163</v>
+      </c>
+      <c r="C149" t="s">
         <v>164</v>
-      </c>
-      <c r="B149" t="s">
-        <v>165</v>
-      </c>
-      <c r="C149" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" t="s">
         <v>164</v>
       </c>
-      <c r="B150" t="s">
-        <v>166</v>
-      </c>
       <c r="C150" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" t="s">
+        <v>166</v>
+      </c>
+      <c r="C151" t="s">
         <v>167</v>
-      </c>
-      <c r="B151" t="s">
-        <v>168</v>
-      </c>
-      <c r="C151" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" t="s">
         <v>167</v>
       </c>
-      <c r="B152" t="s">
-        <v>169</v>
-      </c>
       <c r="C152" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>168</v>
+      </c>
+      <c r="B153" t="s">
+        <v>169</v>
+      </c>
+      <c r="C153" t="s">
         <v>170</v>
-      </c>
-      <c r="B153" t="s">
-        <v>171</v>
-      </c>
-      <c r="C153" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" t="s">
         <v>170</v>
       </c>
-      <c r="B154" t="s">
-        <v>172</v>
-      </c>
       <c r="C154" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" t="s">
         <v>173</v>
-      </c>
-      <c r="B155" t="s">
-        <v>174</v>
-      </c>
-      <c r="C155" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>171</v>
+      </c>
+      <c r="B156" t="s">
         <v>173</v>
       </c>
-      <c r="B156" t="s">
-        <v>175</v>
-      </c>
       <c r="C156" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C157" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C158" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C159" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B160" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C160" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B161" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C161" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C162" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C163" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B164" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C164" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B165" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" t="s">
         <v>184</v>
-      </c>
-      <c r="C165" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C166" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="B167" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C167" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="B168" t="s">
+        <v>186</v>
+      </c>
+      <c r="C168" t="s">
         <v>185</v>
-      </c>
-      <c r="C168" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="B170" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C170" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="B171" t="s">
+        <v>187</v>
+      </c>
+      <c r="C171" t="s">
         <v>188</v>
-      </c>
-      <c r="C171" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>189</v>
+      </c>
+      <c r="B173" t="s">
+        <v>190</v>
+      </c>
+      <c r="C173" t="s">
         <v>191</v>
-      </c>
-      <c r="B173" t="s">
-        <v>192</v>
-      </c>
-      <c r="C173" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>189</v>
+      </c>
+      <c r="B174" t="s">
         <v>191</v>
       </c>
-      <c r="B174" t="s">
-        <v>193</v>
-      </c>
       <c r="C174" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>192</v>
+      </c>
+      <c r="B175" t="s">
+        <v>193</v>
+      </c>
+      <c r="C175" t="s">
         <v>194</v>
-      </c>
-      <c r="B175" t="s">
-        <v>192</v>
-      </c>
-      <c r="C175" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>192</v>
+      </c>
+      <c r="B176" t="s">
         <v>194</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>193</v>
-      </c>
-      <c r="C176" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4028,596 +4007,596 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>95</v>
+      </c>
+      <c r="B179" t="s">
         <v>198</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>199</v>
-      </c>
-      <c r="C179" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>95</v>
+      </c>
+      <c r="B180" t="s">
+        <v>199</v>
+      </c>
+      <c r="C180" t="s">
         <v>198</v>
-      </c>
-      <c r="B180" t="s">
-        <v>200</v>
-      </c>
-      <c r="C180" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" t="s">
         <v>201</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>202</v>
-      </c>
-      <c r="C181" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" t="s">
+        <v>202</v>
+      </c>
+      <c r="C182" t="s">
         <v>201</v>
-      </c>
-      <c r="B182" t="s">
-        <v>203</v>
-      </c>
-      <c r="C182" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>203</v>
+      </c>
+      <c r="C183" t="s">
         <v>204</v>
-      </c>
-      <c r="B183" t="s">
-        <v>205</v>
-      </c>
-      <c r="C183" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
         <v>204</v>
       </c>
-      <c r="B184" t="s">
-        <v>206</v>
-      </c>
       <c r="C184" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>205</v>
+      </c>
+      <c r="B185" t="s">
+        <v>206</v>
+      </c>
+      <c r="C185" t="s">
         <v>207</v>
-      </c>
-      <c r="B185" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
+        <v>205</v>
+      </c>
+      <c r="B186" t="s">
         <v>207</v>
       </c>
-      <c r="B186" t="s">
-        <v>209</v>
-      </c>
       <c r="C186" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B187" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B188" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C188" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B189" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C189" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C190" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B191" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C191" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B192" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C192" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B194" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C194" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B195" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C195" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B196" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C196" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B197" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C197" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B198" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C198" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B199" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C199" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B200" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C200" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B201" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C201" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B202" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C202" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B203" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C203" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B204" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C204" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B205" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B206" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C206" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B207" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C207" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B208" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C208" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B209" t="s">
+        <v>233</v>
+      </c>
+      <c r="C209" t="s">
         <v>234</v>
-      </c>
-      <c r="C209" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B210" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C210" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B211" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C212" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C213" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B214" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C214" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>239</v>
+      </c>
+      <c r="B215" t="s">
         <v>240</v>
       </c>
-      <c r="B215" t="s">
-        <v>234</v>
-      </c>
       <c r="C215" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
+        <v>239</v>
+      </c>
+      <c r="B216" t="s">
+        <v>241</v>
+      </c>
+      <c r="C216" t="s">
         <v>240</v>
-      </c>
-      <c r="B216" t="s">
-        <v>235</v>
-      </c>
-      <c r="C216" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C217" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B218" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C218" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="B219" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C219" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="B220" t="s">
+        <v>244</v>
+      </c>
+      <c r="C220" t="s">
         <v>243</v>
-      </c>
-      <c r="C220" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B221" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C221" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B222" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C222" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B223" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C223" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B224" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C224" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B225" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C225" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B226" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C226" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B227" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C227" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B228" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C228" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B229" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C229" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B230" t="s">
+        <v>257</v>
+      </c>
+      <c r="C230" t="s">
         <v>256</v>
-      </c>
-      <c r="C230" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>259</v>
+      </c>
+      <c r="B231" t="s">
+        <v>256</v>
+      </c>
+      <c r="C231" t="s">
         <v>257</v>
-      </c>
-      <c r="B231" t="s">
-        <v>258</v>
-      </c>
-      <c r="C231" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>259</v>
+      </c>
+      <c r="B232" t="s">
         <v>257</v>
       </c>
-      <c r="B232" t="s">
-        <v>259</v>
-      </c>
       <c r="C232" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4625,10 +4604,10 @@
         <v>260</v>
       </c>
       <c r="B233" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C233" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4636,546 +4615,546 @@
         <v>260</v>
       </c>
       <c r="B234" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C234" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="B235" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C235" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="B236" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C236" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B237" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C237" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B238" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C238" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B239" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C239" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B240" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C240" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="B241" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C241" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="B242" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C242" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="B243" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C243" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="B244" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C244" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B245" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C245" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B246" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C246" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B247" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B248" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C248" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="B249" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C249" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C250" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>276</v>
+      </c>
+      <c r="B251" t="s">
+        <v>277</v>
+      </c>
+      <c r="C251" t="s">
         <v>278</v>
-      </c>
-      <c r="B251" t="s">
-        <v>279</v>
-      </c>
-      <c r="C251" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>276</v>
+      </c>
+      <c r="B252" t="s">
         <v>278</v>
       </c>
-      <c r="B252" t="s">
-        <v>280</v>
-      </c>
       <c r="C252" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
+        <v>279</v>
+      </c>
+      <c r="B253" t="s">
+        <v>280</v>
+      </c>
+      <c r="C253" t="s">
         <v>281</v>
-      </c>
-      <c r="B253" t="s">
-        <v>282</v>
-      </c>
-      <c r="C253" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>279</v>
+      </c>
+      <c r="B254" t="s">
         <v>281</v>
       </c>
-      <c r="B254" t="s">
-        <v>283</v>
-      </c>
       <c r="C254" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B255" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C255" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B256" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C256" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B257" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C257" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B258" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C258" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B259" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C259" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B260" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C260" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C261" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C262" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B263" t="s">
+        <v>290</v>
+      </c>
+      <c r="C263" t="s">
         <v>291</v>
-      </c>
-      <c r="C263" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B264" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C264" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B265" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="C265" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B266" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C266" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
+        <v>294</v>
+      </c>
+      <c r="B267" t="s">
         <v>295</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>296</v>
-      </c>
-      <c r="C267" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>294</v>
+      </c>
+      <c r="B268" t="s">
+        <v>296</v>
+      </c>
+      <c r="C268" t="s">
         <v>295</v>
-      </c>
-      <c r="B268" t="s">
-        <v>297</v>
-      </c>
-      <c r="C268" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B269" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C269" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B270" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C270" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>28</v>
+      </c>
+      <c r="B271" t="s">
+        <v>297</v>
+      </c>
+      <c r="C271" t="s">
         <v>298</v>
-      </c>
-      <c r="B271" t="s">
-        <v>301</v>
-      </c>
-      <c r="C271" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" t="s">
         <v>298</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>297</v>
-      </c>
-      <c r="C272" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B273" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C273" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B274" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C274" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B275" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C275" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B276" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C276" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="B277" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C277" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="B278" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C278" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="B279" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C279" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="B280" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C280" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="B281" t="s">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="C281" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="B282" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C282" t="s">
-        <v>122</v>
+        <v>309</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="B283" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="C283" t="s">
         <v>313</v>
@@ -5183,13 +5162,13 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="B284" t="s">
         <v>313</v>
       </c>
       <c r="C284" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5197,10 +5176,10 @@
         <v>314</v>
       </c>
       <c r="B285" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C285" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5208,279 +5187,279 @@
         <v>314</v>
       </c>
       <c r="B286" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C286" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B287" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C287" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B288" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C288" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B289" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C289" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B290" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C290" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B291" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C291" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B292" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C292" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B293" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C293" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B294" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C294" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="B295" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C295" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="B296" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C296" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="B297" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C297" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="B298" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C298" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="B299" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C299" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="B300" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C300" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>331</v>
+      </c>
+      <c r="B301" t="s">
+        <v>332</v>
+      </c>
+      <c r="C301" t="s">
         <v>333</v>
-      </c>
-      <c r="B301" t="s">
-        <v>331</v>
-      </c>
-      <c r="C301" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
+        <v>331</v>
+      </c>
+      <c r="B302" t="s">
         <v>333</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>332</v>
-      </c>
-      <c r="C302" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
+        <v>144</v>
+      </c>
+      <c r="B303" t="s">
+        <v>145</v>
+      </c>
+      <c r="C303" t="s">
         <v>334</v>
-      </c>
-      <c r="B303" t="s">
-        <v>335</v>
-      </c>
-      <c r="C303" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
+        <v>144</v>
+      </c>
+      <c r="B304" t="s">
         <v>334</v>
       </c>
-      <c r="B304" t="s">
-        <v>336</v>
-      </c>
       <c r="C304" t="s">
-        <v>335</v>
+        <v>145</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="B305" t="s">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="C305" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="B306" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C306" t="s">
-        <v>335</v>
+        <v>145</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B307" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C307" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B308" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C308" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B309" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C309" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B310" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C310" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B311" t="s">
         <v>342</v>
@@ -5491,7 +5470,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B312" t="s">
         <v>343</v>
@@ -5502,29 +5481,29 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
+        <v>344</v>
+      </c>
+      <c r="B313" t="s">
         <v>345</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>346</v>
-      </c>
-      <c r="C313" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
+        <v>344</v>
+      </c>
+      <c r="B314" t="s">
+        <v>346</v>
+      </c>
+      <c r="C314" t="s">
         <v>345</v>
-      </c>
-      <c r="B314" t="s">
-        <v>347</v>
-      </c>
-      <c r="C314" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="B315" t="s">
         <v>348</v>
@@ -5535,7 +5514,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="B316" t="s">
         <v>349</v>
@@ -5546,513 +5525,513 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
+        <v>55</v>
+      </c>
+      <c r="B317" t="s">
         <v>350</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>351</v>
-      </c>
-      <c r="C317" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
+        <v>55</v>
+      </c>
+      <c r="B318" t="s">
+        <v>351</v>
+      </c>
+      <c r="C318" t="s">
         <v>350</v>
-      </c>
-      <c r="B318" t="s">
-        <v>352</v>
-      </c>
-      <c r="C318" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>353</v>
+        <v>58</v>
       </c>
       <c r="B319" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C319" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>353</v>
+        <v>58</v>
       </c>
       <c r="B320" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C320" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>356</v>
+        <v>128</v>
       </c>
       <c r="B321" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C321" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>356</v>
+        <v>128</v>
       </c>
       <c r="B322" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C322" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B323" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C323" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B324" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C324" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="B325" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C325" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="B326" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C326" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B327" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C327" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B328" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C328" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B329" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C329" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B330" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C330" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="B331" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C331" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="B332" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C332" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B333" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C333" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B334" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C334" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B335" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C335" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B336" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C336" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="B337" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C337" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="B338" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C338" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B339" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C339" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B340" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C340" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B341" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C341" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B342" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C342" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B343" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C343" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B344" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C344" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B345" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C345" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B346" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C346" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>52</v>
       </c>
       <c r="B347" t="s">
-        <v>46</v>
+        <v>381</v>
       </c>
       <c r="C347" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>389</v>
+        <v>52</v>
       </c>
       <c r="B348" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C348" t="s">
-        <v>46</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B349" t="s">
-        <v>46</v>
+        <v>384</v>
       </c>
       <c r="C349" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B350" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C350" t="s">
-        <v>46</v>
+        <v>384</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B351" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C351" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B352" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C352" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
       <c r="B353" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C353" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
       <c r="B354" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C354" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B355" t="s">
+        <v>392</v>
+      </c>
+      <c r="C355" t="s">
         <v>393</v>
-      </c>
-      <c r="C355" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B356" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C356" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B357" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C357" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B358" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C358" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>201</v>
+        <v>395</v>
       </c>
       <c r="B359" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C359" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>201</v>
+        <v>395</v>
       </c>
       <c r="B360" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C360" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="B361" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C361" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="B362" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C362" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="B363" t="s">
         <v>402</v>
@@ -6063,7 +6042,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="B364" t="s">
         <v>403</v>
@@ -6096,54 +6075,54 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>17</v>
+        <v>407</v>
       </c>
       <c r="B367" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C367" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>17</v>
+        <v>407</v>
       </c>
       <c r="B368" t="s">
+        <v>409</v>
+      </c>
+      <c r="C368" t="s">
         <v>408</v>
-      </c>
-      <c r="C368" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="B369" t="s">
-        <v>407</v>
+        <v>68</v>
       </c>
       <c r="C369" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="B370" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C370" t="s">
-        <v>407</v>
+        <v>68</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B371" t="s">
-        <v>410</v>
+        <v>68</v>
       </c>
       <c r="C371" t="s">
         <v>411</v>
@@ -6151,568 +6130,568 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B372" t="s">
         <v>411</v>
       </c>
       <c r="C372" t="s">
-        <v>410</v>
+        <v>68</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B373" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C373" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B374" t="s">
+        <v>415</v>
+      </c>
+      <c r="C374" t="s">
         <v>414</v>
-      </c>
-      <c r="C374" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
+        <v>3</v>
+      </c>
+      <c r="B375" t="s">
+        <v>414</v>
+      </c>
+      <c r="C375" t="s">
         <v>415</v>
-      </c>
-      <c r="B375" t="s">
-        <v>416</v>
-      </c>
-      <c r="C375" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
+        <v>3</v>
+      </c>
+      <c r="B376" t="s">
         <v>415</v>
       </c>
-      <c r="B376" t="s">
-        <v>417</v>
-      </c>
       <c r="C376" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="B377" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C377" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="B378" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C378" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B379" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C379" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B380" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C380" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>422</v>
+        <v>223</v>
       </c>
       <c r="B381" t="s">
+        <v>419</v>
+      </c>
+      <c r="C381" t="s">
         <v>420</v>
-      </c>
-      <c r="C381" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>422</v>
+        <v>223</v>
       </c>
       <c r="B382" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C382" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>423</v>
+        <v>39</v>
       </c>
       <c r="B383" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C383" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>423</v>
+        <v>39</v>
       </c>
       <c r="B384" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C384" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>426</v>
+        <v>42</v>
       </c>
       <c r="B385" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C385" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>426</v>
+        <v>42</v>
       </c>
       <c r="B386" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C386" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B387" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C387" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B388" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C388" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="B389" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C389" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="B390" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C390" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="B391" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C391" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="B392" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C392" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B393" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C393" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B394" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C394" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B395" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C395" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B396" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C396" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B397" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C397" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B398" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C398" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B399" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C399" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B400" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C400" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>345</v>
+        <v>438</v>
       </c>
       <c r="B401" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C401" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>345</v>
+        <v>438</v>
       </c>
       <c r="B402" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C402" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B403" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C403" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B404" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C404" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B405" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C405" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B406" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C406" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B407" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C407" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B408" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C408" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>298</v>
+        <v>446</v>
       </c>
       <c r="B409" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C409" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>298</v>
+        <v>446</v>
       </c>
       <c r="B410" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C410" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="B411" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C411" t="s">
-        <v>277</v>
+        <v>451</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="B412" t="s">
-        <v>277</v>
+        <v>451</v>
       </c>
       <c r="C412" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
       <c r="B413" t="s">
-        <v>321</v>
+        <v>453</v>
       </c>
       <c r="C413" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
       <c r="B414" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
       <c r="C414" t="s">
-        <v>321</v>
+        <v>453</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>173</v>
+        <v>455</v>
       </c>
       <c r="B415" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C415" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>173</v>
+        <v>455</v>
       </c>
       <c r="B416" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C416" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B417" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C417" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B418" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C418" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="B419" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C419" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="B420" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C420" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="B421" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C421" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="B422" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C422" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="B423" t="s">
         <v>467</v>
@@ -6723,7 +6702,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="B424" t="s">
         <v>468</v>
@@ -6778,95 +6757,95 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>118</v>
+        <v>475</v>
       </c>
       <c r="B429" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C429" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>118</v>
+        <v>475</v>
       </c>
       <c r="B430" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C430" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>475</v>
+        <v>319</v>
       </c>
       <c r="B431" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C431" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>475</v>
+        <v>319</v>
       </c>
       <c r="B432" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C432" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>476</v>
+        <v>28</v>
       </c>
       <c r="B433" t="s">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="C433" t="s">
-        <v>477</v>
+        <v>298</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>476</v>
+        <v>28</v>
       </c>
       <c r="B434" t="s">
-        <v>477</v>
+        <v>298</v>
       </c>
       <c r="C434" t="s">
-        <v>351</v>
+        <v>480</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="B435" t="s">
-        <v>479</v>
+        <v>342</v>
       </c>
       <c r="C435" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="B436" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="C436" t="s">
-        <v>479</v>
+        <v>342</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B437" t="s">
         <v>481</v>
@@ -6877,7 +6856,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B438" t="s">
         <v>482</v>
@@ -6910,513 +6889,513 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
+        <v>413</v>
+      </c>
+      <c r="B441" t="s">
         <v>486</v>
       </c>
-      <c r="B441" t="s">
+      <c r="C441" t="s">
         <v>487</v>
-      </c>
-      <c r="C441" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
+        <v>413</v>
+      </c>
+      <c r="B442" t="s">
+        <v>487</v>
+      </c>
+      <c r="C442" t="s">
         <v>486</v>
-      </c>
-      <c r="B442" t="s">
-        <v>488</v>
-      </c>
-      <c r="C442" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="B443" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C443" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="B444" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C444" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="B445" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C445" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="B446" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C446" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B447" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C447" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B448" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C448" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B449" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C449" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B450" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C450" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>501</v>
+        <v>10</v>
       </c>
       <c r="B451" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C451" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>501</v>
+        <v>10</v>
       </c>
       <c r="B452" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C452" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>298</v>
+        <v>494</v>
       </c>
       <c r="B453" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C453" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>298</v>
+        <v>494</v>
       </c>
       <c r="B454" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C454" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B455" t="s">
-        <v>507</v>
+        <v>372</v>
       </c>
       <c r="C455" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B456" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C456" t="s">
-        <v>507</v>
+        <v>372</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B457" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C457" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B458" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C458" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>512</v>
+        <v>229</v>
       </c>
       <c r="B459" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C459" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>512</v>
+        <v>229</v>
       </c>
       <c r="B460" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C460" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B461" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C461" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B462" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C462" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>264</v>
+        <v>505</v>
       </c>
       <c r="B463" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C463" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>264</v>
+        <v>505</v>
       </c>
       <c r="B464" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C464" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B465" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C465" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B466" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C466" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B467" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C467" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B468" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C468" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B469" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C469" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B470" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C470" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B471" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C471" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B472" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C472" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B473" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C473" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B474" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C474" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c r="B475" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C475" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c r="B476" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C476" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="B477" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C477" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="B478" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C478" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B479" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C479" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B480" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C480" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B481" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C481" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B482" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C482" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B483" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C483" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B484" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C484" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>541</v>
+        <v>286</v>
       </c>
       <c r="B485" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C485" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>541</v>
+        <v>286</v>
       </c>
       <c r="B486" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C486" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>542</v>
+        <v>289</v>
       </c>
       <c r="B487" t="s">
         <v>537</v>
@@ -7427,7 +7406,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>542</v>
+        <v>289</v>
       </c>
       <c r="B488" t="s">
         <v>538</v>
@@ -7438,145 +7417,145 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>543</v>
+        <v>294</v>
       </c>
       <c r="B489" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C489" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>543</v>
+        <v>294</v>
       </c>
       <c r="B490" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C490" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B491" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C491" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B492" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C492" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B493" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C493" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B494" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C494" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B495" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C495" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B496" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C496" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>433</v>
+        <v>548</v>
       </c>
       <c r="B497" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C497" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>433</v>
+        <v>548</v>
       </c>
       <c r="B498" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C498" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B499" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C499" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B500" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C500" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="B501" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C501" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/data/turnup/turnup_input4.xlsx
+++ b/data/turnup/turnup_input4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
   <si>
     <t>Enzyme</t>
   </si>
@@ -36,15 +36,312 @@
     <t>Products</t>
   </si>
   <si>
+    <t>MKIAVIGAGVTGLAAAARIASQGHEVTIFEKNTNVGGRMNQLKKDGFTFDMGPTIVMMPDVYKDVFTMCGENYEDYIELRQLRYIYDVYFDRDDRITVPTDLAELQHMLESIEPGSTHGFMSFLTDVYKKYEIARRYFLERTYRKPSDFYNMTSLVQGAKLKTLNHADQLIEHYIDNEKIQKLLAFQTLYIGIDPKRGPSLYSIIPMIEMMFGVHFIKGGMYGMAQGLAQLNKDLGVNIELNAEIEQIIIDPKFKRADAIKVNGDIRKFDKILCTADFPSVAESLMPDFAPIKKYPPHKIADLDYSCSAFLMYIGIDIDVTDQVRLHNVIFSDDFRGNIEEIFEGRLSYDPSIYVYVPAVADKSLAPEGKTGIYVLMPTPELKTGSGIDWSDEALTQQIKEIIYRKLATIEVFEDIKSHIVSETIFTPNDFEQTYHAKFGSAFGLMPTLAQSNYYRPQNVSRDYKDLYFAGASTHPGAGVPIVLTSAKITVDEMIKDIEQGV</t>
+  </si>
+  <si>
+    <t>InChI=1S/C27H35N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,32,37-41H,5-7H2,1-2H3,(H,44,45)(H,46,47)(H2,28,29,30)(H2,33,34,42,43)/p-2/t14-,15+,16+,19-,20+,21+,26+/m0/s1;InChI=1S/C30H42/c1-25(2)15-11-19-29(7)23-13-21-27(5)17-9-10-18-28(6)22-14-24-30(8)20-12-16-26(3)4/h9-11,13-19,21-24H,12,20H2,1-8H3/b10-9+,19-11+,21-13+,22-14+,27-17+,28-18+,29-23+,30-24+;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C30H48/c1-25(2)15-11-19-29(7)23-13-21-27(5)17-9-10-18-28(6)22-14-24-30(8)20-12-16-26(3)4/h9-10,15-18,23-24H,11-14,19-22H2,1-8H3/b10-9-,27-17+,28-18+,29-23+,30-24+;InChI=1S/p+1;InChI=1S/C27H33N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,37-41H,5-7H2,1-2H3,(H5,28,29,30,34,42,43,44,45,46,47)/p-3/t14-,15+,16+,19-,20+,21+,26+/m0/s1;</t>
+  </si>
+  <si>
+    <t>MQLFETMKIDNGHIPRLTYHTNRIKCSSERLNFKFDEHAWRNELNDVTTKYHSGQYRLKIVLHAESEFETIVSPLPEKSSFTAKFQVLPKAVNPTFINNKTTERKHLAHNHETDLILLTSEDGKVLEFDIGNVVIEEDGKWYTPSYKDDFLKGCMRDYLIDSDKLVEKDFNKNELIYKYHNNEIRLFLINSLREVADVHLCL</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H11NO5/c1-5(9(12)13)16-8-4-6(10(14)15)2-3-7(8)11/h2-4,7-8H,1,11H2,(H,12,13)(H,14,15)/p-1/t7-,8-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C7H7NO2/c8-6-3-1-5(2-4-6)7(9)10/h1-4H,8H2,(H,9,10)/p-1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MRIEYNYRYYLTENEYKQYHIQLKGFIKKYVATKLADVGEVIHFAQAQQRQGRYVSLYLSYEAAKYFNHVMCSHSLAKDDIYAVAYSFEKAESINSTYEHQTSYVSKHHFSFVESSEVMMTNIKRVQQAIVEGETYQVNYTARLTDNIYYPISTLYERLTQFSNGNYTALLQTDEIQVASISPELFFQKGQFNNVDNVIISKPMKGTMPRGKTEAEDQQYYKTLQTSSKDRAENVMIVDLLRNDIGRISQSGSIKVYKLFFIEAYKTVFQMTSMVSGTLKTNTDLTQILTSLFPCGSITGAPKLNTMKYIKQLESSPRGIYCGAIGLLLPTEDDKMIFNIPIRTIEYKYGQAIYGVGAGITIDSKPKDEVNEFYAKTKILEML</t>
+  </si>
+  <si>
+    <t>METIFDYNQIKQIIPHRQPFLLIDKVVEYEEGQRCVAIKQVSGNEPFFQGHFPEYAVMPGVLITEALAQTGAVAILNSEENKGKIALFAGIDKCRFKRQVVPGDTLTLEVEITKIKGPIGKGNAKATVDGQLACSCELTFAIQDVK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/i1-1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/H3N/h1H3/i1-1;</t>
+  </si>
+  <si>
+    <t>MKATTIIGIAGGSGSGKTTVTNEIMKNLEGHSVALLAQDYYYKDQKHLTFDERLETNYDHPFAFDNDLLIENLKDLKNGKAVEVPTYDYASHTRSDITIDFKPKDVIIVEGIFALENKVLRDMMDVKIYVDTDADLRILRRLTRDTKERGRSMDSVINQYLSVVRPMHDQFIEPTKKYADIIIPEGGSNKVAIDIMTTKIQSLVSKQ</t>
+  </si>
+  <si>
+    <t>InChI=1S/C9H11FN2O6/c10-3-1-12(9(17)11-7(3)16)8-6(15)5(14)4(2-13)18-8/h1,4-6,8,13-15H,2H2,(H,11,16,17)/t4-,5-,6-,8-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C9H12FN2O9P/c10-3-1-12(9(16)11-7(3)15)8-6(14)5(13)4(21-8)2-20-22(17,18)19/h1,4-6,8,13-14H,2H2,(H,11,15,16)(H2,17,18,19)/p-2/t4-,5-,6-,8-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MADNKANKEQVHRVFQNISKKYDRLNNIISFEQHKVWRKRVMKDMGVRKGTKALDVCCGTGDWTIALSKAVEPTGEVTGIDFSENMLEVGKEKTASMENVKLVHGDAMELPFEDNSFDYVTIGFGLRNVPDYLVALKEMNRVLKPGGMVVCLETSQPTLPVFKQMYALYFKFVMPIFGKLFAKSKEEYEWLQQSTFNFPGKEELKRMFEEAGFINVRVRSFTGGVAAMHLGYKEKDNTKGD</t>
+  </si>
+  <si>
+    <t>InChI=1S/C15H22N6O5S/c1-27(3-2-7(16)15(24)25)4-8-10(22)11(23)14(26-8)21-6-20-9-12(17)18-5-19-13(9)21/h5-8,10-11,14,22-23H,2-4,16H2,1H3,(H2-,17,18,19,24,25)/p+1/t7-,8+,10+,11+,14+,27?/m0/s1;InChI=1S/C65H96O2/c1-50(2)25-15-26-51(3)27-16-28-52(4)29-17-30-53(5)31-18-32-54(6)33-19-34-55(7)35-20-36-56(8)37-21-38-57(9)39-22-40-58(10)41-23-42-59(11)43-24-44-60(12)47-48-61-49-64(66)62-45-13-14-46-63(62)65(61)67/h13-14,25,27,29,31,33,35,37,39,41,43,45-47,49,66-67H,15-24,26,28,30,32,34,36,38,40,42,44,48H2,1-12H3/b51-27+,52-29+,53-31+,54-33+,55-35+,56-37+,57-39+,58-41+,59-43+,60-47+;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C66H98O2/c1-50(2)26-16-27-51(3)28-17-29-52(4)30-18-31-53(5)32-19-33-54(6)34-20-35-55(7)36-21-37-56(8)38-22-39-57(9)40-23-41-58(10)42-24-43-59(11)44-25-45-60(12)48-49-62-61(13)65(67)63-46-14-15-47-64(63)66(62)68/h14-15,26,28,30,32,34,36,38,40,42,44,46-48,67-68H,16-25,27,29,31,33,35,37,39,41,43,45,49H2,1-13H3/b51-28+,52-30+,53-32+,54-34+,55-36+,56-38+,57-40+,58-42+,59-44+,60-48+;InChI=1S/C14H20N6O5S/c15-6(14(23)24)1-2-26-3-7-9(21)10(22)13(25-7)20-5-19-8-11(16)17-4-18-12(8)20/h4-7,9-10,13,21-22H,1-3,15H2,(H,23,24)(H2,16,17,18)/t6-,7+,9+,10+,13+/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MNDLIINHIAELILPRSTDKPLKGKELDELNVVKNGTVVIKDGKIVYAGQHTDDYDATETIDASGKVVSPALVDAHTHLTFGGSREHEMSLKRQGKSYLEILEMGGGILSTVNATRETSEDDLFKKAEHDLLTMIKHGVLAVESKSGYGLDRENELKQLKVSNRLAEKYDLDMKHTFLGPHAVPKEASSNEAFLEEMIALLPEVKQYADFADIFCETGVFTIEQSQHYMQKAKEAGFKVKIHADEIDPLGGLELAIDEQAISADHLVASSDKGKEKLRNSDTVAVLLPATTFYLGKEDYADARGMLDNNGAIALATDYNPGSSVTNNLQLVMAIAALKLKLSPNEVWNAVTVNAAKAIDINAGTINTGDKANLVIWDAPNHEYIPYHFGINHAEKVIKDGKVIVDNTLSFKA</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C6H7N2O3/c9-5(10)2-1-4-6(11)8-3-7-4/h3H,1-2H2,(H,9,10)(H,7,8,11)/q-1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H10N2O4/c7-3-8-4(6(11)12)1-2-5(9)10/h3-4H,1-2H2,(H2,7,8)(H,9,10)(H,11,12)/p-1/t4-/m0/s1;</t>
+  </si>
+  <si>
+    <t>MKVEVYKGAQGKHNLKDYEETYNTFDWKDVEQAFSWSETGKMNMAYECIDRHVDQGLGDKIALNYKDEHRKESYTYKDMQRLSNKAANVLSEHAEVDKGDRVFIFMSRTPELYFALLGVLKIGAIVGPLFEAFMEKAVADRLENSEAKVLITNKALLPRVPVDKLPNLKKIVVVDEDVEDNYIDFISLMETASDEFDIEWLKSDDGLILHYTSGSTGQPKGVLHVQQAMLVHYISGKYVLDLQEDDVYWCTADPGWVTGTSYGIFAPWLNGATNCIAGGRFSPEQWYSMIEDFKVTIWYTAPTALRMLMSAGDDIVEKYDLSSLRSILSVGEPLNPEVIKWAKKVYGLTVLDTWWMTETGGHMIVNYPTMDVKLGSMGKPLPGIQAAIIDDAGNELPPNRMGNLAIKKGWPSMMYRIWKNPEKYKSYFIGDWYVSGDSAYKDEDGYFWFQGRVDDVIMTAGERVGPFEVESKLVEHEAVAEAGIIGKPDPVRGEIIKAFVALRKGYEPTDELKEEIRLFVKEGLSAHAAPREIEFKDKLPKTRSGKIMRRVLKAWELNLDAGDLSTME</t>
+  </si>
+  <si>
+    <t>InChI=1S/C2H4O2/c1-2(3)4/h1H3,(H,3,4)/p-1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+  </si>
+  <si>
+    <t>MSNKDIRVVVGMSGGVDSSVTAHVLKEQGYDVIGIFMKNWDDTDENGVCTATEDYNDVIEVCNQIGIPYYAVNFEKEYWDKVFTYFLDEYKKGRTPNPDVMCNKEIKFKAFLDHAMNLGADYVATGHYARIHRHEDGHVEMLRGVDNNKDQTYFLNQLSQQQLSKVMFPIGDIEKSEVRRIAEEQGLVTAKKKDSTGICFIGEKNFKTFLSQYLPAQPGDMITLDGKKMGKHSGLMYYTIGQRHGLGIGGDGDPWFVVGKNLKDNVLYVEQGFHHDALYSDYLIASDYSFVNPEDNDLDQGFECTAKFRYRQKDTKVFVKRENDHALRVTFAEPVRAITPGQAVVFYQGDVCLGGATIDDVFKNEGQLNYVV</t>
+  </si>
+  <si>
+    <t>InChI=1S/C17H18ClNO3S/c1-13-7-9-15(10-8-13)23(21,22)19-16(17(20)12-18)11-14-5-3-2-4-6-14/h2-10,16,19H,11-12H2,1H3/t16-/m0/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
+  </si>
+  <si>
+    <t>MVKKTKSNTLKKAATLALANLLLIGALTDNSAKAESKKDDTDLKLVSHNVYMLSTVLYPNWGQYKRADLIGQSSYIKNNDVVIFNEAFDNGASDKLLSNVKKEYPYQTPVLGRSQSGWDKTEGSYSSTVAEDGGVAIVSKYPIKEKIQHVFKSGCGFDNDSNKGFVYTKIEKNGKNVHVIGTHTQSEDSRCGAGHDRKIRAEQMKEISDFVKKKNIPKDETVYIGGDLNVNKGTPEFKDMLKNLNVNDVLYAGHNSTWDPQSNSIAKYNYPNGKPEHLDYIFTDKDHKQPKQLVNEVVTEKPKPWDVYAFPYYYVYNDFSDHYPIKAYSK</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C39H73O8P/c1-3-5-7-9-11-13-15-17-19-21-23-25-27-29-31-33-38(40)45-35-37(36-46-48(42,43)44)47-39(41)34-32-30-28-26-24-22-20-18-16-14-12-10-8-6-4-2/h17-20,37H,3-16,21-36H2,1-2H3,(H2,42,43,44)/p-2/b19-17-,20-18-;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C19H36O5/c1-3-4-5-6-7-8-9-10-11-12-13-14-19(22)23-16-18(15-20)24-17(2)21/h18,20H,3-16H2,1-2H3;InChI=1S/C3H9O6P/c4-1-3(5)2-9-10(6,7)8/h3-5H,1-2H2,(H2,6,7,8)/p-2/t3-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MNREEVQLLGFEIVAFAGDARSKFLEALTAAQAGDFAKADALIEEGNNCIAEAHRAQTSLLAKEAQGDDIAYSVTMMHGQDHLMTTILLKDLMKHLLEFYKRGL</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C12H22O11/c13-1-3-5(15)6(16)9(19)12(22-3)23-10-4(2-14)21-11(20)8(18)7(10)17/h3-20H,1-2H2/t3-,4-,5-,6+,7-,8-,9-,10-,11?,12+/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);InChI=1S/C12H23O14P/c13-1-3-10(7(16)8(17)11(19)24-3)26-12-9(18)6(15)5(14)4(25-12)2-23-27(20,21)22/h3-19H,1-2H2,(H2,20,21,22)/p-2/t3-,4-,5-,6+,7-,8-,9-,10-,11?,12+/m1/s1;</t>
+  </si>
+  <si>
+    <t>MKIAIIGAGIGGLTAAALLQEQGHTIKVFEKNESVKEIGAGIGIGDNVLKKLGNHDLAKGIKNAGQILSTMTVLDDKDRPLTTVKLKSNTLNVTLPRQTLIDIIKSYVKDDAIFTNHEVTHIDNETDKVTIHFAEQESEAFDLCIGADGIHSKVRQSVNADSKVLYQGYTCFRGLIDDIDLKHPDCAKEYWGRKGRVGIVPLLNNQAYWFITINSKENNHKYSSFGKPHLQAYFNHYPNEVREILDKQSETGILLHNIYDLKPLKSFVYGRTILLGDAAHATTPNMGQGAGQAMEDAIVLVNCFNAYDFEKALQRYDKIRVKHTAKVIKRSRKIGKIAQYRSRLVVAVRNRIMKMMPNALAAGQTKFLYKSKEK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/O2/c1-2;InChI=1S/C25H33NO2/c1-18(2)10-8-11-19(3)12-9-13-20(4)16-17-22-21(5)26(28)24-15-7-6-14-23(24)25(22)27/h6-7,10,12,14-16,28H,8-9,11,13,17H2,1-5H3/b19-12+,20-16+;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O/h1H2;InChI=1S/C25H33NO3/c1-18(2)10-8-11-19(3)12-9-13-20(4)16-17-25(28)22-14-6-7-15-23(22)26(29)21(5)24(25)27/h6-7,10,12,14-16,28H,8-9,11,13,17H2,1-5H3/b19-12+,20-16+;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C49H97N2O6P/c1-6-8-10-12-14-16-18-20-21-22-23-24-25-26-27-28-29-31-33-35-37-39-41-43-49(53)50-47(46-57-58(54,55)56-45-44-51(3,4)5)48(52)42-40-38-36-34-32-30-19-17-15-13-11-9-7-2/h20-21,40,42,47-48,52H,6-19,22-39,41,43-46H2,1-5H3,(H-,50,53,54,55)/b21-20-,42-40+/t47-,48+/m0/s1;InChI=1S/H2O/h1H2;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C49H99N2O7P/c1-6-8-10-12-14-16-18-20-21-22-23-24-25-26-27-28-30-32-34-36-38-40-42-48(53)49(54)50-46(45-58-59(55,56)57-44-43-51(3,4)5)47(52)41-39-37-35-33-31-29-19-17-15-13-11-9-7-2/h39,41,46-48,52-53H,6-38,40,42-45H2,1-5H3,(H-,50,54,55,56)/b41-39+/t46-,47+,48?/m0/s1;InChI=1S/C5H14NO4P/c1-6(2,3)4-5-10-11(7,8)9/h4-5H2,1-3H3,(H-,7,8,9)/p-1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MQEAYIVAYGRSAAAKAKQGALFHERPDDVAAKVLQGVLKRIDGKFNKNMIEDVIVGTAFPEGLQGQNIARTIALRTGLSDTVPGQTVNRYCSSGLQTIAIAANQIMAGQGDILVAGGVELMSAVPMGGNEPTNNPTLQYDDIGASYPMGLTAENVASQFDVSREDQDAYAVRSHQRAYDAQLDGRFKDEIIPIQVNSVEYTNAGPKVHTNIFDQDEFIRPDTTIEALAKLRTVFKADGTVTAGTSAPLSDGAGFVVLMSGDKVKELGVTPIARFVGYKAVGVDPKIMGIGPAYAIPEVLSLSNLSVEDIDLIELNEAFASQTIASIKEVGLDISRTNVNGGAIALGHPLGATGAMLTARLLNEMGRRPDSRYGMVTMCIGVGMGAAAIFEYVR</t>
+  </si>
+  <si>
+    <t>InChI=1S/C45H70N7O18P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23-33(53)28-36(55)74-27-26-47-35(54)24-25-48-43(58)40(57)45(2,3)30-67-73(64,65)70-72(62,63)66-29-34-39(69-71(59,60)61)38(56)44(68-34)52-32-51-37-41(46)49-31-50-42(37)52/h8-9,11-12,14-15,17-18,20-21,31-32,34,38-40,44,56-57H,4-7,10,13,16,19,22-30H2,1-3H3,(H,47,54)(H,48,58)(H,62,63)(H,64,65)(H2,46,49,50)(H2,59,60,61)/p-4/b9-8-,12-11-,15-14-,18-17-,21-20-/t34-,38-,39-,40+,44-/m1/s1;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C43H68N7O17P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-19-20-21-22-23-34(52)71-27-26-45-33(51)24-25-46-41(55)38(54)43(2,3)29-64-70(61,62)67-69(59,60)63-28-32-37(66-68(56,57)58)36(53)42(65-32)50-31-49-35-39(44)47-30-48-40(35)50/h8-9,11-12,14-15,17-18,20-21,30-32,36-38,42,53-54H,4-7,10,13,16,19,22-29H2,1-3H3,(H,45,51)(H,46,55)(H,59,60)(H,61,62)(H2,44,47,48)(H2,56,57,58)/p-4/b9-8-,12-11-,15-14-,18-17-,21-20-/t32-,36-,37-,38+,42-/m1/s1;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
+  </si>
+  <si>
+    <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/H3N/h1H3/i1-1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H3N/h1H3/i1-1;</t>
+  </si>
+  <si>
+    <t>MKALVLGGSGSIGSEIVKQLLTDGFEVYVQYYRTDINELTSKFNDDKVHFIQADLSQTIDIDKTFGDIKSLDCLIYASGQSLYGVLQDMKDHDIDACYQLNVLQLIRLCRYFVDVLRQSDNGRIIVISSIWGETGASMETIYSTMKSAQLGFVKALSQELALTSVTVNAIAPGFVAGNMASEWQEDELQAMITELPQQRLVLPSEVAHTCAYLYHPNARSVTGTIQKVNGAWYI</t>
+  </si>
+  <si>
+    <t>MRKTKIVCTIGPASESEEMIEKLINAGMNVARLNFSHGSHEEHKGRIDTIRKVAKRLDKIVAILLDTKGPEIRTHNMKDGIIELERGNEVIVSMNEVEGTPEKFSVTYENLINDVQVGSYILLDDGLIELQVKDIDHAKKEVKCDILNSGELKNKKGVNLPGVRVSLPGITEKDAEDIRFGIKENVDFIAASFVRRPSDVLEIREILEEQKANISVFPKIENQEGIDNIEEILEVSDGLMVARGDMGVEIPPEKVPMVQKDLIRQCNKLGKPVITATQMLDSMQRNPRATRAEASDVANAIYDGTDAVMLSGETAAGLYPEEAVKTMRNIAVSAEAAQDYKKLLSDRTKLVETSLVNAIGISVAHTALNLNVKAIVAATESGSTARTISKYRPHSDIIAVTPSEETARQCSIVWGVQPVVKKGRKSTDALLNNAVATAVETGRVTNGDLIIITAGVPTGETGTTNMMKIHLVGDEIANGQGIGRGSVVGTTLVAETVKDLEGKDLSDKVIVTNSIDETFVPYVEKALGLITEENGITSPSAIVGLEKGIPTVVGVEKAVKNISNNMLVTIDAAQGKIFEGYANVL</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H16N5O12P3/c11-9-8-10(13-3-12-9)15(4-14-8)7-1-5(16)6(25-7)2-24-29(20,21)27-30(22,23)26-28(17,18)19/h3-7,16H,1-2H2,(H,20,21)(H,22,23)(H2,11,12,13)(H2,17,18,19)/p-4/t5-,6+,7+/m0/s1;InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O9P2/c11-9-8-10(13-3-12-9)15(4-14-8)7-1-5(16)6(23-7)2-22-26(20,21)24-25(17,18)19/h3-7,16H,1-2H2,(H,20,21)(H2,11,12,13)(H2,17,18,19)/p-3/t5-,6+,7+/m0/s1;InChI=1S/C3H5O6P/c1-2(3(4)5)9-10(6,7)8/h1H2,(H,4,5)(H2,6,7,8)/p-3;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKALVKTREGHGNLELLDKEVATPLDDKVKIKVHYAGICGTDIHTYEGHYKVNFPVTLGHEFSGEIVEVGADVKDFKVGDRVTSETTFYVCNECEYCESKDYNLCNHRKGIGTQVDGAFTNYVIAREESLHHIPDEVSYQSAAMTEPLACAHHGVSKIQVNSGDVAVVMGPGPIGLLVAQVLKSKGATVVVTGLDNDKVRLDKAEALHMDYVVNLQQTDLKTYINGITDGYGADVVVECSGAVPAARQGLDILRKKGFYSQIGIFKDAEIPFDMEKVIQKEITVVGSRSQKPADWEPSLQLMADGLVNAEALVTKIYDISKWDEAYQHLKSGEGIKALLKPLDLDENEGEN</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H12O5/c6-1-3(8)5(10)4(9)2-7/h3-10H,1-2H2/t3-,4+,5+;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C5H10O5/c6-1-3(8)5(10)4(9)2-7/h3,5-8,10H,1-2H2/t3-,5+/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MNMPLMIDLTNKNVVIVGGGTVASRRAQTLSQYVEHMTVISPTITEKLQNMVDKGVVIWKEKEFEPSDIVDAYLVIAATNEPRVNEAVKQALPEHALFNNVGDASNGNVVFPSALHRDKLTISVSTDGASPKLTKSIMAELEALYPPSYSSYIDFLYTCRQKIKLLDITYNEKQQLLSQIVSQEYLNHDKQAQFLAWLDVRQ</t>
+  </si>
+  <si>
+    <t>InChI=1S/C42H48N4O16/c1-41(17-39(59)60)23(5-9-35(51)52)29-14-27-21(11-37(55)56)19(3-7-33(47)48)25(43-27)13-26-20(4-8-34(49)50)22(12-38(57)58)28(44-26)15-31-42(2,18-40(61)62)24(6-10-36(53)54)30(46-31)16-32(41)45-29/h14-16,23-24,43-45H,3-13,17-18H2,1-2H3,(H,47,48)(H,49,50)(H,51,52)(H,53,54)(H,55,56)(H,57,58)(H,59,60)(H,61,62)/p-7/b29-14-,31-15-,32-16-/t23-,24-,41+,42+/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C42H46N4O16/c1-41(17-39(59)60)23(5-9-35(51)52)29-14-27-21(11-37(55)56)19(3-7-33(47)48)25(43-27)13-26-20(4-8-34(49)50)22(12-38(57)58)28(44-26)15-31-42(2,18-40(61)62)24(6-10-36(53)54)30(46-31)16-32(41)45-29/h13-16,23-24,44-45H,3-12,17-18H2,1-2H3,(H,47,48)(H,49,50)(H,51,52)(H,53,54)(H,55,56)(H,57,58)(H,59,60)(H,61,62)/p-8/b25-13-,29-14-,31-15-,32-16-/t23-,24-,41+,42+/m1/s1;</t>
+  </si>
+  <si>
+    <t>MSNQYQQYSTVKKYWHLMRPHTLTASVVPVLVGTAASKIYFLGSEDHIKISLFIAMLLACLLIQAATNMFNEYYDYKKGLDDHESVGIGGAIVRNGMSPELVLRLAIAFYILAAILGLFLAANSSFWLLPVGLVCMAVGYLYTGGPFPISWTPFGELFSGVFMGMFIIVIAFFIQTGNIQSYVIWLSVPIVITIGLINMANNIRDRVKDKASGRKTLPILLGKNASLTFMAIMYFIAYAFIVLTIIIKPGGSLFYLLALLSFPMPVKVIRRFKKNDTPPTMMPAMAAAGKTNTFFGLLYALGIYISALFAGI</t>
+  </si>
+  <si>
+    <t>InChI=1S/C40H68O7P2/c1-33(2)17-10-18-34(3)19-11-20-35(4)21-12-22-36(5)23-13-24-37(6)25-14-26-38(7)27-15-28-39(8)29-16-30-40(9)31-32-46-49(44,45)47-48(41,42)43/h17,19,21,23,25,27,29,31H,10-16,18,20,22,24,26,28,30,32H2,1-9H3,(H,44,45)(H2,41,42,43)/p-3/b34-19+,35-21+,36-23+,37-25+,38-27+,39-29+,40-31+;InChI=1S/C11H8O4/c12-9-5-8(11(14)15)10(13)7-4-2-1-3-6(7)9/h1-5,12-13H,(H,14,15)/p-1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C50H72O2/c1-38(2)19-12-20-39(3)21-13-22-40(4)23-14-24-41(5)25-15-26-42(6)27-16-28-43(7)29-17-30-44(8)31-18-32-45(9)35-36-46-37-49(51)47-33-10-11-34-48(47)50(46)52/h10-11,19,21,23,25,27,29,31,33-35,37,51-52H,12-18,20,22,24,26,28,30,32,36H2,1-9H3/b39-21+,40-23+,41-25+,42-27+,43-29+,44-31+,45-35+;InChI=1S/CO2/c2-1-3;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+  </si>
+  <si>
+    <t>MLTIPEKENRGSKEQEVAIMIDALADKGKKALEALSKKSQEEIDHIVHQMSLAAVDQHMVLAKLAHEETGRGIYEDKAIKNLYASEYIWNSIKDNKTVGIIGEDKEKGLTYVAEPIGVICGVTPTTNPTSTTIFKAMIAIKTGNPIIFAFHPSAQESSKRAAEVVLEAAMKAGAPKDIIQWIEVPSIEATKQLMNHKGIALVLATGGSGMVKSAYSTGKPALGVGPGNVPSYIEKTAHIKRAVNDIIGSKTFDNGMICASEQVVVIDKEIYKDVTNEFKAHQAYFVKKDELQRLENAIMNEQKTGIKPDIVGKSAVEIAELAGIPVPENTKLIIAEISGVGSDYPLSREKLSPVLALVKAQSTKQAFQICEDTLHFGGLGHTAVIHTEDETLQKDFGLRMKACRVLVNTPSAVGGIGDMYNELIPSLTLGCGSYGRNSISHNVSATDLLNIKTIAKRRNNTQIFKVPAQIYFEENAIMSLTTMDKIEKVMIVCDPGMVEFGYTKTVENVLRQRTEQPQIKIFSEVEPNPSTNTVYKGLEMMVDFQPDTIIALGGGSAMDAAKAMWMFFEHPETSFFGAKQKFLDIGKRTYKIGMPENATFICIPTTSGTGSEVTPFAVITDSETNVKYPLADFALTPDVAIIDPQFVMSVPKSVTADTGMDVLTHAMESYVSVMASDYTRGLSLQAIKLTFEYLKSSVEKGDKVSREKMHNASTLAGMAFANAFLGIAHSIAHKIGGEYGIPHGRANAILLPHIIRYNAKDPQKHALFPKYEFFRADTDYADIAKFLGLKGNTTEALVESLAKAVYELGQSVGIEMNLKSQGVSEEELNESIDRMAELAFEDQCTTANPKEALISEIKDIIQTSYDYKQ</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C5H14NO/c1-6(2,3)4-5-7/h7H,4-5H2,1-3H3/q+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;InChI=1S/C5H12NO/c1-6(2,3)4-5-7/h5H,4H2,1-3H3/q+1;</t>
+  </si>
+  <si>
+    <t>MRAAVVTKDHKVSIEDKKLRALKPGEALVQTEYCGVCHTDLHVKNADFGDVTGVTLGHEGIGKVIEVAEDVESLKIGDRVSIAWMFESCGRCEYCTTGRETLCRSVKNAGYTVDGAMAEQVIVTADYAVKVPEKLDPAAASSITCAGVTTYKAVKVSNVKPGQWLGVFGIGGLGNLALQYAKNVMGAKIVAFDINDDKLAFAKELGADVIINSKDVDPVAEVMKLTDNKGLDATVVTSVAKTPFNQAVDVVKAGARVVAVGLPVDKMNLDIPRLVLDGIEVVGSLVGTRQDLREAFEFAAENKVTPKVQLRKLEEINDIFEEMENGTITGRMVIKF</t>
+  </si>
+  <si>
+    <t>MIGIIGAMEEEVTILKNKLTQLSEISVAHVKFYTGILKDREVVITQSGIGKVNAAISTTLLINKFKPDIIINTGSAGALDESLNVGDVLISDDVKYHDADATAFGYEYGQVPQMPVAFQSSKPLIEKVSQVVQQQQLTAKVGLIVSGDSFIGSIEQRQKIKKAFPNAMAVEMEATAIAQTCYQFNVPFVVVRAVSDLANGEAEMSFEAFLEKAAVSSSQTVEALVSQL</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C11H15N5O3S/c1-20-2-5-7(17)8(18)11(19-5)16-4-15-6-9(12)13-3-14-10(6)16/h3-5,7-8,11,17-18H,2H2,1H3,(H2,12,13,14)/t5-,7-,8-,11-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H12O4S/c1-11-2-3-4(7)5(8)6(9)10-3/h3-9H,2H2,1H3/t3-,4-,5-,6?/m1/s1;InChI=1S/C5H5N5/c6-4-3-5(9-1-7-3)10-2-8-4/h1-2H,(H3,6,7,8,9,10);</t>
+  </si>
+  <si>
+    <t>MTMMAMNFKYCHKIMKKHSKSFSYAFDLLPEDQRKAVWAIYAVCRKIDDSIDVYGDIQFLNQIKEDIQSIEKYPYEHHHFHSDRRIMRALQHVAQYKNIAFQSFYNLIDTVYKDQQFTMFETDAELFGYCYGVAGTVGEVLTPILSDHETHQTYDVARRLGESLQLINILRDVGEDFENERIYFSKQRLKQYEVDIAEVYQNGGNNHYIDLWEYYAAIAEKDFRDVMDQIKVFSIEAQPIIELAARIYIEILDEVRQANYTLHERVFVDKRKKAKLFHEINSKYHRI</t>
+  </si>
+  <si>
+    <t>InChI=1S/C20H36O7P2/c1-17(2)9-6-10-18(3)11-7-12-19(4)13-8-14-20(5)15-16-26-29(24,25)27-28(21,22)23/h9,11,13,15H,6-8,10,12,14,16H2,1-5H3,(H,24,25)(H2,21,22,23)/p-3/b18-11+,19-13+,20-15+;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C40H64/c1-33(2)19-13-23-37(7)27-17-31-39(9)29-15-25-35(5)21-11-12-22-36(6)26-16-30-40(10)32-18-28-38(8)24-14-20-34(3)4/h11-12,19-22,27-30H,13-18,23-26,31-32H2,1-10H3/b12-11-,35-21+,36-22+,37-27+,38-28+,39-29+,40-30+;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H2O/h1H2;</t>
+  </si>
+  <si>
+    <t>MTHYHFVGIKGSGMSSLAQIMHDLGHEVQGSDIENYVFTEVALRNKGIKILPFDANNIKEDMVVIQGNAFASSHEEIVRAHQLKLDVVSYNDFLGQIIDQYTSVAVTGAHGKTSTTGLLSHVMNGDKKTSFLIGDGTGMGLPESDYFAFEACEYRRHFLSYKPDYAIMTNIDFDHPDYFKDINDVFDAFQEMAHNVKKGIIAWGDDEHLRKIEADVPIYYYGFKESDDIYAQNIQITDKGTAFDVYVDGEFYDHFLSPQYGDHTVLNALAVIAISYLEKLDVTNIKEALETFGGVKRRFNETTIANQVIVDDYAHHPREISATIETARKKYPHKEVVAVFQPHTFSRTQAFLNEFAESLSKADRVFLCEIFGSIRENTGALTIQDLIDKIEGASLINEDSINALEQFDNAVILFMGAGDIQKLQNAYLDKLGMKNAF</t>
+  </si>
+  <si>
+    <t>InChI=1S/C3H7NO2/c1-2(4)3(5)6/h2H,4H2,1H3,(H,5,6)/t2-/m0/s1;InChI=1S/C20H31N3O19P2/c1-7(18(30)31)38-16-12(21-8(2)25)19(40-9(5-24)14(16)28)41-44(35,36)42-43(33,34)37-6-10-13(27)15(29)17(39-10)23-4-3-11(26)22-20(23)32/h3-4,7,9-10,12-17,19,24,27-29H,5-6H2,1-2H3,(H,21,25)(H,30,31)(H,33,34)(H,35,36)(H,22,26,32)/p-3/t7-,9-,10-,12-,13-,14-,15-,16-,17-,19-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C23H36N4O20P2/c1-8(21(35)36)24-19(34)9(2)43-18-14(25-10(3)29)22(45-11(6-28)16(18)32)46-49(40,41)47-48(38,39)42-7-12-15(31)17(33)20(44-12)27-5-4-13(30)26-23(27)37/h4-5,8-9,11-12,14-18,20,22,28,31-33H,6-7H2,1-3H3,(H,24,34)(H,25,29)(H,35,36)(H,38,39)(H,40,41)(H,26,30,37)/p-3/t8-,9+,11+,12+,14+,15+,16+,17+,18+,20+,22+/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MTNERKEVSEAPVNFGANLGLMLDLYDDFLQDPSSVPEDLQVLFSTIKNDDSIVPALKSTSSQNSDGTIKRVMRLIDNIRQYGHLKADIYPVNPPKRKHVPKLEIEDFDLDQQTLEGISAGIVSDHFADIYDNAYEAILRMEKRYKGPIAFEYTHINNNTERGWLKRRIETPYKVTLNNNEKRALFKQLAYVEGFEKYLHKNFVGAKRFSIEGVDALVPMLQRTITIAAKEGIKNIQIGMAHRGRLNVLTHVLEKPYEMMISEFMHTDPMKFLPEDGSLQLTAGWTGDVKYHLGGIKTTDSYGTMQRIALANNPSHLEIVAPVVEGRTRAAQDDTQRAGAPTTDHHKAMPIIIHGDAAYPGQGINFETMNLGNLKGYSTGGSLHIITNNRIGFTTEPIDARSTTYSTDVAKGYDVPIFHVNADDVEATIEAIDIAMEFRKEFHKDVVIDLVGYRRFGHNEMDEPSITNPVPYQNIRKHDSVEYVFGKKLVNEGVISEDEMHSFIEQVQKELRQAHDKINKADKMDNPDMEKPADLALPLQADEQSFTFDHLKEINDALLTYPDGFNILKKLNKVLEKRHEPFNKEDGLVDWAQAEQLAFATILQDGTPIRLTGQDSERGTFSHRHAVLHDEQTGETYTPLHHVPDQKATFDIHNSPLSEAAVVGFEYGYNVENKKSFNIWEAQYGDFANMSQMIFDNFLFSSRSKWGERSGLTLFLPHAYEGQGPEHSSARLERFLQLAAENNCTVVNLSSSSNYFHLLRAQAASLDSEQMRPLVVMSPKSLLRNKTVAKPIDEFTSGGFEPILTESYQADKVTKVILATGKMFIDLKEALAKNPDESVLLVAIERLYPFPEEEIEALLAQLPNLEEVSWVQEEPKNQGAWLYVYPYVKVLVADKYDLSYHGRIQRAAPAEGDGEIHKLVQNKIIENALKNN</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H6O5/c6-3(5(9)10)1-2-4(7)8/h1-2H2,(H,7,8)(H,9,10)/p-2;InChI=1S/C28H36N4O6/c33-22-14-12-21(13-15-22)30-19-29-17-5-4-9-23(26(34)32-18-6-10-25(32)28(37)38)31-24(27(35)36)16-11-20-7-2-1-3-8-20/h1-3,7-8,12-15,19,23-25,31,33H,4-6,9-11,16-18H2,(H,29,30)(H,35,36)(H,37,38)/t23-,24-,25-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C28H36N4O6/c33-22-14-12-21(13-15-22)30-19-29-17-5-4-9-23(26(34)32-18-6-10-25(32)28(37)38)31-24(27(35)36)16-11-20-7-2-1-3-8-20/h1-3,7-8,12-15,19,23-25,31,33H,4-6,9-11,16-18H2,(H,29,30)(H,35,36)(H,37,38)/t23-,24-,25-/m0/s1;InChI=1S/CO2/c2-1-3;</t>
+  </si>
+  <si>
+    <t>MFSRNNNIFVDDLSVTKDNYLIAVLKMLVIFLVINYGTDVSYDHEYVGLFIILLGVVLLKILNINLLSFKKLKFTHMLYIIFGFLLMYGLDYLYDTFAPPTLNEILIDEESEDAPYHIALLSTAIIPPITEEIICRGLIIRILFRNHLFLGFIVSTVFFTLIHESDTLIGYLPYFYSGLIFGYTYLKTKRLEVPILIHFINNLLAM</t>
+  </si>
+  <si>
+    <t>InChI=1S/H3N/h1H3/p+1;</t>
+  </si>
+  <si>
+    <t>MALIGGICCYIVINYIKVKLKYHDALDAFGIHGVGGIIGAVLTAFFQSKKANPDIENGFIYTGDVHIILVQILCVTAVVIFSIVMTFIIAKVIKLITPLSVTEQETNIGLDKIVHGEHAYFEGELNRFNKHIRY</t>
+  </si>
+  <si>
+    <t>MNLNDTIFMFLCTLLVWLMTPGLSLFYGGLVQSKNALNTVMQSMAAIVLVTFVWITVGFTISFGEGNLWFGNWEYTFLNHVGFATQEDISPHIPLALFMLFQMMFCTIAISILSGSIAEKMKFIPYLLFVVIWTALVYSPVAHWVWGGGWINKLGVLDFAGGTVVHITSGVSGLVLAIMIGKGNKHSESTPHNLIITLIGGIFVWIGWYGFNVGSAFTFDKIAMLAFTNTVISASAGAIGWLILEYF</t>
+  </si>
+  <si>
+    <t>MKILLIGYGAMNQRVARLAEEKGHEIVGVIENTSKATTPYQQYQHIADVKDADVAIDFSNPNLLFPLLDEAFHLPLVVATTGEKEKLLNKLDELSKNMPVFFSANMSYGVHALTKILAAAVPLLDDFDIELTEAHHNKKVDAPSGTLEKLYDVIVSLKENVTPVYDRHELNEKRQPQDIGIHSIRGGTIVGEHEVLFAGTDETIQITHRAQSKDIFANGAIQAAERLVNKPNGFYTFDNL</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H2O/h1H2;InChI=1S/C7H9NO4/c9-6(10)4-2-1-3-5(8-4)7(11)12/h4H,1-3H2,(H,9,10)(H,11,12)/p-2/t4-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C7H9NO5/c9-3-1-4(6(10)11)8-5(2-3)7(12)13/h3-4,9H,1-2H2,(H,10,11)(H,12,13)/p-2/t3-,4-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MLNLENKTYVIMGIANKRSIAFGVAKVLDQLGAKLVFTYRKERSRKELEKLLEQLNQPEAYLYQIDVQSDEEVINGFEQIGKDVGNIDGVYHSIAFANMEDLRGRFSETSREGFLLAQDISSYSLTIVAHEAKKLMPEGGSIVATTYLGGEFAVQNYNVMGVAKASLEANVKYLALDLGPDNIRVNAISAGPIRTLSAKGVGGFNTILKEIEERAPLKRNVDQVEVGKTAAYLLSDLSSGVTGENIHVDSGFHAIK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H3N/h1H3/i1-1;</t>
+  </si>
+  <si>
+    <t>MLSFQLLFSLFVIALIIALISGLLFLAPVMPMRYIKLHLYILVMPVLFAVIGFFGIHGQHVLGPFKIDRLSWLLAGFVMALGFIIQKFSMRYLLGDHHYRHYFPLFTAITSFASLAWMSEDLRLMALCWGMTLLCLTLLMNVNRFWKVPRESAKLSSMTFLCGWLAFVGAIVTIYIATGEWRVPQHIAHPTWSLLTNVLLVLAVMIPAAQFPFHRWLIESVTAPTPVSAIMHAGIVNAGGVILTRFAPIFDNGFALSLLLILSSISVLLGSGISLVQVDYKRQLVGSTMSQMGFMLVQCALGVYSAAIIHLILHGIFKATLFLQSGSIVKRFNIPKQASAKDAYGWIVMGRVLAIIVAFLFWMSSDRSAYEVLSALILAWSLLVSWNQMVAFSKGRMARLVGMILISIVTFIYIITHNYFYDVLQNITTHATTPPTISVIISVVILIFGSLLSIWVARHRYSKTFAVLYVWLVNLGEARSKAIESHPNYLKKYL</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C6H3BrO2/c7-4-1-2-5(8)6(9)3-4/h1-3H;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C13H16O3/c1-4-5-6-7-10-9(2)12(16-3)8-11(14)13(10)15/h4-8,14-15H,1-3H3/b5-4+,7-6+;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>MKAVHFGAGNIGRGFIGYILADNNVKVTFADVNEEIINALAHDHQYDVILADESKTTTRVNNVDAINSMQPSEALKQAILEADIITTAVGVNILPIIAKSFAPFLKEKTNHVNIVACENAIMATDTLKKAVLDITGPLGNNIHFANSAVDRIVPLQKNENILDVMVEPFYEWVVEKDAWYGPELNHIKYVDDLTPYIERKLLTVNTGHAYLAYAGKFAGKATVLDAVKDSSIEAGLRRVLAETSQYITNEFDFTEAEQAGYVEKIIDRFNNSYLSDEVTRVGRGTLRKIGPKDRIIKPLTYLYNKDLERTGLLNTAALLLKYDDTADQETVEKNNYIKEHGLKAFLSEYAKVDDGLADEIIETYNSLS</t>
+  </si>
+  <si>
+    <t>InChI=1S/C6H15O9P/c7-1-3(8)5(10)6(11)4(9)2-15-16(12,13)14/h3-11H,1-2H2,(H2,12,13,14)/p-2/t3-,4-,5-,6-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C6H13O9P/c7-2-6(10)5(9)4(8)3(15-6)1-14-16(11,12)13/h3-5,7-10H,1-2H2,(H2,11,12,13)/p-2/t3-,4-,5+,6-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKVGIDAGGTLIKIVQEQDNQRTFKTELTKNIDQVVEWLNQQQIEKLCLTGGNAGVIAENINIPAQIFVEFDAASQGLGILLTEQGHALADYIFANVGTGTSLHYFDGQSQRRVGGIGTGGGMIQGLGYLLSQITDYKQLTDMAQHGDRNTIDLKVRHIYKDTEPPIPGDLTAANFGHVLHHLDADFTPSNKLAAVIGVVGEVVTTMAITVAREFKTENIVYIGSSFHNNALLRKVVEDYTVLRGCKPYYVENGAFSGAIGALYLGK</t>
+  </si>
+  <si>
+    <t>InChI=1S/C11H22N2O4S/c1-11(2,7-14)9(16)10(17)13-4-3-8(15)12-5-6-18/h9,14,16,18H,3-7H2,1-2H3,(H,12,15)(H,13,17)/t9-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C11H23N2O7PS/c1-11(2,7-20-21(17,18)19)9(15)10(16)13-4-3-8(14)12-5-6-22/h9,15,22H,3-7H2,1-2H3,(H,12,14)(H,13,16)(H2,17,18,19)/p-2/t9-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MAGIIKEISKQDASELVELATRTFYDTFGSYYDDKDFDQFFKDNYTVGKFTQEINHVDSFHYFYQEDGANVGYIKMNINSAQTEEMGETYLEVQCIYFLKDFQGGGRGSQLIALAEKIAQEHNKHKIWLGVWEHNPRAQAFYKRHGFKVVGEHHFQTGDVTDTDLIMEKEL</t>
+  </si>
+  <si>
+    <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C7H19N3/c8-4-1-2-6-10-7-3-5-9/h10H,1-9H2/p+3;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C9H21N3O/c1-9(13)12-8-4-7-11-6-3-2-5-10/h11H,2-8,10H2,1H3,(H,12,13)/p+2;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>METIYDFVVETNKGVTYKLDAYKGDVMLIVNTASECGFTSQFEGLQSLYEKYKDQGFVILGFPCNQFGGQEPGSGEEAAQNCKLNYGVTFPMHQKIDVKGEHQLPLFRYLTAAQHGFFNKKIKWNFTKFLVDREGNVVKRFAPQKKPVQIEREIEKLL</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O2/c1-2/h1-2H;InChI=1S/C10H17N3O6S/c11-5(10(18)19)1-2-7(14)13-6(4-20)9(17)12-3-8(15)16/h5-6,20H,1-4,11H2,(H,12,17)(H,13,14)(H,15,16)(H,18,19)/p-1/t5-,6-/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C20H32N6O12S2/c21-9(19(35)36)1-3-13(27)25-11(17(33)23-5-15(29)30)7-39-40-8-12(18(34)24-6-16(31)32)26-14(28)4-2-10(22)20(37)38/h9-12H,1-8,21-22H2,(H,23,33)(H,24,34)(H,25,27)(H,26,28)(H,29,30)(H,31,32)(H,35,36)(H,37,38)/p-2/t9-,10-,11-,12-/m0/s1;InChI=1S/H2O/h1H2;</t>
+  </si>
+  <si>
+    <t>MNNRNVYDIEVSDYKGLTYKLEAFRGKVILVVNTATECIYSEQLKKLETLFQKYKDRGFVVLSFPNNNFDNRQPGSNEEILKISREKFGVTFPVLAKISVNGNDEHPLFTHLKNEQPGIFGSPIKWNFTKFIIDRQGNVVNRFLPMEDPLDISANIEILLQESSS</t>
+  </si>
+  <si>
     <t>MAANFKEQSKKHFDLNGQSYTYYDLKAVEEQGITKVLKLPYSIRVLLESLLRQEDDFVITDDHIKALSQFGKDGNEGEVPFKPSRVILQDFTGVPAVVDLASLRKAMDDVGGDITKINPEVPVDLVIDHSVQVDSYANPEALERNMKLEFERNYERYQFLNWATKAFDNYNAVPPATGIVHQVNLEYLASVVHVRDVDGEKTAFPDTLVGTDSHTTMINGIGVLGWGVGGIEAEAGMLGQPSYFPIPEVIGVRLVNSLPQGATATDLALRVTQELRKKGVVGKFVEFFGPGVQHLPLADRATIANMAPEYGATCGFFPVDDESLKYMKLTGRSDEHIALVKEYLKQNHMFFDVEKEDPNYTDVIELDLSTVEASLSGPKRPQDLIFLSDMKSSFENSVTAPAGNQGHGLDKSEFDKKAEINFKDGSKATMKTGDIAIAAITSCTNTSNPYVMLGAGLVAKKAVEKGLKVPEYVKTSLAPGSKVVTGYLRDAGLQPYLDELGFNLVGYGCTTCIGNSGPLLPEIEKAIADEDLLVTSVLSGNRNFEGRIHPLVKANYLASPQLVVAYALAGTVDIDLQNEPIGKGNDGEDVYLKDIWPSIKEVSDTVDSVVTPELFIEEYNNVYNNNELWNEIDVTDQPLYDFDPNSTYIQNPSFFQGLSKEPGTIVPLNGLRVMGKFGDSVTTDHISPAGAIGKDTPAGKYLQDHQVPIREFNSYGSRRGNHEVMVRGTFANIRIKNQLAPGTEGGFTTYWPTNEVMPIFDAAMKYKEDGTGLVVLAGNDYGMGSSRDWAAKGTNLLGVKTVIAQSYERIHRSNLVMMGVLPLEFKKGESADSLGLDGTEEISVNIDENVQPHDYVKVTAKKQDGDLVEFDAMVRFDSLVEMDYYRHGGILQMVLRNKLAQ</t>
   </si>
   <si>
+    <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;</t>
+  </si>
+  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/C6H6O6/c7-4(8)1-3(6(11)12)2-5(9)10/h1H,2H2,(H,7,8)(H,9,10)(H,11,12)/p-3/b3-1-;</t>
   </si>
   <si>
-    <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;</t>
-  </si>
-  <si>
     <t>MINVTLKQIQSWIPCEIEDQFLNQEINGVTIDSRAISKNMLFIPFKGENVDGHRFVSKALQDGAGAAFYQKGTPIDENVSGPIIWVEDTLTALQQLAQAYLRHVNPKVIAVTGSNGKTTTKDMIESVLHTEFKVKKTQGNYNNEIGLPLTILELDNDTEISILEMGMSGFHEIEFLSNLAQPDIAVITNIGESHMQDLGSREGIAKAKSEITIGLKDNGTFIYDGDEPLLKPHVKEVENAKCISIGVATDNALVCSVDDRDTTGISFTINNEHYDLPILGKHNMKNATIAIAVGHELGLTYNIIYQNLKNVSLTGMRMEQHTLENDITVINDAYNASPTSMRAAIDTLSTLTGRRILILGDVLELGENSKEMHIGVGNYLEEKHIDVLYTFGNEAKYIYDSGQQHVEKAQHFNSKDDMIEVLTSDLKAHDRVLVKGSRGMKLEEVVNALIS</t>
   </si>
   <si>
@@ -54,18 +351,12 @@
     <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C41H65N9O28P2/c1-15(32(58)45-17(3)37(62)63)44-35(61)21(8-6-7-20(42)38(64)65)47-25(53)10-9-22(39(66)67)48-33(59)16(2)43-34(60)18(4)74-31-27(46-19(5)52)40(76-23(13-51)29(31)56)77-80(71,72)78-79(69,70)73-14-24-28(55)30(57)36(75-24)50-12-11-26(54)49-41(50)68/h11-12,15-18,20-24,27-31,36,40,51,55-57H,6-10,13-14,42H2,1-5H3,(H,43,60)(H,44,61)(H,45,58)(H,46,52)(H,47,53)(H,48,59)(H,62,63)(H,64,65)(H,66,67)(H,69,70)(H,71,72)(H,49,54,68)/p-4/t15-,16+,17-,18-,20-,21+,22-,23-,24-,27-,28-,29-,30-,31-,36-,40-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MLTIPEKENRGSKEQEVAIMIDALADKGKKALEALSKKSQEEIDHIVHQMSLAAVDQHMVLAKLAHEETGRGIYEDKAIKNLYASEYIWNSIKDNKTVGIIGEDKEKGLTYVAEPIGVICGVTPTTNPTSTTIFKAMIAIKTGNPIIFAFHPSAQESSKRAAEVVLEAAMKAGAPKDIIQWIEVPSIEATKQLMNHKGIALVLATGGSGMVKSAYSTGKPALGVGPGNVPSYIEKTAHIKRAVNDIIGSKTFDNGMICASEQVVVIDKEIYKDVTNEFKAHQAYFVKKDELQRLENAIMNEQKTGIKPDIVGKSAVEIAELAGIPVPENTKLIIAEISGVGSDYPLSREKLSPVLALVKAQSTKQAFQICEDTLHFGGLGHTAVIHTEDETLQKDFGLRMKACRVLVNTPSAVGGIGDMYNELIPSLTLGCGSYGRNSISHNVSATDLLNIKTIAKRRNNTQIFKVPAQIYFEENAIMSLTTMDKIEKVMIVCDPGMVEFGYTKTVENVLRQRTEQPQIKIFSEVEPNPSTNTVYKGLEMMVDFQPDTIIALGGGSAMDAAKAMWMFFEHPETSFFGAKQKFLDIGKRTYKIGMPENATFICIPTTSGTGSEVTPFAVITDSETNVKYPLADFALTPDVAIIDPQFVMSVPKSVTADTGMDVLTHAMESYVSVMASDYTRGLSLQAIKLTFEYLKSSVEKGDKVSREKMHNASTLAGMAFANAFLGIAHSIAHKIGGEYGIPHGRANAILLPHIIRYNAKDPQKHALFPKYEFFRADTDYADIAKFLGLKGNTTEALVESLAKAVYELGQSVGIEMNLKSQGVSEEELNESIDRMAELAFEDQCTTANPKEALISEIKDIIQTSYDYKQ</t>
-  </si>
-  <si>
     <t>InChI=1S/C15H24O/c1-10(9-16)5-4-6-14(2)11-7-12-13(8-11)15(12,14)3/h5,11-13,16H,4,6-9H2,1-3H3/b10-5-/t11-,12?,13?,14-,15+/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
   </si>
   <si>
     <t>InChI=1S/C6H9N3/c1-9(2)5-6-7-3-4-8-6/h3-5H,1-2H3;InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MRAAVVTKDHKVSIEDKKLRALKPGEALVQTEYCGVCHTDLHVKNADFGDVTGVTLGHEGIGKVIEVAEDVESLKIGDRVSIAWMFESCGRCEYCTTGRETLCRSVKNAGYTVDGAMAEQVIVTADYAVKVPEKLDPAAASSITCAGVTTYKAVKVSNVKPGQWLGVFGIGGLGNLALQYAKNVMGAKIVAFDINDDKLAFAKELGADVIINSKDVDPVAEVMKLTDNKGLDATVVTSVAKTPFNQAVDVVKAGARVVAVGLPVDKMNLDIPRLVLDGIEVVGSLVGTRQDLREAFEFAAENKVTPKVQLRKLEEINDIFEEMENGTITGRMVIKF</t>
-  </si>
-  <si>
     <t>MRRHAIILAAGKGTRMKSKKYKVLHEVAGKPMVEHVLESVKGSGVDQVVTIVGHGAESVKGHLGERSLYSFQEEQLGTAHAVQMAKSHLEDKEGTTIVVCGDTPLITKETLETLIAHHEDANAQATVLSASIQHPYGYGRIVRNASGRLERIVEEKDATQAEKDINEISSGIFAFNNKTLFEKLTQVKNDNAQGEYYLPDVLSLILNDGGIVEVYRTNDVEEIMGVNDRVMLSQAEKAMQRRTNHYHMLNGVTIIDPDSTFIGPDVTIGSDTVIEPGVRINGRTEIGEDVVIGQYSEINNSTIENGACIQQSVVNDASVGANTKVGPFAQLRPGAQLGADVKVGNFVEIKKADLKDGAKVSHLSYIGDAVIGERTNIGCGTITVNYDGENKFKTIVGKDSFVGCNVNLVAPVTVGDGVLVAAGSTITDDVPNDSLAVARARQTTKEGYRK</t>
   </si>
   <si>
@@ -96,9 +387,6 @@
     <t>InChI=1S/C5H11O7P/c6-2-4-3(7)1-5(11-4)12-13(8,9)10/h3-7H,1-2H2,(H2,8,9,10)/p-2/t3-,4+,5+/m0/s1;InChI=1S/C5H6N2O2/c1-3-2-6-5(9)7-4(3)8/h2H,1H3,(H2,6,7,8,9);</t>
   </si>
   <si>
-    <t>MADNKANKEQVHRVFQNISKKYDRLNNIISFEQHKVWRKRVMKDMGVRKGTKALDVCCGTGDWTIALSKAVEPTGEVTGIDFSENMLEVGKEKTASMENVKLVHGDAMELPFEDNSFDYVTIGFGLRNVPDYLVALKEMNRVLKPGGMVVCLETSQPTLPVFKQMYALYFKFVMPIFGKLFAKSKEEYEWLQQSTFNFPGKEELKRMFEEAGFINVRVRSFTGGVAAMHLGYKEKDNTKGD</t>
-  </si>
-  <si>
     <t>InChI=1S/C15H22N6O5S/c1-27(3-2-7(16)15(24)25)4-8-10(22)11(23)14(26-8)21-6-20-9-12(17)18-5-19-13(9)21/h5-8,10-11,14,22-23H,2-4,16H2,1H3,(H2-,17,18,19,24,25)/p+1/t7-,8+,10+,11+,14+,27?/m0/s1;InChI=1S/C42H64O3/c1-32(2)16-10-17-33(3)18-11-19-34(4)20-12-21-35(5)22-13-23-36(6)24-14-25-37(7)26-15-27-38(8)28-29-39-30-40(43)31-41(45-9)42(39)44/h16,18,20,22,24,26,28,30-31,43-44H,10-15,17,19,21,23,25,27,29H2,1-9H3/b33-18+,34-20+,35-22+,36-24+,37-26+,38-28+;</t>
   </si>
   <si>
@@ -126,9 +414,6 @@
     <t>MAEQQTIMERLFHTLDEKAKTLNNENGQSFIENLGLAMEQVYTNERGLLEQSTLQDRRKAFQFAYLSLMQEEKIQANHQITPDSIGLILGFLVERFMNNQEELHIVDIASGAGHLSATVKEVLPEIAVMHHLIEVDPVLSRVSVHLANFLEIPFDVYPQDAIMPLPLEEADIVIGDFPVGYYPIDERSRDFKLGFEEGHSYSHYLLIEQAINALKDAGYAFLVVPSNIFTGEHVKQLEKYIATETEMQAFLNLPPTLFKNEKARKSILILQKKKSGETKPVEVLLANIPDFKNPSQFQGFMTELNQWMDTNRPKK</t>
   </si>
   <si>
-    <t>MKILLIGYGAMNQRVARLAEEKGHEIVGVIENTSKATTPYQQYQHIADVKDADVAIDFSNPNLLFPLLDEAFHLPLVVATTGEKEKLLNKLDELSKNMPVFFSANMSYGVHALTKILAAAVPLLDDFDIELTEAHHNKKVDAPSGTLEKLYDVIVSLKENVTPVYDRHELNEKRQPQDIGIHSIRGGTIVGEHEVLFAGTDETIQITHRAQSKDIFANGAIQAAERLVNKPNGFYTFDNL</t>
-  </si>
-  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/C7H9NO4/c9-6(10)4-2-1-3-5(8-4)7(11)12/h4H,1-3H2,(H,9,10)(H,11,12)/p-2/t4-/m0/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
   </si>
   <si>
@@ -153,9 +438,6 @@
     <t>InChI=1S/H3N/h1H3/p+1;InChI=1S/C5H9NO4/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H,7,8)(H,9,10)/p-1/t3-/m0/s1;</t>
   </si>
   <si>
-    <t>MRIEYNYRYYLTENEYKQYHIQLKGFIKKYVATKLADVGEVIHFAQAQQRQGRYVSLYLSYEAAKYFNHVMCSHSLAKDDIYAVAYSFEKAESINSTYEHQTSYVSKHHFSFVESSEVMMTNIKRVQQAIVEGETYQVNYTARLTDNIYYPISTLYERLTQFSNGNYTALLQTDEIQVASISPELFFQKGQFNNVDNVIISKPMKGTMPRGKTEAEDQQYYKTLQTSSKDRAENVMIVDLLRNDIGRISQSGSIKVYKLFFIEAYKTVFQMTSMVSGTLKTNTDLTQILTSLFPCGSITGAPKLNTMKYIKQLESSPRGIYCGAIGLLLPTEDDKMIFNIPIRTIEYKYGQAIYGVGAGITIDSKPKDEVNEFYAKTKILEML</t>
-  </si>
-  <si>
     <t>MKFAVLVFPGSNCDRDMFNAAIKSGVEAEYVDYRETSLSGFDGVLIPGGFSFGDYLRSGAMASVAPIISEVKRLAAEGKPVLGVCNGFQILTEIGLLPGALLHNDSHLFISRNEELEIVNNQTAFTNLYEQGEKVIYPVAHGEGHYYCTDEIYQQLKANNQIILKYVNNPNGSYDDIAGIVNEKGNVCGMMPHPERALETLLGTDSGVKLFEAMVKSWREQHV</t>
   </si>
   <si>
@@ -348,9 +630,6 @@
     <t>InChI=1S/C3H8N2O2/c4-1-2(5)3(6)7/h2H,1,4-5H2,(H,6,7)/t2-/m1/s1;</t>
   </si>
   <si>
-    <t>MQEAYIVAYGRSAAAKAKQGALFHERPDDVAAKVLQGVLKRIDGKFNKNMIEDVIVGTAFPEGLQGQNIARTIALRTGLSDTVPGQTVNRYCSSGLQTIAIAANQIMAGQGDILVAGGVELMSAVPMGGNEPTNNPTLQYDDIGASYPMGLTAENVASQFDVSREDQDAYAVRSHQRAYDAQLDGRFKDEIIPIQVNSVEYTNAGPKVHTNIFDQDEFIRPDTTIEALAKLRTVFKADGTVTAGTSAPLSDGAGFVVLMSGDKVKELGVTPIARFVGYKAVGVDPKIMGIGPAYAIPEVLSLSNLSVEDIDLIELNEAFASQTIASIKEVGLDISRTNVNGGAIALGHPLGATGAMLTARLLNEMGRRPDSRYGMVTMCIGVGMGAAAIFEYVR</t>
-  </si>
-  <si>
     <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C29H50N7O17P3S/c1-4-5-6-7-8-9-20(38)57-13-12-31-19(37)10-11-32-27(41)24(40)29(2,3)15-50-56(47,48)53-55(45,46)49-14-18-23(52-54(42,43)44)22(39)28(51-18)36-17-35-21-25(30)33-16-34-26(21)36/h16-18,22-24,28,39-40H,4-15H2,1-3H3,(H,31,37)(H,32,41)(H,45,46)(H,47,48)(H2,30,33,34)(H2,42,43,44)/p-4/t18-,22-,23-,24+,28-/m1/s1;</t>
   </si>
   <si>
@@ -369,9 +648,6 @@
     <t>InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
   </si>
   <si>
-    <t>MLSFQLLFSLFVIALIIALISGLLFLAPVMPMRYIKLHLYILVMPVLFAVIGFFGIHGQHVLGPFKIDRLSWLLAGFVMALGFIIQKFSMRYLLGDHHYRHYFPLFTAITSFASLAWMSEDLRLMALCWGMTLLCLTLLMNVNRFWKVPRESAKLSSMTFLCGWLAFVGAIVTIYIATGEWRVPQHIAHPTWSLLTNVLLVLAVMIPAAQFPFHRWLIESVTAPTPVSAIMHAGIVNAGGVILTRFAPIFDNGFALSLLLILSSISVLLGSGISLVQVDYKRQLVGSTMSQMGFMLVQCALGVYSAAIIHLILHGIFKATLFLQSGSIVKRFNIPKQASAKDAYGWIVMGRVLAIIVAFLFWMSSDRSAYEVLSALILAWSLLVSWNQMVAFSKGRMARLVGMILISIVTFIYIITHNYFYDVLQNITTHATTPPTISVIISVVILIFGSLLSIWVARHRYSKTFAVLYVWLVNLGEARSKAIESHPNYLKKYL</t>
-  </si>
-  <si>
     <t>MMKKLINKKETFLTDMIEGMLIAHPELEAVSNTVIVKKAKKEQGVAIVSGGGSGHEPAHAGFVAEGMLDAAVCGEVFTSPTPDKILEAIKAVDTGDGVLLVVKNYAGDVMNFEMAQELAEMEGINVETVIVRDDIAVTNEAQRRGVAGTVFVHKLAGYLAEKGHSLTEIKSRVEALLPEIKSIGMAIEPPLVPTTGKYGFDIEDDKMEIGIGIHGEKGIHREEVKDIVHIVGTLLDELYKEVTANEVIVMVNGMGGTPLSELNIVTKYIQQNLAARTVNVAKWFVGDYMTSLDMQGFSITIVPNKPEYLEAFLAPTTSQYFK</t>
   </si>
   <si>
@@ -429,9 +705,6 @@
     <t>MFFKQFYDKHLSQASYLIGCQKTGEAMIIDPIRDLSSYIRVADEEGLTITHAAETHIHADFASGIRDVAIKLNANIYVSGESDDTLGYKNMPNHTYFVQHNDDIYVGNIKLKVLHTPGHTPESISFLLTDEGAGAQVPMGLFSGDFIFVGDIGRPDLLEKAVKVEGSSEIGAKQMFKSIESIKDLPDYIQIWPGHGAGSPCGKSLGAIPTSTLGYEKQTNWAFSENNEATFIDKLISDQPAPPHHLHK</t>
   </si>
   <si>
-    <t>MVKKTKSNTLKKAATLALANLLLIGALTDNSAKAESKKDDTDLKLVSHNVYMLSTVLYPNWGQYKRADLIGQSSYIKNNDVVIFNEAFDNGASDKLLSNVKKEYPYQTPVLGRSQSGWDKTEGSYSSTVAEDGGVAIVSKYPIKEKIQHVFKSGCGFDNDSNKGFVYTKIEKNGKNVHVIGTHTQSEDSRCGAGHDRKIRAEQMKEISDFVKKKNIPKDETVYIGGDLNVNKGTPEFKDMLKNLNVNDVLYAGHNSTWDPQSNSIAKYNYPNGKPEHLDYIFTDKDHKQPKQLVNEVVTEKPKPWDVYAFPYYYVYNDFSDHYPIKAYSK</t>
-  </si>
-  <si>
     <t>InChI=1S/H2O/h1H2;InChI=1S/C21H42O3/c1-2-3-4-5-6-7-8-9-10-11-12-13-14-15-16-17-18-24-20-21(23)19-22/h9-10,21-23H,2-8,11-20H2,1H3/b10-9-/t21-/m0/s1;</t>
   </si>
   <si>
@@ -519,7 +792,22 @@
     <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C7H11NO4/c1-5(10)8-6(7(11)12)3-2-4-9/h4,6H,2-3H2,1H3,(H,8,10)(H,11,12)/p-1/t6-/m0/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;</t>
   </si>
   <si>
-    <t>InChI=1S/C7H12NO8P/c1-4(9)8-5(7(11)12)2-3-6(10)16-17(13,14)15/h5H,2-3H2,1H3,(H,8,9)(H,11,12)(H2,13,14,15)/p-3/t5-/m0/s1;InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
+    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C7H12NO8P/c1-4(9)8-5(7(11)12)2-3-6(10)16-17(13,14)15/h5H,2-3H2,1H3,(H,8,9)(H,11,12)(H2,13,14,15)/p-3/t5-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKCLIRFILVLGLLISSAMVYINPTAHAEQDQTWEKIKERGELRVGLSADYAPMEFEHTVNGKTEYAGVDIDLAKKIAKDNNLKLKIVNMSFDSLLGALKTGKIDIIISGMTSTPERKKQVDFSDSYMMTKNIMLVKKDKVNEYKDIKDFNNKKVGAQKGTEQEKIAQTEIENASITSLSRLPDVILALKSGKVEGAVVEKPVAEAYLKQNPKLGISNVKFNEEEKDTVIAVPKDSPKLLSQINKTIKEVKDKGLIDKYMTNAANAMNDDSGFISKYGSFFLKGIKITILISLIGVALGSILGAFVALMKLSKIKIISWIASIYIEILRGTPMLVQVFIVFFGITAALGLDISALVCGTIALVINSSAYIAEIIRAGINAVDKGQMEAARSLGLNYRQTMKSVIMPQAIKNILPALGNEFVTLIKESSIVSTIGVGEIMFNAQVVQGISFDPFTPLLVAAALYFVLTFVLTRIMNMIEGRLNASD</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H10N2O3/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H2,7,8)(H,9,10)/t3-/m0/s1;InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C5H10N2O3/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H2,7,8)(H,9,10)/t3-/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MFLNLNSEQLHALDAAKQAFGPMLEGLVKYSIPITLVTFVLGLIIALFTALMRISTSKVLRSIARVYVSIIRGTPMIVQLFIIFYGIPELGRLLTNDADNQWTLAPVVAAIIGLSLNVGAYASEIIRGGIISIPKGQTEAAYSIGMTYRQTIQRIILPQAIRVSIPALGNTFLSLIKDTSLLGFILVAEMFRKAQEVASTTYEYLTIYVLVALMYWVVCFIISIIQGIYESYIERGYRS</t>
+  </si>
+  <si>
+    <t>MKRLLFVVIAFVFILAACGNNSSKDKEASKDSKTINVGTEGTYAPFSFHDKDGKLTGYDIDVIKAVAKAEGLKLKFNETSWDSMFAGLDAGRFDVIANQVGINPDREKKYKFSKPYTFSSAVLVIRENEKDIKDFDDVKGKKLAQTFTSNYGKLAKDKGADITKVDGFNQSMDLLLSKRVDGTFNDSLSYLDYKKQKPNAKIKAIKGNAEQSKSAFAFSKKVDDETVQKFNDGLKKIEENGELAKIGKKWFGQDVSKSK</t>
   </si>
   <si>
     <t>InChI=1S/C14H25N3O15P2/c15-9-1-2-17(14(24)16-9)13-12(23)11(22)8(31-13)5-30-34(27,28)32-33(25,26)29-4-7(20)10(21)6(19)3-18/h1-2,6-8,10-13,18-23H,3-5H2,(H,25,26)(H,27,28)(H2,15,16,24)/p-2/t6-,7+,8+,10-,11+,12+,13+/m0/s1;InChI=1S/C77H132N2O27P4/c1-53(2)25-15-26-54(3)27-16-28-55(4)29-17-30-56(5)31-18-32-57(6)33-19-34-58(7)35-20-36-59(8)37-21-38-60(9)39-22-40-61(10)41-23-42-62(11)43-24-44-63(12)45-46-97-109(93,94)106-110(95,96)105-77-71(79-65(14)84)72(87)74(68(48-81)102-77)103-76-70(78-64(13)83)73(88)75(69(49-82)101-76)104-108(91,92)100-52-67(86)51-99-107(89,90)98-50-66(85)47-80/h25,27,29,31,33,35,37,39,41,43,45,66-77,80-82,85-88H,15-24,26,28,30,32,34,36,38,40,42,44,46-52H2,1-14H3,(H,78,83)(H,79,84)(H,89,90)(H,91,92)(H,93,94)(H,95,96)/p-4/b54-27+,55-29+,56-31-,57-33-,58-35-,59-37-,60-39-,61-41-,62-43-,63-45-/t66-,67-,68-,69-,70+,71-,72-,73-,74-,75-,76+,77-/m1/s1;</t>
@@ -666,9 +954,6 @@
     <t>InChI=1S/Fe/q+2;InChI=1S/C36H38N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h13-16,37,40H,5-12H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4/b25-13-,26-13-,27-14-,28-15-,29-14-,30-15-,31-16-,32-16-;</t>
   </si>
   <si>
-    <t>MTKSALVTGASRGIGRSIALQLAEEGYNVAVNYAGSKEKAEAVVEEIKAKGVDSFAIQANVADADEVKAMIKEVVSQFGSLDVLVNNAGITRDNLLMRMKEQEWDDVIDTNLKGVFNCIQKATPQMLRQRSGAIINLSSVVGAVGNLGQANYVATKAGVIGLTKSAARELASRGITVNAVAPGFIVSDMTDALSDELKEQMLTQIPLARFGQDTDIANTVAFLASDKAKYITGQTIHVNGGMYM</t>
-  </si>
-  <si>
     <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C29H50N7O18P3S/c1-4-5-6-7-17(37)12-20(39)58-11-10-31-19(38)8-9-32-27(42)24(41)29(2,3)14-51-57(48,49)54-56(46,47)50-13-18-23(53-55(43,44)45)22(40)28(52-18)36-16-35-21-25(30)33-15-34-26(21)36/h15-18,22-24,28,37,40-41H,4-14H2,1-3H3,(H,31,38)(H,32,42)(H,46,47)(H,48,49)(H2,30,33,34)(H2,43,44,45)/p-4/t17-,18-,22-,23-,24+,28-/m1/s1;</t>
   </si>
   <si>
@@ -693,33 +978,27 @@
     <t>InChI=1S/C9H15N4O9P/c10-3-6(12-9(17)13-7(3)16)11-8-5(15)4(14)2(22-8)1-21-23(18,19)20/h2,4-5,8,14-15H,1,10H2,(H2,18,19,20)(H3,11,12,13,16,17)/p-2/t2-,4-,5-,8-/m1/s1;InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>METIFDYNQIKQIIPHRQPFLLIDKVVEYEEGQRCVAIKQVSGNEPFFQGHFPEYAVMPGVLITEALAQTGAVAILNSEENKGKIALFAGIDKCRFKRQVVPGDTLTLEVEITKIKGPIGKGNAKATVDGQLACSCELTFAIQDVK</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/H3N/h1H3/i1-1;</t>
-  </si>
-  <si>
     <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;InChI=1S/H3N/h1H3/i1-1;</t>
   </si>
   <si>
+    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;</t>
+  </si>
+  <si>
+    <t>MMSYSIGIDYGTASGRVFLINTTNGQVVSKFVKPYTHGVIESELNGLKIPHTYALQNSNDYLEIMEEGISYIVRESKIDPVNIVGIGIDFTSSTIIFTDENLNPVHNLKQFKNNPHAYVKLWKHHGAYKEAEKLYQTAIENNNKWLGHYGYNVSSEWMIPKIMEVMNRAPEIMEKTAYIMEAGDWIVNKLTNKNVRSNCGLGFKAFWEEETGFHYDLFDKIDPKLSKVIQDKVSAPVVNIGEAVGKLDDKMAQKLGLSKDTMVSPFIIDAHASLLGIGSEKDKEMTMVMGTSTCHLMLNEKQHQVPGISGSVKGAIIPELFAYEAGQSAVGDLFEYVAKQAPKSYVDEAENRNMTVFELMNEKIKHQIPGESGLIALDWHNGNRSVLSDSNLTGCIFGLTLQTKHEDIYRAYLEATAFGTKMIMQQYQDWHMEVEKVFACGGIPKKNAVMMDIYANVLNKKLIVMDSEYAPAIGAAILGAVSGGAHNSINDAVDAMKEPILYEINPEAEKVQRYETLFKAYKALHDIHGYKKANIMKDIQSLRVEG</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H10O5/c6-1-3(8)5(10)4(9)2-7/h3,5-8,10H,1-2H2/t3-,5-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C5H11O8P/c6-1-3(7)5(9)4(8)2-13-14(10,11)12/h4-6,8-9H,1-2H2,(H2,10,11,12)/p-2/t4-,5+/m0/s1;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MKITILAVGKLKEKYWKQAIAEYEKRLGPYTKIDIIEVPDEKAPENMSDKEIEQVKEKEGQRILAKIKPQSTVITLEIQGKMLSSEGLAQELNQRMTQGQSDFVFVIGGSNGLHKDVLQRSNYALSFSKMTFPHQMMRVVLIEQVYRAFKIMRGEAYHK</t>
+  </si>
+  <si>
     <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/CO2/c2-1-3;</t>
   </si>
   <si>
-    <t>MMSYSIGIDYGTASGRVFLINTTNGQVVSKFVKPYTHGVIESELNGLKIPHTYALQNSNDYLEIMEEGISYIVRESKIDPVNIVGIGIDFTSSTIIFTDENLNPVHNLKQFKNNPHAYVKLWKHHGAYKEAEKLYQTAIENNNKWLGHYGYNVSSEWMIPKIMEVMNRAPEIMEKTAYIMEAGDWIVNKLTNKNVRSNCGLGFKAFWEEETGFHYDLFDKIDPKLSKVIQDKVSAPVVNIGEAVGKLDDKMAQKLGLSKDTMVSPFIIDAHASLLGIGSEKDKEMTMVMGTSTCHLMLNEKQHQVPGISGSVKGAIIPELFAYEAGQSAVGDLFEYVAKQAPKSYVDEAENRNMTVFELMNEKIKHQIPGESGLIALDWHNGNRSVLSDSNLTGCIFGLTLQTKHEDIYRAYLEATAFGTKMIMQQYQDWHMEVEKVFACGGIPKKNAVMMDIYANVLNKKLIVMDSEYAPAIGAAILGAVSGGAHNSINDAVDAMKEPILYEINPEAEKVQRYETLFKAYKALHDIHGYKKANIMKDIQSLRVEG</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H10O5/c6-1-3(8)5(10)4(9)2-7/h3,5-8,10H,1-2H2/t3-,5-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C5H11O8P/c6-1-3(7)5(9)4(8)2-13-14(10,11)12/h4-6,8-9H,1-2H2,(H2,10,11,12)/p-2/t4-,5+/m0/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MKITILAVGKLKEKYWKQAIAEYEKRLGPYTKIDIIEVPDEKAPENMSDKEIEQVKEKEGQRILAKIKPQSTVITLEIQGKMLSSEGLAQELNQRMTQGQSDFVFVIGGSNGLHKDVLQRSNYALSFSKMTFPHQMMRVVLIEQVYRAFKIMRGEAYHK</t>
-  </si>
-  <si>
     <t>MPIITDVYAREVLDSRGNPTVEVEVLTESGAFGRALVPSGASTGEHEAVELRDGDKSRYLGKGVTKAVENVNEIIAPEIIEGEFSVLDQVSIDKMMIALDGTPNKGKLGANAILGVSIAVARAAADLLGQPLYKYLGGFNGKQLPVPMMNIVNGGSHSDAPIAFQEFMILPVGATTFKESLRWGTEIFHNLKSILSKRGLETAVGDEGGFAPKFEGTEDAVETIIQAIEAAGYKPGEEVFLGFDCASSEFYENGVYDYSKFEGKHGAKRTAAEQVDYLEQLVDKYPIITIEDGMDENDWDGWKQLTERIGDRVQLVGDDLFVTNTEILAKGIENGIGNSILIKVNQIGTLTETFDAIEMAQKAGYTAVVSHRSGETEDTTIADIAVATNAGQIKTGSLSRTDRIAKYNQLLRIEDELFETAKYDGIKSFYNLDK</t>
   </si>
   <si>
@@ -750,10 +1029,10 @@
     <t>MPKEVFGDDFVFLPKNELLTFDEMARIAKVYAELGVKKIRITGGEPLMRRDLDVLIAKLNQIDGIEDIGLTTNGLLLKKHGQKLYDAGLRRINVSLDAIDDTLFQSINNRNIKATTILEQIDYAMSIGLNVKVNVVIQKGINDDQIIPMLEYFKDKHIEIRFIEFMDVGNDNGWDFSKVVTKDEMLTMIEQHFEIDPVEPKYFGEVAKYYRHKDNGVQFGLITSVSQSFCSTCTRARLSSDGKFYGCLFATADGFNVKAFIRSGVTDEELKEQFKALWQIRDDRYSDERTAQTVANRQRKKINMNYIGG</t>
   </si>
   <si>
-    <t>InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/C15H22N6O5S/c1-27(3-2-7(16)15(24)25)4-8-10(22)11(23)14(26-8)21-6-20-9-12(17)18-5-19-13(9)21/h5-8,10-11,14,22-23H,2-4,16H2,1H3,(H2-,17,18,19,24,25)/p+1/t7-,8+,10+,11+,14+,27?/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C10H16N5O14P3/c11-9-13-5-3(6(17)14-9)12-8-10(18)2(27-7(4(10)16)15(5)8)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2,4,7-8,12,16,18H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,17)/p-4/t2-,4+,7-,8+,10+/m1/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/C10H13N5O3/c1-4-6(16)7(17)10(18-4)15-3-14-5-8(11)12-2-13-9(5)15/h2-4,6-7,10,16-17H,1H3,(H2,11,12,13)/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;</t>
+    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1;InChI=1S/C15H22N6O5S/c1-27(3-2-7(16)15(24)25)4-8-10(22)11(23)14(26-8)21-6-20-9-12(17)18-5-19-13(9)21/h5-8,10-11,14,22-23H,2-4,16H2,1H3,(H2-,17,18,19,24,25)/p+1/t7-,8+,10+,11+,14+,27?/m0/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/C10H16N5O14P3/c11-9-13-5-3(6(17)14-9)12-8-10(18)2(27-7(4(10)16)15(5)8)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2,4,7-8,12,16,18H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,17)/p-4/t2-,4+,7-,8+,10+/m1/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;InChI=1S/C10H13N5O3/c1-4-6(16)7(17)10(18-4)15-3-14-5-8(11)12-2-13-9(5)15/h2-4,6-7,10,16-17H,1H3,(H2,11,12,13)/t4-,6-,7-,10-/m1/s1;</t>
   </si>
   <si>
     <t>InChI=1S/C49H74O4/c1-36(2)20-13-21-37(3)22-14-23-38(4)24-15-25-39(5)26-16-27-40(6)28-17-29-41(7)30-18-31-42(8)32-19-33-43(9)34-35-45-44(10)46(50)48(52-11)49(53-12)47(45)51/h20,22,24,26,28,30,32,34H,13-19,21,23,25,27,29,31,33,35H2,1-12H3/b37-22+,38-24+,39-26+,40-28+,41-30+,42-32+,43-34+;InChI=1S/C3H9O6P/c4-1-3(5)2-9-10(6,7)8/h3-5H,1-2H2,(H2,6,7,8)/p-2/t3-/m1/s1;</t>
@@ -822,7 +1101,7 @@
     <t>InChI=1S/C11H15N2O8P/c12-10(16)6-2-1-3-13(4-6)11-9(15)8(14)7(21-11)5-20-22(17,18)19/h1-4,7-9,11,14-15H,5H2,(H3-,12,16,17,18,19)/p-1/t7-,8-,9-,11-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+    <t>InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
   </si>
   <si>
     <t>MERTFLMIKPDAVQRNLIGEVISRIERKGLKLVGGKLMQVPMELAETHYGEHQGKPFYNDLISFITSAPVFAMVVEGEDAVNVSRHIIGSTNPSEASPGSIRGDLGLTVGRNIIHGSDSLESAEREINLWFNENEITSYASPRDAWLYE</t>
@@ -912,9 +1191,6 @@
     <t>InChI=1S/H2O/h1H2;InChI=1S/C5H13O14P3/c6-3-2(1-16-20(8,9)10)17-5(4(3)7)18-22(14,15)19-21(11,12)13/h2-7H,1H2,(H,14,15)(H2,8,9,10)(H2,11,12,13)/p-5/t2-,3-,4-,5-/m1/s1;InChI=1S/C5H10N2O3/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H2,7,8)(H,9,10)/t3-/m0/s1;</t>
   </si>
   <si>
-    <t>MSNQYQQYSTVKKYWHLMRPHTLTASVVPVLVGTAASKIYFLGSEDHIKISLFIAMLLACLLIQAATNMFNEYYDYKKGLDDHESVGIGGAIVRNGMSPELVLRLAIAFYILAAILGLFLAANSSFWLLPVGLVCMAVGYLYTGGPFPISWTPFGELFSGVFMGMFIIVIAFFIQTGNIQSYVIWLSVPIVITIGLINMANNIRDRVKDKASGRKTLPILLGKNASLTFMAIMYFIAYAFIVLTIIIKPGGSLFYLLALLSFPMPVKVIRRFKKNDTPPTMMPAMAAAGKTNTFFGLLYALGIYISALFAGI</t>
-  </si>
-  <si>
     <t>InChI=1S/C65H108O7P2/c1-53(2)27-15-28-54(3)29-16-30-55(4)31-17-32-56(5)33-18-34-57(6)35-19-36-58(7)37-20-38-59(8)39-21-40-60(9)41-22-42-61(10)43-23-44-62(11)45-24-46-63(12)47-25-48-64(13)49-26-50-65(14)51-52-71-74(69,70)72-73(66,67)68/h27,29,31,33,35,37,39,41,43,45,47,49,51H,15-26,28,30,32,34,36,38,40,42,44,46,48,50,52H2,1-14H3,(H,69,70)(H2,66,67,68)/p-3/b54-29+,55-31+,56-33+,57-35+,58-37+,59-39+,60-41+,61-43+,62-45+,63-47+,64-49+,65-51+;InChI=1S/C11H8O4/c12-9-5-8(11(14)15)10(13)7-4-2-1-3-6(7)9/h1-5,12-13H,(H,14,15)/p-1;InChI=1S/p+1;</t>
   </si>
   <si>
@@ -948,7 +1224,7 @@
     <t>InChI=1S/H3N/h1H3/p+1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C21H26N6O15P2/c22-17-12-18(24-7-23-17)27(8-25-12)20-16(31)14(29)11(41-20)6-39-44(36,37)42-43(34,35)38-5-10-13(28)15(30)19(40-10)26-3-1-2-9(4-26)21(32)33/h1-4,7-8,10-11,13-16,19-20,28-31H,5-6H2,(H4-,22,23,24,32,33,34,35,36,37)/p-2/t10-,11-,13-,14-,15-,16-,19-,20-/m1/s1;</t>
   </si>
   <si>
-    <t>InChI=1S/p+1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;</t>
+    <t>InChI=1S/p+1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p-1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
   </si>
   <si>
     <t>MNYTQQLKQKDSEYVWHPFTQMGVYSKEEAIIIEKGKGSYLYDTNGNKYLDGYASLWVNVHGHNNKYLNKVIKKQLNKIAHSTLLGLSNIPSIELAEKLIEITPSNLRKVFYSDTGSASVEIAIKMAYQYWKNIDREKYAKKNKFITLNHGYHGDTIGAVSVGGIKTFHKIFKDLIFENIQVESPSFYRSNYDTENEMMAAILTNIEQILIERNDEIAGFILEPLIQGATGLFVHPKGFLKEVEKLCKKYDVLLICDEVAVGFGRTGKMFACNHEDVQPDIMCLGKAITGGYLPLAATLTSQKIYNAFLSDSHGVNTFFHGHTYTGNQIVCTVALENIRLYEKRKLLSHIETTSSTLEKQLHALKRHRNVGDVRGRGLMFGVELVTDKDSKTPLEIEKVERIVRNCKENGLMIRNLENVITFVPVLSMSNKEVKTMVRIFKKAVHNILDRKC</t>
@@ -960,6 +1236,54 @@
     <t>InChI=1S/C15H19N5O6S/c1-27(3-2-7(21)15(24)25)4-8-10(22)11(23)14(26-8)20-6-19-9-12(16)17-5-18-13(9)20/h5-6,8,10-11,14,22-23H,2-4H2,1H3,(H2-,16,17,18,24,25)/t8-,10-,11-,14-,27?/m1/s1;InChI=1S/C9H20N2O2/c1-7(10)8(11)5-3-2-4-6-9(12)13/h7-8H,2-6,10-11H2,1H3,(H,12,13)/p+1/t7-,8+/m0/s1;</t>
   </si>
   <si>
+    <t>MKRLSIIVIIGIFIITGCDWQRTSKEPSKNAQHQQVIKIGYLPITHSANLMMTKKLLSQHNHPKYKLELVKFNNWPDLMDALNSGRIDGASTLIELAMKSKQKGSNIKAVALGHHEGNVIMGQKGMHLNEFNNNGDDYHFGIPHRYSTHYLLLEALREQLKIKPGHFSYHEMSPAEMPAALSEHRITGYSVAEPFGALGEKLGKGKTLKHGDDVIPDAYCCVLVLRGELLDQHKAVAQAFVQDYKKSGFKMNDRKQSVDIMTHHFKQSRDVLTQSAAWTSYGDLTIKPSGYQEITTLVKQHHLFNPPAYDDFVEPSLYKEASRS</t>
+  </si>
+  <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;InChI=1S/C5H11NO2/c1-6(2,3)4-5(7)8/h4H2,1-3H3;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C5H11NO2/c1-6(2,3)4-5(7)8/h4H2,1-3H3;InChI=1S/p+1;</t>
+  </si>
+  <si>
+    <t>MWESKFAKESLTFDDVLLIPAQSDILPKDVDLSVQLSDKVKLNIPVISAGMDTVTESKMAIAMARQGGLGVIHKNMGVEEQADEVQKVKRSENGVISNPFFLTPEESVYEAEALMGKYRISGVPIVDNKEDRNLVGILTNRDLRFIEDFSIKIVDVMTQENLITAPVNTTLEEAEKILQKHKIEKLPLVKDGRLEGLITIKDIEKVIEFPNAAKDEHGRLLVAAAIGISKDTDIRAQKLVEAGVDVLVIDTAHGHSKGVIDQVKHIKKTYPEITLVAGNVATAEATKDLFEAGADIVKVGIGPGSICTTRVVAGVGVPQITAIYDCATEARKHGKAIIADGGIKFSGDIIKALAAGGHAVMLGSLLAGTEESPGATEIFQGRQYKVYRGMGSLGAMEKGSNDRYFQEDKAPKKFVPEGIEGRTAYKGALQDTIYQLMGGVRAGMGYTGSHDLRELREEAQFTRMGPAGLAESHPHNIQITKESPNYSF</t>
+  </si>
+  <si>
+    <t>MIKFKNVTKRYGKHVAVDNISFNINEGEFFVLIGPSGCGKTTTLKMINRLIHLSEGYIYFKDKPISDYPVYEMRWDIGYVLQQIALFPHMTIKENIAQVPQMKKWKEKDIDKRVDELLDMVGLEPEKYKNRKPDELSGGQRQRVGVIRALAADPPVILMDEPFSALDPISREKLQDDLIELQTKIKKTIIFVTHDIQEAMKLGDKICLLNEGHIEQIDTPEGFKNNPQSEFVKQFMGSHLEDDAPCVEENPIIRDLDIMKPIDEVTSMSAYPIVYDDQQIEVLYQHLSESERVIVMQEDIVGQYVIERKDIFKYLSQKKEVAQHD</t>
+  </si>
+  <si>
+    <t>MTNFFDILSERKGQLFSTMIEHIQISFIALLIATAIAVPLGILLTKTKTISEIVMNIAAILQTIPSLALLGLMIPLFGIGRVPAIIALVVYALLPILRNTYTGIKEVDPSLIEAAKGIGMKPFRRLTKVELPIAMPVIMAGVRTAMVLIIGTATLAALIGAGGLGDLILLGIDRNNASLILLGAIPAALLAIIFDLILRFMAKLSYKKLLMTLGVIVMIIILAIAIPMFAQKGDKITLAGKLGSEPSIITNMYKILIEEETKNTVEVKDGMGKTAFLFNALKSDDIDGYLEFTGTVLGELTKEPLKSKEEKKVYDQAKQSLEKKYQMTMLKPMKYNNTYALAVKRDFAKQHNIRTIGDLNKVKDQLKPGFTLEFNDRPDGYKAVQKAYNLNLDNIRTMEPKLRYQAINKGNINLIDAYSTDAELKQYDMVVLKDDKHVFPPYQGAPLFKESFLKKHPEIKKPLNKLENKISDEDMQMMNYKVTVKNEDPYTVAKDYLKEKGLIK</t>
+  </si>
+  <si>
+    <t>MTERILEVNDLHVSFDITAGEVQAVRGVDFYLNKGETLAIVGESGSGKSVTTKAITKLFQGDTGRIKKGEILFLGEDLAKKPENELIKLRGKDISMIFQDPMTSLNPTMQIGKQVMEPLIKHKNYSKAQAKKRALEILNLVGLPNAEKRFKAYPHQFSGGQRQRIVIATALACEPKVLIADEPTTALDVTMQAQILDLMKELQQKIDTAIIFITHDLGVVANIADRVAVMYGGQMVETGDVNEIFYDPKHPYTWGLLSSMPDLSTTNDTPLLAIPGAPPDLLHPPKGDAFARRSQYALDIDFKVEPPWFKVSPTHFVKSWLLDARAPKVELPELVKQRMKPMPNNYEKPLKVERVSFNEK</t>
+  </si>
+  <si>
+    <t>MKNDEVLLSIKNLKQYFNAGKKNEVRAIENISFEIYKGETLGLVGESGCGKSTTGKSIIKLNDITSGEILYEGIDIQKIRKRKDLLKFNKKIQMIFQDPYASLNPRLKVMDIVAEGIDIHHLATDKRDRKKRVYDLLETVGLSKEHANRYPHEFSGGQRQRIGIARALAVEPEFIIADEPISALDVSIQAQVVNLLLKLQREKGITFLFIAHDLSMVKYISDRIAVMHFGKIVEIGPADDIYQYPLHDYTKSLLSAIPQPDPESERSRKRFSYIDDEANNHLRQLHEIRPNHFVFSTEDEAARLRKNLLVIQD</t>
+  </si>
+  <si>
+    <t>MMKKVLEVKNLEVSFEVEDGIVNAVRGIDYCIHEGEILAIVGESGSGKSVATKAITKLFQGENGKITNGNVKFFGEDLVEKNEKELAKIRGKDIAMIFQDPMTSLNPTMQIGKQIMEPLMIHKKMNRKDAKGKAVEILDLVGIKNAELRFKDYPHQFSGGQRQRIVIGMALACEPKLLIADEPTTALDVTMQSQIIDLMKILQKKTNTAIIFITHDLGVVANIADIVSVMYCGEIIETGKVEELFYYPKHPYTWGLLASMPTLESNSKSKLIAIPGTPPNLLKPPIGDAFARRSAYALNVDFKYEAPWFQLSPTHFVKSWLLDSRAPKVIPPETVKRKFKELSYNFERPLKVEGVSFNEQ</t>
+  </si>
+  <si>
+    <t>MNNNVLVEIKNLTKIFNKNKNNEIKAIDDVSININKGEALGIVGESGCGKSTFGKSIIRLLEVPEETIFFEGKDINKITSRRDSLNLNKRIQMIFQDPYASLNPRLKVMDIVGEGIDIHKLAENKAERNEKIYKLLELVGLNKEHANRYPHEFSGGQRQRIGIARALSVEPDLIIADEPISALDVSIQAQIINIIKKLQKERNTTLLFIAHDLSMVKYVSDRIAVMHKGKIVEIASSERLYQNPLHNYTKSLISAIPQPDPQYERERVREIYKDSFDNNSEYKLREIEKDHFVFTSINKAELLRQRKL</t>
+  </si>
+  <si>
+    <t>MEGNLLQQLFNYYVTNFGYLWDLFFKHLLMSVYGVLFAALIGIPLGILLARYTKLSGFVITIANIIQTVPVIAMLAILMLVMGLGSETVVLTVFLYALLPIIKNTYTGIASVDANIKDAGKGMGMTRNQVLRMIELPLSVSVIIGGIRIALVVAIGVVAVGSFIGAPTLGDIVIRGTNATDGTTFILAGAIPIAIIAIVIDVLLRFLEKRLDPTTRHRKNQSNHRPQSINM</t>
+  </si>
+  <si>
+    <t>MKKIKYIVVVLVLSLAVLSGCSLPGLGSKSTKNDVKITALSTSESQIISHMLRLLIEHDTHGKIKPTLVNNLGSSTIQHNALINGDANISGVRYNGTDLTGVLKEAPIKDPKKAMIATQQGFKQKFDQTFFDSYGFANTYAFMVTKETAKKYHLETVSDLAKHSKDLRLGMDSSWMNRKGDGYEGFKKEYGFDFGTVRPMQIGLVYDALNSEKLDVALGYSTDGRIAAYDLKVLKDDKQFFPPYAASAVATNELLRQHPELKTTINKLTGKISTSEMQRLNYEADGKGKEPAVVAEEFLKKHHYFDKQKGGHK</t>
+  </si>
+  <si>
+    <t>MIEFLHEHGGQLMSKTLEHFYISIVALLLAIIVAVPIGILLSKTKRTANIILTVAGVLQTIPTLAVLAIMIPIFGVGKTPAIVALFIYVLLPILNNTVLGVQNIDSNIKEAGKSMGMTQFQLMKDIELPLALPLILGGIRLSSVYVISWATLASYVGAGGLGDFIFNGLNLYDPLMIVTATVLVTALALGVDALLALVEKWVVPKGLKVSG</t>
+  </si>
+  <si>
+    <t>MLSIKHLTKIYSGNKKAVDDISLDIQSGEFIAFIGTSGSGKTTALRMINRMIEATEGQIEIDGKDVRSMNPVELRRNIGYVIQQIGLMPHMTIKENIVLVPKLLKWTKEEKDKRAKELIKLVDLPESFLERYPAELSGGQQQRIGVVRALAADQDIILMDEPFGALDPITRDTLQDLVKTLQRKLGKTFIFVTHDMDEAIKLADKICIMSEGKVVQFDTPDNILRHPANDFVRDFIGQNRLIQDRPNDKTVEGVMIKPITIQAEATLNDAVHIMRQKRVDTIFVVDRDNHLLGFLDIEDINQGIRGHKSLRDTMQQHIYTVQIDSKLQDSVRTILKRNVRNVPVVDDKQRLVGLITRANVVDIVYDTIWGDSEDTVQTEHVGEDTTSSKVHEQHTTNVKVRDIGDDKS</t>
+  </si>
+  <si>
+    <t>MLLEIKDLVYEASDRVILNHINLKVDKGETIAIIGPSGSGKSTFQKLICNLISPTSGTLYFKGKPYDDYEPEILRRHISYLMQQSDLFGETIEDNMIFPSVARNDKFDKKRAKQLIKDVGLGHYQLSSKIEHMSGGERQRIAIARQLMYTPDILLLDESTSALDINNKEKIENIIFKLADQGVAIMWITHSDDQSMRHFQKRITIVDGQISNTEELNQHE</t>
+  </si>
+  <si>
+    <t>MTLLTVKHLTITDTWTDQPLVSDVNFTLTKGETLGVIGESGSGKSITCKSIVGLNPERLRVTGDITFDGTSMLSLSESQLKKYRGKDIAMVMQQGSRAFDPSTTVGKQMFETMKVHTSMSTQEIEKTLIEYMDYLSLKDPKRILKSYPYMLSGGMLQRLMIALALALKPKLIIADEPTTALDTITQYDVLEAFIDIKKHFDCAMIFISHDLTVINKIADRVVVMKNGQLIEHGTRESVLHHPEHVYTKYLLSTKKKINDHFKHVMRGDVCD</t>
+  </si>
+  <si>
     <t>MNYKEKLDEAIHLTQQKGFEQTRAEWLMLDVFQWTRTDFVVHMHDDMPKAMIMKFDLALQRMLLGEPIQYIVGFASFYGRTFDVNSNCLIPRPETEEVMLHFLQQLEDDATIVDIGTGSGVLAITLKCEKPDLNVIATDISLEAMNMARNNAEKHQSQIQFLTGDALKPLIKEGIKLNGLISNPPYIDEKDMVTMSPTVTRFEPHQALFADNHGYAIYESIIEDLPHVMEKGSPVVFEIGYNQGEALKSIILNKFPDKKIDIIKDINGHDRIVSFKW</t>
   </si>
   <si>
@@ -1080,18 +1404,6 @@
     <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C42H70N14O32P6S2/c1-41(2,15-81-93(75,76)87-91(71,72)79-13-21-29(85-89(65,66)67)27(59)39(83-21)55-19-53-25-33(43)49-17-51-35(25)55)31(61)37(63)47-7-5-23(57)45-9-11-95-96-12-10-46-24(58)6-8-48-38(64)32(62)42(3,4)16-82-94(77,78)88-92(73,74)80-14-22-30(86-90(68,69)70)28(60)40(84-22)56-20-54-26-34(44)50-18-52-36(26)56/h17-22,27-32,39-40,59-62H,5-16H2,1-4H3,(H,45,57)(H,46,58)(H,47,63)(H,48,64)(H,71,72)(H,73,74)(H,75,76)(H,77,78)(H2,43,49,51)(H2,44,50,52)(H2,65,66,67)(H2,68,69,70)/p-8/t21-,22-,27-,28-,29-,30-,31+,32+,39-,40-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MAEKHLIVVGGGLAGLMSTIKAAEKGAHVDLFSVVPVKRSHSVCAQGGINGAVNTKGEGDSPWIHFDDTVYGGDFLANQPPVKAMTEAAPKIIHLLDRMGVMFNRTNEGLLDFRRFGGTLHHRTAYAGATTGQQLLYALDEQVRAYEVDGLVTKYEGWEFLGIVKGDDDSARGIVAQNMTTAEIETFGSDAVIMATGGPGIIFGKTTNSMINTGSAASIVYQQGAIYANGEFIQIHPTAIPGDDKLRLMSESARGEGGRIWTYKDGKPWYFLEEKYPDYGNLVPRDIATREIFDVCINQKLGINGENMVYLDLSHKDPHELDVKLGGIIEIYEKFTGDDPRKVPMKIFPAVHYSMGGLYVDYDQMTNIKGLFAAGECDFSQHGGNRLGANSLLSAIYGGTVAGPNAIDYISNIDRSYTDMDESIFEKRKAEEQERFDKLLAMRGTENAYKLHRELGEIMTANVTVVRENEKLLETDKKIVELMKRYEDIDMEDTQTWSNQAVFFTRQLWNMLVLARVITIGAYNRNESRGAHYKPEFPERNDEEWLKTTMASFQGAFEKPQFTYDDVDVSLIPPRKRDYTSKSKGGKK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H3BrO2/c7-4-1-2-5(8)6(9)3-4/h1-3H;InChI=1S/C4H6O4/c5-3(6)1-2-4(7)8/h1-2H2,(H,5,6)(H,7,8)/p-2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C13H16O3/c1-4-5-6-7-10-9(2)12(16-3)8-11(14)13(10)15/h4-8,14-15H,1-3H3/b5-4+,7-6+;InChI=1S/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+;</t>
-  </si>
-  <si>
-    <t>MTEQSVKNTPQHETQSKPKQKTVKLIIKRQDTSDSKPYEETFEIPYRENLNVIACLMEIRRNPVNIKGEKTTPVVWDMNCLEEVCGACSMVINGRARQSCSAIVDQLEQPIRLEPMNTFPVIRDLQVDRSRMFDNLKRMKAWIPIDGTYDLGPGPRMPEKKRQTAYELSKCMTCGVCLEVCPNVTENNKFVGAQAISQVRLFNLHPTGSMTKDERLNALMGTGGLQQCGNSQNCVNACPKGIPLTTSIAAMNRETTFHMFKSFFGSDHEVE</t>
-  </si>
-  <si>
     <t>MSYQPHYFQEVRKAQQESYSPYSHFKVGAYLKTKDGRTFYGTNVENASYPLSICAERASLVSAISQGYRPGDFESITVTVDADKPSSPCGACRQVLKELCDDDMPVYMTNHKGDMVMMTVAELLPFGFSGKDLE</t>
   </si>
   <si>
@@ -1155,12 +1467,6 @@
     <t>InChI=1S/C10H13N4O9P/c15-5-3(1-22-24(19,20)21)23-9(6(5)16)14-2-11-4-7(14)12-10(18)13-8(4)17/h2-3,5-6,9,15-16H,1H2,(H2,19,20,21)(H2,12,13,17,18)/p-2/t3-,5-,6-,9-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H3N/h1H3/i1-1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;</t>
-  </si>
-  <si>
     <t>MKAIILAGGHSVRFGKPKAFAEVNGETFYSRVIKTLESTNMFNEIIISTNAQLATQFKYPNVVIDDENHNDKGPLAGIYTIMKQHPEEELFFVVSVDTPMITGKAISTLYQFLVSHLIENHLDVAAFKEDGRFIPTIAFYSPNALGAITKALHSDNYSFKNVYHELSTDSLDVRDVDAPSYWYKNINYQHDLDALIQKL</t>
   </si>
   <si>
@@ -1221,9 +1527,6 @@
     <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C9H16N3O14P3/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(24-8)3-23-28(19,20)26-29(21,22)25-27(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,19,20)(H,21,22)(H2,10,11,15)(H2,16,17,18)/p-4/t4-,6-,7-,8-/m1/s1;InChI=1S/C5H9NO4/c6-3(5(9)10)1-2-4(7)8/h3H,1-2,6H2,(H,7,8)(H,9,10)/p-1/t3-/m0/s1;InChI=1S/p+1;</t>
   </si>
   <si>
-    <t>MKALVKTREGHGNLELLDKEVATPLDDKVKIKVHYAGICGTDIHTYEGHYKVNFPVTLGHEFSGEIVEVGADVKDFKVGDRVTSETTFYVCNECEYCESKDYNLCNHRKGIGTQVDGAFTNYVIAREESLHHIPDEVSYQSAAMTEPLACAHHGVSKIQVNSGDVAVVMGPGPIGLLVAQVLKSKGATVVVTGLDNDKVRLDKAEALHMDYVVNLQQTDLKTYINGITDGYGADVVVECSGAVPAARQGLDILRKKGFYSQIGIFKDAEIPFDMEKVIQKEITVVGSRSQKPADWEPSLQLMADGLVNAEALVTKIYDISKWDEAYQHLKSGEGIKALLKPLDLDENEGEN</t>
-  </si>
-  <si>
     <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C6H12O6/c7-1-3(9)5(11)6(12)4(10)2-8/h3,5-9,11-12H,1-2H2/t3-,5-,6-/m1/s1;InChI=1S/p+1;</t>
   </si>
   <si>
@@ -1242,6 +1545,12 @@
     <t>InChI=1S/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/p-2/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/4Fe.4S/q;;2*+1;;;;;</t>
   </si>
   <si>
+    <t>InChI=1S/H2O/h1H2;InChI=1S/C4H7NO4/c5-2(4(8)9)1-3(6)7/h2H,1,5H2,(H,6,7)(H,8,9)/p-1/t2-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
+  </si>
+  <si>
+    <t>InChI=1S/C4H7NO4/c5-2(4(8)9)1-3(6)7/h2H,1,5H2,(H,6,7)(H,8,9)/p-1/t2-/m0/s1;InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/p+1;</t>
+  </si>
+  <si>
     <t>MNIVITGAKGFVGKNLKADLTSTTDHHIFEVHRQTKEEELESALLKADFVVHLAGVNRPEHDKEFSLGNVSYLDHVLDILTRNTKKPAILLSSSIQATQDNLYGESKLQGEQLLRQYAEEYGNTVYIYRWPNLFGKWCKPNYNSVIATFCYKIARNEEIQVNNRNVELTLNYVDDIVAEIKRAIEGNPTIENGVPTVPNVFKVTLGEIVDLLYKFKQSRLNRTLPKLDNLFEKDLYSTYLSYLPSTDFSYPLLMNVDDRGSFTEFIKTPDRGQVSVNISKPGITKGNHWHHTKNEKFLVVSGKGVIRFRHVNDDEIIEYYVSGDKLEVVDIPVGYTHNIENLGDTDMVTIMWVNEMFDPNQPDTYFLEV</t>
   </si>
   <si>
@@ -1266,7 +1575,7 @@
     <t>InChI=1S/C7H9N5O2/c8-7-11-5-4(6(14)12-7)10-3(2-13)1-9-5/h13H,1-2H2,(H4,8,9,11,12,14);InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
   </si>
   <si>
-    <t>InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/C7H11N5O8P2/c8-7-11-5-4(6(13)12-7)10-3(1-9-5)2-19-22(17,18)20-21(14,15)16/h1-2H2,(H,17,18)(H2,14,15,16)(H4,8,9,11,12,13)/p-3;InChI=1S/p+1;</t>
+    <t>InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/p+1;InChI=1S/C7H11N5O8P2/c8-7-11-5-4(6(13)12-7)10-3(1-9-5)2-19-22(17,18)20-21(14,15)16/h1-2H2,(H,17,18)(H2,14,15,16)(H4,8,9,11,12,13)/p-3;</t>
   </si>
   <si>
     <t>MTYKMKKWQKLSTITLLMAGVITLNNGEFRNVDKHQIAVADTNVQTPDYEKLKKTWLDVNYGYDQYDENNQDMKKKFDAKEKEAKKLLEDMKTDTNRTYLWDSAKDLDKKSADMTKTYRNIEKIAEAMRHKNTSLKTDENKLKITDAIKWLHHNVYGKDPDKKVTDLTTNRKEKDSSKKNNSLNWWDYEIGTPRALTNTLLLMDDMLTKDEMKNYSKPISTYAPSSDKILSSVGESEDAKGGNLVDISKVKLLESVIEEDETMMKNSIDSFNKVFTYVQDSATGKARNGFYKDGSYIDHQDVPYTGAYGVVLLEGISQMMPMIKESPFKHTQDKATLSNWIDEGFMPLIYKGEMMDLSRGRAISRENETSHTASATVMKSLLRLSDTMDDSTKAKYKQIVKTSVNSDSSYNQNDYLNSYSDIDKMKKLMDDSTISKNDLTQQLKIYNDMDRVTYHNKDLDFAFGLSMTSKNVARYESINNENLKGWHTGAGMSYLYNSDVKHYRDNFWATADMTCLPGTTTLNDMPSTNTKNDKSFVGGTKLNNKYASIGMDFENQDKTLTAKKSYFILNDKIVFIGTGIKSTDSSKNPVTSVENRKAVGYKLFKGDIEITTSDVNAQETHSVFLESNDTKKNIGYHFLDKPKITVKKESHTGKWSEINKSQKTDDKKDEYYEVTQTHNTSDSKYAYVLYPGLSKSDFKSKNNNVSIVKQDEDFHVIKDNDGVFAGVNYSDSTKSFDINGTIVELKEKGMFVIKKKDNNTYECSFYNPTSTNSTSNKESKISVTGYTITNQSVSNFKESDIHFELTK</t>
@@ -1276,387 +1585,6 @@
   </si>
   <si>
     <t>MTYRMKKWQKLSTITLLMAGVITLNGGEFRSVDKHQIAVADTNVQTPDYEKLRNTWLDVNYGYNKYDENNDAMKKKFEATEKEAEKLLSSMKTESGRTYLWAGAENLETNSSHMTRTYRNIEKIAEAMKHKNTKLKTDENKTKVKDALEWLHENAYGKEPDKKVADLKTNFSKSAPQKNTNLNWWDYEIGTPRALTNTLILLNGDISSDEKKKYTAPIKTFAPKSDEILSSVGKAEPAKGGNLVDISKVKLLESIIEEDTTMMKESIVAFNKVFTYVQSNATDKERNGFYKDGSYIDHKDVPYTGAYGVVLLEGISQMMPMIKETPFNDKTQNNTTLKSWIDDGFLPLIYKGEMMDLSRGRAISRENETSHTASATVMKSLLRLSDTMDDSTKTKYKQIIKTSVKSDSSYNQNDYLNSYSDIDKMKKLIDDKSITTNDLTQQLKIYNDMDRVTYHNKDLDFAFGLSMTSKNVARYESINGENLKGWHTGAGMSYLYNSDVKHYRDNFWATADMKRLAGTTTLDNEEPKSTDVKKSSKTFVGGTKFDDQHASIGMDFENQDKTLTAKKSYFILNDKIVFLGTGIKSTDSSKNPVTTIENRKANGYTLYTDDKQTTASDNQGTNSVFLESTNKPKNNIGYHFLNKPKITVTKETHTGNWKEINKSQKDTQKTDEYYEVTQKHSNSDNKYGYVLYPGLSKDVFKSKASQVTVVKQDDDFHVVKDNESVWAGVNYSDSTQNFEINGTKVEVKAKGMFILKKKDDNTYECSFYNPESTNSASDIESKISMTGYSITNKNTSTTNESGVRFELTK</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/CO2/c2-1-3;InChI=1S/H3N/h1H3/i1-1;</t>
-  </si>
-  <si>
-    <t>MTKSEKIIELTNHYGAHNYLPLPIVISEAEGVWVKDPEGNKYMDMLSAYSAVNQGHRHPKIIQALKDQADKVTLVSRAFHSDNLGEWYEKICKLAGKDKALPMNTGAEAVETALKAARRWAYDVKGIEPNKAEIIAFNGNFHGRTMAPVSLSSEAEYQRGYGPLLDGFRKVNFGDVDALKAAINENTAAVLVEPIQGEAGINIPPEGYLKAIRELCDEHNVLFIADEIQAGLGRSGKLFATDWDNVKPDVYILGKALGGGVFPISVVLADKEVLDVFTPGSHGSTFGGNPLACAASIAALDVIVDEDLPGRSLELGEYFKEQLKQIDHPSIKEVRGRGLFIGVELNESARPYCEALKEEGLLCKETHDTVIRFAPPLIITKEELDLALEKIRHVFQ</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H12N2O2/c6-3-1-2-4(7)5(8)9/h4H,1-3,6-7H2,(H,8,9)/p+1/t4-/m0/s1;InChI=1S/C18H20FN3O4/c1-10-9-26-17-14-11(16(23)12(18(24)25)8-22(10)14)7-13(19)15(17)21-5-3-20(2)4-6-21/h7-8,10H,3-6,9H2,1-2H3,(H,24,25)/p-1/t10-/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H9NO3/c6-4(5(8)9)2-1-3-7/h3-4H,1-2,6H2,(H,8,9)/t4-/m0/s1;InChI=1S/C11H14N2O3/c12-9(11(15)16)6-7-10(14)13-8-4-2-1-3-5-8/h1-5,9H,6-7,12H2,(H,13,14)(H,15,16)/t9-/m0/s1;</t>
-  </si>
-  <si>
-    <t>MNSIIELTDYYSSNNYAPLKLVISKGKGGKVWDTDGKQYIDCISGFSVANQGHCHPTIVKAMTEQASKLSIISRVLYSDNLGKWEEKICHLAKKDKVLPLNSGTEAVEAAIKIARKWGSEVKGITDGQVEIIAMNNNFHGRTLGSLSLSNHDAYKAGFHPLLQGTTTVDFGDIEQLTQAISPNTAAIILEPIQGEGGVNIPPKGYIQAVRQLCDKHQILLIADEIQVGLGRTGKWFAMEWEQVVPDIYILGKALGGGLYPVSAVLANNDVMRVLTPGTHGSTFGGNPLAIAISTAALDVLDNEQLIERSERLGSILLKELLQLKHPSIKEIRGRGLFIGIELNTDAAPFVEQLIKRGILCKDTHRTIIRLSPPLVIDKEEINQIVAAFQDVFKN</t>
-  </si>
-  <si>
-    <t>MTTQHSKTDVILIGGGIMSATLGTLLKELSPEKNIKVFEKLAQPGEESSNVWNNAGTGHSALCELNYTKEGKDGTVDCSKAIKINEQYQISKQFWAYLVKTGQLDNPDRFIQAVPHMSFVIGEDNVAFIKSRVATLKKNVLFEKMKLSQDEEEMKSWVPLMIEGRKSDEPIALTYDETGTDVNFGALTAKLFDNLEQRGVEIQYKQNVLDIKKQKSGAWLVKVKDLETNETTTYESDFVFIGAGGASLPLLQKTGIKQSKHIGGFPVSGLFLRCTNQEVIDRHHAKVYGKAAVGAPPMSVPHLDTRFVDGKRSLLFGPFAGFSPKFLKTGSHMDLIKSVKPNNIVTMLSAGIKEMSLTKYLVSQLMLSNDERMDDLRVFFPNAKNEDWEVITAGQRVQVIKDTEDSKGNLQFGTEVITSDDGTLAALLGASPGASTAVDIMFDVLQRCYRDEFKGWEPKIKEMVPSFGYRLTDHEDLYHKINEEVTKYLQVK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C4H6O5/c5-2(4(8)9)1-3(6)7/h2,5H,1H2,(H,6,7)(H,8,9)/p-2/t2-/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;</t>
-  </si>
-  <si>
-    <t>MAKSNSKDIVLIGAGVLSTTFGSMLKEIEPDWNIHVYERLDRPAIESSNERNNAGTGHAALCELNYTVLQPDGSIDIEKAKVINEEFEISKQFWGHLVKSGSIENPREFINPLPHISYVRGKNNVKFLKDRYEAMKAFPMFDNIEYTEDIEVMKKWIPLMMKGREDNPGIMAASKIDEGTDVNFGELTRKMAKSIEAHPNATVQFNHEVVDFEQLSNGQWEVTVKNRLTGEKFKQVTDYVFIGAGGGAIPLLQKTGIPESKHLGGFPISGQFLACTNPQVIEQHDAKVYGKEPPGTPPMTVPHLDTRYIDGQRTLLFGPFANVGPKFLKNGSNLDLFKSVKTYNITTLLAAAVKNLPLIKYSFDQVIMTKEGCMNHLRTFYPEARNEDWQLYTAGKRVQVIKDTPEHGKGFIQFGTEVVNSQDHTVIALLGESPGASTSVSVALEVLERNFPEYKTEWAPKIKKMIPSYGESLIEDEKLMRKIRKQTSKDLELGYYEN</t>
-  </si>
-  <si>
-    <t>MAKFSDYQLILDELKMTLSHVEADEFSTFASKILHAEHIFVAGKGRSGFVANSFAMRLNQLGKQAHVVGESTTPAIKSNDVFVIISGSGSTEHLRLLADKAKSVGADIVLITTNKDSAIGNLAGTNIVLPAGTKYDEQGSAQPLGSLFEQASQLFLDSVVMGLMTEMNVTEQTMQQNHANLE</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H13O9P/c7-2-6(10)5(9)4(8)3(15-6)1-14-16(11,12)13/h3-5,7-10H,1-2H2,(H2,11,12,13)/p-2/t3-,4-,5+,6-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MTKITVFGMGSFGTALANVLAENGHDVLMWGKNQDAVDELNTCHTNKKYLKYAKLDVNIIATSDMTKAIQFADIYLMALPTKAMREVASQINDKLTSKKTFIHVAKGIENGTFKRVSEMIEDSISPEYNAGIGVLSGPSHAEEVVVKQPTTVAASSKDKRISKLTQDLFMNDYLRVYTNDDLVGVELGGALKNIIAVASGIVAGIGYGDNAKAALMTRGLAEISRLGEKLGADPMTFLGLGGIGDLIVTCTSTHSRNFTLGYKLGQGESMDQALSEMNMVVEGIYTTKSVYHLAKEKNVDMPITNALYRVLFENISVKECVKDLMERDKKSE</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C3H9O6P/c4-1-3(5)2-9-10(6,7)8/h3-5H,1-2H2,(H2,6,7,8)/p-2/t3-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C3H7O6P/c4-1-3(5)2-9-10(6,7)8/h4H,1-2H2,(H2,6,7,8)/p-2;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MTHLSDLDIANQSTLQPIKDIAASVGISEDALEPYGHYKAKIDINKITPRENKGKVVLVTAMSPTPAGEGKSTVTVGLADAFHELNKNVMVALREPALGPTFGIKGGATGGGYAQVLPMEDINLHFNGDFHAITTANNALSAFIDNHIHQGNELGIDQRRIEWKRVLDMNDRALRHVNVGLGGPTNGVPREDGFNITVASEIMAILCLSRSIKDLKDKISRITIGYTRDRKPVTVADLKVQGALAMILKDAIKPNLVQSIEGTPALVHGGPFANIAHGCNSILATETARDLADIVVTEAGFGSDLGAEKFMDIKAREAGFDPAAVVVVATIRALKMHGGVAKDNLKEENVEAVKAGIVNLERHVNNIKKFGVEPVVAINAFIHDTDAEVEYVKSWAKENNVRIALTEVWEKGGKGGVDLANEVLEVIDQPNSFKPLYELELPLEQKIEKIVTEIYGGSKVTFSSKAQKQLKQFKENGWDNYPVCMAKTQYSFSDDQTLLGAPSGFEITIRELEAKTGAGFIVALTGAIMTMPGLPKKPAALNMDVTDDGHAIGLF</t>
-  </si>
-  <si>
-    <t>InChI=1S/CH2O2/c2-1-3/h1H,(H,2,3)/p-1;InChI=1S/C19H23N7O6/c20-19-25-15-14(17(30)26-19)23-11(8-22-15)7-21-10-3-1-9(2-4-10)16(29)24-12(18(31)32)5-6-13(27)28/h1-4,11-12,21,23H,5-8H2,(H,24,29)(H,27,28)(H,31,32)(H4,20,22,25,26,30)/p-2/t11-,12-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C20H23N7O7/c21-20-25-16-15(18(32)26-20)23-11(7-22-16)8-27(9-28)12-3-1-10(2-4-12)17(31)24-13(19(33)34)5-6-14(29)30/h1-4,9,11,13,23H,5-8H2,(H,24,31)(H,29,30)(H,33,34)(H4,21,22,25,26,32)/p-2/t11-,13+/m1/s1;</t>
-  </si>
-  <si>
-    <t>MNIAKLEDYLQIEPTRYDQPSIEALNYYATRFMLTVPFENIDVQNGKPISVDIDALFNKIVHDKRGGFCYELNTFFKAYLQQKGFNPELMSATIHTPGGGRSQNGSHASLVVSINNVFYVTDVGFGDLPLNAIPITLPDDTQPITDISGTFRAIFNSEDKDIFYVQKYENNHWHTKYEAEFKARQIEEFDQNIEYNQTHPDSVFVKHLLITMPQSFGRATMSENHLTLTKDGTPEKLAITKDNYKQFLTTYFGLNVTISRLENSDN</t>
-  </si>
-  <si>
-    <t>InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;InChI=1S/C13H26N2O3/c1-4-5-6-7-8-9-10-15(17)14-13(11-18-3)12(2)16/h9-10,12-13,16H,4-8,11H2,1-3H3/b10-9-,15-14-/t12-,13-/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C14H20N2O3/c17-13(15-12-8-4-3-5-9-12)10-6-1-2-7-11-14(18)16-19/h3-5,8-9,19H,1-2,6-7,10-11H2,(H,15,17)(H,16,18);InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MNNFFNVYFEYKGFTVNIVSSTIHTHGGGKSLKGSHVSLIIPIDGVDYVTGAGFGDLPFSVMPIVQKDISPVIHDMNGDFHAMYVNNYLFYVRKMGKDNDNNWDHTMKRN</t>
-  </si>
-  <si>
-    <t>MKNAIMKEVVYINFEGLEQYLNGDNTRYNMLSLDVLNYYLKQYVLTIPFKNMDVQNGMKVSAEVKDI</t>
-  </si>
-  <si>
-    <t>InChI=1S/C4H6O4/c5-3(6)1-2-4(7)8/h1-2H2,(H,5,6)(H,7,8)/p-2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+;</t>
-  </si>
-  <si>
-    <t>MRRLFSIGEALIDFIPNITNANLKDVQTFTKQIGGAPCNVACTVQKLGQQAHMITQLGNDAFGDSIVETISSIGVDVSKVYRTNEANTALAFVSLTEAGERDFSFYRKPSADMLFEPSFVNDIDVNENDVVHFCSVDLVDSPMRDAHYQLITKTLNANGTVVFDPNVRLPLWDNAEDLRQTIHTFLPLAHIVKVSDEELEFITGIHDENEAIQSLFTGNVTVVIYTKGADGAAVYLKNGINHYHSGYKVKPVDTTGAGDAFIGAVISRILATDVLNLIQLFENEGEEILAFSNRVAAIVTTKYGAINSLPTLQEVEQVF</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H12O6/c7-1-3-4(9)5(10)6(11,2-8)12-3/h3-5,7-11H,1-2H2/t3-,4-,5+,6-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C6H13O9P/c7-2-6(10)5(9)4(8)3(15-6)1-14-16(11,12)13/h3-5,7-10H,1-2H2,(H2,11,12,13)/p-2/t3-,4-,5+,6-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MEFSQKLYQAAKPIINDIYEDDFIQKMLLGNIQADALRHYLQADAAYLKEFTNLYALLIPKMNSMNDVKFLVEQIEFMVEGEVLAHDILAQIVGESYEEIIKTKVWPPSGDHYIKHMYFQAHSRENAIYTIAAMAPCPYIYAELAKRSQSDHKLNREKDTAKWFDFYSTEMDDIINVFESLMNKLAESMSDKELEQVKQVFLESCIHERRFFNMAMTLEQWEFGGKVND</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C6H10N4/c1-4-9-3-5(2-7)6(8)10-4/h3H,2,7H2,1H3,(H2,8,9,10)/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/p+1;InChI=1S/C6H9N3O/c1-4-8-2-5(3-10)6(7)9-4/h2,10H,3H2,1H3,(H2,7,8,9);</t>
-  </si>
-  <si>
-    <t>MWNKNRLTQMLSIEFPIIQAGMAGSTTPKLVASVSNSGGLGTIGAGYFNTQQLEDEIDYVRQLTSNSFGVNVFVPSQQSYTSNQIENMNAWLKPYRRALHLEEPVVKITEEQQFKCHIDTIIKKQVPVCCFTFGIPNESIIKRLKEANIKLIGTATSVDEAIANEKAGMDAIVAQGSEAGGHRGSFLKPKNQLPMVGTISLVPQIVDVVSIPVIAAGGIMDGRGVLASIVLGAEGVQMGTAFLTSQDSNASELLRDAIINSKETDTVITKAFSGKLARGINNRFIEEMSQYEGDIPDYPIQNELTSSIRKAAANIGDKELTHMWSGQSPRLATTHPANTIMSNIINQINQIMQYK</t>
-  </si>
-  <si>
-    <t>InChI=1S/O2/c1-2;InChI=1S/C2H5NO2/c1-2-3(4)5/h2H,1H3,(H,4,5);</t>
-  </si>
-  <si>
-    <t>InChI=1S/HNO2/c2-1-3/h(H,2,3)/p-1;InChI=1S/C2H4O/c1-2-3/h2H,1H3;InChI=1S/p+1;;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O9P2/c11-9-8-10(13-3-12-9)15(4-14-8)7-1-5(16)6(23-7)2-22-26(20,21)24-25(17,18)19/h3-7,16H,1-2H2,(H,20,21)(H2,11,12,13)(H2,17,18,19)/p-3/t5-,6+,7+/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H16N5O12P3/c11-9-8-10(13-3-12-9)15(4-14-8)7-1-5(16)6(25-7)2-24-29(20,21)27-30(22,23)26-28(17,18)19/h3-7,16H,1-2H2,(H,20,21)(H,22,23)(H2,11,12,13)(H2,17,18,19)/p-4/t5-,6+,7+/m0/s1;InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MAFEGLSERLQATMQKMRGKGKLTEADIKIMMREVRLALLEADVNFKVVKEFIKTVSERALGSDVMQSLTPGQQVIKIVQDELTKLMGGENTSINMSNKPPTVVMMVGLQGAGKTTTAGKLALLMRKKYNKKPMLVAADIYRPAAINQLQTVGKQIDIPVYSEGDQVKPQQIVTNALKHAKEEHLDFVIIDTAGRLHIDEALMNELKEVKDIAKPNEIMLVVDSMTGQDAVNVAESFDDQLDVTGVTLTKLDGDTRGGAALSIRSVTQKPIKFVGMSEKLDGLELFHPERMASRILGMGDVLSLIEKAQQDVDQEKAKDLEKKMRESSFTLDDFLEQLDQVKNLGPLDDIMKMIPGMNKMKGLDKLNMSEKQIDHIKAIIQSMTPAERNNPDTLNVSRKKRIAKGSGRSLQEVNRLMKQFNDMKKMMKQFTGGGKGKKGKRNQMQNMLKGMNLPF</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H16N5O14P3/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(27-9)1-26-31(22,23)29-32(24,25)28-30(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H,24,25)(H2,19,20,21)(H3,11,13,14,18)/p-4/t3-,5-,6-,9-/m1/s1;InChI=1S/H2O/h1H2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C10H15N5O11P2/c11-10-13-7-4(8(18)14-10)12-2-15(7)9-6(17)5(16)3(25-9)1-24-28(22,23)26-27(19,20)21/h2-3,5-6,9,16-17H,1H2,(H,22,23)(H2,19,20,21)(H3,11,13,14,18)/p-3/t3-,5-,6-,9-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MKIINTTRLPEALGPYSHATVVNGMVYTSGQIPLNVDGKIVSADVQAQTKQVLENLKIVLEEAGSDLNSVAKATIFIKDMNDFQKINEVYGQYFNEHKPARSCVEVARLPKDVKVEIELVSKIKEL</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C4H7NO2/c1-2-3(5)4(6)7/h5H,2H2,1H3,(H,6,7);</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/p+1;InChI=1S/C4H6O3/c1-2-3(5)4(6)7/h2H2,1H3,(H,6,7)/p-1;</t>
-  </si>
-  <si>
-    <t>MKTMEEKKYNHIELNNEVTKRREDGFFSLEKDQEALVAYLEEVKDKTIFFDTEIERLRYLVDNDFYFNVFDIYSEADLIEITDYAKSIPFNFASYMSASKFFKDYALKTNDKSQYLEDYNQHVAIVALYLANGNKAQAKQFISAMVEQRYQPATPTFLNAGRARRGELVSCFLLEVDDSLNSINFIDSTAKQLSKIGGGVAINLSKLRARGEAIKGIKGVAKGVLPIAKSLEGGFSYADQLGQRPGAGAVYLNIFHYDVEEFLDTKKVNADEDLRLSTISTGLIVPSKFFDLAKEGKDFYMFAPHTVKEEYGVTLDDIDLEKYYDDMVANPNVEKKKKNAREMLNLIAQTQLQSGYPYLMFKDNANRVHPNSNIGQIKMSNLCTEIFQLQETSIINDYGIEDEIKRDISCNLGSLNIVNVMESGKFRDSVHSGMDALTVVSDVANIQNAPGVRKANSELHSVGLGVMNLHGYLAKNKIGYESEEAKDFANIFFMMMNFYSIERSMEIAKERGIKYQDFEKSDYANGKYFEFYTTQEFEPQFEKVRELFDGMAIPTSEDWKKLQQDVEQYGLYHAYRLAIAPTQSISYVQNATSSVMPIVDQIERRTYGNAETFYPMPFLSPQTMWYYKSAFNTDQMKLIDLIATIQTHIDQGISTILYVNSEISTRELARLYVYAHYKGLKSLYYTRNKLLSVEECTSCSI</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C9H14N2O11P2/c12-5-3-8(11-2-1-7(13)10-9(11)14)21-6(5)4-20-24(18,19)22-23(15,16)17/h1-2,5-6,8,12H,3-4H2,(H,18,19)(H,10,13,14)(H2,15,16,17)/p-3/t5-,6+,8+/m0/s1;InChI=1S/C17H18ClNO3S/c1-13-7-9-15(10-8-13)23(21,22)19-16(17(20)12-18)11-14-5-3-2-4-6-14/h2-10,16,19H,11-12H2,1H3/t16-/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C9H14N2O12P2/c12-5-1-2-11(9(15)10-5)8-7(14)6(13)4(22-8)3-21-25(19,20)23-24(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,19,20)(H,10,12,15)(H2,16,17,18)/p-3/t4-,6-,7-,8-/m1/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
-  </si>
-  <si>
-    <t>MIAVNWNTQEDMTNMFWRQNISQMWVETEFKVSKDIASWKTLSEAEQDTFKKALAGLTGLDTHQADDGMPLVMLHTTDLRKKAVYSFMAMMEQIHAKSYSHIFTTLLPSSETNYLLDEWVLEEPHLKYKSDKIVANYHKLWGKEASIYDQYMARVTSVFLETFLFFSGFYYPLYLAGQGKMTTSGEIIRKILLDESIHGVFTGLDAQHLRNELSESEKQKADQEMYKLLNDLYLNEESYTKMLYDDLGITEDVLNYVKYNGNKALSNLGFEPYFEEREFNPIIENALDTTTKNHDFFSVKGDGYVLALNVEALQDDDFVFDNK</t>
-  </si>
-  <si>
-    <t>MMKDLPIIALDFESKEKVNQFLDLFDESLFVKVGMELFYQEGPQLINEIKERGHDVFLDLKLHDIPNTVGKAMEGLAKLNVDLVNVHAAGGVKMMSEAIKGLRKHNQHTKIIAVTQLTSTTEDMLRHEQNIQTSIEEAVLNYAKLANGAGLDGVVCSPLESRMLTEKLGASFLKVTPGIRPKGASQDDQHRITTPEEARQLGSTHIVVGRPITQSDNPVESYHKIKESWLV</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H13N2O11P/c13-5-1-3(9(16)17)12(10(18)11-5)8-7(15)6(14)4(23-8)2-22-24(19,20)21/h1,4,6-8,14-15H,2H2,(H,16,17)(H,11,13,18)(H2,19,20,21)/p-3/t4-,6-,7-,8-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C9H13N2O9P/c12-5-1-2-11(9(15)10-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H,10,12,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1;InChI=1S/CO2/c2-1-3;</t>
-  </si>
-  <si>
-    <t>MNIHEYQGKEIFRSMGVAVPEGRVAFTAEEAVEKAKELNSDVYVVKAQIHAGGRGKAGGVKIAKSLSEVETYAKELLGKTLVTHQTGPEGKEIKRLYIEEGCAIQKEYYVGFVIDRATDQVTLMASEEGGTEIEEVAAKTPEKIFKETIDPVIGLSPFQARRIAFNINIPKESVNKAAKFLLALYNVFIEKDCSIVEINPLVTTADGDVLALDAKINFDDNALFRHKDVVELRDLEEEDPKEIEASKHDLSYIALDGDIGCMVNGAGLAMATMDTINHFGGNPANFLDAGGSATREKVTEAFKIILGDENVKGIFVNIFGGIMKCDVIAEGIVEAVKEVDLTLPLVVRLEGTNVELGKKILKDSGLAIEPAATMAEGAQKIVKLVKEA</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2;InChI=1S/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/p-4/t13-,16-,17-,18+,22-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3;InChI=1S/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/p-4/t11-,14-,15-,16+,20-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MSVFIDKNTKVMVQGITGSTALFHTKQMLDYGTKIVAGVTPGKGGQVVESVPVFNTVEEAKNETGATVSVIYVPAPFAADSILEAADADLDMVICITEHIPVLDMVKVKRYLQGRKTRLVGPNCPGVITADECKIGIMPGYIHKKGHVGVVSRSGTLTYEAVHQLTEEGIGQTTAVGIGGDPVNGTNFIDVLKAFNEDDETKAVVMIGEIGGTAEEEAAEWIKANMTKPVVGFIGGQTAPPGKRMGHAGAIISGGKGTAEEKIKTLNSCGVKTAATPSEIGSTLIEAAKEAGIYESLLTVNK</t>
-  </si>
-  <si>
-    <t>MSKAHQLIQEDEHYFAKSGRIKYYPLVIDHGYGATLVDIEGKTYIDLLSSASSQNVGHAPREVTEAIKAQVDKFIHYTPAYMYHESLVRLAKKLCEIAPGDFEKRVTFGLTGSDANDGIIKFARAYTGRPYIISFTNAYHGSTFGSLSMSAISLNMRKHYGPLLNGFYHIPFPDKYRGMYEQPQANSVEEYLAPLKEMFAKYVPADEVACIVIETIQGDGGLLEPVPGYFEALEKICREHGILIAVDDIQQGFGRTGTWSSVSHFNFTPDLITFGKSLAGGMPMSAIVGRKEIMNCLEAPAHLFTTGANPVSCEAALATIQMIEDQSLLQASAEKGEYVRKRMNQWVSKYNSVGDVRGKGLSIGIDIVSDKKLKTRDASAALKICNYCFEHGVVIIAVAGNVLRFQPPLVITYEQLDTALNTIEDALTALEAGNLDQYDISGQGW</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H13NO2/c1-3-4(2)5(7)6(8)9/h4-5H,3,7H2,1-2H3,(H,8,9)/t4-,5-/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H13NO2/c1-3-4(2)5(7)6(8)9/h4-5H,3,7H2,1-2H3,(H,8,9)/t4-,5+/m0/s1;</t>
-  </si>
-  <si>
-    <t>MSKLILAINAGSSSLKFQLIRMPEEELVTKGLVERIGLKDSIFTIEVDGEKVKTVQDIKDHVEAVDIMLDAFKKHNIINDINDIDGTGHRVVHGGEKFPESAAITDEVEKEIEELSELAPLHNPANLMGIRAFRKLLPNIPHVAIFDTAFHQTMPEKAYLYSLPYHYYKDYGIRKYGFHGTSHKFVSQRAAEMLDKPIEDLRIISCHIGNGASIAAIDGGKSIDTSMGFTPLAGVTMGTRSGNIDPALIPFIMEKTGKTAEQVLEILNKESGLLGLSGTSSDLRDLSEEAESGKARSQMALDVFASKIHKYIGSYAARMHGVDVIVFTAGIGENSVEIRAKVLEGLEFMGVYWDPKKNENLQRGKEGFINYPHSPVKVVVIPTDEESMIARDVMTYGGLK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H6O2/c1-2-3(4)5/h2H2,1H3,(H,4,5)/p-1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H7O5P/c1-2-3(4)8-9(5,6)7/h2H2,1H3,(H2,5,6,7)/p-2;InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MTNVLIEDLKWRGLIYQQTDEQGIEDLLNKEQVTLYCGADPTADSLHIGHLLPFLTLRRFQEHGHRPIVLIGGGTGMIGDPSGKSEERVLQTEEQVDKNIEGISKQMHNIFEFGTDHGAVLVNNRDWLGQISLISFLRDYGKHVGVNYMLGKDSIQSRLEHGISYTEFTYTILQAIDFGHLNRELNCKIQVGGSDQWGNITSGIELMRRMYGQTDAYGLTIPLVTKSDGKKFGKSESGAVWLDAEKTSPYEFYQFWINQSDEDVIKFLKYFTFLGKEEIDRLEQSKNEAPHLREAQKTLAEEVTKFIHGEDALNDAIRISQALFSGDLKSLSAKELKDGFKDVPQVTLSNDTTNIVEVLIETGISPSKRQAREDVNNGAIYINGERQQDVNYALAPEDKIDGEFTIIRRGKKKYFMVNYQ</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C9H11NO3/c10-8(9(12)13)5-6-1-3-7(11)4-2-6/h1-4,8,11H,5,10H2,(H,12,13)/t8-/m0/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/C10H14N5O7P/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(22-10)1-21-23(18,19)20/h2-4,6-7,10,16-17H,1H2,(H2,11,12,13)(H2,18,19,20)/p-2/t4-,6-,7-,10-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C6H13O9P/c7-1-2(8)4(10)6(5(11)3(1)9)15-16(12,13)14/h1-11H,(H2,12,13,14)/p-2/t1-,2-,3-,4+,5-,6-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MTDKTLQQIDKLICSWLKQIDNVIPQLIMEMTTETKRHRFDLVTNVDKQIQQQFQQFLATHFQEHQLLAEEKSNEMITNEINHLWIMDPIDGTANLVKQQEDYCIILAYFYEGKPMLSYVYDYPHKKLYKAIRGEGAFCNGIKMEEPPSLKLEDAIISFNAQVMNLDTVQDLFDASFSYRLVGACGLDSMRVAKGQFGAHINTNPKPWDIAAQFLFAELLNLKMTTLDGKAIDHLKGAPFIISNKACHETVLKILNANGGYQKYR</t>
-  </si>
-  <si>
-    <t>MVHNKNNTILKMIKGEETTHTPVWFMRQAGRSQPEYRKLKEKYSLFDITHQPELCAYVTHLPVDNYHTDAAILYKDIMTPLKPIGVDVEIKSGIGPVIHNPIKTIQDVEKLSQIDPERDVPYVLDTIKLLTEEKLNVPLIGFTGAPFTLASYMIEGGPSKNYNFTKAMMYRDEATWFALMNHLVDVSVKYVTAQVEAGAELIQIFDSWVGALNVEDYRRYIKPHMIRLISEVKEKHDVPVILFGVGASHLINEWNDLPIDVLGLDWRTSINQAQQLGVTKTLQGNLDPSILLAPWNVIEERLKPILDQGMENGKHIFNLGHGVFPEVQPETLRKVSEFVHTYTQR</t>
-  </si>
-  <si>
-    <t>InChI=1S/C40H44N4O16/c45-33(46)5-1-17-21(9-37(53)54)29-14-27-19(3-7-35(49)50)22(10-38(55)56)30(43-27)15-28-20(4-8-36(51)52)24(12-40(59)60)32(44-28)16-31-23(11-39(57)58)18(2-6-34(47)48)26(42-31)13-25(17)41-29/h41-44H,1-16H2,(H,45,46)(H,47,48)(H,49,50)(H,51,52)(H,53,54)(H,55,56)(H,57,58)(H,59,60)/p-8;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C36H44N4O8/c1-17-21(5-9-33(41)42)29-14-27-19(3)22(6-10-34(43)44)30(39-27)15-28-20(4)24(8-12-36(47)48)32(40-28)16-31-23(7-11-35(45)46)18(2)26(38-31)13-25(17)37-29/h37-40H,5-16H2,1-4H3,(H,41,42)(H,43,44)(H,45,46)(H,47,48)/p-4;InChI=1S/CO2/c2-1-3;</t>
-  </si>
-  <si>
-    <t>MRKLVVGSRRSKLALTQSQQFIDKLKAVEPNLEIEIKEIVTKGDRIVDKQLSKVGGKGLFVKEIQHELFEKNIDMAIHSLKDVPSVIPEGLTLGCIPDRELPFDAYISKTHTPLSQLPEGSIIGTSSLRRGAQILSKYPNLEIKWIRGNIDTRLEKLQTEDYDAIILAAAGLRRMGWSDDIVTSYLDRDTLLPAIGQGALGIECRSDDDELLSLLSKVHNDEVAKCVTAERTFLAEMDGSCQVPIAGYATISDQKEIEFTGLIMTPDGKERFEYTMNGTDPVELGKTVSNKLKEQGAYEIIKRLNEQH</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H11NO2S/c1-9-3-2-4(6)5(7)8/h4H,2-3,6H2,1H3,(H,7,8)/t4-/m0/s1;InChI=1S/H2O/h1H2;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C15H22N6O5S/c1-27(3-2-7(16)15(24)25)4-8-10(22)11(23)14(26-8)21-6-20-9-12(17)18-5-19-13(9)21/h5-8,10-11,14,22-23H,2-4,16H2,1H3,(H2-,17,18,19,24,25)/p+1/t7-,8+,10+,11+,14+,27?/m0/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;</t>
-  </si>
-  <si>
-    <t>MLNNKRLFTSESVTEGHPDKIADQVSDAILDAILKDDPNARVACETTVTTGMALIAGEISTTTYVDIPKVVRETIKEIGYTRAKYGYDYETMAILTAIDEQSPDIAQGVDKALEYRDKDSEEEIEATGAGDQGLMFGYATNETETYMPLAIYLSHQLAKRLSDVRKDGTLNYLRPDGKVQVTVEYDENDNPVRIDTIVVSTQHAEDVTLEQIQEDIKAHVIYPTVPENLINEQTKFYINPTGRFVIGGPQGDAGLTGRKIIVDTYGGYARHGGGCFSGKDPTKVDRSAAYAARYVAKNIVAAGLADQCEVQLAYAIGVAEPVSIAIDTFGTGKVSEGQLVEAVRKHFDLRPAGIIKMLDLKQPIYKQTAAYGHFGRTDVLFPWEKLDKVEELKDAVK</t>
-  </si>
-  <si>
-    <t>MKFEKYIDHTLLKPESTRTQIDQIIDEAKAYNFKSVCVNPTHVKYAAERLADSEVLVCTVIGFPLGASTTATKAFETEDAIQNGADEIDMVINIGALKDGRFDDVQQDIEAVVKAAKGHTVKVIIETVLLNHDEIVKASELTKAAGADFVKTSTGFAGGGATAEDVKLMKDTVGADVEVKASGGVRNLEDFNKMVEAGATRIGASAGVQIMQGLEADSDY</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H11O7P/c6-3-1-5(7)12-4(3)2-11-13(8,9)10/h3-7H,1-2H2,(H2,8,9,10)/p-2/t3-,4+,5?/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H7O6P/c4-1-3(5)2-9-10(6,7)8/h1,3,5H,2H2,(H2,6,7,8)/p-2/t3-/m0/s1;InChI=1S/C2H4O/c1-2-3/h2H,1H3;</t>
-  </si>
-  <si>
-    <t>MNSAKLIDHTLLKPESTRTQIDQIIDEAKAYNFKSVCVNPTHVKYAAERLADSEVLVCTVIGFPLGASTTATKAFETEDAIQNGADEIDMVINIGALKDGRFDDVQQDIEAVVKAAKGYTVKVIIETVLLNHDEIVKASELTKAAGADFVKTSTGFAGGGATAEDVKLMKDTVGADVEVKASGGVRNLEDFNKMVEAGATRIGASAGVQIMQGLEADSDY</t>
-  </si>
-  <si>
-    <t>MTNYKIDFSKGLVPAILQDNQTKQVLMLGYMNQEAFDKTIEDGVVCFYSRSKQRLWTKGETSGHTQRVKDIHVDCDNDTILIDVIPNGPTCHTGSQSCFNTEVPFSVQTLAQTVQDSAQSNNEKSYTKYLLTEGIEKITKKYGEEAFEVVIEAIKGDKKAFVSEVADELYHLFVLMHALGVDFSEIEAELARRHHKRNNFKGERQNIEQW</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C15H25N5O20P4/c16-12-7-13(18-4-19(12)14-10(23)8(21)5(37-14)1-35-41(25,26)27)20(3-17-7)15-11(24)9(22)6(38-15)2-36-43(31,32)40-44(33,34)39-42(28,29)30/h3-6,8-11,14-16,21-24H,1-2H2,(H,31,32)(H,33,34)(H2,25,26,27)(H2,28,29,30)/p-6/t5-,6-,8-,9-,10-,11-,14-,15-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C15H23N5O14P2/c16-12-7-13(18-4-19(12)14-10(23)8(21)5(33-14)1-31-35(25,26)27)20(3-17-7)15-11(24)9(22)6(34-15)2-32-36(28,29)30/h3-6,8-11,14-16,21-24H,1-2H2,(H2,25,26,27)(H2,28,29,30)/p-4/t5-,6-,8-,9-,10-,11-,14-,15-/m1/s1;InChI=1S/H4O7P2/c1-8(2,3)7-9(4,5)6/h(H2,1,2,3)(H2,4,5,6)/p-3;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MNHLLSMEHLSTDQIYKLIQKASQFKSGERQLPNFEGKYVANLFFENSTRTKCSFEMAELKLGLKTISFETSTSSVSKGESLYDTCKTLESIGCDLLVIRHPFNNYYEKLANINIPIANAGDGSGQHPTQSLLDLMTIYEEYGYFEGLNVLICGDIKNSRVARSNYHSLKALGANVMFNSPNAWIDDSLEAPYVNIDDVIETVDIVMLLRIQHERHGLAEETRFAADDYHQKHGLNEVRYNKLQEHAIVMHPAPVNRGVEIQSDLVEASKSRIFKQMENGVYLRMAVIDELLK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C4H7NO4/c5-2(4(8)9)1-3(6)7/h2H,1,5H2,(H,6,7)(H,8,9)/p-1/t2-/m0/s1;InChI=1S/CH4NO5P/c2-1(3)7-8(4,5)6/h(H2,2,3)(H2,4,5,6)/p-2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C5H8N2O5/c6-5(12)7-2(4(10)11)1-3(8)9/h2H,1H2,(H,8,9)(H,10,11)(H3,6,7,12)/p-2/t2-/m0/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MTFEKETVLKTLFPEDVLSIAKGLTDGEVEFLQQVDSLLESKYRENINQHWIDATVPEDYFKDLGELNYFNNPLLYKDRPNAKMPSQLFQFFMSYLLARFDISLATLLGVHQGLGHNTFYFGGSKEQIAKYVPKLQSHELRTCFALTEPEHGSDVAGGLETVAERQGDTWVINGEKKWIGGAHVSDVIPVFAVNKETGKPHCFVVRPEQDGVDIEVIDNKIALRIVPNALIKLTNVKVDEADRLQNITSFKDIAKILYSTRAGVAYMATGGMAGALRATLDYVTERKQFGKPISKYQLIQEKLAMMQGNLAQAMATCAQLANMQAHGEYDEVATSTAKMMNALRLRETVAMGRGITGGNGILADDYDIARFFSDAEAIYTYEGTHEINALVIGRALTGDSAFV</t>
-  </si>
-  <si>
-    <t>InChI=1S/C37H66N7O17P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-28(46)65-21-20-39-27(45)18-19-40-35(49)32(48)37(2,3)23-58-64(55,56)61-63(53,54)57-22-26-31(60-62(50,51)52)30(47)36(59-26)44-25-43-29-33(38)41-24-42-34(29)44/h24-26,30-32,36,47-48H,4-23H2,1-3H3,(H,39,45)(H,40,49)(H,53,54)(H,55,56)(H2,38,41,42)(H2,50,51,52)/p-4/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/p+1;InChI=1S/C27H33N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,37-41H,5-7H2,1-2H3,(H5,28,29,30,34,42,43,44,45,46,47)/p-3/t14-,15+,16+,19-,20+,21+,26+/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C37H64N7O17P3S/c1-4-5-6-7-8-9-10-11-12-13-14-15-16-17-28(46)65-21-20-39-27(45)18-19-40-35(49)32(48)37(2,3)23-58-64(55,56)61-63(53,54)57-22-26-31(60-62(50,51)52)30(47)36(59-26)44-25-43-29-33(38)41-24-42-34(29)44/h16-17,24-26,30-32,36,47-48H,4-15,18-23H2,1-3H3,(H,39,45)(H,40,49)(H,53,54)(H,55,56)(H2,38,41,42)(H2,50,51,52)/p-4/b17-16+/t26-,30-,31-,32+,36-/m1/s1;InChI=1S/C27H35N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,32,37-41H,5-7H2,1-2H3,(H,44,45)(H,46,47)(H2,28,29,30)(H2,33,34,42,43)/p-2/t14-,15+,16+,19-,20+,21+,26+/m0/s1;</t>
-  </si>
-  <si>
-    <t>MLNLENKTYVIMGIANKRSIAFGVAKVLDQLGAKLVFTYRKERSRKELEKLLEQLNQPEAYLYQIDVQSDEEVINGFEQIGKDVGNIDGVYHSIAFANMEDLRGRFSETSREGFLLAQDISSYSLTIVAHEAKKLMPEGGSIVATTYLGGEFAVQNYNVMGVAKASLEANVKYLALDLGPDNIRVNAISAGPIRTLSAKGVGGFNTILKEIEERAPLKRNVDQVEVGKTAAYLLSDLSSGVTGENIHVDSGFHAIK</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/p-4/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C31H52N7O17P3S/c1-4-5-6-7-8-9-10-11-22(40)59-15-14-33-21(39)12-13-34-29(43)26(42)31(2,3)17-52-58(49,50)55-57(47,48)51-16-20-25(54-56(44,45)46)24(41)30(53-20)38-19-37-23-27(32)35-18-36-28(23)38/h10-11,18-20,24-26,30,41-42H,4-9,12-17H2,1-3H3,(H,33,39)(H,34,43)(H,47,48)(H,49,50)(H2,32,35,36)(H2,44,45,46)/p-4/b11-10+/t20-,24-,25-,26+,30-/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p-3/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1;InChI=1S/C31H54N7O17P3S/c1-4-5-6-7-8-9-10-11-22(40)59-15-14-33-21(39)12-13-34-29(43)26(42)31(2,3)17-52-58(49,50)55-57(47,48)51-16-20-25(54-56(44,45)46)24(41)30(53-20)38-19-37-23-27(32)35-18-36-28(23)38/h18-20,24-26,30,41-42H,4-17H2,1-3H3,(H,33,39)(H,34,43)(H,47,48)(H,49,50)(H2,32,35,36)(H2,44,45,46)/p-4/t20-,24-,25-,26+,30-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MDTVEISRFLTAMTLAVHIIFATIGVGMPLMFAIAEFLGIRKNDLQYIAMAKRWAKAYTITVAVGVVTGTIIGLQLSLIWPTFMEMGGHVIALPLFMETFAFFFEAIFLSIYLYTWDRFKNKWTHFLISIPVIIGGSFSAFFITSVNSFMNTPAGFELKNGKMVNVQPIEAMFNPSFIVRSFHVITTAGMTMAFVIASIAAFKLLRNRQPKDTVYHKKALKMSMIVGFFSTLLSMLAGDLSAKFLHKFQPEKLAAYEWHFDTSSHAKLLLFGVLDEKTQQVKGAIELPGLLSFLADNSVKTKVQGLNDFPKSLHPPMIVHYFFDLMVTMGILCFVISGVYVLTLMFKKLRKFSTHKWMLYGILLTGPASMLAIEFGWFLTEMGRQPWIVRGYMRVAEAATQAGGITFVTILFGILYIILMYTCAYVLIRMFKNKPAYEDVNRLAKKQGGEIEK</t>
-  </si>
-  <si>
-    <t>InChI=1S/O2/c1-2;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MIYAFIGITVLWLFLFCYIIIASIDFGAGFFALHSKLTGDEKKINHLISRYLNPVWEVTNVFFVFFFVGFVGFFPESIKYLGTVLLIPGSIALIMISLRNSFYAFENYGQDTKLAWMFMYGVSGLLIPASLSTALTITEGGYINVRNNVIDLDWVQLLLSPFAWSVVFLAIISVLYISSGFLTYYAKKANDEPAYNLTRQWHIFLGPPMIIICLFVFLSLRIQNSEHFYSAVFDYWWLFAISFLFFALASLLTFFKKKHGLAFVFVILQMMFAFFGYGISKLPYLLYPFVKITDAYVNPEMGWTLVIVFILGLLLLLPSLILLLRLFVFDKEYVEGKKS</t>
-  </si>
-  <si>
-    <t>MTKLYPSLLSVDFLDLQHELKRLEEAGVDGVHFDVMDGQFVPNISIGLPILDAVRKGTTLPIDVHLMIENPEKYIASFAEHGADMISIHVESTPHIHRAIQMIKHLDKKAGVVINPGTPISQIEPILDIVDYVLVMTVNPGFGGQSFIDQCVEKIAGLNAIKMERQLNFDIEVDGGVNTDTAKVCVENGATMLVTGSFFFKQEDYKKVTQALKG</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H11O8P/c6-1-3(7)5(9)4(8)2-13-14(10,11)12/h4-6,8-9H,1-2H2,(H2,10,11,12)/p-2/t4-,5+/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C5H11O8P/c6-1-3(7)5(9)4(8)2-13-14(10,11)12/h4-6,8-9H,1-2H2,(H2,10,11,12)/p-2/t4-,5-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MLQQIYPSTTHPYQFELNKDFNFSAAHHIPCEEAGICQNVHGHTYFVNLTIVGDKLDDTGFLVNFSHLKKMIHGKFDHQLLNNLPAFKNKIPSTEIVAETIYQIVKENLASLEHQPKCIQVFVRETPTSYVVFRPKEQV</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C9H16N5O13P3/c10-9-13-7-5(8(17)14-9)12-3(1-11-7)6(16)4(15)2-25-29(21,22)27-30(23,24)26-28(18,19)20/h4,6,15-16H,1-2H2,(H,21,22)(H,23,24)(H2,18,19,20)(H4,10,11,13,14,17)/p-4/t4-,6+/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H5O10P3/c1-11(2,3)9-13(7,8)10-12(4,5)6/h(H,7,8)(H2,1,2,3)(H2,4,5,6)/p-5;InChI=1S/C7H9N5O3/c8-7-11-4-3(5(13)12-7)10-2(1-9-4)6(14)15/h2,10H,1H2,(H,14,15)(H4,8,9,11,12,13)/p-1;InChI=1S/C2H4O/c1-2-3/h2H,1H3;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MRKRARIIYNPTSGKEQFKRELPDALIKLEKAGYETSAYATEKIGDATLEAERAMHENYDVLIAAGGDGTLNEVVNGIAEKPNRPKLGVIPMGTVNDFGRALHIPNDIMGALDVIIEGHSTKVDIGKMNNRYFINLAAGGQLTQVSYETPSKLKSIVGPFAYYIKGFEMLPQMKAVDLRIEYDGNVFQGEALLFFLGLTNSMAGFEKLVPDAKLDDGYFTLIIVEKSNLAELGHIMTLASRGEHTKHPKVIYEKAKAINISSFTDLQLNVDGEYGGKLPANFLNLERHIDVFAPNDIVNEELINNAHVDDNLIEE</t>
-  </si>
-  <si>
-    <t>InChI=1S/C19H36O5/c1-3-4-5-6-7-8-9-10-11-12-13-14-19(22)23-16-18(15-20)24-17(2)21/h18,20H,3-16H2,1-2H3;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C88H142O35P2/c1-50(2)24-14-25-51(3)26-15-27-52(4)28-16-29-53(5)30-17-31-54(6)32-18-33-55(7)34-19-35-56(8)36-20-37-57(9)38-21-39-58(10)40-22-41-59(11)42-23-43-60(12)44-45-111-124(106,107)123-125(108,109)122-85-73(100)68(95)75(63(48-91)114-85)116-84-74(101)77(66(93)62(47-90)112-84)117-86-79(67(94)65(92)61(46-89)113-86)119-83-72(99)70(97)78(80(120-83)81(102)103)118-82-71(98)69(96)76-64(115-82)49-110-88(13,121-76)87(104)105/h24,26,28,30,32,34,36,38,40,42,44,61-80,82-86,89-101H,14-23,25,27,29,31,33,35,37,39,41,43,45-49H2,1-13H3,(H,102,103)(H,104,105)(H,106,107)(H,108,109)/p-4/b51-26+,52-28+,53-30-,54-32-,55-34-,56-36-,57-38-,58-40-,59-42-,60-44-/t61-,62-,63-,64-,65-,66-,67+,68-,69-,70-,71+,72-,73-,74-,75-,76-,77+,78+,79+,80+,82+,83-,84+,85-,86-,88?/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/O2/c1-2;InChI=1S/C9H13N5O4/c10-9-13-7-5(8(18)14-9)12-3(1-11-7)6(17)4(16)2-15/h4,6,15-17H,1-2H2,(H4,10,11,13,14,18)/t4-,6+/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C2H4O2/c3-1-2-4/h1,4H,2H2;InChI=1S/C6H7N5O2/c7-6-10-4-3(5(13)11-6)9-2(12)1-8-4/h3H,1H2,(H,9,12)(H3,7,8,10,11,13);InChI=1S/CH2O2/c2-1-3/h1H,(H,2,3)/p-1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C19H26N8O13P2S2.Mo.2O.Se/c20-7-1-2-27(19(31)22-7)17-11(29)10(28)5(39-17)3-36-41(32,33)40-42(34,35)37-4-6-12(43)13(44)8-16(38-6)24-14-9(23-8)15(30)26-18(21)25-14;;;;/h1-2,5-6,8,10-11,16-17,23,28-29,43-44H,3-4H2,(H,32,33)(H,34,35)(H2,20,22,31)(H4,21,24,25,26,30);;;;/q;+2;;2*-1/p-4/t5-,6-,8+,10-,11-,16-,17-;;;;/m1..../s1;InChI=1S/C17H18ClNO3S/c1-13-7-9-15(10-8-13)23(21,22)19-16(17(20)12-18)11-14-5-3-2-4-6-14/h2-10,16,19H,11-12H2,1H3/t16-/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C35H62NO15P/c1-16-14-35(15-45-35)32(39)19(4)27(37)18(3)22(7)48-33(40)21(6)30(49-26-13-25(44-11)28(38)23(8)47-26)20(5)29(16)50-34-31(51-52(41,42)43)24(36(9)10)12-17(2)46-34/h16-31,34,37-38H,12-15H2,1-11H3,(H2,41,42,43)/p-1/t16-,17+,18-,19+,20+,21+,22+,23-,24-,25-,26-,27-,28-,29-,30-,31+,34-,35+/m0/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
-  </si>
-  <si>
-    <t>MQIKLPKPFFFEEGKRAVLLLHGFTGNSSDVRQLGRFLQKKGYTSYAPQYEGHAAPPEEILQSSPFVWFKDALDGYDYLVEQGYDEIVVAGLSLGGDFALKLSLNRDVKGIVTMCAPMGGKTEGAIYEGFLEYARNFKKYEGKDQETIDNEMHHFKPTETLKELSEALDTIKDQVDEVFDPILVIQAENDNMIDPQSANYIYEHVDSDEKDIKWYSQSGHVITIDKEKEQVFDDIYQFLESLDWSE</t>
-  </si>
-  <si>
-    <t>InChI=1S/C2H2O/c1-2-3/h1H2;InChI=1S/H2O/h1H2;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C15H26O4/c1-10-4-5-11(7-16)12(8-17)13-6-14(2,3)9-15(10,13)19-18/h6,10-12,16-18H,4-5,7-9H2,1-3H3/t10-,11+,12-,15+/m0/s1;InChI=1S/2C2H8N2.2HI.2NO3.2Pt/c2*3-1-2-4;;;2*2-1(3)4;;/h2*1-4H2;2*1H;;;;/q;;;;2*-1;2*+1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MIKSGKARAHTNIALIKYWGKKDEALIIPMNNSISVTLEKFYTETKVTFNDQLTQDQFWLNGEKVSGKELEKISKYMDIVRNRAGIDWYAEIESDNFVPTAAGLASSASAYAALAAACNQALDLQLSDKDLSRLARIGSGSASRSIYGGFAEWEKGYNDETSYAVPLESNHFEDDLAMIFIVINQHSKKVPSRYGMSLTRNTSRFYQYWLDHIDEDLAEAKAAIQDKDFKRLGEVIEENGLRMHATNLGSTPPFTYLVQESYDVMALVHECREAGYPCYFTMDAGPNVKILVEKKNKQQIIDKLLTQFDNNQIIDSDIIATGIEIIE</t>
-  </si>
-  <si>
-    <t>InChI=1S/C6H14O10P2/c1-6(9,4-5(7)8)2-3-15-18(13,14)16-17(10,11)12/h9H,2-4H2,1H3,(H,7,8)(H,13,14)(H2,10,11,12)/p-4/t6-/m1/s1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-2;InChI=1S/C5H12O7P2/c1-5(2)3-4-11-14(9,10)12-13(6,7)8/h1,3-4H2,2H3,(H,9,10)(H2,6,7,8)/p-3;InChI=1S/CO2/c2-1-3;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C57H88O3/c1-44(2)22-13-23-45(3)24-14-25-46(4)26-15-27-47(5)28-16-29-48(6)30-17-31-49(7)32-18-33-50(8)34-19-35-51(9)36-20-37-52(10)38-21-39-53(11)40-41-54-42-55(58)43-56(60-12)57(54)59/h22,24,26,28,30,32,34,36,38,40,42-43,58-59H,13-21,23,25,27,29,31,33,35,37,39,41H2,1-12H3/b45-24+,46-26+,47-28+,48-30+,49-32+,50-34+,51-36+,52-38+,53-40+;InChI=1S/C15H22N6O5S/c1-27(3-2-7(16)15(24)25)4-8-10(22)11(23)14(26-8)21-6-20-9-12(17)18-5-19-13(9)21/h5-8,10-11,14,22-23H,2-4,16H2,1H3,(H2-,17,18,19,24,25)/p+1/t7-,8+,10+,11+,14+,27?/m0/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C14H20N6O5S/c15-6(14(23)24)1-2-26-3-7-9(21)10(22)13(25-7)20-5-19-8-11(16)17-4-18-12(8)20/h4-7,9-10,13,21-22H,1-3,15H2,(H,23,24)(H2,16,17,18)/t6-,7+,9+,10+,13+/m0/s1;InChI=1S/C58H90O3/c1-44(2)23-14-24-45(3)25-15-26-46(4)27-16-28-47(5)29-17-30-48(6)31-18-32-49(7)33-19-34-50(8)35-20-36-51(9)37-21-38-52(10)39-22-40-53(11)41-42-55-54(12)56(59)43-57(61-13)58(55)60/h23,25,27,29,31,33,35,37,39,41,43,59-60H,14-22,24,26,28,30,32,34,36,38,40,42H2,1-13H3/b45-25+,46-27+,47-29+,48-31+,49-33+,50-35+,51-37+,52-39+,53-41+;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/H3N/h1H3/i1-1;InChI=1S/p+1;InChI=1S/C25H42N7O17P3S/c1-4-5-16(34)53-9-8-27-15(33)6-7-28-23(37)20(36)25(2,3)11-46-52(43,44)49-51(41,42)45-10-14-19(48-50(38,39)40)18(35)24(47-14)32-13-31-17-21(26)29-12-30-22(17)32/h12-14,18-20,24,35-36H,4-11H2,1-3H3,(H,27,33)(H,28,37)(H,41,42)(H,43,44)(H2,26,29,30)(H2,38,39,40)/p-4/t14-,18-,19-,20+,24-/m1/s1;</t>
-  </si>
-  <si>
-    <t>MKRIAVYCGASKGHDPSYVQKAYDLGKYFAEQGYELVFGAGSIGIMGAIQDGVLDHGGKAIGVMPKMLDEHEITSQRLTELILVDSMHERKNKMAELADAFVMAPGGAGSLEEFFEMYSWAQIGIHEKPIAIYNINGFFNPLQTMIDHMIEEGFIDPKYRALAPLCDTKESLIESILNFKPLGTRSYD</t>
-  </si>
-  <si>
-    <t>InChI=1S/H2O/h1H2;InChI=1S/C9H14N3O8P/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H2,10,11,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C4H5N3O/c5-3-1-2-6-4(8)7-3/h1-2H,(H3,5,6,7,8);InChI=1S/C5H11O8P/c6-3-2(1-12-14(9,10)11)13-5(8)4(3)7/h2-8H,1H2,(H2,9,10,11)/p-2/t2-,3-,4-,5?/m1/s1;</t>
-  </si>
-  <si>
-    <t>MIENVRSLAFDTIQDILNEGAYSNLRINEVLSENELNAMDKALFTEIVYGTVKRKYTLDFYLKPFVKTKIKAWVRQLLWMSIYQYVYLDKVPNHAIINEAVEIAKERGGYHNGNVVNGILRTMMRSDLPDFNEIADPKKRMAIEYSMPKWIIDHWATHYGLEGTETILQSFLETTSTTVRANLTRASLDDIIEKLQDEGYDVEKDHDLPYCLHIGGQPIIHSRSFKDGFVSIQDKSSMFVAHIMNVDRHDHVLDACSAPGGKACHIAEVLMPEGQVDASDIHDHKIDLINFNIKKLRLTNIKAFKHDATKPYDKTYDKILVDAPCSGLGVMRHKPEIKYTQSKQHIESLVDLQLEILENVKNNVKTGGEIVYSTCTIEQLENENVIYTFLKNNKNFEFEPFQHPITGELVKTLQIMPQDFNSDGFFITKIKRKDN</t>
-  </si>
-  <si>
-    <t>InChI=1S/C9H14N3O8P/c10-5-1-2-12(9(15)11-5)8-7(14)6(13)4(20-8)3-19-21(16,17)18/h1-2,4,6-8,13-14H,3H2,(H2,10,11,15)(H2,16,17,18)/p-2/t4-,6-,7-,8-/m1/s1;InChI=1S/C15H22N6O5S/c1-27(3-2-7(16)15(24)25)4-8-10(22)11(23)14(26-8)21-6-20-9-12(17)18-5-19-13(9)21/h5-8,10-11,14,22-23H,2-4,16H2,1H3,(H2-,17,18,19,24,25)/p+1/t7-,8+,10+,11+,14+,27?/m0/s1;</t>
-  </si>
-  <si>
-    <t>MQSKEDFIEMRVPASAEYVSLIRLTLSGVFSRAGATYDDIEDAKIAVSEAVTNAVKHAYKEKNNVGIINIYFEILEDKIKIVISDKGDSFDYETTKSKIGPYDKDENIDFLREGGLGLFLIESLMDEVTVYKESGVTISMTKYIKKEQVRNNGERVEIS</t>
-  </si>
-  <si>
-    <t>InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C4H10NO6P/c1-2(3(5)4(6)7)11-12(8,9)10/h2-3H,5H2,1H3,(H,6,7)(H2,8,9,10)/p-2/t2-,3+/m1/s1;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MIGKIINERYKIVDKLGGGGMSTVYLAEDTILNIKVAIKAIFIPPREKEETLKRFEREVHNSSQLSHQNIVSMIDVDEEDDCYYLVMEYIEGPTLSEYIESHGPLSVDTAINFTNQILDGIKHAHDMRIVHRDIKPQNILIDSNKTLKIFDFGIAKALSETSLTQTNHVLGTVQYFSPEQAKGEATDECTDIYSIGIVLYEMLVGEPPFNGETAVSIAIKHIQDSVPNVTTDVRKDIPQSLSNVILRATEKDKANRYKTIQEMKDDLSSVLHENRANEDVYELDKMKTIAVPLKKEDLAKHISEHKSNQPKRETTQVPIVNGPAHHQQFQKPEGTVYEPTPKKKSTRKIVLLSLIFSLLMIALVSFVAMAMFGNKYEETPDVIGKTVKEAEQIFNKNNLKLGKISRSYSDKYPENEIIKTTPNTGERVERGDSVDVVISKGPEKVKMPNVIGLPKEEALQKLKSLGLKDIAIEKVYNNQAPKGYIANQSVTANTEIAIHDSNIKLYESLGIKQVYVEDFEHKSFSKAKKAIEEKGFKVESKEEYSDDIDEGDVISQSPKGKSVDEGSTISFVVSKGKKSDSSDVKTTTESVDVPYTGKNDKSQKVKVYIKDKDNDGSTEKGSFDITSDQRIDIPLRIEKGKTASYIVKVDGKTVAEKEVSYDDI</t>
-  </si>
-  <si>
-    <t>MRKTKIVCTIGPASESEEMIEKLINAGMNVARLNFSHGSHEEHKGRIDTIRKVAKRLDKIVAILLDTKGPEIRTHNMKDGIIELERGNEVIVSMNEVEGTPEKFSVTYENLINDVQVGSYILLDDGLIELQVKDIDHAKKEVKCDILNSGELKNKKGVNLPGVRVSLPGITEKDAEDIRFGIKENVDFIAASFVRRPSDVLEIREILEEQKANISVFPKIENQEGIDNIEEILEVSDGLMVARGDMGVEIPPEKVPMVQKDLIRQCNKLGKPVITATQMLDSMQRNPRATRAEASDVANAIYDGTDAVMLSGETAAGLYPEEAVKTMRNIAVSAEAAQDYKKLLSDRTKLVETSLVNAIGISVAHTALNLNVKAIVAATESGSTARTISKYRPHSDIIAVTPSEETARQCSIVWGVQPVVKKGRKSTDALLNNAVATAVETGRVTNGDLIIITAGVPTGETGTTNMMKIHLVGDEIANGQGIGRGSVVGTTLVAETVKDLEGKDLSDKVIVTNSIDETFVPYVEKALGLITEENGITSPSAIVGLEKGIPTVVGVEKAVKNISNNMLVTIDAAQGKIFEGYANVL</t>
-  </si>
-  <si>
-    <t>InChI=1S/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1;InChI=1S/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/p-4/t4-,6-,7-,10-/m1/s1;</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/p-3/t4-,6-,7-,10-/m1/s1;InChI=1S/C3H5O6P/c1-2(3(4)5)9-10(6,7)8/h1H2,(H,4,5)(H2,6,7,8)/p-3;InChI=1S/p+1;</t>
-  </si>
-  <si>
-    <t>MDYKCYYDSPVGRLELVSDGVSLTAVLFENQQDDGTREENTSLAIFKEATQWLDAYFKGDNPEITIPLKPTGSHFQQCVWNELRQIPYGTLTTYGAIAKKVGKLLDKPKMSAQAVGGAVGSNPLSIIVPCHRVVGKTGSLTGFGGTINNKIKLLELENIDMSKLYVPKHSTKP</t>
-  </si>
-  <si>
-    <t>InChI=1S/C10H14N5O7P/c11-10-13-8-7(9(17)14-10)12-3-15(8)6-1-4(16)5(22-6)2-21-23(18,19)20/h3-6,16H,1-2H2,(H2,18,19,20)(H3,11,13,14,17)/p-2/t4-,5+,6+/m0/s1;InChI=1S/C97H131N23O26S4/c1-11-50(8)80-94(142)103-40-75(126)107-67(42-121)90(138)116-70-45-149-150-46-71(93(141)112-63(32-54-22-16-13-17-23-54)87(135)115-66(97(145)146)34-56-37-99-59-25-19-18-24-58(56)59)117-95(143)78(48(4)5)120-96(144)79(49(6)7)119-82(130)52(10)105-85(133)61(33-55-26-28-57(122)29-27-55)106-74(125)39-102-84(132)68-43-147-148-44-69(91(139)110-60(30-47(2)3)83(131)101-41-77(128)118-80)108-73(124)36-65(114-88(136)64(35-72(98)123)113-92(70)140)89(137)111-62(31-53-20-14-12-15-21-53)86(134)104-51(9)81(129)100-38-76(127)109-68/h12-29,37,47-52,60-71,78-80,99,121-122H,11,30-36,38-46H2,1-10H3,(H2,98,123)(H,100,129)(H,101,131)(H,102,132)(H,103,142)(H,104,134)(H,105,133)(H,106,125)(H,107,126)(H,108,124)(H,109,127)(H,110,139)(H,111,137)(H,112,141)(H,113,140)(H,114,136)(H,115,135)(H,116,138)(H,117,143)(H,118,128)(H,119,130)(H,120,144)(H,145,146);</t>
-  </si>
-  <si>
-    <t>InChI=1S/C17H18ClNO3S/c1-13-7-9-15(10-8-13)23(21,22)19-16(17(20)12-18)11-14-5-3-2-4-6-14/h2-10,16,19H,11-12H2,1H3/t16-/m0/s1;InChI=1S/C10H14N5O7P/c11-10-13-8-7(9(17)14-10)12-3-15(8)6-1-4(16)5(22-6)2-21-23(18,19)20/h3-6,16H,1-2H2,(H2,18,19,20)(H3,11,13,14,17)/p-2/t4-,5+,6+/m0/s1;</t>
   </si>
 </sst>
 </file>
@@ -2063,10 +1991,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2074,32 +2002,32 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2151,10 +2079,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2162,1291 +2090,1291 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C110" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C118" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C121" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C122" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C123" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
         <v>135</v>
@@ -3457,7 +3385,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B132" t="s">
         <v>136</v>
@@ -3468,882 +3396,882 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C135" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C140" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C143" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="C146" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C147" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C149" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C150" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C151" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C152" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C153" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C154" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C157" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C158" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C159" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C160" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C162" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C163" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C164" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C165" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C166" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C167" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C168" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C169" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C170" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C171" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B172" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C173" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="B174" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C174" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="B175" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C175" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="B176" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C176" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="B177" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C178" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B179" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B180" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="B181" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="B182" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B183" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B184" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C184" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C185" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B186" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C186" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C187" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C188" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C189" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C190" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C191" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B192" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C192" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B193" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C193" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B194" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C194" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B195" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C195" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C196" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B197" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C197" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B198" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C198" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B199" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B200" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C200" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B201" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C201" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B202" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C202" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C203" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B204" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C204" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B205" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C205" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B206" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C206" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207" t="s">
         <v>222</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>223</v>
-      </c>
-      <c r="C207" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
+        <v>225</v>
+      </c>
+      <c r="B208" t="s">
+        <v>223</v>
+      </c>
+      <c r="C208" t="s">
         <v>222</v>
-      </c>
-      <c r="B208" t="s">
-        <v>224</v>
-      </c>
-      <c r="C208" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="B210" t="s">
+        <v>227</v>
+      </c>
+      <c r="C210" t="s">
         <v>226</v>
-      </c>
-      <c r="C210" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B211" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C211" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B212" t="s">
+        <v>127</v>
+      </c>
+      <c r="C212" t="s">
         <v>229</v>
-      </c>
-      <c r="C212" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4351,10 +4279,10 @@
         <v>230</v>
       </c>
       <c r="B213" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4362,315 +4290,315 @@
         <v>230</v>
       </c>
       <c r="B214" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="C214" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="B215" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="C215" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="B216" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C216" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B217" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C217" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B218" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C218" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B219" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C219" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B220" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C220" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B221" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C221" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B222" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C222" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B223" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C223" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B224" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="C224" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="B225" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C225" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="B226" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C226" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="B227" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C227" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="B228" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C228" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B229" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C229" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B230" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C230" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="B231" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C231" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="B232" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C232" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B233" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C233" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B234" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C234" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C235" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B236" t="s">
+        <v>258</v>
+      </c>
+      <c r="C236" t="s">
         <v>257</v>
-      </c>
-      <c r="C236" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>260</v>
+      </c>
+      <c r="B237" t="s">
+        <v>257</v>
+      </c>
+      <c r="C237" t="s">
         <v>258</v>
-      </c>
-      <c r="B237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C237" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>260</v>
+      </c>
+      <c r="B238" t="s">
         <v>258</v>
       </c>
-      <c r="B238" t="s">
-        <v>223</v>
-      </c>
       <c r="C238" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B239" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="C239" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C240" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B241" t="s">
         <v>261</v>
       </c>
       <c r="C241" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B242" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C242" t="s">
         <v>261</v>
@@ -4678,183 +4606,183 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>262</v>
+      </c>
+      <c r="B243" t="s">
         <v>263</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>264</v>
-      </c>
-      <c r="C243" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
+        <v>262</v>
+      </c>
+      <c r="B244" t="s">
+        <v>264</v>
+      </c>
+      <c r="C244" t="s">
         <v>263</v>
-      </c>
-      <c r="B244" t="s">
-        <v>265</v>
-      </c>
-      <c r="C244" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B245" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C245" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B246" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C246" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B247" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C247" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B248" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C248" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B249" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="C249" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B250" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C250" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B251" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C251" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C252" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C253" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B254" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C254" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B255" t="s">
+        <v>277</v>
+      </c>
+      <c r="C255" t="s">
         <v>278</v>
-      </c>
-      <c r="C255" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B256" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C256" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="B257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C257" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="B258" t="s">
+        <v>280</v>
+      </c>
+      <c r="C258" t="s">
         <v>279</v>
-      </c>
-      <c r="C258" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="B259" t="s">
         <v>282</v>
@@ -4865,7 +4793,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="B260" t="s">
         <v>283</v>
@@ -4876,10 +4804,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>139</v>
+      </c>
+      <c r="B261" t="s">
         <v>284</v>
-      </c>
-      <c r="B261" t="s">
-        <v>224</v>
       </c>
       <c r="C261" t="s">
         <v>285</v>
@@ -4887,13 +4815,13 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="B262" t="s">
         <v>285</v>
       </c>
       <c r="C262" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4901,7 +4829,7 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="C263" t="s">
         <v>285</v>
@@ -4915,7 +4843,7 @@
         <v>285</v>
       </c>
       <c r="C264" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4945,10 +4873,10 @@
         <v>290</v>
       </c>
       <c r="B267" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C267" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4956,54 +4884,54 @@
         <v>290</v>
       </c>
       <c r="B268" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C268" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>293</v>
+      </c>
+      <c r="B269" t="s">
         <v>291</v>
       </c>
-      <c r="B269" t="s">
-        <v>288</v>
-      </c>
       <c r="C269" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>293</v>
+      </c>
+      <c r="B270" t="s">
+        <v>292</v>
+      </c>
+      <c r="C270" t="s">
         <v>291</v>
-      </c>
-      <c r="B270" t="s">
-        <v>289</v>
-      </c>
-      <c r="C270" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>294</v>
+      </c>
+      <c r="B271" t="s">
+        <v>291</v>
+      </c>
+      <c r="C271" t="s">
         <v>292</v>
-      </c>
-      <c r="B271" t="s">
-        <v>293</v>
-      </c>
-      <c r="C271" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>294</v>
+      </c>
+      <c r="B272" t="s">
         <v>292</v>
       </c>
-      <c r="B272" t="s">
-        <v>294</v>
-      </c>
       <c r="C272" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5011,10 +4939,10 @@
         <v>295</v>
       </c>
       <c r="B273" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C273" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5022,216 +4950,216 @@
         <v>295</v>
       </c>
       <c r="B274" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C274" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>296</v>
+      </c>
+      <c r="B275" t="s">
+        <v>297</v>
+      </c>
+      <c r="C275" t="s">
         <v>298</v>
-      </c>
-      <c r="B275" t="s">
-        <v>299</v>
-      </c>
-      <c r="C275" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>296</v>
+      </c>
+      <c r="B276" t="s">
         <v>298</v>
       </c>
-      <c r="B276" t="s">
-        <v>300</v>
-      </c>
       <c r="C276" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
+        <v>299</v>
+      </c>
+      <c r="B277" t="s">
+        <v>300</v>
+      </c>
+      <c r="C277" t="s">
         <v>301</v>
-      </c>
-      <c r="B277" t="s">
-        <v>302</v>
-      </c>
-      <c r="C277" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>299</v>
+      </c>
+      <c r="B278" t="s">
         <v>301</v>
       </c>
-      <c r="B278" t="s">
-        <v>303</v>
-      </c>
       <c r="C278" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B279" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C279" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B280" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C280" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
+        <v>303</v>
+      </c>
+      <c r="B281" t="s">
+        <v>304</v>
+      </c>
+      <c r="C281" t="s">
         <v>305</v>
-      </c>
-      <c r="B281" t="s">
-        <v>306</v>
-      </c>
-      <c r="C281" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>303</v>
+      </c>
+      <c r="B282" t="s">
         <v>305</v>
       </c>
-      <c r="B282" t="s">
-        <v>307</v>
-      </c>
       <c r="C282" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
+        <v>306</v>
+      </c>
+      <c r="B283" t="s">
+        <v>307</v>
+      </c>
+      <c r="C283" t="s">
         <v>308</v>
-      </c>
-      <c r="B283" t="s">
-        <v>309</v>
-      </c>
-      <c r="C283" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>306</v>
+      </c>
+      <c r="B284" t="s">
         <v>308</v>
       </c>
-      <c r="B284" t="s">
-        <v>310</v>
-      </c>
       <c r="C284" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="B285" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C285" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="B286" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C286" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B287" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C287" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B288" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C288" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B289" t="s">
-        <v>128</v>
+        <v>315</v>
       </c>
       <c r="C289" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B290" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C290" t="s">
-        <v>128</v>
+        <v>315</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="B291" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C291" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="B292" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="C292" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="B293" t="s">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="C293" t="s">
         <v>318</v>
@@ -5239,238 +5167,238 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="B294" t="s">
         <v>318</v>
       </c>
       <c r="C294" t="s">
-        <v>128</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>319</v>
+      </c>
+      <c r="B295" t="s">
         <v>320</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>321</v>
-      </c>
-      <c r="C295" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
+        <v>319</v>
+      </c>
+      <c r="B296" t="s">
+        <v>321</v>
+      </c>
+      <c r="C296" t="s">
         <v>320</v>
-      </c>
-      <c r="B296" t="s">
-        <v>322</v>
-      </c>
-      <c r="C296" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B297" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="C297" t="s">
-        <v>325</v>
+        <v>127</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B298" t="s">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="C298" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B299" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="C299" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B300" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C300" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B301" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C301" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B302" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C302" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B303" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C303" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B304" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C304" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="B305" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C305" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="B306" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C306" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B307" t="s">
+        <v>334</v>
+      </c>
+      <c r="C307" t="s">
         <v>335</v>
-      </c>
-      <c r="C307" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B308" t="s">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c r="C308" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
+        <v>281</v>
+      </c>
+      <c r="B309" t="s">
         <v>336</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
         <v>337</v>
-      </c>
-      <c r="C309" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
+        <v>281</v>
+      </c>
+      <c r="B310" t="s">
+        <v>337</v>
+      </c>
+      <c r="C310" t="s">
         <v>336</v>
-      </c>
-      <c r="B310" t="s">
-        <v>338</v>
-      </c>
-      <c r="C310" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
+        <v>189</v>
+      </c>
+      <c r="B311" t="s">
+        <v>338</v>
+      </c>
+      <c r="C311" t="s">
         <v>339</v>
-      </c>
-      <c r="B311" t="s">
-        <v>340</v>
-      </c>
-      <c r="C311" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
+        <v>189</v>
+      </c>
+      <c r="B312" t="s">
         <v>339</v>
       </c>
-      <c r="B312" t="s">
-        <v>341</v>
-      </c>
       <c r="C312" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
+        <v>340</v>
+      </c>
+      <c r="B313" t="s">
+        <v>341</v>
+      </c>
+      <c r="C313" t="s">
         <v>342</v>
-      </c>
-      <c r="B313" t="s">
-        <v>343</v>
-      </c>
-      <c r="C313" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
+        <v>340</v>
+      </c>
+      <c r="B314" t="s">
         <v>342</v>
       </c>
-      <c r="B314" t="s">
-        <v>344</v>
-      </c>
       <c r="C314" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="B315" t="s">
         <v>343</v>
@@ -5481,7 +5409,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="B316" t="s">
         <v>344</v>
@@ -5492,7 +5420,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="B317" t="s">
         <v>346</v>
@@ -5503,7 +5431,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="B318" t="s">
         <v>347</v>
@@ -5514,684 +5442,684 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C319" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="B320" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C320" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>110</v>
+        <v>351</v>
       </c>
       <c r="B321" t="s">
-        <v>346</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>110</v>
+        <v>351</v>
       </c>
       <c r="B322" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>346</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B323" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B324" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B325" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C325" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B326" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C326" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B327" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C327" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B328" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C328" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B329" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C329" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B330" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C330" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>118</v>
+        <v>362</v>
       </c>
       <c r="B331" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C331" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>118</v>
+        <v>362</v>
       </c>
       <c r="B332" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C332" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>121</v>
+        <v>365</v>
       </c>
       <c r="B333" t="s">
-        <v>358</v>
+        <v>229</v>
       </c>
       <c r="C333" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>121</v>
+        <v>365</v>
       </c>
       <c r="B334" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C334" t="s">
-        <v>358</v>
+        <v>229</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="B335" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C335" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="B336" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C336" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B337" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C337" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B338" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C338" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>121</v>
+        <v>373</v>
       </c>
       <c r="B339" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C339" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>121</v>
+        <v>373</v>
       </c>
       <c r="B340" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C340" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B341" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C341" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B342" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C342" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>366</v>
+        <v>39</v>
       </c>
       <c r="B343" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C343" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>366</v>
+        <v>39</v>
       </c>
       <c r="B344" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C344" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B345" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B346" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C346" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B347" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B348" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C348" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B349" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C349" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B350" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C350" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>213</v>
+        <v>383</v>
       </c>
       <c r="B351" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C351" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>213</v>
+        <v>383</v>
       </c>
       <c r="B352" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C352" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B353" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C353" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B354" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C354" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B355" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C355" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B356" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C356" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="B357" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C357" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="B358" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C358" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="B359" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C359" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>286</v>
+        <v>390</v>
       </c>
       <c r="B360" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C360" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B361" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C361" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B362" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C362" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B363" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C363" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B364" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C364" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B365" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C365" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B366" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C366" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B367" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C367" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B368" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C368" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>44</v>
+        <v>403</v>
       </c>
       <c r="B369" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C369" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>44</v>
+        <v>403</v>
       </c>
       <c r="B370" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C370" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B371" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C371" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B372" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C372" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B373" t="s">
-        <v>138</v>
+        <v>404</v>
       </c>
       <c r="C373" t="s">
-        <v>31</v>
+        <v>405</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B374" t="s">
-        <v>31</v>
+        <v>405</v>
       </c>
       <c r="C374" t="s">
-        <v>138</v>
+        <v>404</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B375" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C375" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B376" t="s">
+        <v>405</v>
+      </c>
+      <c r="C376" t="s">
         <v>404</v>
-      </c>
-      <c r="C376" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
+        <v>409</v>
+      </c>
+      <c r="B377" t="s">
+        <v>404</v>
+      </c>
+      <c r="C377" t="s">
         <v>405</v>
-      </c>
-      <c r="B377" t="s">
-        <v>406</v>
-      </c>
-      <c r="C377" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
+        <v>409</v>
+      </c>
+      <c r="B378" t="s">
         <v>405</v>
       </c>
-      <c r="B378" t="s">
-        <v>407</v>
-      </c>
       <c r="C378" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B379" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C379" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B380" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C380" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6199,10 +6127,10 @@
         <v>411</v>
       </c>
       <c r="B381" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C381" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6210,1311 +6138,1311 @@
         <v>411</v>
       </c>
       <c r="B382" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C382" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>414</v>
-      </c>
-      <c r="B383"/>
+        <v>412</v>
+      </c>
+      <c r="B383" t="s">
+        <v>404</v>
+      </c>
       <c r="C383" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B384" t="s">
-        <v>415</v>
-      </c>
-      <c r="C384"/>
+        <v>405</v>
+      </c>
+      <c r="C384" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>416</v>
-      </c>
-      <c r="B385"/>
+        <v>413</v>
+      </c>
+      <c r="B385" t="s">
+        <v>404</v>
+      </c>
       <c r="C385" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B386" t="s">
-        <v>415</v>
-      </c>
-      <c r="C386"/>
+        <v>405</v>
+      </c>
+      <c r="C386" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="B387" t="s">
-        <v>149</v>
+        <v>404</v>
       </c>
       <c r="C387" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="B388" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C388" t="s">
-        <v>149</v>
+        <v>404</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B389" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C389" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B390" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C390" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B391" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C391" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B392" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C392" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B393" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C393" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B394" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C394" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B395" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C395" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B396" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C396" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B397" t="s">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="C397" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B398" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C398" t="s">
-        <v>70</v>
+        <v>420</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B399" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C399" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B400" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C400" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B401" t="s">
-        <v>432</v>
+        <v>220</v>
       </c>
       <c r="C401" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B402" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C402" t="s">
-        <v>432</v>
+        <v>220</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="B403" t="s">
-        <v>435</v>
+        <v>220</v>
       </c>
       <c r="C403" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="B404" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C404" t="s">
-        <v>435</v>
+        <v>220</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B405" t="s">
-        <v>435</v>
+        <v>220</v>
       </c>
       <c r="C405" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B406" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C406" t="s">
-        <v>435</v>
+        <v>220</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B407" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C407" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B408" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C408" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="B409" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C409" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="B410" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C410" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B411" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C411" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B412" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C412" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B413" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C413" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B414" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C414" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B415" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C415" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B416" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C416" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>447</v>
+        <v>55</v>
       </c>
       <c r="B417" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C417" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>447</v>
+        <v>55</v>
       </c>
       <c r="B418" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C418" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>266</v>
+        <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C419" t="s">
-        <v>451</v>
+        <v>329</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>266</v>
+        <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>451</v>
+        <v>329</v>
       </c>
       <c r="C420" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B421" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C421" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B422" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C422" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B423" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C423" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B424" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C424" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>222</v>
+        <v>450</v>
       </c>
       <c r="B425" t="s">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="C425" t="s">
-        <v>224</v>
+        <v>452</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>222</v>
+        <v>450</v>
       </c>
       <c r="B426" t="s">
-        <v>224</v>
+        <v>452</v>
       </c>
       <c r="C426" t="s">
-        <v>223</v>
+        <v>451</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B427" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C427" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B428" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C428" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>461</v>
+        <v>39</v>
       </c>
       <c r="B429" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C429" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>461</v>
+        <v>39</v>
       </c>
       <c r="B430" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C430" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="B431" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C431" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="B432" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C432" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>465</v>
+        <v>203</v>
       </c>
       <c r="B433" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C433" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>465</v>
+        <v>203</v>
       </c>
       <c r="B434" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C434" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B435" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C435" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B436" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C436" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B437" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C437" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B438" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C438" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>472</v>
+        <v>210</v>
       </c>
       <c r="B439" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C439" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>472</v>
+        <v>210</v>
       </c>
       <c r="B440" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C440" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>475</v>
+        <v>213</v>
       </c>
       <c r="B441" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C441" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>475</v>
+        <v>213</v>
       </c>
       <c r="B442" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C442" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="B443" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C443" t="s">
-        <v>82</v>
+        <v>463</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="B444" t="s">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="C444" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B445" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C445" t="s">
-        <v>82</v>
+        <v>466</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B446" t="s">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="C446" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>480</v>
+        <v>213</v>
       </c>
       <c r="B447" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C447" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>480</v>
+        <v>213</v>
       </c>
       <c r="B448" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C448" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B449" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C449" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B450" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C450" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B451" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C451" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B452" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C452" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B453" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C453" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B454" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C454" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B455" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C455" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B456" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C456" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B457" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C457" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B458" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C458" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
       <c r="B459" t="s">
-        <v>495</v>
+        <v>44</v>
       </c>
       <c r="C459" t="s">
-        <v>496</v>
+        <v>91</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
       <c r="B460" t="s">
-        <v>496</v>
+        <v>91</v>
       </c>
       <c r="C460" t="s">
-        <v>495</v>
+        <v>44</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B461" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C461" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B462" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C462" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="B463" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="C463" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="B464" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="C464" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="B465" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C465" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="B466" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C466" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>506</v>
+        <v>379</v>
       </c>
       <c r="B467" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C467" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>506</v>
+        <v>379</v>
       </c>
       <c r="B468" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C468" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B469" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="C469" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B470" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="C470" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="B471" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="C471" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="B472" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C472" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="B473" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C473" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="B474" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="C474" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>65</v>
+        <v>495</v>
       </c>
       <c r="B475" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C475" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>65</v>
+        <v>495</v>
       </c>
       <c r="B476" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="C476" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>461</v>
+        <v>138</v>
       </c>
       <c r="B477" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C477" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>461</v>
+        <v>138</v>
       </c>
       <c r="B478" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="C478" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>458</v>
+        <v>49</v>
       </c>
       <c r="B479" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="C479" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>458</v>
+        <v>49</v>
       </c>
       <c r="B480" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="C480" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B481" t="s">
-        <v>521</v>
+        <v>229</v>
       </c>
       <c r="C481" t="s">
-        <v>522</v>
+        <v>127</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B482" t="s">
-        <v>522</v>
+        <v>127</v>
       </c>
       <c r="C482" t="s">
-        <v>521</v>
+        <v>229</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B483" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C483" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B484" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C484" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="B485" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C485" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="B486" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="C486" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="B487" t="s">
-        <v>149</v>
+        <v>506</v>
       </c>
       <c r="C487" t="s">
-        <v>417</v>
+        <v>507</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="B488" t="s">
-        <v>417</v>
+        <v>507</v>
       </c>
       <c r="C488" t="s">
-        <v>149</v>
+        <v>506</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="B489" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C489" t="s">
-        <v>328</v>
+        <v>507</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="B490" t="s">
-        <v>328</v>
+        <v>507</v>
       </c>
       <c r="C490" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="B491" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C491" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="B492" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C492" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="B493" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="C493" t="s">
-        <v>273</v>
+        <v>513</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="B494" t="s">
-        <v>273</v>
+        <v>513</v>
       </c>
       <c r="C494" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B495" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="C495" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B496" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="C496" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>537</v>
-      </c>
-      <c r="B497" t="s">
-        <v>535</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="B497"/>
       <c r="C497" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="B498" t="s">
-        <v>536</v>
-      </c>
-      <c r="C498" t="s">
-        <v>535</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C498"/>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>538</v>
-      </c>
-      <c r="B499" t="s">
-        <v>539</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="B499"/>
       <c r="C499" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B500" t="s">
-        <v>540</v>
-      </c>
-      <c r="C500" t="s">
-        <v>539</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C500"/>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>541</v>
+        <v>239</v>
       </c>
       <c r="B501" t="s">
-        <v>542</v>
+        <v>240</v>
       </c>
       <c r="C501" t="s">
-        <v>543</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
